--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -1,35 +1,32 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC94F6-4F2E-104C-AF35-B5A6EC9E4059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="375" yWindow="465" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
     <sheet name="Threat Model" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="42">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
   <si>
     <t>Asset</t>
   </si>
@@ -292,9 +289,6 @@
     <t>Transaction Result</t>
   </si>
   <si>
-    <t>Check Transaction Result</t>
-  </si>
-  <si>
     <t>Secure Communication</t>
   </si>
   <si>
@@ -317,13 +311,94 @@
   </si>
   <si>
     <t>X</t>
+  </si>
+  <si>
+    <t>Shard's Address</t>
+  </si>
+  <si>
+    <t>2022/2023</t>
+  </si>
+  <si>
+    <t>1.000-5.000</t>
+  </si>
+  <si>
+    <t>20.000-50.000</t>
+  </si>
+  <si>
+    <t>30.000-80.000</t>
+  </si>
+  <si>
+    <t>500-1.000</t>
+  </si>
+  <si>
+    <t>10.000-30.000</t>
+  </si>
+  <si>
+    <t>80.000-100.000</t>
+  </si>
+  <si>
+    <t>5.000-10.000</t>
+  </si>
+  <si>
+    <t>70.000-90.000</t>
+  </si>
+  <si>
+    <t>80.000-90.000</t>
+  </si>
+  <si>
+    <t>AITM (94)</t>
+  </si>
+  <si>
+    <t>Interception (117)</t>
+  </si>
+  <si>
+    <t>Sniffing (157)</t>
+  </si>
+  <si>
+    <t>Identity Spoofing (151)</t>
+  </si>
+  <si>
+    <t>Use of known domain credentials (560)</t>
+  </si>
+  <si>
+    <t>DUBBI</t>
+  </si>
+  <si>
+    <t>Come funziona effettivamente l'autenticazione tramite wallet? È solo uno scambio di chiavi?</t>
+  </si>
+  <si>
+    <t>Authentication Abuse (114)</t>
+  </si>
+  <si>
+    <t>dobbiamo considerare anche questo o si suppone che l'utente protegga il suo wallet da solo?</t>
+  </si>
+  <si>
+    <t>Content Spoofing (148)</t>
+  </si>
+  <si>
+    <t>Privilege Escalation (233)</t>
+  </si>
+  <si>
+    <t>solo Chiara è d’accordo</t>
+  </si>
+  <si>
+    <t>Questa minaccia riguarda sia lo spoofing che il tampering, nell'analisi preliminare avevamo considerato solo il tampering.</t>
+  </si>
+  <si>
+    <t>Smart contract</t>
+  </si>
+  <si>
+    <t>Flooding (125)</t>
+  </si>
+  <si>
+    <t>Sustained Client Engagement</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="4">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -352,7 +427,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="6">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -383,8 +458,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -453,11 +540,35 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="51">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -489,17 +600,35 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -507,10 +636,10 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -528,37 +657,67 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -626,7 +785,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -678,7 +837,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -872,377 +1031,379 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M15" sqref="M15"/>
+      <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
-    <col min="3" max="11" width="6.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="3"/>
+    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
+    <col min="3" max="7" width="6.5" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="3" customWidth="1"/>
+    <col min="9" max="11" width="6.5" style="3" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="3"/>
     <col min="13" max="13" width="20" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="3"/>
+    <col min="18" max="18" width="10.83203125" style="3"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.875" style="3"/>
+    <col min="22" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" ht="21">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="21">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="29" t="s">
+      <c r="C2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-    </row>
-    <row r="3" spans="1:21" s="12" customFormat="1" ht="21">
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+    </row>
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="5" spans="1:21" ht="21">
-      <c r="A5" s="17" t="s">
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="5" spans="1:21" ht="22" x14ac:dyDescent="0.2">
+      <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="18" t="s">
+      <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="24" t="s">
+      <c r="C5" s="37" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="25"/>
-      <c r="I5" s="22" t="s">
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="38"/>
+      <c r="I5" s="28" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="23"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="J5" s="29"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="21"/>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20"/>
-      <c r="F6" s="20"/>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20"/>
-      <c r="I6" s="19"/>
-      <c r="J6" s="20"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="C6" s="27"/>
+      <c r="D6" s="26"/>
+      <c r="E6" s="26"/>
+      <c r="F6" s="26"/>
+      <c r="G6" s="26"/>
+      <c r="H6" s="26"/>
+      <c r="I6" s="25"/>
+      <c r="J6" s="26"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="21"/>
-      <c r="D7" s="20"/>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="19"/>
-      <c r="J7" s="20"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="C7" s="27"/>
+      <c r="D7" s="26"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="26"/>
+      <c r="G7" s="26"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="26"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="21"/>
-      <c r="D8" s="20"/>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20"/>
-      <c r="H8" s="20"/>
-      <c r="I8" s="19"/>
-      <c r="J8" s="20"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="C8" s="27"/>
+      <c r="D8" s="26"/>
+      <c r="E8" s="26"/>
+      <c r="F8" s="26"/>
+      <c r="G8" s="26"/>
+      <c r="H8" s="26"/>
+      <c r="I8" s="25"/>
+      <c r="J8" s="26"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="21"/>
-      <c r="D9" s="20"/>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20"/>
-      <c r="H9" s="20"/>
-      <c r="I9" s="19"/>
-      <c r="J9" s="20"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="C9" s="27"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="26"/>
+      <c r="F9" s="26"/>
+      <c r="G9" s="26"/>
+      <c r="H9" s="26"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="26"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="21"/>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20"/>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="19"/>
-      <c r="J10" s="20"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="C10" s="27"/>
+      <c r="D10" s="26"/>
+      <c r="E10" s="26"/>
+      <c r="F10" s="26"/>
+      <c r="G10" s="26"/>
+      <c r="H10" s="26"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="26"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="21"/>
-      <c r="D11" s="20"/>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20"/>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="19"/>
-      <c r="J11" s="20"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="C11" s="27"/>
+      <c r="D11" s="26"/>
+      <c r="E11" s="26"/>
+      <c r="F11" s="26"/>
+      <c r="G11" s="26"/>
+      <c r="H11" s="26"/>
+      <c r="I11" s="25"/>
+      <c r="J11" s="26"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="21"/>
-      <c r="D12" s="20"/>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20"/>
-      <c r="H12" s="20"/>
-      <c r="I12" s="19"/>
-      <c r="J12" s="20"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="C12" s="27"/>
+      <c r="D12" s="26"/>
+      <c r="E12" s="26"/>
+      <c r="F12" s="26"/>
+      <c r="G12" s="26"/>
+      <c r="H12" s="26"/>
+      <c r="I12" s="25"/>
+      <c r="J12" s="26"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="21"/>
-      <c r="D13" s="20"/>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="19"/>
-      <c r="J13" s="20"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="C13" s="27"/>
+      <c r="D13" s="26"/>
+      <c r="E13" s="26"/>
+      <c r="F13" s="26"/>
+      <c r="G13" s="26"/>
+      <c r="H13" s="26"/>
+      <c r="I13" s="25"/>
+      <c r="J13" s="26"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="21"/>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20"/>
-      <c r="H14" s="20"/>
-      <c r="I14" s="19"/>
-      <c r="J14" s="20"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="C14" s="27"/>
+      <c r="D14" s="26"/>
+      <c r="E14" s="26"/>
+      <c r="F14" s="26"/>
+      <c r="G14" s="26"/>
+      <c r="H14" s="26"/>
+      <c r="I14" s="25"/>
+      <c r="J14" s="26"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="21"/>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20"/>
-      <c r="I15" s="19"/>
-      <c r="J15" s="20"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="C15" s="27"/>
+      <c r="D15" s="26"/>
+      <c r="E15" s="26"/>
+      <c r="F15" s="26"/>
+      <c r="G15" s="26"/>
+      <c r="H15" s="26"/>
+      <c r="I15" s="25"/>
+      <c r="J15" s="26"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="21"/>
-      <c r="D16" s="20"/>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20"/>
-      <c r="H16" s="20"/>
-      <c r="I16" s="19"/>
-      <c r="J16" s="20"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="C16" s="27"/>
+      <c r="D16" s="26"/>
+      <c r="E16" s="26"/>
+      <c r="F16" s="26"/>
+      <c r="G16" s="26"/>
+      <c r="H16" s="26"/>
+      <c r="I16" s="25"/>
+      <c r="J16" s="26"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="21"/>
-      <c r="D17" s="20"/>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20"/>
-      <c r="H17" s="20"/>
-      <c r="I17" s="19"/>
-      <c r="J17" s="20"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="C17" s="27"/>
+      <c r="D17" s="26"/>
+      <c r="E17" s="26"/>
+      <c r="F17" s="26"/>
+      <c r="G17" s="26"/>
+      <c r="H17" s="26"/>
+      <c r="I17" s="25"/>
+      <c r="J17" s="26"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="21"/>
-      <c r="D18" s="20"/>
-      <c r="E18" s="20"/>
-      <c r="F18" s="20"/>
-      <c r="G18" s="20"/>
-      <c r="H18" s="20"/>
-      <c r="I18" s="19"/>
-      <c r="J18" s="20"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="C18" s="27"/>
+      <c r="D18" s="26"/>
+      <c r="E18" s="26"/>
+      <c r="F18" s="26"/>
+      <c r="G18" s="26"/>
+      <c r="H18" s="26"/>
+      <c r="I18" s="25"/>
+      <c r="J18" s="26"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="21"/>
-      <c r="D19" s="20"/>
-      <c r="E19" s="20"/>
-      <c r="F19" s="20"/>
-      <c r="G19" s="20"/>
-      <c r="H19" s="20"/>
-      <c r="I19" s="19"/>
-      <c r="J19" s="20"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="C19" s="27"/>
+      <c r="D19" s="26"/>
+      <c r="E19" s="26"/>
+      <c r="F19" s="26"/>
+      <c r="G19" s="26"/>
+      <c r="H19" s="26"/>
+      <c r="I19" s="25"/>
+      <c r="J19" s="26"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="21"/>
-      <c r="D20" s="20"/>
-      <c r="E20" s="20"/>
-      <c r="F20" s="20"/>
-      <c r="G20" s="20"/>
-      <c r="H20" s="20"/>
-      <c r="I20" s="19"/>
-      <c r="J20" s="20"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="C20" s="27"/>
+      <c r="D20" s="26"/>
+      <c r="E20" s="26"/>
+      <c r="F20" s="26"/>
+      <c r="G20" s="26"/>
+      <c r="H20" s="26"/>
+      <c r="I20" s="25"/>
+      <c r="J20" s="26"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="21"/>
-      <c r="D21" s="20"/>
-      <c r="E21" s="20"/>
-      <c r="F21" s="20"/>
-      <c r="G21" s="20"/>
-      <c r="H21" s="20"/>
-      <c r="I21" s="19"/>
-      <c r="J21" s="20"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="C21" s="27"/>
+      <c r="D21" s="26"/>
+      <c r="E21" s="26"/>
+      <c r="F21" s="26"/>
+      <c r="G21" s="26"/>
+      <c r="H21" s="26"/>
+      <c r="I21" s="25"/>
+      <c r="J21" s="26"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="21"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="19"/>
-      <c r="J22" s="20"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="C22" s="27"/>
+      <c r="D22" s="26"/>
+      <c r="E22" s="26"/>
+      <c r="F22" s="26"/>
+      <c r="G22" s="26"/>
+      <c r="H22" s="26"/>
+      <c r="I22" s="25"/>
+      <c r="J22" s="26"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="19"/>
-      <c r="J23" s="20"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="C23" s="27"/>
+      <c r="D23" s="26"/>
+      <c r="E23" s="26"/>
+      <c r="F23" s="26"/>
+      <c r="G23" s="26"/>
+      <c r="H23" s="26"/>
+      <c r="I23" s="25"/>
+      <c r="J23" s="26"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="21"/>
-      <c r="D24" s="20"/>
-      <c r="E24" s="20"/>
-      <c r="F24" s="20"/>
-      <c r="G24" s="20"/>
-      <c r="H24" s="20"/>
-      <c r="I24" s="19"/>
-      <c r="J24" s="20"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="C24" s="27"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="21"/>
-      <c r="D25" s="20"/>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="19"/>
-      <c r="J25" s="20"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="26"/>
     </row>
   </sheetData>
   <mergeCells count="51">
@@ -1303,112 +1464,115 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:U26"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
-      <selection activeCell="F10" sqref="F10"/>
+    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="G61" sqref="G61"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="2"/>
-    <col min="13" max="13" width="20" style="3" customWidth="1"/>
+    <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
+    <col min="3" max="11" width="6.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.83203125" style="2"/>
+    <col min="13" max="13" width="35.6640625" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
     <col min="18" max="18" width="20" style="3" customWidth="1"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.875" style="3"/>
+    <col min="22" max="22" width="68.33203125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="12" customFormat="1" ht="21">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="26"/>
-      <c r="C1" s="26"/>
-      <c r="D1" s="26"/>
-      <c r="E1" s="26"/>
-      <c r="F1" s="26"/>
-      <c r="G1" s="27"/>
-      <c r="H1" s="27"/>
-      <c r="I1" s="27"/>
-      <c r="J1" s="27"/>
-      <c r="K1" s="27"/>
-      <c r="L1" s="27"/>
-      <c r="M1" s="27"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-    </row>
-    <row r="2" spans="1:21" s="12" customFormat="1" ht="21">
+      <c r="B1" s="30"/>
+      <c r="C1" s="30"/>
+      <c r="D1" s="30"/>
+      <c r="E1" s="30"/>
+      <c r="F1" s="30"/>
+      <c r="G1" s="31"/>
+      <c r="H1" s="31"/>
+      <c r="I1" s="31"/>
+      <c r="J1" s="31"/>
+      <c r="K1" s="31"/>
+      <c r="L1" s="31"/>
+      <c r="M1" s="31"/>
+      <c r="N1" s="32"/>
+      <c r="O1" s="32"/>
+      <c r="P1" s="32"/>
+      <c r="Q1" s="32"/>
+      <c r="R1" s="32"/>
+      <c r="S1" s="32"/>
+      <c r="T1" s="32"/>
+      <c r="U1" s="32"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="4"/>
-      <c r="C2" s="29" t="s">
+      <c r="B2" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="C2" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="29"/>
-      <c r="E2" s="30"/>
-      <c r="F2" s="30"/>
-      <c r="G2" s="29" t="s">
+      <c r="D2" s="33"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="30"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-    </row>
-    <row r="3" spans="1:21" s="12" customFormat="1" ht="21">
+      <c r="H2" s="35"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="36"/>
+      <c r="K2" s="36"/>
+      <c r="L2" s="36"/>
+      <c r="M2" s="36"/>
+      <c r="N2" s="32"/>
+      <c r="O2" s="32"/>
+      <c r="P2" s="32"/>
+      <c r="Q2" s="32"/>
+      <c r="R2" s="32"/>
+      <c r="S2" s="32"/>
+      <c r="T2" s="32"/>
+      <c r="U2" s="32"/>
+    </row>
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="29" t="s">
+      <c r="C3" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="29"/>
-      <c r="E3" s="30"/>
-      <c r="F3" s="30"/>
-      <c r="G3" s="29" t="s">
+      <c r="D3" s="33"/>
+      <c r="E3" s="34"/>
+      <c r="F3" s="34"/>
+      <c r="G3" s="33" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="29"/>
-      <c r="I3" s="30"/>
-      <c r="J3" s="30"/>
-      <c r="K3" s="13"/>
-      <c r="L3" s="13"/>
-      <c r="M3" s="14"/>
-      <c r="N3" s="14"/>
-      <c r="O3" s="14"/>
-      <c r="P3" s="14"/>
-      <c r="Q3" s="14"/>
-      <c r="R3" s="14"/>
-      <c r="S3" s="14"/>
-      <c r="T3" s="14"/>
-      <c r="U3" s="14"/>
-    </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" ht="95.25" customHeight="1">
+      <c r="H3" s="33"/>
+      <c r="I3" s="34"/>
+      <c r="J3" s="34"/>
+      <c r="K3" s="12"/>
+      <c r="L3" s="12"/>
+      <c r="M3" s="13"/>
+      <c r="N3" s="13"/>
+      <c r="O3" s="13"/>
+      <c r="P3" s="13"/>
+      <c r="Q3" s="13"/>
+      <c r="R3" s="13"/>
+      <c r="S3" s="13"/>
+      <c r="T3" s="13"/>
+      <c r="U3" s="13"/>
+    </row>
+    <row r="5" spans="1:21" s="5" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1473,28 +1637,30 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A6" s="33" t="s">
+    <row r="6" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="19" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="34"/>
-      <c r="C6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D6" s="34"/>
-      <c r="E6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="F6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G6" s="34"/>
-      <c r="H6" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I6" s="34"/>
-      <c r="J6" s="34"/>
-      <c r="K6" s="34"/>
+      <c r="B6" s="23" t="s">
+        <v>44</v>
+      </c>
+      <c r="C6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="20"/>
+      <c r="E6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="20"/>
+      <c r="H6" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="20"/>
+      <c r="J6" s="20"/>
+      <c r="K6" s="20"/>
       <c r="L6" s="10"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1506,22 +1672,24 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A7" s="33" t="s">
+    <row r="7" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="34"/>
-      <c r="C7" s="34"/>
-      <c r="D7" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E7" s="34"/>
-      <c r="F7" s="34"/>
-      <c r="G7" s="34"/>
-      <c r="H7" s="34"/>
-      <c r="I7" s="34"/>
-      <c r="J7" s="34"/>
-      <c r="K7" s="34"/>
+      <c r="B7" s="24" t="s">
+        <v>43</v>
+      </c>
+      <c r="C7" s="20"/>
+      <c r="D7" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="20"/>
+      <c r="F7" s="20"/>
+      <c r="G7" s="20"/>
+      <c r="H7" s="20"/>
+      <c r="I7" s="20"/>
+      <c r="J7" s="20"/>
+      <c r="K7" s="20"/>
       <c r="L7" s="10"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1533,26 +1701,28 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A8" s="33" t="s">
+    <row r="8" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="34"/>
-      <c r="C8" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D8" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E8" s="34"/>
-      <c r="F8" s="34"/>
-      <c r="G8" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H8" s="34"/>
-      <c r="I8" s="34"/>
-      <c r="J8" s="34"/>
-      <c r="K8" s="34"/>
+      <c r="B8" s="20" t="s">
+        <v>45</v>
+      </c>
+      <c r="C8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="20"/>
+      <c r="F8" s="20"/>
+      <c r="G8" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="20"/>
+      <c r="I8" s="20"/>
+      <c r="J8" s="20"/>
+      <c r="K8" s="20"/>
       <c r="L8" s="10"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1564,28 +1734,30 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A9" s="33" t="s">
+    <row r="9" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="19" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="34"/>
-      <c r="C9" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D9" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E9" s="34"/>
-      <c r="F9" s="34"/>
-      <c r="G9" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H9" s="34"/>
-      <c r="I9" s="34"/>
-      <c r="J9" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K9" s="34"/>
+      <c r="B9" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="20"/>
+      <c r="F9" s="20"/>
+      <c r="G9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="20"/>
+      <c r="I9" s="20"/>
+      <c r="J9" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="20"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1597,55 +1769,59 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" s="11" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A10" s="33" t="s">
+    <row r="10" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="19" t="s">
+        <v>39</v>
+      </c>
+      <c r="B10" s="20" t="s">
+        <v>47</v>
+      </c>
+      <c r="C10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="20"/>
+      <c r="E10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="20"/>
+      <c r="G10" s="20"/>
+      <c r="H10" s="20"/>
+      <c r="I10" s="20"/>
+      <c r="J10" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="20"/>
+      <c r="L10" s="10"/>
+      <c r="M10" s="9"/>
+      <c r="N10" s="9"/>
+      <c r="O10" s="9"/>
+      <c r="P10" s="9"/>
+      <c r="Q10" s="9"/>
+      <c r="R10" s="9"/>
+      <c r="S10" s="9"/>
+      <c r="T10" s="9"/>
+      <c r="U10" s="9"/>
+    </row>
+    <row r="11" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
-      <c r="B10" s="34"/>
-      <c r="C10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D10" s="34"/>
-      <c r="E10" s="34"/>
-      <c r="F10" s="34"/>
-      <c r="G10" s="34"/>
-      <c r="H10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I10" s="34"/>
-      <c r="J10" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K10" s="34"/>
-      <c r="L10" s="16"/>
-      <c r="M10" s="15"/>
-      <c r="N10" s="15"/>
-      <c r="O10" s="15"/>
-      <c r="P10" s="15"/>
-      <c r="Q10" s="15"/>
-      <c r="R10" s="15"/>
-      <c r="S10" s="15"/>
-      <c r="T10" s="15"/>
-      <c r="U10" s="15"/>
-    </row>
-    <row r="11" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A11" s="33" t="s">
-        <v>40</v>
-      </c>
-      <c r="B11" s="34"/>
-      <c r="C11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D11" s="34"/>
-      <c r="E11" s="34"/>
-      <c r="F11" s="34"/>
-      <c r="G11" s="34"/>
-      <c r="H11" s="34"/>
-      <c r="I11" s="34"/>
-      <c r="J11" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K11" s="34"/>
+      <c r="B11" s="24" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" s="20"/>
+      <c r="D11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="20"/>
+      <c r="F11" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="20"/>
+      <c r="H11" s="20"/>
+      <c r="I11" s="20"/>
+      <c r="J11" s="20"/>
+      <c r="K11" s="20"/>
       <c r="L11" s="10"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1657,24 +1833,28 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A12" s="33" t="s">
+    <row r="12" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="34"/>
-      <c r="C12" s="34"/>
-      <c r="D12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E12" s="34"/>
-      <c r="F12" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="G12" s="34"/>
-      <c r="H12" s="34"/>
-      <c r="I12" s="34"/>
-      <c r="J12" s="34"/>
-      <c r="K12" s="34"/>
+      <c r="B12" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="20"/>
+      <c r="F12" s="20"/>
+      <c r="G12" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="20"/>
+      <c r="I12" s="20"/>
+      <c r="J12" s="20"/>
+      <c r="K12" s="20"/>
       <c r="L12" s="10"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1686,28 +1866,24 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A13" s="33" t="s">
+    <row r="13" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="34"/>
-      <c r="C13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E13" s="34"/>
-      <c r="F13" s="34"/>
-      <c r="G13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H13" s="34"/>
-      <c r="I13" s="34"/>
-      <c r="J13" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K13" s="34"/>
+      <c r="B13" s="20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" s="20"/>
+      <c r="D13" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="20"/>
+      <c r="F13" s="20"/>
+      <c r="G13" s="20"/>
+      <c r="H13" s="20"/>
+      <c r="I13" s="20"/>
+      <c r="J13" s="20"/>
+      <c r="K13" s="20"/>
       <c r="L13" s="10"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1719,24 +1895,28 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A14" s="33" t="s">
+    <row r="14" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="34"/>
-      <c r="C14" s="34"/>
-      <c r="D14" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E14" s="34"/>
-      <c r="F14" s="34"/>
-      <c r="G14" s="34"/>
-      <c r="H14" s="34"/>
-      <c r="I14" s="34"/>
-      <c r="J14" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K14" s="34"/>
+      <c r="B14" s="20" t="s">
+        <v>44</v>
+      </c>
+      <c r="C14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="20"/>
+      <c r="E14" s="20"/>
+      <c r="F14" s="20"/>
+      <c r="G14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="20"/>
+      <c r="I14" s="20"/>
+      <c r="J14" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="20"/>
       <c r="L14" s="10"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1748,26 +1928,26 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A15" s="33" t="s">
+    <row r="15" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="34"/>
-      <c r="C15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D15" s="34"/>
-      <c r="E15" s="34"/>
-      <c r="F15" s="34"/>
-      <c r="G15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H15" s="34"/>
-      <c r="I15" s="34"/>
-      <c r="J15" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="K15" s="34"/>
+      <c r="B15" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="20"/>
+      <c r="E15" s="20"/>
+      <c r="F15" s="20"/>
+      <c r="G15" s="20"/>
+      <c r="H15" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="20"/>
+      <c r="J15" s="20"/>
+      <c r="K15" s="20"/>
       <c r="L15" s="10"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1779,24 +1959,28 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A16" s="33" t="s">
+    <row r="16" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="34"/>
-      <c r="C16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="D16" s="34"/>
-      <c r="E16" s="34"/>
-      <c r="F16" s="34"/>
-      <c r="G16" s="34"/>
-      <c r="H16" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="I16" s="34"/>
-      <c r="J16" s="34"/>
-      <c r="K16" s="34"/>
+      <c r="B16" s="20" t="s">
+        <v>51</v>
+      </c>
+      <c r="C16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="20"/>
+      <c r="F16" s="20"/>
+      <c r="G16" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="20"/>
+      <c r="I16" s="20"/>
+      <c r="J16" s="20"/>
+      <c r="K16" s="20"/>
       <c r="L16" s="10"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1808,38 +1992,40 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A17" s="33" t="s">
-        <v>39</v>
-      </c>
-      <c r="B17" s="34"/>
-      <c r="C17" s="34" t="s">
+    <row r="17" spans="1:22" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="D17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="E17" s="34"/>
-      <c r="F17" s="34"/>
-      <c r="G17" s="34" t="s">
-        <v>41</v>
-      </c>
-      <c r="H17" s="34"/>
-      <c r="I17" s="34"/>
-      <c r="J17" s="34"/>
-      <c r="K17" s="34"/>
-      <c r="L17" s="10"/>
-      <c r="M17" s="9"/>
-      <c r="N17" s="9"/>
-      <c r="O17" s="9"/>
-      <c r="P17" s="9"/>
-      <c r="Q17" s="9"/>
-      <c r="R17" s="9"/>
-      <c r="S17" s="9"/>
-      <c r="T17" s="9"/>
-      <c r="U17" s="9"/>
-    </row>
-    <row r="18" spans="1:21">
+      <c r="B17" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="20"/>
+      <c r="F17" s="20"/>
+      <c r="G17" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="20"/>
+      <c r="I17" s="20"/>
+      <c r="J17" s="20"/>
+      <c r="K17" s="20"/>
+      <c r="L17" s="16"/>
+      <c r="M17" s="17"/>
+      <c r="N17" s="17"/>
+      <c r="O17" s="17"/>
+      <c r="P17" s="17"/>
+      <c r="Q17" s="17"/>
+      <c r="R17" s="17"/>
+      <c r="S17" s="17"/>
+      <c r="T17" s="17"/>
+      <c r="U17" s="17"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -1862,7 +2048,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:21">
+    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -1885,7 +2071,7 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:21">
+    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -1908,7 +2094,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:21">
+    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -1931,7 +2117,7 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:21">
+    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -1954,7 +2140,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:21">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -1977,7 +2163,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:21">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2000,7 +2186,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:21">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2023,31 +2209,669 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="26" spans="1:21">
-      <c r="A26" s="9"/>
-      <c r="B26" s="10"/>
-      <c r="C26" s="10"/>
-      <c r="D26" s="10"/>
-      <c r="E26" s="10"/>
-      <c r="F26" s="10"/>
-      <c r="G26" s="10"/>
-      <c r="H26" s="10"/>
-      <c r="I26" s="10"/>
-      <c r="J26" s="10"/>
-      <c r="K26" s="10"/>
-      <c r="L26" s="10"/>
-      <c r="M26" s="9"/>
-      <c r="N26" s="9"/>
-      <c r="O26" s="9"/>
-      <c r="P26" s="9"/>
-      <c r="Q26" s="9"/>
-      <c r="R26" s="9"/>
-      <c r="S26" s="9"/>
-      <c r="T26" s="9"/>
-      <c r="U26" s="9"/>
+    <row r="31" spans="1:22" ht="156" x14ac:dyDescent="0.2">
+      <c r="A31" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="B31" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31" s="8" t="s">
+        <v>8</v>
+      </c>
+      <c r="D31" s="8" t="s">
+        <v>9</v>
+      </c>
+      <c r="E31" s="8" t="s">
+        <v>10</v>
+      </c>
+      <c r="F31" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="G31" s="8" t="s">
+        <v>12</v>
+      </c>
+      <c r="H31" s="8" t="s">
+        <v>13</v>
+      </c>
+      <c r="I31" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="J31" s="8" t="s">
+        <v>15</v>
+      </c>
+      <c r="K31" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L31" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="M31" s="6" t="s">
+        <v>17</v>
+      </c>
+      <c r="N31" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="O31" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="P31" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="Q31" s="6" t="s">
+        <v>19</v>
+      </c>
+      <c r="R31" s="6" t="s">
+        <v>24</v>
+      </c>
+      <c r="S31" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="T31" s="8" t="s">
+        <v>25</v>
+      </c>
+      <c r="U31" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="V31" s="3" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" ht="56" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="39" t="s">
+        <v>33</v>
+      </c>
+      <c r="B32" s="23"/>
+      <c r="C32" s="20"/>
+      <c r="D32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E32" s="20"/>
+      <c r="F32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G32" s="20"/>
+      <c r="H32" s="20"/>
+      <c r="I32" s="20"/>
+      <c r="J32" s="20"/>
+      <c r="K32" s="20"/>
+      <c r="L32" s="16"/>
+      <c r="M32" s="17" t="s">
+        <v>52</v>
+      </c>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
+    </row>
+    <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A33" s="40"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="20"/>
+      <c r="D33" s="20"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="20"/>
+      <c r="H33" s="20"/>
+      <c r="I33" s="20"/>
+      <c r="J33" s="20"/>
+      <c r="K33" s="20"/>
+      <c r="L33" s="16"/>
+      <c r="M33" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17"/>
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
+    </row>
+    <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A34" s="40"/>
+      <c r="B34" s="20"/>
+      <c r="C34" s="20"/>
+      <c r="D34" s="20"/>
+      <c r="E34" s="20"/>
+      <c r="F34" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="20"/>
+      <c r="H34" s="20"/>
+      <c r="I34" s="20"/>
+      <c r="J34" s="20"/>
+      <c r="K34" s="20"/>
+      <c r="L34" s="16"/>
+      <c r="M34" s="17" t="s">
+        <v>54</v>
+      </c>
+      <c r="N34" s="17"/>
+      <c r="O34" s="17"/>
+      <c r="P34" s="17"/>
+      <c r="Q34" s="17"/>
+      <c r="R34" s="17"/>
+      <c r="S34" s="17"/>
+      <c r="T34" s="17"/>
+      <c r="U34" s="17"/>
+    </row>
+    <row r="35" spans="1:22" s="45" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="41"/>
+      <c r="B35" s="42"/>
+      <c r="C35" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="D35" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E35" s="42"/>
+      <c r="F35" s="42"/>
+      <c r="G35" s="42"/>
+      <c r="H35" s="42"/>
+      <c r="I35" s="42"/>
+      <c r="J35" s="42"/>
+      <c r="K35" s="42"/>
+      <c r="L35" s="43"/>
+      <c r="M35" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="N35" s="44"/>
+      <c r="O35" s="44"/>
+      <c r="P35" s="44"/>
+      <c r="Q35" s="44"/>
+      <c r="R35" s="44"/>
+      <c r="S35" s="44"/>
+      <c r="T35" s="44"/>
+      <c r="U35" s="44"/>
+      <c r="V35" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A36" s="39" t="s">
+        <v>29</v>
+      </c>
+      <c r="B36" s="20"/>
+      <c r="C36" s="20"/>
+      <c r="D36" s="20"/>
+      <c r="E36" s="20"/>
+      <c r="F36" s="20"/>
+      <c r="G36" s="20"/>
+      <c r="H36" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="I36" s="20"/>
+      <c r="J36" s="20"/>
+      <c r="K36" s="20"/>
+      <c r="L36" s="16"/>
+      <c r="M36" s="17" t="s">
+        <v>55</v>
+      </c>
+      <c r="N36" s="17"/>
+      <c r="O36" s="17"/>
+      <c r="P36" s="17"/>
+      <c r="Q36" s="17"/>
+      <c r="R36" s="17"/>
+      <c r="S36" s="17"/>
+      <c r="T36" s="17"/>
+      <c r="U36" s="17"/>
+    </row>
+    <row r="37" spans="1:22" s="45" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="40"/>
+      <c r="B37" s="42"/>
+      <c r="C37" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D37" s="42"/>
+      <c r="E37" s="42"/>
+      <c r="F37" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G37" s="42"/>
+      <c r="H37" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="42"/>
+      <c r="J37" s="42"/>
+      <c r="K37" s="42"/>
+      <c r="L37" s="43"/>
+      <c r="M37" s="44" t="s">
+        <v>56</v>
+      </c>
+      <c r="N37" s="44"/>
+      <c r="O37" s="44"/>
+      <c r="P37" s="44"/>
+      <c r="Q37" s="44"/>
+      <c r="R37" s="44"/>
+      <c r="S37" s="44"/>
+      <c r="T37" s="44"/>
+      <c r="U37" s="44"/>
+      <c r="V37" s="45" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A38" s="40"/>
+      <c r="B38" s="46"/>
+      <c r="C38" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="42"/>
+      <c r="E38" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F38" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="G38" s="42"/>
+      <c r="H38" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I38" s="42"/>
+      <c r="J38" s="42"/>
+      <c r="K38" s="42"/>
+      <c r="L38" s="43"/>
+      <c r="M38" s="45" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="44"/>
+      <c r="O38" s="44"/>
+      <c r="P38" s="44"/>
+      <c r="Q38" s="44"/>
+      <c r="R38" s="44"/>
+      <c r="S38" s="44"/>
+      <c r="T38" s="44"/>
+      <c r="U38" s="44"/>
+      <c r="V38" s="45" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
+      <c r="A39" s="41"/>
+      <c r="B39" s="46"/>
+      <c r="C39" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="42"/>
+      <c r="E39" s="42"/>
+      <c r="F39" s="42"/>
+      <c r="G39" s="42"/>
+      <c r="H39" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="I39" s="42"/>
+      <c r="J39" s="42"/>
+      <c r="K39" s="42"/>
+      <c r="L39" s="43"/>
+      <c r="M39" s="44" t="s">
+        <v>62</v>
+      </c>
+      <c r="N39" s="44"/>
+      <c r="O39" s="44"/>
+      <c r="P39" s="44"/>
+      <c r="Q39" s="44"/>
+      <c r="R39" s="44"/>
+      <c r="S39" s="44"/>
+      <c r="T39" s="44"/>
+      <c r="U39" s="44"/>
+      <c r="V39" s="45" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
+      <c r="A40" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40" s="46"/>
+      <c r="C40" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="42" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="42"/>
+      <c r="F40" s="42"/>
+      <c r="G40" s="42"/>
+      <c r="H40" s="42"/>
+      <c r="I40" s="42"/>
+      <c r="J40" s="42"/>
+      <c r="K40" s="42"/>
+      <c r="L40" s="43"/>
+      <c r="M40" s="44" t="s">
+        <v>61</v>
+      </c>
+      <c r="N40" s="44"/>
+      <c r="O40" s="44"/>
+      <c r="P40" s="44"/>
+      <c r="Q40" s="44"/>
+      <c r="R40" s="44"/>
+      <c r="S40" s="44"/>
+      <c r="T40" s="44"/>
+      <c r="U40" s="44"/>
+      <c r="V40" s="45" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A41" s="19" t="s">
+        <v>31</v>
+      </c>
+      <c r="B41" s="24"/>
+      <c r="C41" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="20"/>
+      <c r="F41" s="20"/>
+      <c r="G41" s="20"/>
+      <c r="H41" s="20"/>
+      <c r="I41" s="20"/>
+      <c r="J41" s="20"/>
+      <c r="K41" s="20"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N41" s="21"/>
+      <c r="O41" s="21"/>
+      <c r="P41" s="21"/>
+      <c r="Q41" s="21"/>
+      <c r="R41" s="21"/>
+      <c r="S41" s="21"/>
+      <c r="T41" s="21"/>
+      <c r="U41" s="21"/>
+    </row>
+    <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A42" s="19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B42" s="24"/>
+      <c r="C42" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E42" s="20"/>
+      <c r="F42" s="20"/>
+      <c r="G42" s="20"/>
+      <c r="H42" s="20"/>
+      <c r="I42" s="20"/>
+      <c r="J42" s="20"/>
+      <c r="K42" s="20"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="21" t="s">
+        <v>61</v>
+      </c>
+      <c r="N42" s="21"/>
+      <c r="O42" s="21"/>
+      <c r="P42" s="21"/>
+      <c r="Q42" s="21"/>
+      <c r="R42" s="21"/>
+      <c r="S42" s="21"/>
+      <c r="T42" s="21"/>
+      <c r="U42" s="21"/>
+    </row>
+    <row r="43" spans="1:22" ht="34" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="48" t="s">
+        <v>39</v>
+      </c>
+      <c r="B43" s="24"/>
+      <c r="C43" s="20"/>
+      <c r="D43" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="20"/>
+      <c r="F43" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G43" s="20"/>
+      <c r="H43" s="20"/>
+      <c r="I43" s="20"/>
+      <c r="J43" s="20"/>
+      <c r="K43" s="20"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="21" t="s">
+        <v>52</v>
+      </c>
+      <c r="N43" s="21"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="21"/>
+      <c r="Q43" s="21"/>
+      <c r="R43" s="21"/>
+      <c r="S43" s="21"/>
+      <c r="T43" s="21"/>
+      <c r="U43" s="21"/>
+    </row>
+    <row r="44" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="49"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="20"/>
+      <c r="D44" s="20"/>
+      <c r="E44" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F44" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="20"/>
+      <c r="H44" s="20"/>
+      <c r="I44" s="20"/>
+      <c r="J44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="20"/>
+      <c r="L44" s="22"/>
+      <c r="M44" s="21" t="s">
+        <v>53</v>
+      </c>
+      <c r="N44" s="21"/>
+      <c r="O44" s="21"/>
+      <c r="P44" s="21"/>
+      <c r="Q44" s="21"/>
+      <c r="R44" s="21"/>
+      <c r="S44" s="21"/>
+      <c r="T44" s="21"/>
+      <c r="U44" s="21"/>
+    </row>
+    <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A45" s="49"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="20"/>
+      <c r="D45" s="20"/>
+      <c r="E45" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="F45" s="20"/>
+      <c r="G45" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="20"/>
+      <c r="I45" s="20"/>
+      <c r="J45" s="20"/>
+      <c r="K45" s="20"/>
+      <c r="L45" s="22"/>
+      <c r="M45" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="21"/>
+      <c r="O45" s="21"/>
+      <c r="P45" s="21"/>
+      <c r="Q45" s="21"/>
+      <c r="R45" s="21"/>
+      <c r="S45" s="21"/>
+      <c r="T45" s="21"/>
+      <c r="U45" s="21"/>
+    </row>
+    <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
+      <c r="A46" s="50"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="20"/>
+      <c r="D46" s="20"/>
+      <c r="E46" s="20"/>
+      <c r="F46" s="20"/>
+      <c r="G46" s="47" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="20"/>
+      <c r="I46" s="20"/>
+      <c r="J46" s="20"/>
+      <c r="K46" s="20"/>
+      <c r="L46" s="22"/>
+      <c r="M46" s="21" t="s">
+        <v>67</v>
+      </c>
+      <c r="N46" s="21"/>
+      <c r="O46" s="21"/>
+      <c r="P46" s="21"/>
+      <c r="Q46" s="21"/>
+      <c r="R46" s="21"/>
+      <c r="S46" s="21"/>
+      <c r="T46" s="21"/>
+      <c r="U46" s="21"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A47" s="19"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="20"/>
+      <c r="D47" s="20"/>
+      <c r="E47" s="20"/>
+      <c r="F47" s="20"/>
+      <c r="G47" s="20"/>
+      <c r="H47" s="20"/>
+      <c r="I47" s="20"/>
+      <c r="J47" s="20"/>
+      <c r="K47" s="20"/>
+      <c r="L47" s="22"/>
+      <c r="M47" s="21"/>
+      <c r="N47" s="21"/>
+      <c r="O47" s="21"/>
+      <c r="P47" s="21"/>
+      <c r="Q47" s="21"/>
+      <c r="R47" s="21"/>
+      <c r="S47" s="21"/>
+      <c r="T47" s="21"/>
+      <c r="U47" s="21"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
+      <c r="A48" s="19"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="20"/>
+      <c r="D48" s="20"/>
+      <c r="E48" s="20"/>
+      <c r="F48" s="20"/>
+      <c r="G48" s="20"/>
+      <c r="H48" s="20"/>
+      <c r="I48" s="20"/>
+      <c r="J48" s="20"/>
+      <c r="K48" s="20"/>
+      <c r="L48" s="22"/>
+      <c r="M48" s="21"/>
+      <c r="N48" s="21"/>
+      <c r="O48" s="21"/>
+      <c r="P48" s="21"/>
+      <c r="Q48" s="21"/>
+      <c r="R48" s="21"/>
+      <c r="S48" s="21"/>
+      <c r="T48" s="21"/>
+      <c r="U48" s="21"/>
+    </row>
+    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A49" s="19"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="20"/>
+      <c r="D49" s="20"/>
+      <c r="E49" s="20"/>
+      <c r="F49" s="20"/>
+      <c r="G49" s="20"/>
+      <c r="H49" s="20"/>
+      <c r="I49" s="20"/>
+      <c r="J49" s="20"/>
+      <c r="K49" s="20"/>
+      <c r="L49" s="22"/>
+      <c r="M49" s="21"/>
+      <c r="N49" s="21"/>
+      <c r="O49" s="21"/>
+      <c r="P49" s="21"/>
+      <c r="Q49" s="21"/>
+      <c r="R49" s="21"/>
+      <c r="S49" s="21"/>
+      <c r="T49" s="21"/>
+      <c r="U49" s="21"/>
+    </row>
+    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A50" s="19"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="20"/>
+      <c r="D50" s="20"/>
+      <c r="E50" s="20"/>
+      <c r="F50" s="20"/>
+      <c r="G50" s="20"/>
+      <c r="H50" s="20"/>
+      <c r="I50" s="20"/>
+      <c r="J50" s="20"/>
+      <c r="K50" s="20"/>
+      <c r="L50" s="22"/>
+      <c r="M50" s="21"/>
+      <c r="N50" s="21"/>
+      <c r="O50" s="21"/>
+      <c r="P50" s="21"/>
+      <c r="Q50" s="21"/>
+      <c r="R50" s="21"/>
+      <c r="S50" s="21"/>
+      <c r="T50" s="21"/>
+      <c r="U50" s="21"/>
+    </row>
+    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="A51" s="19"/>
+      <c r="B51" s="24"/>
+      <c r="C51" s="20"/>
+      <c r="D51" s="20"/>
+      <c r="E51" s="20"/>
+      <c r="F51" s="20"/>
+      <c r="G51" s="20"/>
+      <c r="H51" s="20"/>
+      <c r="I51" s="20"/>
+      <c r="J51" s="20"/>
+      <c r="K51" s="20"/>
+      <c r="L51" s="22"/>
+      <c r="M51" s="21"/>
+      <c r="N51" s="21"/>
+      <c r="O51" s="21"/>
+      <c r="P51" s="21"/>
+      <c r="Q51" s="21"/>
+      <c r="R51" s="21"/>
+      <c r="S51" s="21"/>
+      <c r="T51" s="21"/>
+      <c r="U51" s="21"/>
+    </row>
+    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="B52" s="3"/>
+      <c r="C52" s="3"/>
+      <c r="D52" s="3"/>
+      <c r="E52" s="3"/>
+      <c r="F52" s="3"/>
+      <c r="G52" s="3"/>
+      <c r="H52" s="3"/>
+      <c r="I52" s="3"/>
+      <c r="J52" s="3"/>
+      <c r="K52" s="3"/>
+      <c r="L52" s="3"/>
     </row>
   </sheetData>
-  <mergeCells count="9">
+  <mergeCells count="12">
+    <mergeCell ref="A32:A35"/>
+    <mergeCell ref="A36:A39"/>
+    <mergeCell ref="A43:A46"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="I2:U2"/>
     <mergeCell ref="C2:D2"/>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11011"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CACC94F6-4F2E-104C-AF35-B5A6EC9E4059}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
     <sheet name="Threat Model" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -26,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="174" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
   <si>
     <t>Asset</t>
   </si>
@@ -346,12 +340,6 @@
     <t>80.000-90.000</t>
   </si>
   <si>
-    <t>AITM (94)</t>
-  </si>
-  <si>
-    <t>Interception (117)</t>
-  </si>
-  <si>
     <t>Sniffing (157)</t>
   </si>
   <si>
@@ -388,17 +376,23 @@
     <t>Smart contract</t>
   </si>
   <si>
-    <t>Flooding (125)</t>
-  </si>
-  <si>
-    <t>Sustained Client Engagement</t>
+    <t>?</t>
+  </si>
+  <si>
+    <t>AiTM (94)</t>
+  </si>
+  <si>
+    <t>Sustained Client Engagement (227)</t>
+  </si>
+  <si>
+    <t>Flooding(125)</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="4">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -427,7 +421,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -461,12 +455,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -568,7 +556,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="51">
+  <cellXfs count="50">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -645,45 +633,57 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment horizontal="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -693,32 +693,17 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="6" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -785,7 +770,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -837,7 +822,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1031,108 +1016,108 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="3" customWidth="1"/>
     <col min="9" max="11" width="6.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="10.875" style="3"/>
     <col min="13" max="13" width="20" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="3"/>
+    <col min="18" max="18" width="10.875" style="3"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="3"/>
+    <col min="22" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-    </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="H2" s="36"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+    </row>
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
@@ -1145,290 +1130,281 @@
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
     </row>
-    <row r="5" spans="1:21" ht="22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="21">
       <c r="A5" s="14" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="37" t="s">
+      <c r="C5" s="38" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="29"/>
-      <c r="E5" s="29"/>
-      <c r="F5" s="29"/>
-      <c r="G5" s="29"/>
-      <c r="H5" s="38"/>
-      <c r="I5" s="28" t="s">
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
+      <c r="H5" s="40"/>
+      <c r="I5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="29"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J5" s="39"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="25"/>
-      <c r="J6" s="26"/>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C6" s="29"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="41"/>
+      <c r="J6" s="30"/>
+    </row>
+    <row r="7" spans="1:21">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="25"/>
-      <c r="J7" s="26"/>
-    </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C7" s="29"/>
+      <c r="D7" s="30"/>
+      <c r="E7" s="30"/>
+      <c r="F7" s="30"/>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="30"/>
+    </row>
+    <row r="8" spans="1:21">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="25"/>
-      <c r="J8" s="26"/>
-    </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C8" s="29"/>
+      <c r="D8" s="30"/>
+      <c r="E8" s="30"/>
+      <c r="F8" s="30"/>
+      <c r="G8" s="30"/>
+      <c r="H8" s="30"/>
+      <c r="I8" s="41"/>
+      <c r="J8" s="30"/>
+    </row>
+    <row r="9" spans="1:21">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="25"/>
-      <c r="J9" s="26"/>
-    </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C9" s="29"/>
+      <c r="D9" s="30"/>
+      <c r="E9" s="30"/>
+      <c r="F9" s="30"/>
+      <c r="G9" s="30"/>
+      <c r="H9" s="30"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="30"/>
+    </row>
+    <row r="10" spans="1:21">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="25"/>
-      <c r="J10" s="26"/>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C10" s="29"/>
+      <c r="D10" s="30"/>
+      <c r="E10" s="30"/>
+      <c r="F10" s="30"/>
+      <c r="G10" s="30"/>
+      <c r="H10" s="30"/>
+      <c r="I10" s="41"/>
+      <c r="J10" s="30"/>
+    </row>
+    <row r="11" spans="1:21">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="25"/>
-      <c r="J11" s="26"/>
-    </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C11" s="29"/>
+      <c r="D11" s="30"/>
+      <c r="E11" s="30"/>
+      <c r="F11" s="30"/>
+      <c r="G11" s="30"/>
+      <c r="H11" s="30"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="30"/>
+    </row>
+    <row r="12" spans="1:21">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="25"/>
-      <c r="J12" s="26"/>
-    </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C12" s="29"/>
+      <c r="D12" s="30"/>
+      <c r="E12" s="30"/>
+      <c r="F12" s="30"/>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30"/>
+      <c r="I12" s="41"/>
+      <c r="J12" s="30"/>
+    </row>
+    <row r="13" spans="1:21">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="25"/>
-      <c r="J13" s="26"/>
-    </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C13" s="29"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
+      <c r="F13" s="30"/>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="30"/>
+    </row>
+    <row r="14" spans="1:21">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="25"/>
-      <c r="J14" s="26"/>
-    </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C14" s="29"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="30"/>
+      <c r="F14" s="30"/>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30"/>
+      <c r="I14" s="41"/>
+      <c r="J14" s="30"/>
+    </row>
+    <row r="15" spans="1:21">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="25"/>
-      <c r="J15" s="26"/>
-    </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="C15" s="29"/>
+      <c r="D15" s="30"/>
+      <c r="E15" s="30"/>
+      <c r="F15" s="30"/>
+      <c r="G15" s="30"/>
+      <c r="H15" s="30"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="30"/>
+    </row>
+    <row r="16" spans="1:21">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="25"/>
-      <c r="J16" s="26"/>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C16" s="29"/>
+      <c r="D16" s="30"/>
+      <c r="E16" s="30"/>
+      <c r="F16" s="30"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="41"/>
+      <c r="J16" s="30"/>
+    </row>
+    <row r="17" spans="1:10">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="25"/>
-      <c r="J17" s="26"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C17" s="29"/>
+      <c r="D17" s="30"/>
+      <c r="E17" s="30"/>
+      <c r="F17" s="30"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="30"/>
+    </row>
+    <row r="18" spans="1:10">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="25"/>
-      <c r="J18" s="26"/>
-    </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C18" s="29"/>
+      <c r="D18" s="30"/>
+      <c r="E18" s="30"/>
+      <c r="F18" s="30"/>
+      <c r="G18" s="30"/>
+      <c r="H18" s="30"/>
+      <c r="I18" s="41"/>
+      <c r="J18" s="30"/>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="25"/>
-      <c r="J19" s="26"/>
-    </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C19" s="29"/>
+      <c r="D19" s="30"/>
+      <c r="E19" s="30"/>
+      <c r="F19" s="30"/>
+      <c r="G19" s="30"/>
+      <c r="H19" s="30"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="30"/>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="25"/>
-      <c r="J20" s="26"/>
-    </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C20" s="29"/>
+      <c r="D20" s="30"/>
+      <c r="E20" s="30"/>
+      <c r="F20" s="30"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="41"/>
+      <c r="J20" s="30"/>
+    </row>
+    <row r="21" spans="1:10">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="25"/>
-      <c r="J21" s="26"/>
-    </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C21" s="29"/>
+      <c r="D21" s="30"/>
+      <c r="E21" s="30"/>
+      <c r="F21" s="30"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="41"/>
+      <c r="J21" s="30"/>
+    </row>
+    <row r="22" spans="1:10">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="25"/>
-      <c r="J22" s="26"/>
-    </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C22" s="29"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="30"/>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="25"/>
-      <c r="J23" s="26"/>
-    </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C23" s="29"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="41"/>
+      <c r="J23" s="30"/>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="C24" s="29"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="30"/>
+      <c r="F24" s="30"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="30"/>
+    </row>
+    <row r="25" spans="1:10">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="26"/>
+      <c r="C25" s="29"/>
+      <c r="D25" s="30"/>
+      <c r="E25" s="30"/>
+      <c r="F25" s="30"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="41"/>
+      <c r="J25" s="30"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1445,121 +1421,130 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A32" zoomScale="75" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="G61" sqref="G61"/>
+    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="O37" sqref="O37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.5" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="2"/>
-    <col min="13" max="13" width="35.6640625" style="3" customWidth="1"/>
+    <col min="3" max="11" width="6.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="2"/>
+    <col min="13" max="13" width="35.625" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
     <col min="18" max="18" width="20" style="3" customWidth="1"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="3"/>
+    <col min="22" max="22" width="68.375" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="30"/>
-      <c r="C1" s="30"/>
-      <c r="D1" s="30"/>
-      <c r="E1" s="30"/>
-      <c r="F1" s="30"/>
-      <c r="G1" s="31"/>
-      <c r="H1" s="31"/>
-      <c r="I1" s="31"/>
-      <c r="J1" s="31"/>
-      <c r="K1" s="31"/>
-      <c r="L1" s="31"/>
-      <c r="M1" s="31"/>
-      <c r="N1" s="32"/>
-      <c r="O1" s="32"/>
-      <c r="P1" s="32"/>
-      <c r="Q1" s="32"/>
-      <c r="R1" s="32"/>
-      <c r="S1" s="32"/>
-      <c r="T1" s="32"/>
-      <c r="U1" s="32"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="31"/>
+      <c r="C1" s="31"/>
+      <c r="D1" s="31"/>
+      <c r="E1" s="31"/>
+      <c r="F1" s="31"/>
+      <c r="G1" s="32"/>
+      <c r="H1" s="32"/>
+      <c r="I1" s="32"/>
+      <c r="J1" s="32"/>
+      <c r="K1" s="32"/>
+      <c r="L1" s="32"/>
+      <c r="M1" s="32"/>
+      <c r="N1" s="33"/>
+      <c r="O1" s="33"/>
+      <c r="P1" s="33"/>
+      <c r="Q1" s="33"/>
+      <c r="R1" s="33"/>
+      <c r="S1" s="33"/>
+      <c r="T1" s="33"/>
+      <c r="U1" s="33"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="33" t="s">
+      <c r="C2" s="34" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="33"/>
-      <c r="E2" s="34"/>
-      <c r="F2" s="34"/>
-      <c r="G2" s="33" t="s">
+      <c r="D2" s="34"/>
+      <c r="E2" s="35"/>
+      <c r="F2" s="35"/>
+      <c r="G2" s="34" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="35"/>
-      <c r="I2" s="34"/>
-      <c r="J2" s="36"/>
-      <c r="K2" s="36"/>
-      <c r="L2" s="36"/>
-      <c r="M2" s="36"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="32"/>
-      <c r="Q2" s="32"/>
-      <c r="R2" s="32"/>
-      <c r="S2" s="32"/>
-      <c r="T2" s="32"/>
-      <c r="U2" s="32"/>
-    </row>
-    <row r="3" spans="1:21" s="11" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="H2" s="36"/>
+      <c r="I2" s="35"/>
+      <c r="J2" s="37"/>
+      <c r="K2" s="37"/>
+      <c r="L2" s="37"/>
+      <c r="M2" s="37"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="33"/>
+      <c r="P2" s="33"/>
+      <c r="Q2" s="33"/>
+      <c r="R2" s="33"/>
+      <c r="S2" s="33"/>
+      <c r="T2" s="33"/>
+      <c r="U2" s="33"/>
+    </row>
+    <row r="3" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="33" t="s">
+      <c r="C3" s="34" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="33"/>
-      <c r="E3" s="34"/>
-      <c r="F3" s="34"/>
-      <c r="G3" s="33" t="s">
+      <c r="D3" s="34"/>
+      <c r="E3" s="35"/>
+      <c r="F3" s="35"/>
+      <c r="G3" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="33"/>
-      <c r="I3" s="34"/>
-      <c r="J3" s="34"/>
+      <c r="H3" s="34"/>
+      <c r="I3" s="35"/>
+      <c r="J3" s="35"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
@@ -1572,7 +1557,7 @@
       <c r="T3" s="13"/>
       <c r="U3" s="13"/>
     </row>
-    <row r="5" spans="1:21" s="5" customFormat="1" ht="95.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" s="5" customFormat="1" ht="95.25" customHeight="1">
       <c r="A5" s="6" t="s">
         <v>0</v>
       </c>
@@ -1637,7 +1622,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21" ht="54.75" customHeight="1">
       <c r="A6" s="19" t="s">
         <v>29</v>
       </c>
@@ -1672,7 +1657,7 @@
       <c r="T6" s="9"/>
       <c r="U6" s="9"/>
     </row>
-    <row r="7" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21" ht="54.75" customHeight="1">
       <c r="A7" s="19" t="s">
         <v>30</v>
       </c>
@@ -1701,7 +1686,7 @@
       <c r="T7" s="9"/>
       <c r="U7" s="9"/>
     </row>
-    <row r="8" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21" ht="54.75" customHeight="1">
       <c r="A8" s="19" t="s">
         <v>31</v>
       </c>
@@ -1734,7 +1719,7 @@
       <c r="T8" s="9"/>
       <c r="U8" s="9"/>
     </row>
-    <row r="9" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21" ht="54.75" customHeight="1">
       <c r="A9" s="19" t="s">
         <v>32</v>
       </c>
@@ -1769,7 +1754,7 @@
       <c r="T9" s="9"/>
       <c r="U9" s="9"/>
     </row>
-    <row r="10" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21" ht="54.75" customHeight="1">
       <c r="A10" s="19" t="s">
         <v>39</v>
       </c>
@@ -1802,7 +1787,7 @@
       <c r="T10" s="9"/>
       <c r="U10" s="9"/>
     </row>
-    <row r="11" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21" ht="54.75" customHeight="1">
       <c r="A11" s="19" t="s">
         <v>33</v>
       </c>
@@ -1833,7 +1818,7 @@
       <c r="T11" s="9"/>
       <c r="U11" s="9"/>
     </row>
-    <row r="12" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21" ht="54.75" customHeight="1">
       <c r="A12" s="19" t="s">
         <v>34</v>
       </c>
@@ -1866,7 +1851,7 @@
       <c r="T12" s="9"/>
       <c r="U12" s="9"/>
     </row>
-    <row r="13" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21" ht="54.75" customHeight="1">
       <c r="A13" s="19" t="s">
         <v>35</v>
       </c>
@@ -1895,7 +1880,7 @@
       <c r="T13" s="9"/>
       <c r="U13" s="9"/>
     </row>
-    <row r="14" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21" ht="54.75" customHeight="1">
       <c r="A14" s="19" t="s">
         <v>36</v>
       </c>
@@ -1928,7 +1913,7 @@
       <c r="T14" s="9"/>
       <c r="U14" s="9"/>
     </row>
-    <row r="15" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21" ht="54.75" customHeight="1">
       <c r="A15" s="19" t="s">
         <v>37</v>
       </c>
@@ -1959,7 +1944,7 @@
       <c r="T15" s="9"/>
       <c r="U15" s="9"/>
     </row>
-    <row r="16" spans="1:21" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21" ht="54.75" customHeight="1">
       <c r="A16" s="19" t="s">
         <v>38</v>
       </c>
@@ -1992,7 +1977,7 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:22" s="18" customFormat="1" ht="54.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:22" s="18" customFormat="1" ht="54.75" customHeight="1">
       <c r="A17" s="19" t="s">
         <v>41</v>
       </c>
@@ -2025,7 +2010,7 @@
       <c r="T17" s="17"/>
       <c r="U17" s="17"/>
     </row>
-    <row r="18" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:22">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
       <c r="C18" s="10"/>
@@ -2048,7 +2033,7 @@
       <c r="T18" s="9"/>
       <c r="U18" s="9"/>
     </row>
-    <row r="19" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:22">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
       <c r="C19" s="10"/>
@@ -2071,7 +2056,7 @@
       <c r="T19" s="9"/>
       <c r="U19" s="9"/>
     </row>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:22">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
       <c r="C20" s="10"/>
@@ -2094,7 +2079,7 @@
       <c r="T20" s="9"/>
       <c r="U20" s="9"/>
     </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:22">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
       <c r="C21" s="10"/>
@@ -2117,7 +2102,7 @@
       <c r="T21" s="9"/>
       <c r="U21" s="9"/>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:22">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
       <c r="C22" s="10"/>
@@ -2140,7 +2125,7 @@
       <c r="T22" s="9"/>
       <c r="U22" s="9"/>
     </row>
-    <row r="23" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:22">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
       <c r="C23" s="10"/>
@@ -2163,7 +2148,7 @@
       <c r="T23" s="9"/>
       <c r="U23" s="9"/>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:22">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
       <c r="C24" s="10"/>
@@ -2186,7 +2171,7 @@
       <c r="T24" s="9"/>
       <c r="U24" s="9"/>
     </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:22">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
       <c r="C25" s="10"/>
@@ -2209,7 +2194,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="31" spans="1:22" ht="156" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:22" ht="153.75">
       <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
@@ -2274,22 +2259,22 @@
         <v>21</v>
       </c>
       <c r="V31" s="3" t="s">
-        <v>57</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" ht="56" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A32" s="39" t="s">
-        <v>33</v>
-      </c>
-      <c r="B32" s="23"/>
-      <c r="C32" s="20"/>
-      <c r="D32" s="20" t="s">
-        <v>40</v>
-      </c>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22">
+      <c r="A32" s="43" t="s">
+        <v>29</v>
+      </c>
+      <c r="B32" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C32" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="20"/>
       <c r="E32" s="20"/>
-      <c r="F32" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="F32" s="20"/>
       <c r="G32" s="20"/>
       <c r="H32" s="20"/>
       <c r="I32" s="20"/>
@@ -2297,7 +2282,7 @@
       <c r="K32" s="20"/>
       <c r="L32" s="16"/>
       <c r="M32" s="17" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="N32" s="17"/>
       <c r="O32" s="17"/>
@@ -2308,293 +2293,296 @@
       <c r="T32" s="17"/>
       <c r="U32" s="17"/>
     </row>
-    <row r="33" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A33" s="40"/>
-      <c r="B33" s="24"/>
-      <c r="C33" s="20"/>
+    <row r="33" spans="1:22" s="28" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A33" s="44"/>
+      <c r="B33" s="44"/>
+      <c r="C33" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="D33" s="20"/>
-      <c r="E33" s="20"/>
+      <c r="E33" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="F33" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G33" s="20"/>
-      <c r="H33" s="20"/>
+      <c r="H33" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="I33" s="20"/>
       <c r="J33" s="20"/>
       <c r="K33" s="20"/>
-      <c r="L33" s="16"/>
-      <c r="M33" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17"/>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17"/>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
-    </row>
-    <row r="34" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A34" s="40"/>
-      <c r="B34" s="20"/>
-      <c r="C34" s="20"/>
+      <c r="L33" s="25"/>
+      <c r="M33" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="N33" s="26"/>
+      <c r="O33" s="26"/>
+      <c r="P33" s="26"/>
+      <c r="Q33" s="26"/>
+      <c r="R33" s="26"/>
+      <c r="S33" s="26"/>
+      <c r="T33" s="26"/>
+      <c r="U33" s="26"/>
+      <c r="V33" s="28" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" s="28" customFormat="1" ht="31.5">
+      <c r="A34" s="44"/>
+      <c r="B34" s="44"/>
+      <c r="C34" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="D34" s="20"/>
       <c r="E34" s="20"/>
       <c r="F34" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G34" s="20"/>
-      <c r="H34" s="20"/>
+      <c r="H34" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="I34" s="20"/>
       <c r="J34" s="20"/>
       <c r="K34" s="20"/>
-      <c r="L34" s="16"/>
-      <c r="M34" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="N34" s="17"/>
-      <c r="O34" s="17"/>
-      <c r="P34" s="17"/>
-      <c r="Q34" s="17"/>
-      <c r="R34" s="17"/>
-      <c r="S34" s="17"/>
-      <c r="T34" s="17"/>
-      <c r="U34" s="17"/>
-    </row>
-    <row r="35" spans="1:22" s="45" customFormat="1" ht="35" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A35" s="41"/>
-      <c r="B35" s="42"/>
-      <c r="C35" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="D35" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E35" s="42"/>
-      <c r="F35" s="42"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
-      <c r="L35" s="43"/>
-      <c r="M35" s="44" t="s">
+      <c r="L34" s="25"/>
+      <c r="M34" s="48" t="s">
+        <v>57</v>
+      </c>
+      <c r="N34" s="26"/>
+      <c r="O34" s="26"/>
+      <c r="P34" s="26"/>
+      <c r="Q34" s="26"/>
+      <c r="R34" s="26"/>
+      <c r="S34" s="26"/>
+      <c r="T34" s="26"/>
+      <c r="U34" s="26"/>
+      <c r="V34" s="28" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" s="28" customFormat="1">
+      <c r="A35" s="45"/>
+      <c r="B35" s="45"/>
+      <c r="C35" s="20"/>
+      <c r="D35" s="20"/>
+      <c r="E35" s="20"/>
+      <c r="F35" s="20"/>
+      <c r="G35" s="20"/>
+      <c r="H35" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="20"/>
+      <c r="J35" s="20"/>
+      <c r="K35" s="20"/>
+      <c r="L35" s="25"/>
+      <c r="M35" s="26" t="s">
+        <v>60</v>
+      </c>
+      <c r="N35" s="26"/>
+      <c r="O35" s="26"/>
+      <c r="P35" s="26"/>
+      <c r="Q35" s="26"/>
+      <c r="R35" s="26"/>
+      <c r="S35" s="26"/>
+      <c r="T35" s="26"/>
+      <c r="U35" s="26"/>
+      <c r="V35" s="28" t="s">
         <v>61</v>
       </c>
-      <c r="N35" s="44"/>
-      <c r="O35" s="44"/>
-      <c r="P35" s="44"/>
-      <c r="Q35" s="44"/>
-      <c r="R35" s="44"/>
-      <c r="S35" s="44"/>
-      <c r="T35" s="44"/>
-      <c r="U35" s="44"/>
-      <c r="V35" s="45" t="s">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="36" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A36" s="39" t="s">
-        <v>29</v>
-      </c>
-      <c r="B36" s="20"/>
-      <c r="C36" s="20"/>
-      <c r="D36" s="20"/>
+    </row>
+    <row r="36" spans="1:22" s="28" customFormat="1" ht="31.5">
+      <c r="A36" s="43" t="s">
+        <v>63</v>
+      </c>
+      <c r="B36" s="46" t="s">
+        <v>43</v>
+      </c>
+      <c r="C36" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="E36" s="20"/>
       <c r="F36" s="20"/>
       <c r="G36" s="20"/>
-      <c r="H36" s="47" t="s">
-        <v>40</v>
-      </c>
+      <c r="H36" s="20"/>
       <c r="I36" s="20"/>
       <c r="J36" s="20"/>
       <c r="K36" s="20"/>
-      <c r="L36" s="16"/>
-      <c r="M36" s="17" t="s">
-        <v>55</v>
-      </c>
-      <c r="N36" s="17"/>
-      <c r="O36" s="17"/>
-      <c r="P36" s="17"/>
-      <c r="Q36" s="17"/>
-      <c r="R36" s="17"/>
-      <c r="S36" s="17"/>
-      <c r="T36" s="17"/>
-      <c r="U36" s="17"/>
-    </row>
-    <row r="37" spans="1:22" s="45" customFormat="1" ht="32" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A37" s="40"/>
-      <c r="B37" s="42"/>
-      <c r="C37" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D37" s="42"/>
-      <c r="E37" s="42"/>
-      <c r="F37" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
-      <c r="L37" s="43"/>
-      <c r="M37" s="44" t="s">
-        <v>56</v>
-      </c>
-      <c r="N37" s="44"/>
-      <c r="O37" s="44"/>
-      <c r="P37" s="44"/>
-      <c r="Q37" s="44"/>
-      <c r="R37" s="44"/>
-      <c r="S37" s="44"/>
-      <c r="T37" s="44"/>
-      <c r="U37" s="44"/>
-      <c r="V37" s="45" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="38" spans="1:22" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A38" s="40"/>
-      <c r="B38" s="46"/>
-      <c r="C38" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D38" s="42"/>
-      <c r="E38" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F38" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="G38" s="42"/>
-      <c r="H38" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I38" s="42"/>
-      <c r="J38" s="42"/>
-      <c r="K38" s="42"/>
-      <c r="L38" s="43"/>
-      <c r="M38" s="45" t="s">
+      <c r="L36" s="25"/>
+      <c r="M36" s="26" t="s">
         <v>59</v>
       </c>
-      <c r="N38" s="44"/>
-      <c r="O38" s="44"/>
-      <c r="P38" s="44"/>
-      <c r="Q38" s="44"/>
-      <c r="R38" s="44"/>
-      <c r="S38" s="44"/>
-      <c r="T38" s="44"/>
-      <c r="U38" s="44"/>
-      <c r="V38" s="45" t="s">
+      <c r="N36" s="26"/>
+      <c r="O36" s="26"/>
+      <c r="P36" s="26"/>
+      <c r="Q36" s="26"/>
+      <c r="R36" s="26"/>
+      <c r="S36" s="26"/>
+      <c r="T36" s="26"/>
+      <c r="U36" s="26"/>
+      <c r="V36" s="28" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" s="28" customFormat="1">
+      <c r="A37" s="45"/>
+      <c r="B37" s="47"/>
+      <c r="C37" s="20"/>
+      <c r="D37" s="20"/>
+      <c r="E37" s="20"/>
+      <c r="F37" s="20"/>
+      <c r="G37" s="20"/>
+      <c r="H37" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="20"/>
+      <c r="J37" s="20"/>
+      <c r="K37" s="20"/>
+      <c r="L37" s="25"/>
+      <c r="M37" s="48" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="39" spans="1:22" s="45" customFormat="1" ht="17" x14ac:dyDescent="0.2">
-      <c r="A39" s="41"/>
-      <c r="B39" s="46"/>
-      <c r="C39" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="42"/>
-      <c r="E39" s="42"/>
-      <c r="F39" s="42"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
-      <c r="L39" s="43"/>
-      <c r="M39" s="44" t="s">
-        <v>62</v>
-      </c>
-      <c r="N39" s="44"/>
-      <c r="O39" s="44"/>
-      <c r="P39" s="44"/>
-      <c r="Q39" s="44"/>
-      <c r="R39" s="44"/>
-      <c r="S39" s="44"/>
-      <c r="T39" s="44"/>
-      <c r="U39" s="44"/>
-      <c r="V39" s="45" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="40" spans="1:22" s="45" customFormat="1" ht="34" x14ac:dyDescent="0.2">
-      <c r="A40" s="19" t="s">
-        <v>65</v>
-      </c>
-      <c r="B40" s="46"/>
-      <c r="C40" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="42" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="42"/>
-      <c r="F40" s="42"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
-      <c r="L40" s="43"/>
-      <c r="M40" s="44" t="s">
-        <v>61</v>
-      </c>
-      <c r="N40" s="44"/>
-      <c r="O40" s="44"/>
-      <c r="P40" s="44"/>
-      <c r="Q40" s="44"/>
-      <c r="R40" s="44"/>
-      <c r="S40" s="44"/>
-      <c r="T40" s="44"/>
-      <c r="U40" s="44"/>
-      <c r="V40" s="45" t="s">
+      <c r="N37" s="26"/>
+      <c r="O37" s="26"/>
+      <c r="P37" s="26"/>
+      <c r="Q37" s="26"/>
+      <c r="R37" s="26"/>
+      <c r="S37" s="26"/>
+      <c r="T37" s="26"/>
+      <c r="U37" s="26"/>
+      <c r="V37" s="49"/>
+    </row>
+    <row r="38" spans="1:22" s="28" customFormat="1">
+      <c r="A38" s="43" t="s">
+        <v>31</v>
+      </c>
+      <c r="B38" s="43" t="s">
+        <v>45</v>
+      </c>
+      <c r="C38" s="20"/>
+      <c r="D38" s="20"/>
+      <c r="E38" s="20"/>
+      <c r="F38" s="20"/>
+      <c r="G38" s="20"/>
+      <c r="H38" s="20"/>
+      <c r="I38" s="20"/>
+      <c r="J38" s="20"/>
+      <c r="K38" s="20"/>
+      <c r="L38" s="25"/>
+      <c r="M38" s="26" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="41" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A41" s="19" t="s">
-        <v>31</v>
-      </c>
-      <c r="B41" s="24"/>
-      <c r="C41" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="N38" s="26"/>
+      <c r="O38" s="26"/>
+      <c r="P38" s="26"/>
+      <c r="Q38" s="26"/>
+      <c r="R38" s="26"/>
+      <c r="S38" s="26"/>
+      <c r="T38" s="26"/>
+      <c r="U38" s="26"/>
+      <c r="V38" s="49"/>
+    </row>
+    <row r="39" spans="1:22" ht="18" customHeight="1">
+      <c r="A39" s="45"/>
+      <c r="B39" s="45"/>
+      <c r="C39" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="20"/>
+      <c r="F39" s="20"/>
+      <c r="G39" s="20"/>
+      <c r="H39" s="20"/>
+      <c r="I39" s="20"/>
+      <c r="J39" s="20"/>
+      <c r="K39" s="20"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="21"/>
+      <c r="O39" s="21"/>
+      <c r="P39" s="21"/>
+      <c r="Q39" s="21"/>
+      <c r="R39" s="21"/>
+      <c r="S39" s="21"/>
+      <c r="T39" s="21"/>
+      <c r="U39" s="21"/>
+    </row>
+    <row r="40" spans="1:22">
+      <c r="A40" s="20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B40" s="20" t="s">
+        <v>46</v>
+      </c>
+      <c r="C40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E40" s="20"/>
+      <c r="F40" s="20"/>
+      <c r="G40" s="20"/>
+      <c r="H40" s="20"/>
+      <c r="I40" s="20"/>
+      <c r="J40" s="20"/>
+      <c r="K40" s="20"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="21" t="s">
+        <v>59</v>
+      </c>
+      <c r="N40" s="21"/>
+      <c r="O40" s="21"/>
+      <c r="P40" s="21"/>
+      <c r="Q40" s="21"/>
+      <c r="R40" s="21"/>
+      <c r="S40" s="21"/>
+      <c r="T40" s="21"/>
+      <c r="U40" s="21"/>
+    </row>
+    <row r="41" spans="1:22" s="27" customFormat="1" ht="15.75" customHeight="1">
+      <c r="A41" s="43" t="s">
+        <v>34</v>
+      </c>
+      <c r="B41" s="43" t="s">
+        <v>49</v>
+      </c>
+      <c r="C41" s="20"/>
+      <c r="D41" s="20"/>
       <c r="E41" s="20"/>
-      <c r="F41" s="20"/>
+      <c r="F41" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="G41" s="20"/>
       <c r="H41" s="20"/>
       <c r="I41" s="20"/>
       <c r="J41" s="20"/>
       <c r="K41" s="20"/>
-      <c r="L41" s="22"/>
-      <c r="M41" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N41" s="21"/>
-      <c r="O41" s="21"/>
-      <c r="P41" s="21"/>
-      <c r="Q41" s="21"/>
-      <c r="R41" s="21"/>
-      <c r="S41" s="21"/>
-      <c r="T41" s="21"/>
-      <c r="U41" s="21"/>
-    </row>
-    <row r="42" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A42" s="19" t="s">
-        <v>32</v>
-      </c>
-      <c r="B42" s="24"/>
+      <c r="L41" s="25"/>
+      <c r="M41" s="26" t="s">
+        <v>52</v>
+      </c>
+      <c r="N41" s="26"/>
+      <c r="O41" s="26"/>
+      <c r="P41" s="26"/>
+      <c r="Q41" s="26"/>
+      <c r="R41" s="26"/>
+      <c r="S41" s="26"/>
+      <c r="T41" s="26"/>
+      <c r="U41" s="26"/>
+    </row>
+    <row r="42" spans="1:22" s="27" customFormat="1">
+      <c r="A42" s="45"/>
+      <c r="B42" s="45"/>
       <c r="C42" s="20" t="s">
         <v>40</v>
       </c>
@@ -2608,30 +2596,30 @@
       <c r="I42" s="20"/>
       <c r="J42" s="20"/>
       <c r="K42" s="20"/>
-      <c r="L42" s="22"/>
-      <c r="M42" s="21" t="s">
-        <v>61</v>
-      </c>
-      <c r="N42" s="21"/>
-      <c r="O42" s="21"/>
-      <c r="P42" s="21"/>
-      <c r="Q42" s="21"/>
-      <c r="R42" s="21"/>
-      <c r="S42" s="21"/>
-      <c r="T42" s="21"/>
-      <c r="U42" s="21"/>
-    </row>
-    <row r="43" spans="1:22" ht="34" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A43" s="48" t="s">
-        <v>39</v>
-      </c>
-      <c r="B43" s="24"/>
+      <c r="L42" s="25"/>
+      <c r="M42" s="26" t="s">
+        <v>59</v>
+      </c>
+      <c r="N42" s="26"/>
+      <c r="O42" s="26"/>
+      <c r="P42" s="26"/>
+      <c r="Q42" s="26"/>
+      <c r="R42" s="26"/>
+      <c r="S42" s="26"/>
+      <c r="T42" s="26"/>
+      <c r="U42" s="26"/>
+    </row>
+    <row r="43" spans="1:22">
+      <c r="A43" s="44" t="s">
+        <v>35</v>
+      </c>
+      <c r="B43" s="44" t="s">
+        <v>49</v>
+      </c>
       <c r="C43" s="20"/>
-      <c r="D43" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="D43" s="20"/>
       <c r="E43" s="20"/>
-      <c r="F43" s="47" t="s">
+      <c r="F43" s="20" t="s">
         <v>40</v>
       </c>
       <c r="G43" s="20"/>
@@ -2640,7 +2628,7 @@
       <c r="J43" s="20"/>
       <c r="K43" s="20"/>
       <c r="L43" s="22"/>
-      <c r="M43" s="21" t="s">
+      <c r="M43" s="26" t="s">
         <v>52</v>
       </c>
       <c r="N43" s="21"/>
@@ -2652,27 +2640,25 @@
       <c r="T43" s="21"/>
       <c r="U43" s="21"/>
     </row>
-    <row r="44" spans="1:22" ht="22" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A44" s="49"/>
-      <c r="B44" s="24"/>
-      <c r="C44" s="20"/>
-      <c r="D44" s="20"/>
-      <c r="E44" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F44" s="47" t="s">
-        <v>40</v>
-      </c>
+    <row r="44" spans="1:22" ht="33.75" customHeight="1">
+      <c r="A44" s="45"/>
+      <c r="B44" s="45"/>
+      <c r="C44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="D44" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="20"/>
+      <c r="F44" s="20"/>
       <c r="G44" s="20"/>
       <c r="H44" s="20"/>
       <c r="I44" s="20"/>
-      <c r="J44" s="20" t="s">
-        <v>40</v>
-      </c>
+      <c r="J44" s="20"/>
       <c r="K44" s="20"/>
       <c r="L44" s="22"/>
-      <c r="M44" s="21" t="s">
-        <v>53</v>
+      <c r="M44" s="26" t="s">
+        <v>59</v>
       </c>
       <c r="N44" s="21"/>
       <c r="O44" s="21"/>
@@ -2683,76 +2669,86 @@
       <c r="T44" s="21"/>
       <c r="U44" s="21"/>
     </row>
-    <row r="45" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A45" s="49"/>
-      <c r="B45" s="24"/>
+    <row r="45" spans="1:22" s="27" customFormat="1">
+      <c r="A45" s="43" t="s">
+        <v>36</v>
+      </c>
+      <c r="B45" s="43" t="s">
+        <v>44</v>
+      </c>
       <c r="C45" s="20"/>
-      <c r="D45" s="20"/>
-      <c r="E45" s="47" t="s">
-        <v>40</v>
-      </c>
-      <c r="F45" s="20"/>
-      <c r="G45" s="47" t="s">
-        <v>40</v>
-      </c>
+      <c r="D45" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="E45" s="20"/>
+      <c r="F45" s="20" t="s">
+        <v>40</v>
+      </c>
+      <c r="G45" s="20"/>
       <c r="H45" s="20"/>
       <c r="I45" s="20"/>
-      <c r="J45" s="20"/>
+      <c r="J45" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="K45" s="20"/>
-      <c r="L45" s="22"/>
-      <c r="M45" s="21" t="s">
-        <v>66</v>
-      </c>
-      <c r="N45" s="21"/>
-      <c r="O45" s="21"/>
-      <c r="P45" s="21"/>
-      <c r="Q45" s="21"/>
-      <c r="R45" s="21"/>
-      <c r="S45" s="21"/>
-      <c r="T45" s="21"/>
-      <c r="U45" s="21"/>
-    </row>
-    <row r="46" spans="1:22" ht="17" x14ac:dyDescent="0.2">
-      <c r="A46" s="50"/>
-      <c r="B46" s="24"/>
+      <c r="L45" s="25"/>
+      <c r="M45" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="N45" s="26"/>
+      <c r="O45" s="26"/>
+      <c r="P45" s="26"/>
+      <c r="Q45" s="26"/>
+      <c r="R45" s="26"/>
+      <c r="S45" s="26"/>
+      <c r="T45" s="26"/>
+      <c r="U45" s="26"/>
+    </row>
+    <row r="46" spans="1:22" s="27" customFormat="1">
+      <c r="A46" s="44"/>
+      <c r="B46" s="44"/>
       <c r="C46" s="20"/>
       <c r="D46" s="20"/>
       <c r="E46" s="20"/>
       <c r="F46" s="20"/>
-      <c r="G46" s="47" t="s">
+      <c r="G46" s="20" t="s">
         <v>40</v>
       </c>
       <c r="H46" s="20"/>
       <c r="I46" s="20"/>
       <c r="J46" s="20"/>
       <c r="K46" s="20"/>
-      <c r="L46" s="22"/>
-      <c r="M46" s="21" t="s">
+      <c r="L46" s="25"/>
+      <c r="M46" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="N46" s="21"/>
-      <c r="O46" s="21"/>
-      <c r="P46" s="21"/>
-      <c r="Q46" s="21"/>
-      <c r="R46" s="21"/>
-      <c r="S46" s="21"/>
-      <c r="T46" s="21"/>
-      <c r="U46" s="21"/>
-    </row>
-    <row r="47" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A47" s="19"/>
-      <c r="B47" s="24"/>
+      <c r="N46" s="26"/>
+      <c r="O46" s="26"/>
+      <c r="P46" s="26"/>
+      <c r="Q46" s="26"/>
+      <c r="R46" s="26"/>
+      <c r="S46" s="26"/>
+      <c r="T46" s="26"/>
+      <c r="U46" s="26"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="45"/>
+      <c r="B47" s="45"/>
       <c r="C47" s="20"/>
       <c r="D47" s="20"/>
       <c r="E47" s="20"/>
       <c r="F47" s="20"/>
-      <c r="G47" s="20"/>
+      <c r="G47" s="20" t="s">
+        <v>40</v>
+      </c>
       <c r="H47" s="20"/>
       <c r="I47" s="20"/>
       <c r="J47" s="20"/>
       <c r="K47" s="20"/>
       <c r="L47" s="22"/>
-      <c r="M47" s="21"/>
+      <c r="M47" s="26" t="s">
+        <v>66</v>
+      </c>
       <c r="N47" s="21"/>
       <c r="O47" s="21"/>
       <c r="P47" s="21"/>
@@ -2762,9 +2758,13 @@
       <c r="T47" s="21"/>
       <c r="U47" s="21"/>
     </row>
-    <row r="48" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A48" s="19"/>
-      <c r="B48" s="24"/>
+    <row r="48" spans="1:22" s="27" customFormat="1">
+      <c r="A48" s="43" t="s">
+        <v>37</v>
+      </c>
+      <c r="B48" s="43" t="s">
+        <v>50</v>
+      </c>
       <c r="C48" s="20"/>
       <c r="D48" s="20"/>
       <c r="E48" s="20"/>
@@ -2774,20 +2774,20 @@
       <c r="I48" s="20"/>
       <c r="J48" s="20"/>
       <c r="K48" s="20"/>
-      <c r="L48" s="22"/>
-      <c r="M48" s="21"/>
-      <c r="N48" s="21"/>
-      <c r="O48" s="21"/>
-      <c r="P48" s="21"/>
-      <c r="Q48" s="21"/>
-      <c r="R48" s="21"/>
-      <c r="S48" s="21"/>
-      <c r="T48" s="21"/>
-      <c r="U48" s="21"/>
-    </row>
-    <row r="49" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A49" s="19"/>
-      <c r="B49" s="24"/>
+      <c r="L48" s="25"/>
+      <c r="M48" s="26"/>
+      <c r="N48" s="26"/>
+      <c r="O48" s="26"/>
+      <c r="P48" s="26"/>
+      <c r="Q48" s="26"/>
+      <c r="R48" s="26"/>
+      <c r="S48" s="26"/>
+      <c r="T48" s="26"/>
+      <c r="U48" s="26"/>
+    </row>
+    <row r="49" spans="1:21" s="27" customFormat="1">
+      <c r="A49" s="44"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="20"/>
       <c r="D49" s="20"/>
       <c r="E49" s="20"/>
@@ -2797,20 +2797,20 @@
       <c r="I49" s="20"/>
       <c r="J49" s="20"/>
       <c r="K49" s="20"/>
-      <c r="L49" s="22"/>
-      <c r="M49" s="21"/>
-      <c r="N49" s="21"/>
-      <c r="O49" s="21"/>
-      <c r="P49" s="21"/>
-      <c r="Q49" s="21"/>
-      <c r="R49" s="21"/>
-      <c r="S49" s="21"/>
-      <c r="T49" s="21"/>
-      <c r="U49" s="21"/>
-    </row>
-    <row r="50" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A50" s="19"/>
-      <c r="B50" s="24"/>
+      <c r="L49" s="25"/>
+      <c r="M49" s="26"/>
+      <c r="N49" s="26"/>
+      <c r="O49" s="26"/>
+      <c r="P49" s="26"/>
+      <c r="Q49" s="26"/>
+      <c r="R49" s="26"/>
+      <c r="S49" s="26"/>
+      <c r="T49" s="26"/>
+      <c r="U49" s="26"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="45"/>
+      <c r="B50" s="45"/>
       <c r="C50" s="20"/>
       <c r="D50" s="20"/>
       <c r="E50" s="20"/>
@@ -2831,9 +2831,13 @@
       <c r="T50" s="21"/>
       <c r="U50" s="21"/>
     </row>
-    <row r="51" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="A51" s="19"/>
-      <c r="B51" s="24"/>
+    <row r="51" spans="1:21" s="27" customFormat="1">
+      <c r="A51" s="19" t="s">
+        <v>38</v>
+      </c>
+      <c r="B51" s="20" t="s">
+        <v>51</v>
+      </c>
       <c r="C51" s="20"/>
       <c r="D51" s="20"/>
       <c r="E51" s="20"/>
@@ -2843,35 +2847,58 @@
       <c r="I51" s="20"/>
       <c r="J51" s="20"/>
       <c r="K51" s="20"/>
-      <c r="L51" s="22"/>
-      <c r="M51" s="21"/>
-      <c r="N51" s="21"/>
-      <c r="O51" s="21"/>
-      <c r="P51" s="21"/>
-      <c r="Q51" s="21"/>
-      <c r="R51" s="21"/>
-      <c r="S51" s="21"/>
-      <c r="T51" s="21"/>
-      <c r="U51" s="21"/>
-    </row>
-    <row r="52" spans="1:21" x14ac:dyDescent="0.2">
-      <c r="B52" s="3"/>
-      <c r="C52" s="3"/>
-      <c r="D52" s="3"/>
-      <c r="E52" s="3"/>
-      <c r="F52" s="3"/>
-      <c r="G52" s="3"/>
-      <c r="H52" s="3"/>
-      <c r="I52" s="3"/>
-      <c r="J52" s="3"/>
-      <c r="K52" s="3"/>
-      <c r="L52" s="3"/>
+      <c r="L51" s="25"/>
+      <c r="M51" s="26"/>
+      <c r="N51" s="26"/>
+      <c r="O51" s="26"/>
+      <c r="P51" s="26"/>
+      <c r="Q51" s="26"/>
+      <c r="R51" s="26"/>
+      <c r="S51" s="26"/>
+      <c r="T51" s="26"/>
+      <c r="U51" s="26"/>
+    </row>
+    <row r="52" spans="1:21" s="27" customFormat="1">
+      <c r="A52" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="B52" s="20" t="s">
+        <v>50</v>
+      </c>
+      <c r="C52" s="20"/>
+      <c r="D52" s="20"/>
+      <c r="E52" s="20"/>
+      <c r="F52" s="20"/>
+      <c r="G52" s="20"/>
+      <c r="H52" s="20"/>
+      <c r="I52" s="20"/>
+      <c r="J52" s="20"/>
+      <c r="K52" s="20"/>
+      <c r="L52" s="25"/>
+      <c r="M52" s="26"/>
+      <c r="N52" s="26"/>
+      <c r="O52" s="26"/>
+      <c r="P52" s="26"/>
+      <c r="Q52" s="26"/>
+      <c r="R52" s="26"/>
+      <c r="S52" s="26"/>
+      <c r="T52" s="26"/>
+      <c r="U52" s="26"/>
     </row>
   </sheetData>
-  <mergeCells count="12">
+  <mergeCells count="23">
+    <mergeCell ref="A45:A47"/>
+    <mergeCell ref="B45:B47"/>
+    <mergeCell ref="A48:A50"/>
+    <mergeCell ref="B48:B50"/>
+    <mergeCell ref="A43:A44"/>
+    <mergeCell ref="B43:B44"/>
+    <mergeCell ref="A41:A42"/>
+    <mergeCell ref="B41:B42"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="B38:B39"/>
     <mergeCell ref="A32:A35"/>
-    <mergeCell ref="A36:A39"/>
-    <mergeCell ref="A43:A46"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="I2:U2"/>
     <mergeCell ref="C2:D2"/>
@@ -2881,6 +2908,8 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A36:A37"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\Desktop\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A7E693-A55B-49A6-A216-24C8CE477833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
     <sheet name="Threat Model" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -20,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="68">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="196" uniqueCount="67">
   <si>
     <t>Asset</t>
   </si>
@@ -376,9 +382,6 @@
     <t>Smart contract</t>
   </si>
   <si>
-    <t>?</t>
-  </si>
-  <si>
     <t>AiTM (94)</t>
   </si>
   <si>
@@ -391,7 +394,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -556,7 +559,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="50">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -604,54 +607,48 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="16" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -660,9 +657,6 @@
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -672,18 +666,9 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -699,10 +684,13 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1016,108 +1004,108 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.8984375" style="3" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.59765625" style="3" customWidth="1"/>
     <col min="9" max="11" width="6.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="3"/>
+    <col min="12" max="12" width="10.8984375" style="3"/>
     <col min="13" max="13" width="20" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="3"/>
+    <col min="18" max="18" width="10.8984375" style="3"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.875" style="3"/>
+    <col min="22" max="16384" width="10.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
@@ -1137,274 +1125,283 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
-      <c r="H5" s="40"/>
-      <c r="I5" s="42" t="s">
+      <c r="D5" s="28"/>
+      <c r="E5" s="28"/>
+      <c r="F5" s="28"/>
+      <c r="G5" s="28"/>
+      <c r="H5" s="36"/>
+      <c r="I5" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="39"/>
+      <c r="J5" s="28"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="29"/>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="41"/>
-      <c r="J6" s="30"/>
+      <c r="C6" s="26"/>
+      <c r="D6" s="25"/>
+      <c r="E6" s="25"/>
+      <c r="F6" s="25"/>
+      <c r="G6" s="25"/>
+      <c r="H6" s="25"/>
+      <c r="I6" s="24"/>
+      <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="29"/>
-      <c r="D7" s="30"/>
-      <c r="E7" s="30"/>
-      <c r="F7" s="30"/>
-      <c r="G7" s="30"/>
-      <c r="H7" s="30"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="30"/>
+      <c r="C7" s="26"/>
+      <c r="D7" s="25"/>
+      <c r="E7" s="25"/>
+      <c r="F7" s="25"/>
+      <c r="G7" s="25"/>
+      <c r="H7" s="25"/>
+      <c r="I7" s="24"/>
+      <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="29"/>
-      <c r="D8" s="30"/>
-      <c r="E8" s="30"/>
-      <c r="F8" s="30"/>
-      <c r="G8" s="30"/>
-      <c r="H8" s="30"/>
-      <c r="I8" s="41"/>
-      <c r="J8" s="30"/>
+      <c r="C8" s="26"/>
+      <c r="D8" s="25"/>
+      <c r="E8" s="25"/>
+      <c r="F8" s="25"/>
+      <c r="G8" s="25"/>
+      <c r="H8" s="25"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="29"/>
-      <c r="D9" s="30"/>
-      <c r="E9" s="30"/>
-      <c r="F9" s="30"/>
-      <c r="G9" s="30"/>
-      <c r="H9" s="30"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="30"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="25"/>
+      <c r="E9" s="25"/>
+      <c r="F9" s="25"/>
+      <c r="G9" s="25"/>
+      <c r="H9" s="25"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="29"/>
-      <c r="D10" s="30"/>
-      <c r="E10" s="30"/>
-      <c r="F10" s="30"/>
-      <c r="G10" s="30"/>
-      <c r="H10" s="30"/>
-      <c r="I10" s="41"/>
-      <c r="J10" s="30"/>
+      <c r="C10" s="26"/>
+      <c r="D10" s="25"/>
+      <c r="E10" s="25"/>
+      <c r="F10" s="25"/>
+      <c r="G10" s="25"/>
+      <c r="H10" s="25"/>
+      <c r="I10" s="24"/>
+      <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="29"/>
-      <c r="D11" s="30"/>
-      <c r="E11" s="30"/>
-      <c r="F11" s="30"/>
-      <c r="G11" s="30"/>
-      <c r="H11" s="30"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="30"/>
+      <c r="C11" s="26"/>
+      <c r="D11" s="25"/>
+      <c r="E11" s="25"/>
+      <c r="F11" s="25"/>
+      <c r="G11" s="25"/>
+      <c r="H11" s="25"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="29"/>
-      <c r="D12" s="30"/>
-      <c r="E12" s="30"/>
-      <c r="F12" s="30"/>
-      <c r="G12" s="30"/>
-      <c r="H12" s="30"/>
-      <c r="I12" s="41"/>
-      <c r="J12" s="30"/>
+      <c r="C12" s="26"/>
+      <c r="D12" s="25"/>
+      <c r="E12" s="25"/>
+      <c r="F12" s="25"/>
+      <c r="G12" s="25"/>
+      <c r="H12" s="25"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="29"/>
-      <c r="D13" s="30"/>
-      <c r="E13" s="30"/>
-      <c r="F13" s="30"/>
-      <c r="G13" s="30"/>
-      <c r="H13" s="30"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="30"/>
+      <c r="C13" s="26"/>
+      <c r="D13" s="25"/>
+      <c r="E13" s="25"/>
+      <c r="F13" s="25"/>
+      <c r="G13" s="25"/>
+      <c r="H13" s="25"/>
+      <c r="I13" s="24"/>
+      <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="29"/>
-      <c r="D14" s="30"/>
-      <c r="E14" s="30"/>
-      <c r="F14" s="30"/>
-      <c r="G14" s="30"/>
-      <c r="H14" s="30"/>
-      <c r="I14" s="41"/>
-      <c r="J14" s="30"/>
+      <c r="C14" s="26"/>
+      <c r="D14" s="25"/>
+      <c r="E14" s="25"/>
+      <c r="F14" s="25"/>
+      <c r="G14" s="25"/>
+      <c r="H14" s="25"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="29"/>
-      <c r="D15" s="30"/>
-      <c r="E15" s="30"/>
-      <c r="F15" s="30"/>
-      <c r="G15" s="30"/>
-      <c r="H15" s="30"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="30"/>
+      <c r="C15" s="26"/>
+      <c r="D15" s="25"/>
+      <c r="E15" s="25"/>
+      <c r="F15" s="25"/>
+      <c r="G15" s="25"/>
+      <c r="H15" s="25"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="29"/>
-      <c r="D16" s="30"/>
-      <c r="E16" s="30"/>
-      <c r="F16" s="30"/>
-      <c r="G16" s="30"/>
-      <c r="H16" s="30"/>
-      <c r="I16" s="41"/>
-      <c r="J16" s="30"/>
+      <c r="C16" s="26"/>
+      <c r="D16" s="25"/>
+      <c r="E16" s="25"/>
+      <c r="F16" s="25"/>
+      <c r="G16" s="25"/>
+      <c r="H16" s="25"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="29"/>
-      <c r="D17" s="30"/>
-      <c r="E17" s="30"/>
-      <c r="F17" s="30"/>
-      <c r="G17" s="30"/>
-      <c r="H17" s="30"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="30"/>
+      <c r="C17" s="26"/>
+      <c r="D17" s="25"/>
+      <c r="E17" s="25"/>
+      <c r="F17" s="25"/>
+      <c r="G17" s="25"/>
+      <c r="H17" s="25"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="29"/>
-      <c r="D18" s="30"/>
-      <c r="E18" s="30"/>
-      <c r="F18" s="30"/>
-      <c r="G18" s="30"/>
-      <c r="H18" s="30"/>
-      <c r="I18" s="41"/>
-      <c r="J18" s="30"/>
+      <c r="C18" s="26"/>
+      <c r="D18" s="25"/>
+      <c r="E18" s="25"/>
+      <c r="F18" s="25"/>
+      <c r="G18" s="25"/>
+      <c r="H18" s="25"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="29"/>
-      <c r="D19" s="30"/>
-      <c r="E19" s="30"/>
-      <c r="F19" s="30"/>
-      <c r="G19" s="30"/>
-      <c r="H19" s="30"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="30"/>
+      <c r="C19" s="26"/>
+      <c r="D19" s="25"/>
+      <c r="E19" s="25"/>
+      <c r="F19" s="25"/>
+      <c r="G19" s="25"/>
+      <c r="H19" s="25"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="29"/>
-      <c r="D20" s="30"/>
-      <c r="E20" s="30"/>
-      <c r="F20" s="30"/>
-      <c r="G20" s="30"/>
-      <c r="H20" s="30"/>
-      <c r="I20" s="41"/>
-      <c r="J20" s="30"/>
+      <c r="C20" s="26"/>
+      <c r="D20" s="25"/>
+      <c r="E20" s="25"/>
+      <c r="F20" s="25"/>
+      <c r="G20" s="25"/>
+      <c r="H20" s="25"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="29"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="30"/>
-      <c r="F21" s="30"/>
-      <c r="G21" s="30"/>
-      <c r="H21" s="30"/>
-      <c r="I21" s="41"/>
-      <c r="J21" s="30"/>
+      <c r="C21" s="26"/>
+      <c r="D21" s="25"/>
+      <c r="E21" s="25"/>
+      <c r="F21" s="25"/>
+      <c r="G21" s="25"/>
+      <c r="H21" s="25"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="29"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="30"/>
+      <c r="C22" s="26"/>
+      <c r="D22" s="25"/>
+      <c r="E22" s="25"/>
+      <c r="F22" s="25"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="25"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="29"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="41"/>
-      <c r="J23" s="30"/>
+      <c r="C23" s="26"/>
+      <c r="D23" s="25"/>
+      <c r="E23" s="25"/>
+      <c r="F23" s="25"/>
+      <c r="G23" s="25"/>
+      <c r="H23" s="25"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="29"/>
-      <c r="D24" s="30"/>
-      <c r="E24" s="30"/>
-      <c r="F24" s="30"/>
-      <c r="G24" s="30"/>
-      <c r="H24" s="30"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="30"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="29"/>
-      <c r="D25" s="30"/>
-      <c r="E25" s="30"/>
-      <c r="F25" s="30"/>
-      <c r="G25" s="30"/>
-      <c r="H25" s="30"/>
-      <c r="I25" s="41"/>
-      <c r="J25" s="30"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="24"/>
+      <c r="J25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1421,130 +1418,121 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V52"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:V50"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="O37" sqref="O37"/>
+      <selection activeCell="K48" sqref="K48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="19.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.8984375" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="2"/>
-    <col min="13" max="13" width="35.625" style="3" customWidth="1"/>
+    <col min="3" max="11" width="6.8984375" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.8984375" style="2"/>
+    <col min="13" max="13" width="35.59765625" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
     <col min="18" max="18" width="20" style="3" customWidth="1"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="22" width="68.375" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.875" style="3"/>
+    <col min="22" max="22" width="68.3984375" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.8984375" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="31"/>
-      <c r="C1" s="31"/>
-      <c r="D1" s="31"/>
-      <c r="E1" s="31"/>
-      <c r="F1" s="31"/>
-      <c r="G1" s="32"/>
-      <c r="H1" s="32"/>
-      <c r="I1" s="32"/>
-      <c r="J1" s="32"/>
-      <c r="K1" s="32"/>
-      <c r="L1" s="32"/>
-      <c r="M1" s="32"/>
-      <c r="N1" s="33"/>
-      <c r="O1" s="33"/>
-      <c r="P1" s="33"/>
-      <c r="Q1" s="33"/>
-      <c r="R1" s="33"/>
-      <c r="S1" s="33"/>
-      <c r="T1" s="33"/>
-      <c r="U1" s="33"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="24.9" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="34" t="s">
+      <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="34"/>
-      <c r="E2" s="35"/>
-      <c r="F2" s="35"/>
-      <c r="G2" s="34" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="36"/>
-      <c r="I2" s="35"/>
-      <c r="J2" s="37"/>
-      <c r="K2" s="37"/>
-      <c r="L2" s="37"/>
-      <c r="M2" s="37"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="33"/>
-      <c r="P2" s="33"/>
-      <c r="Q2" s="33"/>
-      <c r="R2" s="33"/>
-      <c r="S2" s="33"/>
-      <c r="T2" s="33"/>
-      <c r="U2" s="33"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="34" t="s">
+      <c r="C3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="34"/>
-      <c r="E3" s="35"/>
-      <c r="F3" s="35"/>
-      <c r="G3" s="34" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="34"/>
-      <c r="I3" s="35"/>
-      <c r="J3" s="35"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
@@ -1623,29 +1611,29 @@
       </c>
     </row>
     <row r="6" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A6" s="19" t="s">
+      <c r="A6" s="16" t="s">
         <v>29</v>
       </c>
-      <c r="B6" s="23" t="s">
+      <c r="B6" s="18" t="s">
         <v>44</v>
       </c>
-      <c r="C6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D6" s="20"/>
-      <c r="E6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G6" s="20"/>
-      <c r="H6" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I6" s="20"/>
-      <c r="J6" s="20"/>
-      <c r="K6" s="20"/>
+      <c r="C6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
+      <c r="K6" s="17"/>
       <c r="L6" s="10"/>
       <c r="M6" s="9"/>
       <c r="N6" s="9"/>
@@ -1658,23 +1646,23 @@
       <c r="U6" s="9"/>
     </row>
     <row r="7" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A7" s="19" t="s">
+      <c r="A7" s="16" t="s">
         <v>30</v>
       </c>
-      <c r="B7" s="24" t="s">
+      <c r="B7" s="19" t="s">
         <v>43</v>
       </c>
-      <c r="C7" s="20"/>
-      <c r="D7" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E7" s="20"/>
-      <c r="F7" s="20"/>
-      <c r="G7" s="20"/>
-      <c r="H7" s="20"/>
-      <c r="I7" s="20"/>
-      <c r="J7" s="20"/>
-      <c r="K7" s="20"/>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E7" s="17"/>
+      <c r="F7" s="17"/>
+      <c r="G7" s="17"/>
+      <c r="H7" s="17"/>
+      <c r="I7" s="17"/>
+      <c r="J7" s="17"/>
+      <c r="K7" s="17"/>
       <c r="L7" s="10"/>
       <c r="M7" s="9"/>
       <c r="N7" s="9"/>
@@ -1687,27 +1675,27 @@
       <c r="U7" s="9"/>
     </row>
     <row r="8" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A8" s="19" t="s">
+      <c r="A8" s="16" t="s">
         <v>31</v>
       </c>
-      <c r="B8" s="20" t="s">
+      <c r="B8" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="C8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E8" s="20"/>
-      <c r="F8" s="20"/>
-      <c r="G8" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H8" s="20"/>
-      <c r="I8" s="20"/>
-      <c r="J8" s="20"/>
-      <c r="K8" s="20"/>
+      <c r="C8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E8" s="17"/>
+      <c r="F8" s="17"/>
+      <c r="G8" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H8" s="17"/>
+      <c r="I8" s="17"/>
+      <c r="J8" s="17"/>
+      <c r="K8" s="17"/>
       <c r="L8" s="10"/>
       <c r="M8" s="9"/>
       <c r="N8" s="9"/>
@@ -1720,29 +1708,29 @@
       <c r="U8" s="9"/>
     </row>
     <row r="9" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A9" s="19" t="s">
+      <c r="A9" s="16" t="s">
         <v>32</v>
       </c>
-      <c r="B9" s="20" t="s">
+      <c r="B9" s="17" t="s">
         <v>46</v>
       </c>
-      <c r="C9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E9" s="20"/>
-      <c r="F9" s="20"/>
-      <c r="G9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H9" s="20"/>
-      <c r="I9" s="20"/>
-      <c r="J9" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K9" s="20"/>
+      <c r="C9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E9" s="17"/>
+      <c r="F9" s="17"/>
+      <c r="G9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H9" s="17"/>
+      <c r="I9" s="17"/>
+      <c r="J9" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K9" s="17"/>
       <c r="L9" s="10"/>
       <c r="M9" s="9"/>
       <c r="N9" s="9"/>
@@ -1755,27 +1743,27 @@
       <c r="U9" s="9"/>
     </row>
     <row r="10" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A10" s="19" t="s">
+      <c r="A10" s="16" t="s">
         <v>39</v>
       </c>
-      <c r="B10" s="20" t="s">
+      <c r="B10" s="17" t="s">
         <v>47</v>
       </c>
-      <c r="C10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D10" s="20"/>
-      <c r="E10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="20"/>
-      <c r="H10" s="20"/>
-      <c r="I10" s="20"/>
-      <c r="J10" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K10" s="20"/>
+      <c r="C10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F10" s="17"/>
+      <c r="G10" s="17"/>
+      <c r="H10" s="17"/>
+      <c r="I10" s="17"/>
+      <c r="J10" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K10" s="17"/>
       <c r="L10" s="10"/>
       <c r="M10" s="9"/>
       <c r="N10" s="9"/>
@@ -1788,25 +1776,25 @@
       <c r="U10" s="9"/>
     </row>
     <row r="11" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A11" s="19" t="s">
+      <c r="A11" s="16" t="s">
         <v>33</v>
       </c>
-      <c r="B11" s="24" t="s">
+      <c r="B11" s="19" t="s">
         <v>48</v>
       </c>
-      <c r="C11" s="20"/>
-      <c r="D11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E11" s="20"/>
-      <c r="F11" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G11" s="20"/>
-      <c r="H11" s="20"/>
-      <c r="I11" s="20"/>
-      <c r="J11" s="20"/>
-      <c r="K11" s="20"/>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E11" s="17"/>
+      <c r="F11" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G11" s="17"/>
+      <c r="H11" s="17"/>
+      <c r="I11" s="17"/>
+      <c r="J11" s="17"/>
+      <c r="K11" s="17"/>
       <c r="L11" s="10"/>
       <c r="M11" s="9"/>
       <c r="N11" s="9"/>
@@ -1819,27 +1807,27 @@
       <c r="U11" s="9"/>
     </row>
     <row r="12" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A12" s="19" t="s">
+      <c r="A12" s="16" t="s">
         <v>34</v>
       </c>
-      <c r="B12" s="20" t="s">
+      <c r="B12" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E12" s="20"/>
-      <c r="F12" s="20"/>
-      <c r="G12" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H12" s="20"/>
-      <c r="I12" s="20"/>
-      <c r="J12" s="20"/>
-      <c r="K12" s="20"/>
+      <c r="C12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E12" s="17"/>
+      <c r="F12" s="17"/>
+      <c r="G12" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H12" s="17"/>
+      <c r="I12" s="17"/>
+      <c r="J12" s="17"/>
+      <c r="K12" s="17"/>
       <c r="L12" s="10"/>
       <c r="M12" s="9"/>
       <c r="N12" s="9"/>
@@ -1852,23 +1840,23 @@
       <c r="U12" s="9"/>
     </row>
     <row r="13" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A13" s="19" t="s">
+      <c r="A13" s="16" t="s">
         <v>35</v>
       </c>
-      <c r="B13" s="20" t="s">
+      <c r="B13" s="17" t="s">
         <v>49</v>
       </c>
-      <c r="C13" s="20"/>
-      <c r="D13" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E13" s="20"/>
-      <c r="F13" s="20"/>
-      <c r="G13" s="20"/>
-      <c r="H13" s="20"/>
-      <c r="I13" s="20"/>
-      <c r="J13" s="20"/>
-      <c r="K13" s="20"/>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E13" s="17"/>
+      <c r="F13" s="17"/>
+      <c r="G13" s="17"/>
+      <c r="H13" s="17"/>
+      <c r="I13" s="17"/>
+      <c r="J13" s="17"/>
+      <c r="K13" s="17"/>
       <c r="L13" s="10"/>
       <c r="M13" s="9"/>
       <c r="N13" s="9"/>
@@ -1881,27 +1869,27 @@
       <c r="U13" s="9"/>
     </row>
     <row r="14" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A14" s="19" t="s">
+      <c r="A14" s="16" t="s">
         <v>36</v>
       </c>
-      <c r="B14" s="20" t="s">
+      <c r="B14" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="C14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D14" s="20"/>
-      <c r="E14" s="20"/>
-      <c r="F14" s="20"/>
-      <c r="G14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H14" s="20"/>
-      <c r="I14" s="20"/>
-      <c r="J14" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K14" s="20"/>
+      <c r="C14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
+      <c r="F14" s="17"/>
+      <c r="G14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H14" s="17"/>
+      <c r="I14" s="17"/>
+      <c r="J14" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K14" s="17"/>
       <c r="L14" s="10"/>
       <c r="M14" s="9"/>
       <c r="N14" s="9"/>
@@ -1914,25 +1902,25 @@
       <c r="U14" s="9"/>
     </row>
     <row r="15" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A15" s="19" t="s">
+      <c r="A15" s="16" t="s">
         <v>37</v>
       </c>
-      <c r="B15" s="20" t="s">
+      <c r="B15" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D15" s="20"/>
-      <c r="E15" s="20"/>
-      <c r="F15" s="20"/>
-      <c r="G15" s="20"/>
-      <c r="H15" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I15" s="20"/>
-      <c r="J15" s="20"/>
-      <c r="K15" s="20"/>
+      <c r="C15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" s="17"/>
+      <c r="E15" s="17"/>
+      <c r="F15" s="17"/>
+      <c r="G15" s="17"/>
+      <c r="H15" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I15" s="17"/>
+      <c r="J15" s="17"/>
+      <c r="K15" s="17"/>
       <c r="L15" s="10"/>
       <c r="M15" s="9"/>
       <c r="N15" s="9"/>
@@ -1945,27 +1933,27 @@
       <c r="U15" s="9"/>
     </row>
     <row r="16" spans="1:21" ht="54.75" customHeight="1">
-      <c r="A16" s="19" t="s">
+      <c r="A16" s="16" t="s">
         <v>38</v>
       </c>
-      <c r="B16" s="20" t="s">
+      <c r="B16" s="17" t="s">
         <v>51</v>
       </c>
-      <c r="C16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E16" s="20"/>
-      <c r="F16" s="20"/>
-      <c r="G16" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H16" s="20"/>
-      <c r="I16" s="20"/>
-      <c r="J16" s="20"/>
-      <c r="K16" s="20"/>
+      <c r="C16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E16" s="17"/>
+      <c r="F16" s="17"/>
+      <c r="G16" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="17"/>
+      <c r="I16" s="17"/>
+      <c r="J16" s="17"/>
+      <c r="K16" s="17"/>
       <c r="L16" s="10"/>
       <c r="M16" s="9"/>
       <c r="N16" s="9"/>
@@ -1977,38 +1965,38 @@
       <c r="T16" s="9"/>
       <c r="U16" s="9"/>
     </row>
-    <row r="17" spans="1:22" s="18" customFormat="1" ht="54.75" customHeight="1">
-      <c r="A17" s="19" t="s">
+    <row r="17" spans="1:22" ht="54.75" customHeight="1">
+      <c r="A17" s="16" t="s">
         <v>41</v>
       </c>
-      <c r="B17" s="20" t="s">
+      <c r="B17" s="17" t="s">
         <v>50</v>
       </c>
-      <c r="C17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E17" s="20"/>
-      <c r="F17" s="20"/>
-      <c r="G17" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H17" s="20"/>
-      <c r="I17" s="20"/>
-      <c r="J17" s="20"/>
-      <c r="K17" s="20"/>
-      <c r="L17" s="16"/>
-      <c r="M17" s="17"/>
-      <c r="N17" s="17"/>
-      <c r="O17" s="17"/>
-      <c r="P17" s="17"/>
-      <c r="Q17" s="17"/>
-      <c r="R17" s="17"/>
-      <c r="S17" s="17"/>
-      <c r="T17" s="17"/>
-      <c r="U17" s="17"/>
+      <c r="C17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E17" s="17"/>
+      <c r="F17" s="17"/>
+      <c r="G17" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H17" s="17"/>
+      <c r="I17" s="17"/>
+      <c r="J17" s="17"/>
+      <c r="K17" s="17"/>
+      <c r="L17" s="10"/>
+      <c r="M17" s="9"/>
+      <c r="N17" s="9"/>
+      <c r="O17" s="9"/>
+      <c r="P17" s="9"/>
+      <c r="Q17" s="9"/>
+      <c r="R17" s="9"/>
+      <c r="S17" s="9"/>
+      <c r="T17" s="9"/>
+      <c r="U17" s="9"/>
     </row>
     <row r="18" spans="1:22">
       <c r="A18" s="9"/>
@@ -2194,7 +2182,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="31" spans="1:22" ht="153.75">
+    <row r="31" spans="1:22" ht="155.4">
       <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
@@ -2263,641 +2251,605 @@
       </c>
     </row>
     <row r="32" spans="1:22">
-      <c r="A32" s="43" t="s">
+      <c r="A32" s="37" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="43" t="s">
+      <c r="B32" s="37" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D32" s="20"/>
-      <c r="E32" s="20"/>
-      <c r="F32" s="20"/>
-      <c r="G32" s="20"/>
-      <c r="H32" s="20"/>
-      <c r="I32" s="20"/>
-      <c r="J32" s="20"/>
-      <c r="K32" s="20"/>
-      <c r="L32" s="16"/>
-      <c r="M32" s="17" t="s">
+      <c r="C32" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
+      <c r="K32" s="17"/>
+      <c r="L32" s="10"/>
+      <c r="M32" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
-    </row>
-    <row r="33" spans="1:22" s="28" customFormat="1" ht="32.1" customHeight="1">
-      <c r="A33" s="44"/>
-      <c r="B33" s="44"/>
-      <c r="C33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D33" s="20"/>
-      <c r="E33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G33" s="20"/>
-      <c r="H33" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I33" s="20"/>
-      <c r="J33" s="20"/>
-      <c r="K33" s="20"/>
-      <c r="L33" s="25"/>
-      <c r="M33" s="26" t="s">
+      <c r="N32" s="9"/>
+      <c r="O32" s="9"/>
+      <c r="P32" s="9"/>
+      <c r="Q32" s="9"/>
+      <c r="R32" s="9"/>
+      <c r="S32" s="9"/>
+      <c r="T32" s="9"/>
+      <c r="U32" s="9"/>
+    </row>
+    <row r="33" spans="1:22" s="20" customFormat="1" ht="32.1" customHeight="1">
+      <c r="A33" s="38"/>
+      <c r="B33" s="38"/>
+      <c r="C33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
+      <c r="K33" s="17"/>
+      <c r="L33" s="10"/>
+      <c r="M33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="N33" s="26"/>
-      <c r="O33" s="26"/>
-      <c r="P33" s="26"/>
-      <c r="Q33" s="26"/>
-      <c r="R33" s="26"/>
-      <c r="S33" s="26"/>
-      <c r="T33" s="26"/>
-      <c r="U33" s="26"/>
-      <c r="V33" s="28" t="s">
+      <c r="N33" s="9"/>
+      <c r="O33" s="9"/>
+      <c r="P33" s="9"/>
+      <c r="Q33" s="9"/>
+      <c r="R33" s="9"/>
+      <c r="S33" s="9"/>
+      <c r="T33" s="9"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="20" t="s">
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="28" customFormat="1" ht="31.5">
-      <c r="A34" s="44"/>
-      <c r="B34" s="44"/>
-      <c r="C34" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D34" s="20"/>
-      <c r="E34" s="20"/>
-      <c r="F34" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G34" s="20"/>
-      <c r="H34" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I34" s="20"/>
-      <c r="J34" s="20"/>
-      <c r="K34" s="20"/>
-      <c r="L34" s="25"/>
-      <c r="M34" s="48" t="s">
+    <row r="34" spans="1:22" s="20" customFormat="1" ht="31.2">
+      <c r="A34" s="38"/>
+      <c r="B34" s="38"/>
+      <c r="C34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D34" s="17"/>
+      <c r="E34" s="17"/>
+      <c r="F34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G34" s="17"/>
+      <c r="H34" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I34" s="17"/>
+      <c r="J34" s="17"/>
+      <c r="K34" s="17"/>
+      <c r="L34" s="10"/>
+      <c r="M34" s="23" t="s">
         <v>57</v>
       </c>
-      <c r="N34" s="26"/>
-      <c r="O34" s="26"/>
-      <c r="P34" s="26"/>
-      <c r="Q34" s="26"/>
-      <c r="R34" s="26"/>
-      <c r="S34" s="26"/>
-      <c r="T34" s="26"/>
-      <c r="U34" s="26"/>
-      <c r="V34" s="28" t="s">
+      <c r="N34" s="9"/>
+      <c r="O34" s="9"/>
+      <c r="P34" s="9"/>
+      <c r="Q34" s="9"/>
+      <c r="R34" s="9"/>
+      <c r="S34" s="9"/>
+      <c r="T34" s="9"/>
+      <c r="U34" s="9"/>
+      <c r="V34" s="20" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="28" customFormat="1">
-      <c r="A35" s="45"/>
-      <c r="B35" s="45"/>
-      <c r="C35" s="20"/>
-      <c r="D35" s="20"/>
-      <c r="E35" s="20"/>
-      <c r="F35" s="20"/>
-      <c r="G35" s="20"/>
-      <c r="H35" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I35" s="20"/>
-      <c r="J35" s="20"/>
-      <c r="K35" s="20"/>
-      <c r="L35" s="25"/>
-      <c r="M35" s="26" t="s">
+    <row r="35" spans="1:22" s="20" customFormat="1">
+      <c r="A35" s="39"/>
+      <c r="B35" s="39"/>
+      <c r="C35" s="17"/>
+      <c r="D35" s="17"/>
+      <c r="E35" s="17"/>
+      <c r="F35" s="17"/>
+      <c r="G35" s="17"/>
+      <c r="H35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I35" s="17"/>
+      <c r="J35" s="17"/>
+      <c r="K35" s="17"/>
+      <c r="L35" s="10"/>
+      <c r="M35" s="9" t="s">
         <v>60</v>
       </c>
-      <c r="N35" s="26"/>
-      <c r="O35" s="26"/>
-      <c r="P35" s="26"/>
-      <c r="Q35" s="26"/>
-      <c r="R35" s="26"/>
-      <c r="S35" s="26"/>
-      <c r="T35" s="26"/>
-      <c r="U35" s="26"/>
-      <c r="V35" s="28" t="s">
+      <c r="N35" s="9"/>
+      <c r="O35" s="9"/>
+      <c r="P35" s="9"/>
+      <c r="Q35" s="9"/>
+      <c r="R35" s="9"/>
+      <c r="S35" s="9"/>
+      <c r="T35" s="9"/>
+      <c r="U35" s="9"/>
+      <c r="V35" s="20" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="28" customFormat="1" ht="31.5">
-      <c r="A36" s="43" t="s">
+    <row r="36" spans="1:22" s="20" customFormat="1" ht="31.2">
+      <c r="A36" s="37" t="s">
         <v>63</v>
       </c>
-      <c r="B36" s="46" t="s">
+      <c r="B36" s="40" t="s">
         <v>43</v>
       </c>
-      <c r="C36" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D36" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E36" s="20"/>
-      <c r="F36" s="20"/>
-      <c r="G36" s="20"/>
-      <c r="H36" s="20"/>
-      <c r="I36" s="20"/>
-      <c r="J36" s="20"/>
-      <c r="K36" s="20"/>
-      <c r="L36" s="25"/>
-      <c r="M36" s="26" t="s">
+      <c r="C36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D36" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E36" s="17"/>
+      <c r="F36" s="17"/>
+      <c r="G36" s="17"/>
+      <c r="H36" s="17"/>
+      <c r="I36" s="17"/>
+      <c r="J36" s="17"/>
+      <c r="K36" s="17"/>
+      <c r="L36" s="10"/>
+      <c r="M36" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N36" s="26"/>
-      <c r="O36" s="26"/>
-      <c r="P36" s="26"/>
-      <c r="Q36" s="26"/>
-      <c r="R36" s="26"/>
-      <c r="S36" s="26"/>
-      <c r="T36" s="26"/>
-      <c r="U36" s="26"/>
-      <c r="V36" s="28" t="s">
+      <c r="N36" s="9"/>
+      <c r="O36" s="9"/>
+      <c r="P36" s="9"/>
+      <c r="Q36" s="9"/>
+      <c r="R36" s="9"/>
+      <c r="S36" s="9"/>
+      <c r="T36" s="9"/>
+      <c r="U36" s="9"/>
+      <c r="V36" s="20" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="28" customFormat="1">
-      <c r="A37" s="45"/>
-      <c r="B37" s="47"/>
-      <c r="C37" s="20"/>
-      <c r="D37" s="20"/>
-      <c r="E37" s="20"/>
-      <c r="F37" s="20"/>
-      <c r="G37" s="20"/>
-      <c r="H37" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="I37" s="20"/>
-      <c r="J37" s="20"/>
-      <c r="K37" s="20"/>
-      <c r="L37" s="25"/>
-      <c r="M37" s="48" t="s">
+    <row r="37" spans="1:22" s="20" customFormat="1">
+      <c r="A37" s="39"/>
+      <c r="B37" s="41"/>
+      <c r="C37" s="17"/>
+      <c r="D37" s="17"/>
+      <c r="E37" s="17"/>
+      <c r="F37" s="17"/>
+      <c r="G37" s="17"/>
+      <c r="H37" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="I37" s="17"/>
+      <c r="J37" s="17"/>
+      <c r="K37" s="17"/>
+      <c r="L37" s="10"/>
+      <c r="M37" s="23" t="s">
         <v>60</v>
       </c>
-      <c r="N37" s="26"/>
-      <c r="O37" s="26"/>
-      <c r="P37" s="26"/>
-      <c r="Q37" s="26"/>
-      <c r="R37" s="26"/>
-      <c r="S37" s="26"/>
-      <c r="T37" s="26"/>
-      <c r="U37" s="26"/>
-      <c r="V37" s="49"/>
-    </row>
-    <row r="38" spans="1:22" s="28" customFormat="1">
-      <c r="A38" s="43" t="s">
+      <c r="N37" s="9"/>
+      <c r="O37" s="9"/>
+      <c r="P37" s="9"/>
+      <c r="Q37" s="9"/>
+      <c r="R37" s="9"/>
+      <c r="S37" s="9"/>
+      <c r="T37" s="9"/>
+      <c r="U37" s="9"/>
+      <c r="V37" s="3"/>
+    </row>
+    <row r="38" spans="1:22" ht="18" customHeight="1">
+      <c r="A38" s="42" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="43" t="s">
+      <c r="B38" s="42" t="s">
         <v>45</v>
       </c>
-      <c r="C38" s="20"/>
-      <c r="D38" s="20"/>
-      <c r="E38" s="20"/>
-      <c r="F38" s="20"/>
-      <c r="G38" s="20"/>
-      <c r="H38" s="20"/>
-      <c r="I38" s="20"/>
-      <c r="J38" s="20"/>
-      <c r="K38" s="20"/>
-      <c r="L38" s="25"/>
-      <c r="M38" s="26" t="s">
+      <c r="C38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D38" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E38" s="17"/>
+      <c r="F38" s="17"/>
+      <c r="G38" s="17"/>
+      <c r="H38" s="17"/>
+      <c r="I38" s="17"/>
+      <c r="J38" s="17"/>
+      <c r="K38" s="17"/>
+      <c r="L38" s="10"/>
+      <c r="M38" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N38" s="9"/>
+      <c r="O38" s="9"/>
+      <c r="P38" s="9"/>
+      <c r="Q38" s="9"/>
+      <c r="R38" s="9"/>
+      <c r="S38" s="9"/>
+      <c r="T38" s="9"/>
+      <c r="U38" s="9"/>
+    </row>
+    <row r="39" spans="1:22">
+      <c r="A39" s="17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B39" s="17" t="s">
+        <v>46</v>
+      </c>
+      <c r="C39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D39" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E39" s="17"/>
+      <c r="F39" s="17"/>
+      <c r="G39" s="17"/>
+      <c r="H39" s="17"/>
+      <c r="I39" s="17"/>
+      <c r="J39" s="17"/>
+      <c r="K39" s="17"/>
+      <c r="L39" s="10"/>
+      <c r="M39" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N39" s="9"/>
+      <c r="O39" s="9"/>
+      <c r="P39" s="9"/>
+      <c r="Q39" s="9"/>
+      <c r="R39" s="9"/>
+      <c r="S39" s="9"/>
+      <c r="T39" s="9"/>
+      <c r="U39" s="9"/>
+    </row>
+    <row r="40" spans="1:22" ht="15.75" customHeight="1">
+      <c r="A40" s="37" t="s">
+        <v>34</v>
+      </c>
+      <c r="B40" s="37" t="s">
+        <v>49</v>
+      </c>
+      <c r="C40" s="17"/>
+      <c r="D40" s="17"/>
+      <c r="E40" s="17"/>
+      <c r="F40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G40" s="17"/>
+      <c r="H40" s="17"/>
+      <c r="I40" s="17"/>
+      <c r="J40" s="17"/>
+      <c r="K40" s="17"/>
+      <c r="L40" s="10"/>
+      <c r="M40" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N40" s="9"/>
+      <c r="O40" s="9"/>
+      <c r="P40" s="9"/>
+      <c r="Q40" s="9"/>
+      <c r="R40" s="9"/>
+      <c r="S40" s="9"/>
+      <c r="T40" s="9"/>
+      <c r="U40" s="9"/>
+    </row>
+    <row r="41" spans="1:22">
+      <c r="A41" s="39"/>
+      <c r="B41" s="39"/>
+      <c r="C41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D41" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E41" s="17"/>
+      <c r="F41" s="17"/>
+      <c r="G41" s="17"/>
+      <c r="H41" s="17"/>
+      <c r="I41" s="17"/>
+      <c r="J41" s="17"/>
+      <c r="K41" s="17"/>
+      <c r="L41" s="10"/>
+      <c r="M41" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N41" s="9"/>
+      <c r="O41" s="9"/>
+      <c r="P41" s="9"/>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+    </row>
+    <row r="42" spans="1:22">
+      <c r="A42" s="38" t="s">
+        <v>35</v>
+      </c>
+      <c r="B42" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="C42" s="17"/>
+      <c r="D42" s="17"/>
+      <c r="E42" s="17"/>
+      <c r="F42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G42" s="17"/>
+      <c r="H42" s="17"/>
+      <c r="I42" s="17"/>
+      <c r="J42" s="17"/>
+      <c r="K42" s="17"/>
+      <c r="L42" s="10"/>
+      <c r="M42" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="N42" s="9"/>
+      <c r="O42" s="9"/>
+      <c r="P42" s="9"/>
+      <c r="Q42" s="9"/>
+      <c r="R42" s="9"/>
+      <c r="S42" s="9"/>
+      <c r="T42" s="9"/>
+      <c r="U42" s="9"/>
+    </row>
+    <row r="43" spans="1:22" ht="33.75" customHeight="1">
+      <c r="A43" s="39"/>
+      <c r="B43" s="39"/>
+      <c r="C43" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D43" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E43" s="17"/>
+      <c r="F43" s="17"/>
+      <c r="G43" s="17"/>
+      <c r="H43" s="17"/>
+      <c r="I43" s="17"/>
+      <c r="J43" s="17"/>
+      <c r="K43" s="17"/>
+      <c r="L43" s="10"/>
+      <c r="M43" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="N43" s="9"/>
+      <c r="O43" s="9"/>
+      <c r="P43" s="9"/>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+    </row>
+    <row r="44" spans="1:22">
+      <c r="A44" s="42" t="s">
+        <v>36</v>
+      </c>
+      <c r="B44" s="21" t="s">
+        <v>44</v>
+      </c>
+      <c r="C44" s="17"/>
+      <c r="D44" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E44" s="17"/>
+      <c r="F44" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G44" s="17"/>
+      <c r="H44" s="17"/>
+      <c r="I44" s="17"/>
+      <c r="J44" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K44" s="17"/>
+      <c r="L44" s="10"/>
+      <c r="M44" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="N38" s="26"/>
-      <c r="O38" s="26"/>
-      <c r="P38" s="26"/>
-      <c r="Q38" s="26"/>
-      <c r="R38" s="26"/>
-      <c r="S38" s="26"/>
-      <c r="T38" s="26"/>
-      <c r="U38" s="26"/>
-      <c r="V38" s="49"/>
-    </row>
-    <row r="39" spans="1:22" ht="18" customHeight="1">
-      <c r="A39" s="45"/>
-      <c r="B39" s="45"/>
-      <c r="C39" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D39" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E39" s="20"/>
-      <c r="F39" s="20"/>
-      <c r="G39" s="20"/>
-      <c r="H39" s="20"/>
-      <c r="I39" s="20"/>
-      <c r="J39" s="20"/>
-      <c r="K39" s="20"/>
-      <c r="L39" s="22"/>
-      <c r="M39" s="21" t="s">
+      <c r="N44" s="9"/>
+      <c r="O44" s="9"/>
+      <c r="P44" s="9"/>
+      <c r="Q44" s="9"/>
+      <c r="R44" s="9"/>
+      <c r="S44" s="9"/>
+      <c r="T44" s="9"/>
+      <c r="U44" s="9"/>
+    </row>
+    <row r="45" spans="1:22">
+      <c r="A45" s="43"/>
+      <c r="B45" s="22"/>
+      <c r="C45" s="17"/>
+      <c r="D45" s="17"/>
+      <c r="E45" s="17"/>
+      <c r="F45" s="17"/>
+      <c r="G45" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H45" s="17"/>
+      <c r="I45" s="17"/>
+      <c r="J45" s="17"/>
+      <c r="K45" s="17"/>
+      <c r="L45" s="10"/>
+      <c r="M45" s="44" t="s">
+        <v>66</v>
+      </c>
+      <c r="N45" s="9"/>
+      <c r="O45" s="9"/>
+      <c r="P45" s="9"/>
+      <c r="Q45" s="9"/>
+      <c r="R45" s="9"/>
+      <c r="S45" s="9"/>
+      <c r="T45" s="9"/>
+      <c r="U45" s="9"/>
+    </row>
+    <row r="46" spans="1:22">
+      <c r="A46" s="37" t="s">
+        <v>37</v>
+      </c>
+      <c r="B46" s="37" t="s">
+        <v>50</v>
+      </c>
+      <c r="C46" s="17"/>
+      <c r="D46" s="17"/>
+      <c r="E46" s="17"/>
+      <c r="F46" s="17"/>
+      <c r="G46" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H46" s="17"/>
+      <c r="I46" s="17"/>
+      <c r="J46" s="17"/>
+      <c r="K46" s="17"/>
+      <c r="L46" s="10"/>
+      <c r="M46" s="9" t="s">
+        <v>66</v>
+      </c>
+      <c r="N46" s="9"/>
+      <c r="O46" s="9"/>
+      <c r="P46" s="9"/>
+      <c r="Q46" s="9"/>
+      <c r="R46" s="9"/>
+      <c r="S46" s="9"/>
+      <c r="T46" s="9"/>
+      <c r="U46" s="9"/>
+    </row>
+    <row r="47" spans="1:22">
+      <c r="A47" s="38"/>
+      <c r="B47" s="38"/>
+      <c r="C47" s="17"/>
+      <c r="D47" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E47" s="17"/>
+      <c r="F47" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G47" s="17"/>
+      <c r="H47" s="17"/>
+      <c r="I47" s="17"/>
+      <c r="J47" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="K47" s="17"/>
+      <c r="L47" s="10"/>
+      <c r="M47" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="N47" s="9"/>
+      <c r="O47" s="9"/>
+      <c r="P47" s="9"/>
+      <c r="Q47" s="9"/>
+      <c r="R47" s="9"/>
+      <c r="S47" s="9"/>
+      <c r="T47" s="9"/>
+      <c r="U47" s="9"/>
+    </row>
+    <row r="48" spans="1:22">
+      <c r="A48" s="39"/>
+      <c r="B48" s="39"/>
+      <c r="C48" s="17"/>
+      <c r="D48" s="17"/>
+      <c r="E48" s="17"/>
+      <c r="F48" s="17"/>
+      <c r="G48" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="H48" s="17"/>
+      <c r="I48" s="17"/>
+      <c r="J48" s="17"/>
+      <c r="K48" s="17"/>
+      <c r="L48" s="10"/>
+      <c r="M48" s="9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N48" s="9"/>
+      <c r="O48" s="9"/>
+      <c r="P48" s="9"/>
+      <c r="Q48" s="9"/>
+      <c r="R48" s="9"/>
+      <c r="S48" s="9"/>
+      <c r="T48" s="9"/>
+      <c r="U48" s="9"/>
+    </row>
+    <row r="49" spans="1:21">
+      <c r="A49" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="B49" s="17" t="s">
+        <v>51</v>
+      </c>
+      <c r="C49" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D49" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
+      <c r="K49" s="17"/>
+      <c r="L49" s="10"/>
+      <c r="M49" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N39" s="21"/>
-      <c r="O39" s="21"/>
-      <c r="P39" s="21"/>
-      <c r="Q39" s="21"/>
-      <c r="R39" s="21"/>
-      <c r="S39" s="21"/>
-      <c r="T39" s="21"/>
-      <c r="U39" s="21"/>
-    </row>
-    <row r="40" spans="1:22">
-      <c r="A40" s="20" t="s">
-        <v>32</v>
-      </c>
-      <c r="B40" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="C40" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D40" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E40" s="20"/>
-      <c r="F40" s="20"/>
-      <c r="G40" s="20"/>
-      <c r="H40" s="20"/>
-      <c r="I40" s="20"/>
-      <c r="J40" s="20"/>
-      <c r="K40" s="20"/>
-      <c r="L40" s="22"/>
-      <c r="M40" s="21" t="s">
+      <c r="N49" s="9"/>
+      <c r="O49" s="9"/>
+      <c r="P49" s="9"/>
+      <c r="Q49" s="9"/>
+      <c r="R49" s="9"/>
+      <c r="S49" s="9"/>
+      <c r="T49" s="9"/>
+      <c r="U49" s="9"/>
+    </row>
+    <row r="50" spans="1:21">
+      <c r="A50" s="16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B50" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="C50" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D50" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
+      <c r="K50" s="17"/>
+      <c r="L50" s="10"/>
+      <c r="M50" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="N40" s="21"/>
-      <c r="O40" s="21"/>
-      <c r="P40" s="21"/>
-      <c r="Q40" s="21"/>
-      <c r="R40" s="21"/>
-      <c r="S40" s="21"/>
-      <c r="T40" s="21"/>
-      <c r="U40" s="21"/>
-    </row>
-    <row r="41" spans="1:22" s="27" customFormat="1" ht="15.75" customHeight="1">
-      <c r="A41" s="43" t="s">
-        <v>34</v>
-      </c>
-      <c r="B41" s="43" t="s">
-        <v>49</v>
-      </c>
-      <c r="C41" s="20"/>
-      <c r="D41" s="20"/>
-      <c r="E41" s="20"/>
-      <c r="F41" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G41" s="20"/>
-      <c r="H41" s="20"/>
-      <c r="I41" s="20"/>
-      <c r="J41" s="20"/>
-      <c r="K41" s="20"/>
-      <c r="L41" s="25"/>
-      <c r="M41" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="N41" s="26"/>
-      <c r="O41" s="26"/>
-      <c r="P41" s="26"/>
-      <c r="Q41" s="26"/>
-      <c r="R41" s="26"/>
-      <c r="S41" s="26"/>
-      <c r="T41" s="26"/>
-      <c r="U41" s="26"/>
-    </row>
-    <row r="42" spans="1:22" s="27" customFormat="1">
-      <c r="A42" s="45"/>
-      <c r="B42" s="45"/>
-      <c r="C42" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D42" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E42" s="20"/>
-      <c r="F42" s="20"/>
-      <c r="G42" s="20"/>
-      <c r="H42" s="20"/>
-      <c r="I42" s="20"/>
-      <c r="J42" s="20"/>
-      <c r="K42" s="20"/>
-      <c r="L42" s="25"/>
-      <c r="M42" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N42" s="26"/>
-      <c r="O42" s="26"/>
-      <c r="P42" s="26"/>
-      <c r="Q42" s="26"/>
-      <c r="R42" s="26"/>
-      <c r="S42" s="26"/>
-      <c r="T42" s="26"/>
-      <c r="U42" s="26"/>
-    </row>
-    <row r="43" spans="1:22">
-      <c r="A43" s="44" t="s">
-        <v>35</v>
-      </c>
-      <c r="B43" s="44" t="s">
-        <v>49</v>
-      </c>
-      <c r="C43" s="20"/>
-      <c r="D43" s="20"/>
-      <c r="E43" s="20"/>
-      <c r="F43" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G43" s="20"/>
-      <c r="H43" s="20"/>
-      <c r="I43" s="20"/>
-      <c r="J43" s="20"/>
-      <c r="K43" s="20"/>
-      <c r="L43" s="22"/>
-      <c r="M43" s="26" t="s">
-        <v>52</v>
-      </c>
-      <c r="N43" s="21"/>
-      <c r="O43" s="21"/>
-      <c r="P43" s="21"/>
-      <c r="Q43" s="21"/>
-      <c r="R43" s="21"/>
-      <c r="S43" s="21"/>
-      <c r="T43" s="21"/>
-      <c r="U43" s="21"/>
-    </row>
-    <row r="44" spans="1:22" ht="33.75" customHeight="1">
-      <c r="A44" s="45"/>
-      <c r="B44" s="45"/>
-      <c r="C44" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="D44" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E44" s="20"/>
-      <c r="F44" s="20"/>
-      <c r="G44" s="20"/>
-      <c r="H44" s="20"/>
-      <c r="I44" s="20"/>
-      <c r="J44" s="20"/>
-      <c r="K44" s="20"/>
-      <c r="L44" s="22"/>
-      <c r="M44" s="26" t="s">
-        <v>59</v>
-      </c>
-      <c r="N44" s="21"/>
-      <c r="O44" s="21"/>
-      <c r="P44" s="21"/>
-      <c r="Q44" s="21"/>
-      <c r="R44" s="21"/>
-      <c r="S44" s="21"/>
-      <c r="T44" s="21"/>
-      <c r="U44" s="21"/>
-    </row>
-    <row r="45" spans="1:22" s="27" customFormat="1">
-      <c r="A45" s="43" t="s">
-        <v>36</v>
-      </c>
-      <c r="B45" s="43" t="s">
-        <v>44</v>
-      </c>
-      <c r="C45" s="20"/>
-      <c r="D45" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="E45" s="20"/>
-      <c r="F45" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="G45" s="20"/>
-      <c r="H45" s="20"/>
-      <c r="I45" s="20"/>
-      <c r="J45" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="K45" s="20"/>
-      <c r="L45" s="25"/>
-      <c r="M45" s="26" t="s">
-        <v>65</v>
-      </c>
-      <c r="N45" s="26"/>
-      <c r="O45" s="26"/>
-      <c r="P45" s="26"/>
-      <c r="Q45" s="26"/>
-      <c r="R45" s="26"/>
-      <c r="S45" s="26"/>
-      <c r="T45" s="26"/>
-      <c r="U45" s="26"/>
-    </row>
-    <row r="46" spans="1:22" s="27" customFormat="1">
-      <c r="A46" s="44"/>
-      <c r="B46" s="44"/>
-      <c r="C46" s="20"/>
-      <c r="D46" s="20"/>
-      <c r="E46" s="20"/>
-      <c r="F46" s="20"/>
-      <c r="G46" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H46" s="20"/>
-      <c r="I46" s="20"/>
-      <c r="J46" s="20"/>
-      <c r="K46" s="20"/>
-      <c r="L46" s="25"/>
-      <c r="M46" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="N46" s="26"/>
-      <c r="O46" s="26"/>
-      <c r="P46" s="26"/>
-      <c r="Q46" s="26"/>
-      <c r="R46" s="26"/>
-      <c r="S46" s="26"/>
-      <c r="T46" s="26"/>
-      <c r="U46" s="26"/>
-    </row>
-    <row r="47" spans="1:22">
-      <c r="A47" s="45"/>
-      <c r="B47" s="45"/>
-      <c r="C47" s="20"/>
-      <c r="D47" s="20"/>
-      <c r="E47" s="20"/>
-      <c r="F47" s="20"/>
-      <c r="G47" s="20" t="s">
-        <v>40</v>
-      </c>
-      <c r="H47" s="20"/>
-      <c r="I47" s="20"/>
-      <c r="J47" s="20"/>
-      <c r="K47" s="20"/>
-      <c r="L47" s="22"/>
-      <c r="M47" s="26" t="s">
-        <v>66</v>
-      </c>
-      <c r="N47" s="21"/>
-      <c r="O47" s="21"/>
-      <c r="P47" s="21"/>
-      <c r="Q47" s="21"/>
-      <c r="R47" s="21"/>
-      <c r="S47" s="21"/>
-      <c r="T47" s="21"/>
-      <c r="U47" s="21"/>
-    </row>
-    <row r="48" spans="1:22" s="27" customFormat="1">
-      <c r="A48" s="43" t="s">
-        <v>37</v>
-      </c>
-      <c r="B48" s="43" t="s">
-        <v>50</v>
-      </c>
-      <c r="C48" s="20"/>
-      <c r="D48" s="20"/>
-      <c r="E48" s="20"/>
-      <c r="F48" s="20"/>
-      <c r="G48" s="20"/>
-      <c r="H48" s="20"/>
-      <c r="I48" s="20"/>
-      <c r="J48" s="20"/>
-      <c r="K48" s="20"/>
-      <c r="L48" s="25"/>
-      <c r="M48" s="26"/>
-      <c r="N48" s="26"/>
-      <c r="O48" s="26"/>
-      <c r="P48" s="26"/>
-      <c r="Q48" s="26"/>
-      <c r="R48" s="26"/>
-      <c r="S48" s="26"/>
-      <c r="T48" s="26"/>
-      <c r="U48" s="26"/>
-    </row>
-    <row r="49" spans="1:21" s="27" customFormat="1">
-      <c r="A49" s="44"/>
-      <c r="B49" s="44"/>
-      <c r="C49" s="20"/>
-      <c r="D49" s="20"/>
-      <c r="E49" s="20"/>
-      <c r="F49" s="20"/>
-      <c r="G49" s="20"/>
-      <c r="H49" s="20"/>
-      <c r="I49" s="20"/>
-      <c r="J49" s="20"/>
-      <c r="K49" s="20"/>
-      <c r="L49" s="25"/>
-      <c r="M49" s="26"/>
-      <c r="N49" s="26"/>
-      <c r="O49" s="26"/>
-      <c r="P49" s="26"/>
-      <c r="Q49" s="26"/>
-      <c r="R49" s="26"/>
-      <c r="S49" s="26"/>
-      <c r="T49" s="26"/>
-      <c r="U49" s="26"/>
-    </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="45"/>
-      <c r="B50" s="45"/>
-      <c r="C50" s="20"/>
-      <c r="D50" s="20"/>
-      <c r="E50" s="20"/>
-      <c r="F50" s="20"/>
-      <c r="G50" s="20"/>
-      <c r="H50" s="20"/>
-      <c r="I50" s="20"/>
-      <c r="J50" s="20"/>
-      <c r="K50" s="20"/>
-      <c r="L50" s="22"/>
-      <c r="M50" s="21"/>
-      <c r="N50" s="21"/>
-      <c r="O50" s="21"/>
-      <c r="P50" s="21"/>
-      <c r="Q50" s="21"/>
-      <c r="R50" s="21"/>
-      <c r="S50" s="21"/>
-      <c r="T50" s="21"/>
-      <c r="U50" s="21"/>
-    </row>
-    <row r="51" spans="1:21" s="27" customFormat="1">
-      <c r="A51" s="19" t="s">
-        <v>38</v>
-      </c>
-      <c r="B51" s="20" t="s">
-        <v>51</v>
-      </c>
-      <c r="C51" s="20"/>
-      <c r="D51" s="20"/>
-      <c r="E51" s="20"/>
-      <c r="F51" s="20"/>
-      <c r="G51" s="20"/>
-      <c r="H51" s="20"/>
-      <c r="I51" s="20"/>
-      <c r="J51" s="20"/>
-      <c r="K51" s="20"/>
-      <c r="L51" s="25"/>
-      <c r="M51" s="26"/>
-      <c r="N51" s="26"/>
-      <c r="O51" s="26"/>
-      <c r="P51" s="26"/>
-      <c r="Q51" s="26"/>
-      <c r="R51" s="26"/>
-      <c r="S51" s="26"/>
-      <c r="T51" s="26"/>
-      <c r="U51" s="26"/>
-    </row>
-    <row r="52" spans="1:21" s="27" customFormat="1">
-      <c r="A52" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="B52" s="20" t="s">
-        <v>50</v>
-      </c>
-      <c r="C52" s="20"/>
-      <c r="D52" s="20"/>
-      <c r="E52" s="20"/>
-      <c r="F52" s="20"/>
-      <c r="G52" s="20"/>
-      <c r="H52" s="20"/>
-      <c r="I52" s="20"/>
-      <c r="J52" s="20"/>
-      <c r="K52" s="20"/>
-      <c r="L52" s="25"/>
-      <c r="M52" s="26"/>
-      <c r="N52" s="26"/>
-      <c r="O52" s="26"/>
-      <c r="P52" s="26"/>
-      <c r="Q52" s="26"/>
-      <c r="R52" s="26"/>
-      <c r="S52" s="26"/>
-      <c r="T52" s="26"/>
-      <c r="U52" s="26"/>
+      <c r="N50" s="9"/>
+      <c r="O50" s="9"/>
+      <c r="P50" s="9"/>
+      <c r="Q50" s="9"/>
+      <c r="R50" s="9"/>
+      <c r="S50" s="9"/>
+      <c r="T50" s="9"/>
+      <c r="U50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="23">
-    <mergeCell ref="A45:A47"/>
-    <mergeCell ref="B45:B47"/>
-    <mergeCell ref="A48:A50"/>
-    <mergeCell ref="B48:B50"/>
-    <mergeCell ref="A43:A44"/>
-    <mergeCell ref="B43:B44"/>
-    <mergeCell ref="A41:A42"/>
-    <mergeCell ref="B41:B42"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="B38:B39"/>
+  <mergeCells count="19">
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="I2:U2"/>
@@ -2909,7 +2861,14 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B32:B35"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B36:B37"/>
     <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\arian\Desktop\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16A7E693-A55B-49A6-A216-24C8CE477833}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
     <sheet name="Threat Model" sheetId="1" r:id="rId2"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -394,7 +388,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <fonts count="4">
     <font>
       <sz val="12"/>
@@ -559,7 +553,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -621,60 +615,60 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -683,15 +677,6 @@
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1004,108 +989,108 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.8984375" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.59765625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="3" customWidth="1"/>
     <col min="9" max="11" width="6.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.8984375" style="3"/>
+    <col min="12" max="12" width="10.875" style="3"/>
     <col min="13" max="13" width="20" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.8984375" style="3"/>
+    <col min="18" max="18" width="10.875" style="3"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.8984375" style="3"/>
+    <col min="22" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
     </row>
     <row r="2" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
@@ -1125,283 +1110,274 @@
       <c r="B5" s="15" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="32" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="28"/>
-      <c r="E5" s="28"/>
-      <c r="F5" s="28"/>
-      <c r="G5" s="28"/>
-      <c r="H5" s="36"/>
-      <c r="I5" s="27" t="s">
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="34"/>
+      <c r="I5" s="36" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="28"/>
+      <c r="J5" s="33"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="9"/>
       <c r="B6" s="10"/>
-      <c r="C6" s="26"/>
+      <c r="C6" s="24"/>
       <c r="D6" s="25"/>
       <c r="E6" s="25"/>
       <c r="F6" s="25"/>
       <c r="G6" s="25"/>
       <c r="H6" s="25"/>
-      <c r="I6" s="24"/>
+      <c r="I6" s="35"/>
       <c r="J6" s="25"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="9"/>
       <c r="B7" s="10"/>
-      <c r="C7" s="26"/>
+      <c r="C7" s="24"/>
       <c r="D7" s="25"/>
       <c r="E7" s="25"/>
       <c r="F7" s="25"/>
       <c r="G7" s="25"/>
       <c r="H7" s="25"/>
-      <c r="I7" s="24"/>
+      <c r="I7" s="35"/>
       <c r="J7" s="25"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="9"/>
       <c r="B8" s="10"/>
-      <c r="C8" s="26"/>
+      <c r="C8" s="24"/>
       <c r="D8" s="25"/>
       <c r="E8" s="25"/>
       <c r="F8" s="25"/>
       <c r="G8" s="25"/>
       <c r="H8" s="25"/>
-      <c r="I8" s="24"/>
+      <c r="I8" s="35"/>
       <c r="J8" s="25"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="9"/>
       <c r="B9" s="10"/>
-      <c r="C9" s="26"/>
+      <c r="C9" s="24"/>
       <c r="D9" s="25"/>
       <c r="E9" s="25"/>
       <c r="F9" s="25"/>
       <c r="G9" s="25"/>
       <c r="H9" s="25"/>
-      <c r="I9" s="24"/>
+      <c r="I9" s="35"/>
       <c r="J9" s="25"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="9"/>
       <c r="B10" s="10"/>
-      <c r="C10" s="26"/>
+      <c r="C10" s="24"/>
       <c r="D10" s="25"/>
       <c r="E10" s="25"/>
       <c r="F10" s="25"/>
       <c r="G10" s="25"/>
       <c r="H10" s="25"/>
-      <c r="I10" s="24"/>
+      <c r="I10" s="35"/>
       <c r="J10" s="25"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="9"/>
       <c r="B11" s="10"/>
-      <c r="C11" s="26"/>
+      <c r="C11" s="24"/>
       <c r="D11" s="25"/>
       <c r="E11" s="25"/>
       <c r="F11" s="25"/>
       <c r="G11" s="25"/>
       <c r="H11" s="25"/>
-      <c r="I11" s="24"/>
+      <c r="I11" s="35"/>
       <c r="J11" s="25"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="9"/>
       <c r="B12" s="10"/>
-      <c r="C12" s="26"/>
+      <c r="C12" s="24"/>
       <c r="D12" s="25"/>
       <c r="E12" s="25"/>
       <c r="F12" s="25"/>
       <c r="G12" s="25"/>
       <c r="H12" s="25"/>
-      <c r="I12" s="24"/>
+      <c r="I12" s="35"/>
       <c r="J12" s="25"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="9"/>
       <c r="B13" s="10"/>
-      <c r="C13" s="26"/>
+      <c r="C13" s="24"/>
       <c r="D13" s="25"/>
       <c r="E13" s="25"/>
       <c r="F13" s="25"/>
       <c r="G13" s="25"/>
       <c r="H13" s="25"/>
-      <c r="I13" s="24"/>
+      <c r="I13" s="35"/>
       <c r="J13" s="25"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="9"/>
       <c r="B14" s="10"/>
-      <c r="C14" s="26"/>
+      <c r="C14" s="24"/>
       <c r="D14" s="25"/>
       <c r="E14" s="25"/>
       <c r="F14" s="25"/>
       <c r="G14" s="25"/>
       <c r="H14" s="25"/>
-      <c r="I14" s="24"/>
+      <c r="I14" s="35"/>
       <c r="J14" s="25"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="9"/>
       <c r="B15" s="10"/>
-      <c r="C15" s="26"/>
+      <c r="C15" s="24"/>
       <c r="D15" s="25"/>
       <c r="E15" s="25"/>
       <c r="F15" s="25"/>
       <c r="G15" s="25"/>
       <c r="H15" s="25"/>
-      <c r="I15" s="24"/>
+      <c r="I15" s="35"/>
       <c r="J15" s="25"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="9"/>
       <c r="B16" s="10"/>
-      <c r="C16" s="26"/>
+      <c r="C16" s="24"/>
       <c r="D16" s="25"/>
       <c r="E16" s="25"/>
       <c r="F16" s="25"/>
       <c r="G16" s="25"/>
       <c r="H16" s="25"/>
-      <c r="I16" s="24"/>
+      <c r="I16" s="35"/>
       <c r="J16" s="25"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="9"/>
       <c r="B17" s="10"/>
-      <c r="C17" s="26"/>
+      <c r="C17" s="24"/>
       <c r="D17" s="25"/>
       <c r="E17" s="25"/>
       <c r="F17" s="25"/>
       <c r="G17" s="25"/>
       <c r="H17" s="25"/>
-      <c r="I17" s="24"/>
+      <c r="I17" s="35"/>
       <c r="J17" s="25"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="9"/>
       <c r="B18" s="10"/>
-      <c r="C18" s="26"/>
+      <c r="C18" s="24"/>
       <c r="D18" s="25"/>
       <c r="E18" s="25"/>
       <c r="F18" s="25"/>
       <c r="G18" s="25"/>
       <c r="H18" s="25"/>
-      <c r="I18" s="24"/>
+      <c r="I18" s="35"/>
       <c r="J18" s="25"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="9"/>
       <c r="B19" s="10"/>
-      <c r="C19" s="26"/>
+      <c r="C19" s="24"/>
       <c r="D19" s="25"/>
       <c r="E19" s="25"/>
       <c r="F19" s="25"/>
       <c r="G19" s="25"/>
       <c r="H19" s="25"/>
-      <c r="I19" s="24"/>
+      <c r="I19" s="35"/>
       <c r="J19" s="25"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="9"/>
       <c r="B20" s="10"/>
-      <c r="C20" s="26"/>
+      <c r="C20" s="24"/>
       <c r="D20" s="25"/>
       <c r="E20" s="25"/>
       <c r="F20" s="25"/>
       <c r="G20" s="25"/>
       <c r="H20" s="25"/>
-      <c r="I20" s="24"/>
+      <c r="I20" s="35"/>
       <c r="J20" s="25"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="9"/>
       <c r="B21" s="10"/>
-      <c r="C21" s="26"/>
+      <c r="C21" s="24"/>
       <c r="D21" s="25"/>
       <c r="E21" s="25"/>
       <c r="F21" s="25"/>
       <c r="G21" s="25"/>
       <c r="H21" s="25"/>
-      <c r="I21" s="24"/>
+      <c r="I21" s="35"/>
       <c r="J21" s="25"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="9"/>
       <c r="B22" s="10"/>
-      <c r="C22" s="26"/>
+      <c r="C22" s="24"/>
       <c r="D22" s="25"/>
       <c r="E22" s="25"/>
       <c r="F22" s="25"/>
       <c r="G22" s="25"/>
       <c r="H22" s="25"/>
-      <c r="I22" s="24"/>
+      <c r="I22" s="35"/>
       <c r="J22" s="25"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="9"/>
       <c r="B23" s="10"/>
-      <c r="C23" s="26"/>
+      <c r="C23" s="24"/>
       <c r="D23" s="25"/>
       <c r="E23" s="25"/>
       <c r="F23" s="25"/>
       <c r="G23" s="25"/>
       <c r="H23" s="25"/>
-      <c r="I23" s="24"/>
+      <c r="I23" s="35"/>
       <c r="J23" s="25"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="9"/>
       <c r="B24" s="10"/>
-      <c r="C24" s="26"/>
+      <c r="C24" s="24"/>
       <c r="D24" s="25"/>
       <c r="E24" s="25"/>
       <c r="F24" s="25"/>
       <c r="G24" s="25"/>
       <c r="H24" s="25"/>
-      <c r="I24" s="24"/>
+      <c r="I24" s="35"/>
       <c r="J24" s="25"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="9"/>
       <c r="B25" s="10"/>
-      <c r="C25" s="26"/>
+      <c r="C25" s="24"/>
       <c r="D25" s="25"/>
       <c r="E25" s="25"/>
       <c r="F25" s="25"/>
       <c r="G25" s="25"/>
       <c r="H25" s="25"/>
-      <c r="I25" s="24"/>
+      <c r="I25" s="35"/>
       <c r="J25" s="25"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1418,121 +1394,130 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:V50"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K48" sqref="K48"/>
+    <sheetView tabSelected="1" topLeftCell="A38" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="C32" sqref="C32"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.8984375" defaultRowHeight="15.6"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="19.8984375" style="3" customWidth="1"/>
+    <col min="1" max="1" width="19.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.8984375" style="2" customWidth="1"/>
-    <col min="12" max="12" width="10.8984375" style="2"/>
-    <col min="13" max="13" width="35.59765625" style="3" customWidth="1"/>
+    <col min="3" max="11" width="6.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="10.875" style="2"/>
+    <col min="13" max="13" width="35.625" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
     <col min="18" max="18" width="20" style="3" customWidth="1"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="22" width="68.3984375" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.8984375" style="3"/>
+    <col min="22" max="22" width="68.375" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-    </row>
-    <row r="2" spans="1:21" s="11" customFormat="1" ht="24.9" customHeight="1">
+      <c r="B1" s="26"/>
+      <c r="C1" s="26"/>
+      <c r="D1" s="26"/>
+      <c r="E1" s="26"/>
+      <c r="F1" s="26"/>
+      <c r="G1" s="27"/>
+      <c r="H1" s="27"/>
+      <c r="I1" s="27"/>
+      <c r="J1" s="27"/>
+      <c r="K1" s="27"/>
+      <c r="L1" s="27"/>
+      <c r="M1" s="27"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+    </row>
+    <row r="2" spans="1:21" s="11" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>42</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="29"/>
+      <c r="E2" s="26"/>
+      <c r="F2" s="26"/>
+      <c r="G2" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="H2" s="30"/>
+      <c r="I2" s="26"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
     </row>
     <row r="3" spans="1:21" s="11" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="29"/>
+      <c r="E3" s="26"/>
+      <c r="F3" s="26"/>
+      <c r="G3" s="29" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="29"/>
+      <c r="I3" s="26"/>
+      <c r="J3" s="26"/>
       <c r="K3" s="12"/>
       <c r="L3" s="12"/>
       <c r="M3" s="13"/>
@@ -2182,7 +2167,7 @@
       <c r="T25" s="9"/>
       <c r="U25" s="9"/>
     </row>
-    <row r="31" spans="1:22" ht="155.4">
+    <row r="31" spans="1:22" ht="152.25">
       <c r="A31" s="6" t="s">
         <v>0</v>
       </c>
@@ -2250,7 +2235,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="32" spans="1:22">
+    <row r="32" spans="1:22" ht="40.5" customHeight="1">
       <c r="A32" s="37" t="s">
         <v>29</v>
       </c>
@@ -2262,15 +2247,19 @@
       </c>
       <c r="D32" s="17"/>
       <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
+      <c r="F32" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
+      <c r="H32" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="I32" s="17"/>
       <c r="J32" s="17"/>
       <c r="K32" s="17"/>
       <c r="L32" s="10"/>
       <c r="M32" s="9" t="s">
-        <v>53</v>
+        <v>57</v>
       </c>
       <c r="N32" s="9"/>
       <c r="O32" s="9"/>
@@ -2281,29 +2270,23 @@
       <c r="T32" s="9"/>
       <c r="U32" s="9"/>
     </row>
-    <row r="33" spans="1:22" s="20" customFormat="1" ht="32.1" customHeight="1">
+    <row r="33" spans="1:22" s="20" customFormat="1" ht="40.5" customHeight="1">
       <c r="A33" s="38"/>
       <c r="B33" s="38"/>
       <c r="C33" s="17" t="s">
         <v>40</v>
       </c>
       <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="F33" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="E33" s="17"/>
+      <c r="F33" s="17"/>
       <c r="G33" s="17"/>
-      <c r="H33" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="H33" s="17"/>
       <c r="I33" s="17"/>
       <c r="J33" s="17"/>
       <c r="K33" s="17"/>
       <c r="L33" s="10"/>
       <c r="M33" s="9" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="N33" s="9"/>
       <c r="O33" s="9"/>
@@ -2317,17 +2300,13 @@
         <v>56</v>
       </c>
     </row>
-    <row r="34" spans="1:22" s="20" customFormat="1" ht="31.2">
+    <row r="34" spans="1:22" s="20" customFormat="1" ht="40.5" customHeight="1">
       <c r="A34" s="38"/>
       <c r="B34" s="38"/>
-      <c r="C34" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="C34" s="17"/>
       <c r="D34" s="17"/>
       <c r="E34" s="17"/>
-      <c r="F34" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="F34" s="17"/>
       <c r="G34" s="17"/>
       <c r="H34" s="17" t="s">
         <v>40</v>
@@ -2336,8 +2315,8 @@
       <c r="J34" s="17"/>
       <c r="K34" s="17"/>
       <c r="L34" s="10"/>
-      <c r="M34" s="23" t="s">
-        <v>57</v>
+      <c r="M34" s="21" t="s">
+        <v>60</v>
       </c>
       <c r="N34" s="9"/>
       <c r="O34" s="9"/>
@@ -2351,13 +2330,19 @@
         <v>58</v>
       </c>
     </row>
-    <row r="35" spans="1:22" s="20" customFormat="1">
+    <row r="35" spans="1:22" s="20" customFormat="1" ht="40.5" customHeight="1">
       <c r="A35" s="39"/>
       <c r="B35" s="39"/>
-      <c r="C35" s="17"/>
+      <c r="C35" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="D35" s="17"/>
-      <c r="E35" s="17"/>
-      <c r="F35" s="17"/>
+      <c r="E35" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="F35" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G35" s="17"/>
       <c r="H35" s="17" t="s">
         <v>40</v>
@@ -2367,7 +2352,7 @@
       <c r="K35" s="17"/>
       <c r="L35" s="10"/>
       <c r="M35" s="9" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="N35" s="9"/>
       <c r="O35" s="9"/>
@@ -2381,7 +2366,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="36" spans="1:22" s="20" customFormat="1" ht="31.2">
+    <row r="36" spans="1:22" s="20" customFormat="1" ht="40.5" customHeight="1">
       <c r="A36" s="37" t="s">
         <v>63</v>
       </c>
@@ -2417,7 +2402,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="37" spans="1:22" s="20" customFormat="1">
+    <row r="37" spans="1:22" s="20" customFormat="1" ht="40.5" customHeight="1">
       <c r="A37" s="39"/>
       <c r="B37" s="41"/>
       <c r="C37" s="17"/>
@@ -2432,7 +2417,7 @@
       <c r="J37" s="17"/>
       <c r="K37" s="17"/>
       <c r="L37" s="10"/>
-      <c r="M37" s="23" t="s">
+      <c r="M37" s="21" t="s">
         <v>60</v>
       </c>
       <c r="N37" s="9"/>
@@ -2445,11 +2430,11 @@
       <c r="U37" s="9"/>
       <c r="V37" s="3"/>
     </row>
-    <row r="38" spans="1:22" ht="18" customHeight="1">
-      <c r="A38" s="42" t="s">
+    <row r="38" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A38" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="B38" s="42" t="s">
+      <c r="B38" s="22" t="s">
         <v>45</v>
       </c>
       <c r="C38" s="17" t="s">
@@ -2478,7 +2463,7 @@
       <c r="T38" s="9"/>
       <c r="U38" s="9"/>
     </row>
-    <row r="39" spans="1:22">
+    <row r="39" spans="1:22" ht="40.5" customHeight="1">
       <c r="A39" s="17" t="s">
         <v>32</v>
       </c>
@@ -2511,19 +2496,21 @@
       <c r="T39" s="9"/>
       <c r="U39" s="9"/>
     </row>
-    <row r="40" spans="1:22" ht="15.75" customHeight="1">
+    <row r="40" spans="1:22" ht="40.5" customHeight="1">
       <c r="A40" s="37" t="s">
         <v>34</v>
       </c>
       <c r="B40" s="37" t="s">
         <v>49</v>
       </c>
-      <c r="C40" s="17"/>
-      <c r="D40" s="17"/>
+      <c r="C40" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D40" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="E40" s="17"/>
-      <c r="F40" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="F40" s="17"/>
       <c r="G40" s="17"/>
       <c r="H40" s="17"/>
       <c r="I40" s="17"/>
@@ -2531,7 +2518,7 @@
       <c r="K40" s="17"/>
       <c r="L40" s="10"/>
       <c r="M40" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N40" s="9"/>
       <c r="O40" s="9"/>
@@ -2542,17 +2529,15 @@
       <c r="T40" s="9"/>
       <c r="U40" s="9"/>
     </row>
-    <row r="41" spans="1:22">
+    <row r="41" spans="1:22" ht="40.5" customHeight="1">
       <c r="A41" s="39"/>
       <c r="B41" s="39"/>
-      <c r="C41" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D41" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="C41" s="17"/>
+      <c r="D41" s="17"/>
       <c r="E41" s="17"/>
-      <c r="F41" s="17"/>
+      <c r="F41" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G41" s="17"/>
       <c r="H41" s="17"/>
       <c r="I41" s="17"/>
@@ -2560,7 +2545,7 @@
       <c r="K41" s="17"/>
       <c r="L41" s="10"/>
       <c r="M41" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N41" s="9"/>
       <c r="O41" s="9"/>
@@ -2571,19 +2556,21 @@
       <c r="T41" s="9"/>
       <c r="U41" s="9"/>
     </row>
-    <row r="42" spans="1:22">
+    <row r="42" spans="1:22" ht="40.5" customHeight="1">
       <c r="A42" s="38" t="s">
         <v>35</v>
       </c>
       <c r="B42" s="38" t="s">
         <v>49</v>
       </c>
-      <c r="C42" s="17"/>
-      <c r="D42" s="17"/>
+      <c r="C42" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="D42" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="E42" s="17"/>
-      <c r="F42" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="F42" s="17"/>
       <c r="G42" s="17"/>
       <c r="H42" s="17"/>
       <c r="I42" s="17"/>
@@ -2591,7 +2578,7 @@
       <c r="K42" s="17"/>
       <c r="L42" s="10"/>
       <c r="M42" s="9" t="s">
-        <v>52</v>
+        <v>59</v>
       </c>
       <c r="N42" s="9"/>
       <c r="O42" s="9"/>
@@ -2602,17 +2589,15 @@
       <c r="T42" s="9"/>
       <c r="U42" s="9"/>
     </row>
-    <row r="43" spans="1:22" ht="33.75" customHeight="1">
+    <row r="43" spans="1:22" ht="40.5" customHeight="1">
       <c r="A43" s="39"/>
       <c r="B43" s="39"/>
-      <c r="C43" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="D43" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="C43" s="17"/>
+      <c r="D43" s="17"/>
       <c r="E43" s="17"/>
-      <c r="F43" s="17"/>
+      <c r="F43" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="G43" s="17"/>
       <c r="H43" s="17"/>
       <c r="I43" s="17"/>
@@ -2620,7 +2605,7 @@
       <c r="K43" s="17"/>
       <c r="L43" s="10"/>
       <c r="M43" s="9" t="s">
-        <v>59</v>
+        <v>52</v>
       </c>
       <c r="N43" s="9"/>
       <c r="O43" s="9"/>
@@ -2631,11 +2616,11 @@
       <c r="T43" s="9"/>
       <c r="U43" s="9"/>
     </row>
-    <row r="44" spans="1:22">
-      <c r="A44" s="42" t="s">
+    <row r="44" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A44" s="37" t="s">
         <v>36</v>
       </c>
-      <c r="B44" s="21" t="s">
+      <c r="B44" s="37" t="s">
         <v>44</v>
       </c>
       <c r="C44" s="17"/>
@@ -2666,9 +2651,9 @@
       <c r="T44" s="9"/>
       <c r="U44" s="9"/>
     </row>
-    <row r="45" spans="1:22">
-      <c r="A45" s="43"/>
-      <c r="B45" s="22"/>
+    <row r="45" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A45" s="39"/>
+      <c r="B45" s="39"/>
       <c r="C45" s="17"/>
       <c r="D45" s="17"/>
       <c r="E45" s="17"/>
@@ -2681,7 +2666,7 @@
       <c r="J45" s="17"/>
       <c r="K45" s="17"/>
       <c r="L45" s="10"/>
-      <c r="M45" s="44" t="s">
+      <c r="M45" s="23" t="s">
         <v>66</v>
       </c>
       <c r="N45" s="9"/>
@@ -2693,7 +2678,7 @@
       <c r="T45" s="9"/>
       <c r="U45" s="9"/>
     </row>
-    <row r="46" spans="1:22">
+    <row r="46" spans="1:22" ht="40.5" customHeight="1">
       <c r="A46" s="37" t="s">
         <v>37</v>
       </c>
@@ -2701,19 +2686,23 @@
         <v>50</v>
       </c>
       <c r="C46" s="17"/>
-      <c r="D46" s="17"/>
+      <c r="D46" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="E46" s="17"/>
-      <c r="F46" s="17"/>
-      <c r="G46" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="F46" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="G46" s="17"/>
       <c r="H46" s="17"/>
       <c r="I46" s="17"/>
-      <c r="J46" s="17"/>
+      <c r="J46" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="K46" s="17"/>
       <c r="L46" s="10"/>
       <c r="M46" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="N46" s="9"/>
       <c r="O46" s="9"/>
@@ -2724,27 +2713,23 @@
       <c r="T46" s="9"/>
       <c r="U46" s="9"/>
     </row>
-    <row r="47" spans="1:22">
+    <row r="47" spans="1:22" ht="40.5" customHeight="1">
       <c r="A47" s="38"/>
       <c r="B47" s="38"/>
       <c r="C47" s="17"/>
-      <c r="D47" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="D47" s="17"/>
       <c r="E47" s="17"/>
-      <c r="F47" s="17" t="s">
-        <v>40</v>
-      </c>
-      <c r="G47" s="17"/>
+      <c r="F47" s="17"/>
+      <c r="G47" s="17" t="s">
+        <v>40</v>
+      </c>
       <c r="H47" s="17"/>
       <c r="I47" s="17"/>
-      <c r="J47" s="17" t="s">
-        <v>40</v>
-      </c>
+      <c r="J47" s="17"/>
       <c r="K47" s="17"/>
       <c r="L47" s="10"/>
       <c r="M47" s="9" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
       <c r="N47" s="9"/>
       <c r="O47" s="9"/>
@@ -2755,7 +2740,7 @@
       <c r="T47" s="9"/>
       <c r="U47" s="9"/>
     </row>
-    <row r="48" spans="1:22">
+    <row r="48" spans="1:22" ht="40.5" customHeight="1">
       <c r="A48" s="39"/>
       <c r="B48" s="39"/>
       <c r="C48" s="17"/>
@@ -2782,8 +2767,8 @@
       <c r="T48" s="9"/>
       <c r="U48" s="9"/>
     </row>
-    <row r="49" spans="1:21">
-      <c r="A49" s="16" t="s">
+    <row r="49" spans="1:21" ht="40.5" customHeight="1">
+      <c r="A49" s="17" t="s">
         <v>38</v>
       </c>
       <c r="B49" s="17" t="s">
@@ -2815,8 +2800,8 @@
       <c r="T49" s="9"/>
       <c r="U49" s="9"/>
     </row>
-    <row r="50" spans="1:21">
-      <c r="A50" s="16" t="s">
+    <row r="50" spans="1:21" ht="40.5" customHeight="1">
+      <c r="A50" s="17" t="s">
         <v>41</v>
       </c>
       <c r="B50" s="17" t="s">
@@ -2849,7 +2834,20 @@
       <c r="U50" s="9"/>
     </row>
   </sheetData>
-  <mergeCells count="19">
+  <sortState ref="M32:M35">
+    <sortCondition ref="M32"/>
+  </sortState>
+  <mergeCells count="21">
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="B40:B41"/>
+    <mergeCell ref="B36:B37"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="A46:A48"/>
+    <mergeCell ref="B46:B48"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="B42:B43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="B44:B45"/>
     <mergeCell ref="A32:A35"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="I2:U2"/>
@@ -2861,14 +2859,6 @@
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:H2"/>
     <mergeCell ref="B32:B35"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="B40:B41"/>
-    <mergeCell ref="B36:B37"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A46:A48"/>
-    <mergeCell ref="B46:B48"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="B42:B43"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -1,18 +1,24 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
-  <workbookPr/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <workbookPr defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B5A5F-47CA-B94A-957B-C7226423D21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
     <sheet name="Threat Model" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="125725"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="191029"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -31,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="142" uniqueCount="82">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
   <si>
     <t>Asset</t>
   </si>
@@ -315,9 +321,6 @@
     <t>2022/2023</t>
   </si>
   <si>
-    <t>500-1.000</t>
-  </si>
-  <si>
     <t>5.000-10.000</t>
   </si>
   <si>
@@ -330,24 +333,9 @@
     <t>Use of known domain credentials (560)</t>
   </si>
   <si>
-    <t>DUBBI</t>
-  </si>
-  <si>
-    <t>Come funziona effettivamente l'autenticazione tramite wallet? È solo uno scambio di chiavi?</t>
-  </si>
-  <si>
     <t>Content Spoofing (148)</t>
   </si>
   <si>
-    <t>Privilege Escalation (233)</t>
-  </si>
-  <si>
-    <t>solo Chiara è d’accordo</t>
-  </si>
-  <si>
-    <t>Questa minaccia riguarda sia lo spoofing che il tampering, nell'analisi preliminare avevamo considerato solo il tampering.</t>
-  </si>
-  <si>
     <t>Smart contract</t>
   </si>
   <si>
@@ -439,13 +427,22 @@
   </si>
   <si>
     <t>Flooding (125)</t>
+  </si>
+  <si>
+    <t>Two-factor Authentication</t>
+  </si>
+  <si>
+    <t>Suggest the user to change the password every three months</t>
+  </si>
+  <si>
+    <t>Digital signature</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -615,7 +612,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -677,13 +674,25 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -707,32 +716,23 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,108 +1045,108 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.6640625" style="3" customWidth="1"/>
     <col min="9" max="11" width="6.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.875" style="3"/>
+    <col min="12" max="12" width="10.83203125" style="3"/>
     <col min="13" max="13" width="20" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.875" style="3"/>
+    <col min="18" max="18" width="10.83203125" style="3"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.875" style="3"/>
+    <col min="22" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="21">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-    </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="21">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="27" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-    </row>
-    <row r="3" spans="1:21" s="10" customFormat="1" ht="21">
+      <c r="H2" s="32"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="27" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1159,281 +1159,290 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="5" spans="1:21" ht="21">
+    <row r="5" spans="1:21" ht="22" x14ac:dyDescent="0.2">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="30" t="s">
+      <c r="C5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="31"/>
-      <c r="E5" s="31"/>
-      <c r="F5" s="31"/>
-      <c r="G5" s="31"/>
-      <c r="H5" s="32"/>
-      <c r="I5" s="34" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="31"/>
-    </row>
-    <row r="6" spans="1:21">
+      <c r="J5" s="27"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="22"/>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="33"/>
-      <c r="J6" s="23"/>
-    </row>
-    <row r="7" spans="1:21">
+      <c r="C6" s="25"/>
+      <c r="D6" s="24"/>
+      <c r="E6" s="24"/>
+      <c r="F6" s="24"/>
+      <c r="G6" s="24"/>
+      <c r="H6" s="24"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="24"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="22"/>
-      <c r="D7" s="23"/>
-      <c r="E7" s="23"/>
-      <c r="F7" s="23"/>
-      <c r="G7" s="23"/>
-      <c r="H7" s="23"/>
-      <c r="I7" s="33"/>
-      <c r="J7" s="23"/>
-    </row>
-    <row r="8" spans="1:21">
+      <c r="C7" s="25"/>
+      <c r="D7" s="24"/>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24"/>
+      <c r="G7" s="24"/>
+      <c r="H7" s="24"/>
+      <c r="I7" s="23"/>
+      <c r="J7" s="24"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="22"/>
-      <c r="D8" s="23"/>
-      <c r="E8" s="23"/>
-      <c r="F8" s="23"/>
-      <c r="G8" s="23"/>
-      <c r="H8" s="23"/>
-      <c r="I8" s="33"/>
-      <c r="J8" s="23"/>
-    </row>
-    <row r="9" spans="1:21">
+      <c r="C8" s="25"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="F8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="23"/>
+      <c r="J8" s="24"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="22"/>
-      <c r="D9" s="23"/>
-      <c r="E9" s="23"/>
-      <c r="F9" s="23"/>
-      <c r="G9" s="23"/>
-      <c r="H9" s="23"/>
-      <c r="I9" s="33"/>
-      <c r="J9" s="23"/>
-    </row>
-    <row r="10" spans="1:21">
+      <c r="C9" s="25"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="23"/>
+      <c r="J9" s="24"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="22"/>
-      <c r="D10" s="23"/>
-      <c r="E10" s="23"/>
-      <c r="F10" s="23"/>
-      <c r="G10" s="23"/>
-      <c r="H10" s="23"/>
-      <c r="I10" s="33"/>
-      <c r="J10" s="23"/>
-    </row>
-    <row r="11" spans="1:21">
+      <c r="C10" s="25"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="24"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="22"/>
-      <c r="D11" s="23"/>
-      <c r="E11" s="23"/>
-      <c r="F11" s="23"/>
-      <c r="G11" s="23"/>
-      <c r="H11" s="23"/>
-      <c r="I11" s="33"/>
-      <c r="J11" s="23"/>
-    </row>
-    <row r="12" spans="1:21">
+      <c r="C11" s="25"/>
+      <c r="D11" s="24"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="24"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="24"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="22"/>
-      <c r="D12" s="23"/>
-      <c r="E12" s="23"/>
-      <c r="F12" s="23"/>
-      <c r="G12" s="23"/>
-      <c r="H12" s="23"/>
-      <c r="I12" s="33"/>
-      <c r="J12" s="23"/>
-    </row>
-    <row r="13" spans="1:21">
+      <c r="C12" s="25"/>
+      <c r="D12" s="24"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="24"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="24"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="22"/>
-      <c r="D13" s="23"/>
-      <c r="E13" s="23"/>
-      <c r="F13" s="23"/>
-      <c r="G13" s="23"/>
-      <c r="H13" s="23"/>
-      <c r="I13" s="33"/>
-      <c r="J13" s="23"/>
-    </row>
-    <row r="14" spans="1:21">
+      <c r="C13" s="25"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="24"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="24"/>
+      <c r="I13" s="23"/>
+      <c r="J13" s="24"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="22"/>
-      <c r="D14" s="23"/>
-      <c r="E14" s="23"/>
-      <c r="F14" s="23"/>
-      <c r="G14" s="23"/>
-      <c r="H14" s="23"/>
-      <c r="I14" s="33"/>
-      <c r="J14" s="23"/>
-    </row>
-    <row r="15" spans="1:21">
+      <c r="C14" s="25"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="23"/>
+      <c r="J14" s="24"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="22"/>
-      <c r="D15" s="23"/>
-      <c r="E15" s="23"/>
-      <c r="F15" s="23"/>
-      <c r="G15" s="23"/>
-      <c r="H15" s="23"/>
-      <c r="I15" s="33"/>
-      <c r="J15" s="23"/>
-    </row>
-    <row r="16" spans="1:21">
+      <c r="C15" s="25"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="23"/>
+      <c r="J15" s="24"/>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="22"/>
-      <c r="D16" s="23"/>
-      <c r="E16" s="23"/>
-      <c r="F16" s="23"/>
-      <c r="G16" s="23"/>
-      <c r="H16" s="23"/>
-      <c r="I16" s="33"/>
-      <c r="J16" s="23"/>
-    </row>
-    <row r="17" spans="1:10">
+      <c r="C16" s="25"/>
+      <c r="D16" s="24"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="24"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="23"/>
+      <c r="J16" s="24"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="23"/>
-      <c r="E17" s="23"/>
-      <c r="F17" s="23"/>
-      <c r="G17" s="23"/>
-      <c r="H17" s="23"/>
-      <c r="I17" s="33"/>
-      <c r="J17" s="23"/>
-    </row>
-    <row r="18" spans="1:10">
+      <c r="C17" s="25"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="F17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="23"/>
+      <c r="J17" s="24"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="22"/>
-      <c r="D18" s="23"/>
-      <c r="E18" s="23"/>
-      <c r="F18" s="23"/>
-      <c r="G18" s="23"/>
-      <c r="H18" s="23"/>
-      <c r="I18" s="33"/>
-      <c r="J18" s="23"/>
-    </row>
-    <row r="19" spans="1:10">
+      <c r="C18" s="25"/>
+      <c r="D18" s="24"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="23"/>
+      <c r="J18" s="24"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="22"/>
-      <c r="D19" s="23"/>
-      <c r="E19" s="23"/>
-      <c r="F19" s="23"/>
-      <c r="G19" s="23"/>
-      <c r="H19" s="23"/>
-      <c r="I19" s="33"/>
-      <c r="J19" s="23"/>
-    </row>
-    <row r="20" spans="1:10">
+      <c r="C19" s="25"/>
+      <c r="D19" s="24"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="23"/>
+      <c r="J19" s="24"/>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="22"/>
-      <c r="D20" s="23"/>
-      <c r="E20" s="23"/>
-      <c r="F20" s="23"/>
-      <c r="G20" s="23"/>
-      <c r="H20" s="23"/>
-      <c r="I20" s="33"/>
-      <c r="J20" s="23"/>
-    </row>
-    <row r="21" spans="1:10">
+      <c r="C20" s="25"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="24"/>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="22"/>
-      <c r="D21" s="23"/>
-      <c r="E21" s="23"/>
-      <c r="F21" s="23"/>
-      <c r="G21" s="23"/>
-      <c r="H21" s="23"/>
-      <c r="I21" s="33"/>
-      <c r="J21" s="23"/>
-    </row>
-    <row r="22" spans="1:10">
+      <c r="C21" s="25"/>
+      <c r="D21" s="24"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="24"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="23"/>
+      <c r="J21" s="24"/>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="22"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="33"/>
-      <c r="J22" s="23"/>
-    </row>
-    <row r="23" spans="1:10">
+      <c r="C22" s="25"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="24"/>
+      <c r="G22" s="24"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="22"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="33"/>
-      <c r="J23" s="23"/>
-    </row>
-    <row r="24" spans="1:10">
+      <c r="C23" s="25"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="33"/>
-      <c r="J24" s="23"/>
-    </row>
-    <row r="25" spans="1:10">
+      <c r="C24" s="25"/>
+      <c r="D24" s="24"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="23"/>
+      <c r="J24" s="24"/>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="22"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="33"/>
-      <c r="J25" s="23"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1450,130 +1459,121 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:V20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:AL19"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5:B6"/>
+    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="K5" sqref="K5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="2" customWidth="1"/>
+    <col min="3" max="11" width="6.83203125" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.83203125" style="2" customWidth="1"/>
     <col min="13" max="13" width="33" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
     <col min="18" max="18" width="20" style="3" customWidth="1"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="22" width="68.375" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.875" style="3"/>
+    <col min="22" max="22" width="68.33203125" style="3" customWidth="1"/>
+    <col min="23" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" s="10" customFormat="1" ht="21">
+    <row r="1" spans="1:38" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="24"/>
-      <c r="C1" s="24"/>
-      <c r="D1" s="24"/>
-      <c r="E1" s="24"/>
-      <c r="F1" s="24"/>
-      <c r="G1" s="25"/>
-      <c r="H1" s="25"/>
-      <c r="I1" s="25"/>
-      <c r="J1" s="25"/>
-      <c r="K1" s="25"/>
-      <c r="L1" s="25"/>
-      <c r="M1" s="25"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="26"/>
-      <c r="P1" s="26"/>
-      <c r="Q1" s="26"/>
-      <c r="R1" s="26"/>
-      <c r="S1" s="26"/>
-      <c r="T1" s="26"/>
-      <c r="U1" s="26"/>
-    </row>
-    <row r="2" spans="1:22" s="10" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+    </row>
+    <row r="2" spans="1:38" s="10" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="C2" s="27" t="s">
+      <c r="C2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="27"/>
-      <c r="E2" s="24"/>
-      <c r="F2" s="24"/>
-      <c r="G2" s="27" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="28"/>
-      <c r="I2" s="24"/>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29"/>
-      <c r="N2" s="26"/>
-      <c r="O2" s="26"/>
-      <c r="P2" s="26"/>
-      <c r="Q2" s="26"/>
-      <c r="R2" s="26"/>
-      <c r="S2" s="26"/>
-      <c r="T2" s="26"/>
-      <c r="U2" s="26"/>
-    </row>
-    <row r="3" spans="1:22" s="10" customFormat="1" ht="21">
+      <c r="H2" s="32"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+    </row>
+    <row r="3" spans="1:38" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="27" t="s">
+      <c r="C3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="27"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="27" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="27"/>
-      <c r="I3" s="24"/>
-      <c r="J3" s="24"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1586,7 +1586,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="4" spans="1:22" ht="153.75">
+    <row r="4" spans="1:38" ht="157" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1650,16 +1650,13 @@
       <c r="U4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="V4" s="3" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A5" s="35" t="s">
+    </row>
+    <row r="5" spans="1:38" s="16" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="35" t="s">
-        <v>57</v>
+      <c r="B5" s="36" t="s">
+        <v>51</v>
       </c>
       <c r="C5" s="15" t="s">
         <v>37</v>
@@ -1673,28 +1670,44 @@
       <c r="J5" s="15"/>
       <c r="K5" s="15"/>
       <c r="L5" s="15" t="s">
-        <v>54</v>
+        <v>48</v>
       </c>
       <c r="M5" s="20" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="N5" s="19">
         <v>0.18</v>
       </c>
       <c r="O5" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P5" s="15"/>
+        <v>63</v>
+      </c>
+      <c r="P5" s="15" t="s">
+        <v>76</v>
+      </c>
       <c r="Q5" s="15"/>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="16" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="6" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
+      <c r="V5" s="39"/>
+      <c r="W5" s="39"/>
+      <c r="X5" s="39"/>
+      <c r="Y5" s="39"/>
+      <c r="Z5" s="39"/>
+      <c r="AA5" s="39"/>
+      <c r="AB5" s="39"/>
+      <c r="AC5" s="39"/>
+      <c r="AD5" s="39"/>
+      <c r="AE5" s="39"/>
+      <c r="AF5" s="39"/>
+      <c r="AG5" s="39"/>
+      <c r="AH5" s="39"/>
+      <c r="AI5" s="39"/>
+      <c r="AJ5" s="39"/>
+      <c r="AK5" s="39"/>
+      <c r="AL5" s="39"/>
+    </row>
+    <row r="6" spans="1:38" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="37"/>
       <c r="B6" s="37"/>
       <c r="C6" s="15" t="s">
@@ -1715,33 +1728,49 @@
       <c r="J6" s="15"/>
       <c r="K6" s="15"/>
       <c r="L6" s="15" t="s">
-        <v>63</v>
+        <v>57</v>
       </c>
       <c r="M6" s="20" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="N6" s="19">
         <v>0.12</v>
       </c>
       <c r="O6" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P6" s="15"/>
+        <v>64</v>
+      </c>
+      <c r="P6" s="15" t="s">
+        <v>77</v>
+      </c>
       <c r="Q6" s="15"/>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="16" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="7" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A7" s="35" t="s">
-        <v>51</v>
-      </c>
-      <c r="B7" s="38" t="s">
-        <v>58</v>
+      <c r="V6" s="39"/>
+      <c r="W6" s="39"/>
+      <c r="X6" s="39"/>
+      <c r="Y6" s="39"/>
+      <c r="Z6" s="39"/>
+      <c r="AA6" s="39"/>
+      <c r="AB6" s="39"/>
+      <c r="AC6" s="39"/>
+      <c r="AD6" s="39"/>
+      <c r="AE6" s="39"/>
+      <c r="AF6" s="39"/>
+      <c r="AG6" s="39"/>
+      <c r="AH6" s="39"/>
+      <c r="AI6" s="39"/>
+      <c r="AJ6" s="39"/>
+      <c r="AK6" s="39"/>
+      <c r="AL6" s="39"/>
+    </row>
+    <row r="7" spans="1:38" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="21" t="s">
+        <v>45</v>
+      </c>
+      <c r="B7" s="22" t="s">
+        <v>52</v>
       </c>
       <c r="C7" s="15" t="s">
         <v>37</v>
@@ -1757,52 +1786,74 @@
       <c r="J7" s="15"/>
       <c r="K7" s="15"/>
       <c r="L7" s="15" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="M7" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N7" s="19">
         <v>0.12</v>
       </c>
       <c r="O7" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P7" s="15"/>
+        <v>65</v>
+      </c>
+      <c r="P7" s="15" t="s">
+        <v>78</v>
+      </c>
       <c r="Q7" s="15"/>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="16" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" s="16" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A8" s="37"/>
-      <c r="B8" s="39"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
+      <c r="V7" s="39"/>
+      <c r="W7" s="39"/>
+      <c r="X7" s="39"/>
+      <c r="Y7" s="39"/>
+      <c r="Z7" s="39"/>
+      <c r="AA7" s="39"/>
+      <c r="AB7" s="39"/>
+      <c r="AC7" s="39"/>
+      <c r="AD7" s="39"/>
+      <c r="AE7" s="39"/>
+      <c r="AF7" s="39"/>
+      <c r="AG7" s="39"/>
+      <c r="AH7" s="39"/>
+      <c r="AI7" s="39"/>
+      <c r="AJ7" s="39"/>
+      <c r="AK7" s="39"/>
+      <c r="AL7" s="39"/>
+    </row>
+    <row r="8" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="17" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="17" t="s">
+        <v>53</v>
+      </c>
+      <c r="C8" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E8" s="15"/>
       <c r="F8" s="15"/>
       <c r="G8" s="15"/>
-      <c r="H8" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="H8" s="15"/>
       <c r="I8" s="15"/>
       <c r="J8" s="15"/>
       <c r="K8" s="15"/>
       <c r="L8" s="15" t="s">
-        <v>41</v>
-      </c>
-      <c r="M8" s="21" t="s">
-        <v>48</v>
+        <v>50</v>
+      </c>
+      <c r="M8" s="20" t="s">
+        <v>44</v>
       </c>
       <c r="N8" s="19">
-        <v>0.1</v>
+        <v>0.15</v>
       </c>
       <c r="O8" s="15" t="s">
-        <v>40</v>
+        <v>66</v>
       </c>
       <c r="P8" s="15"/>
       <c r="Q8" s="15"/>
@@ -1810,14 +1861,13 @@
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-      <c r="V8" s="3"/>
-    </row>
-    <row r="9" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A9" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" s="17" t="s">
-        <v>59</v>
+    </row>
+    <row r="9" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="15" t="s">
+        <v>31</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>40</v>
       </c>
       <c r="C9" s="15" t="s">
         <v>37</v>
@@ -1833,16 +1883,16 @@
       <c r="J9" s="15"/>
       <c r="K9" s="15"/>
       <c r="L9" s="15" t="s">
-        <v>56</v>
+        <v>58</v>
       </c>
       <c r="M9" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N9" s="19">
         <v>0.15</v>
       </c>
       <c r="O9" s="15" t="s">
-        <v>72</v>
+        <v>67</v>
       </c>
       <c r="P9" s="15"/>
       <c r="Q9" s="15"/>
@@ -1851,12 +1901,12 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
     </row>
-    <row r="10" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A10" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B10" s="15" t="s">
-        <v>41</v>
+    <row r="10" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" s="36" t="s">
+        <v>54</v>
       </c>
       <c r="C10" s="15" t="s">
         <v>37</v>
@@ -1872,16 +1922,16 @@
       <c r="J10" s="15"/>
       <c r="K10" s="15"/>
       <c r="L10" s="15" t="s">
-        <v>64</v>
+        <v>48</v>
       </c>
       <c r="M10" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N10" s="19">
         <v>0.15</v>
       </c>
       <c r="O10" s="15" t="s">
-        <v>73</v>
+        <v>68</v>
       </c>
       <c r="P10" s="15"/>
       <c r="Q10" s="15"/>
@@ -1890,37 +1940,31 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
     </row>
-    <row r="11" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A11" s="35" t="s">
-        <v>32</v>
-      </c>
-      <c r="B11" s="35" t="s">
-        <v>60</v>
-      </c>
-      <c r="C11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D11" s="15" t="s">
-        <v>37</v>
-      </c>
+    <row r="11" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="37"/>
+      <c r="B11" s="37"/>
+      <c r="C11" s="15"/>
+      <c r="D11" s="15"/>
       <c r="E11" s="15"/>
-      <c r="F11" s="15"/>
+      <c r="F11" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G11" s="15"/>
       <c r="H11" s="15"/>
       <c r="I11" s="15"/>
       <c r="J11" s="15"/>
       <c r="K11" s="15"/>
       <c r="L11" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M11" s="20" t="s">
-        <v>47</v>
+        <v>40</v>
+      </c>
+      <c r="M11" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="N11" s="19">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="O11" s="15" t="s">
-        <v>74</v>
+        <v>49</v>
       </c>
       <c r="P11" s="15"/>
       <c r="Q11" s="15"/>
@@ -1929,31 +1973,37 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
     </row>
-    <row r="12" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A12" s="37"/>
-      <c r="B12" s="37"/>
-      <c r="C12" s="15"/>
-      <c r="D12" s="15"/>
+    <row r="12" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="38" t="s">
+        <v>33</v>
+      </c>
+      <c r="B12" s="38" t="s">
+        <v>54</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D12" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E12" s="15"/>
-      <c r="F12" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="F12" s="15"/>
       <c r="G12" s="15"/>
       <c r="H12" s="15"/>
       <c r="I12" s="15"/>
       <c r="J12" s="15"/>
       <c r="K12" s="15"/>
       <c r="L12" s="15" t="s">
-        <v>41</v>
+        <v>61</v>
       </c>
       <c r="M12" s="20" t="s">
-        <v>42</v>
+        <v>44</v>
       </c>
       <c r="N12" s="19">
-        <v>0.2</v>
+        <v>0.15</v>
       </c>
       <c r="O12" s="15" t="s">
-        <v>55</v>
+        <v>69</v>
       </c>
       <c r="P12" s="15"/>
       <c r="Q12" s="15"/>
@@ -1962,37 +2012,31 @@
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
     </row>
-    <row r="13" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A13" s="36" t="s">
-        <v>33</v>
-      </c>
-      <c r="B13" s="36" t="s">
-        <v>60</v>
-      </c>
-      <c r="C13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D13" s="15" t="s">
-        <v>37</v>
-      </c>
+    <row r="13" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="37"/>
+      <c r="B13" s="37"/>
+      <c r="C13" s="15"/>
+      <c r="D13" s="15"/>
       <c r="E13" s="15"/>
-      <c r="F13" s="15"/>
+      <c r="F13" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="G13" s="15"/>
       <c r="H13" s="15"/>
       <c r="I13" s="15"/>
       <c r="J13" s="15"/>
       <c r="K13" s="15"/>
       <c r="L13" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="M13" s="20" t="s">
-        <v>47</v>
+        <v>62</v>
+      </c>
+      <c r="M13" s="40" t="s">
+        <v>41</v>
       </c>
       <c r="N13" s="19">
-        <v>0.15</v>
+        <v>0.2</v>
       </c>
       <c r="O13" s="15" t="s">
-        <v>75</v>
+        <v>70</v>
       </c>
       <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
@@ -2001,11 +2045,17 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
     </row>
-    <row r="14" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A14" s="37"/>
-      <c r="B14" s="37"/>
+    <row r="14" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="18" t="s">
+        <v>34</v>
+      </c>
+      <c r="B14" s="18" t="s">
+        <v>51</v>
+      </c>
       <c r="C14" s="15"/>
-      <c r="D14" s="15"/>
+      <c r="D14" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E14" s="15"/>
       <c r="F14" s="15" t="s">
         <v>37</v>
@@ -2013,19 +2063,21 @@
       <c r="G14" s="15"/>
       <c r="H14" s="15"/>
       <c r="I14" s="15"/>
-      <c r="J14" s="15"/>
+      <c r="J14" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="K14" s="15"/>
       <c r="L14" s="15" t="s">
-        <v>68</v>
+        <v>54</v>
       </c>
       <c r="M14" s="20" t="s">
-        <v>42</v>
+        <v>46</v>
       </c>
       <c r="N14" s="19">
-        <v>0.2</v>
+        <v>0.21</v>
       </c>
       <c r="O14" s="15" t="s">
-        <v>76</v>
+        <v>71</v>
       </c>
       <c r="P14" s="15"/>
       <c r="Q14" s="15"/>
@@ -2034,12 +2086,12 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
     </row>
-    <row r="15" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A15" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B15" s="18" t="s">
-        <v>57</v>
+    <row r="15" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B15" s="36" t="s">
+        <v>55</v>
       </c>
       <c r="C15" s="15"/>
       <c r="D15" s="15" t="s">
@@ -2057,16 +2109,16 @@
       </c>
       <c r="K15" s="15"/>
       <c r="L15" s="15" t="s">
-        <v>60</v>
+        <v>54</v>
       </c>
       <c r="M15" s="20" t="s">
-        <v>52</v>
+        <v>46</v>
       </c>
       <c r="N15" s="19">
         <v>0.21</v>
       </c>
       <c r="O15" s="15" t="s">
-        <v>77</v>
+        <v>71</v>
       </c>
       <c r="P15" s="15"/>
       <c r="Q15" s="15"/>
@@ -2075,39 +2127,31 @@
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
     </row>
-    <row r="16" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A16" s="35" t="s">
-        <v>35</v>
-      </c>
-      <c r="B16" s="35" t="s">
-        <v>61</v>
-      </c>
+    <row r="16" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="38"/>
+      <c r="B16" s="38"/>
       <c r="C16" s="15"/>
-      <c r="D16" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="D16" s="15"/>
       <c r="E16" s="15"/>
-      <c r="F16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G16" s="15"/>
+      <c r="F16" s="15"/>
+      <c r="G16" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="H16" s="15"/>
       <c r="I16" s="15"/>
-      <c r="J16" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="J16" s="15"/>
       <c r="K16" s="15"/>
       <c r="L16" s="15" t="s">
         <v>60</v>
       </c>
       <c r="M16" s="20" t="s">
-        <v>52</v>
+        <v>75</v>
       </c>
       <c r="N16" s="19">
-        <v>0.21</v>
+        <v>0.23</v>
       </c>
       <c r="O16" s="15" t="s">
-        <v>77</v>
+        <v>72</v>
       </c>
       <c r="P16" s="15"/>
       <c r="Q16" s="15"/>
@@ -2116,9 +2160,9 @@
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
     </row>
-    <row r="17" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A17" s="36"/>
-      <c r="B17" s="36"/>
+    <row r="17" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="37"/>
+      <c r="B17" s="37"/>
       <c r="C17" s="15"/>
       <c r="D17" s="15"/>
       <c r="E17" s="15"/>
@@ -2131,16 +2175,16 @@
       <c r="J17" s="15"/>
       <c r="K17" s="15"/>
       <c r="L17" s="15" t="s">
-        <v>66</v>
+        <v>60</v>
       </c>
       <c r="M17" s="20" t="s">
-        <v>81</v>
+        <v>47</v>
       </c>
       <c r="N17" s="19">
-        <v>0.23</v>
+        <v>0.18</v>
       </c>
       <c r="O17" s="15" t="s">
-        <v>78</v>
+        <v>73</v>
       </c>
       <c r="P17" s="15"/>
       <c r="Q17" s="15"/>
@@ -2149,31 +2193,37 @@
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
     </row>
-    <row r="18" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A18" s="37"/>
-      <c r="B18" s="37"/>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15"/>
+    <row r="18" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="B18" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="C18" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="D18" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="E18" s="15"/>
       <c r="F18" s="15"/>
-      <c r="G18" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
       <c r="J18" s="15"/>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>66</v>
+        <v>59</v>
       </c>
       <c r="M18" s="20" t="s">
-        <v>53</v>
+        <v>44</v>
       </c>
       <c r="N18" s="19">
-        <v>0.18</v>
+        <v>0.15</v>
       </c>
       <c r="O18" s="15" t="s">
-        <v>79</v>
+        <v>74</v>
       </c>
       <c r="P18" s="15"/>
       <c r="Q18" s="15"/>
@@ -2182,12 +2232,12 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
     </row>
-    <row r="19" spans="1:21" ht="40.5" customHeight="1">
+    <row r="19" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A19" s="15" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="B19" s="15" t="s">
-        <v>62</v>
+        <v>56</v>
       </c>
       <c r="C19" s="15" t="s">
         <v>37</v>
@@ -2203,16 +2253,16 @@
       <c r="J19" s="15"/>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>65</v>
+        <v>59</v>
       </c>
       <c r="M19" s="20" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="N19" s="19">
         <v>0.15</v>
       </c>
       <c r="O19" s="15" t="s">
-        <v>80</v>
+        <v>74</v>
       </c>
       <c r="P19" s="15"/>
       <c r="Q19" s="15"/>
@@ -2221,58 +2271,13 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
     </row>
-    <row r="20" spans="1:21" ht="40.5" customHeight="1">
-      <c r="A20" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B20" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="C20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D20" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15"/>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="M20" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N20" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="O20" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="P20" s="15"/>
-      <c r="Q20" s="15"/>
-      <c r="R20" s="15"/>
-      <c r="S20" s="15"/>
-      <c r="T20" s="15"/>
-      <c r="U20" s="15"/>
-    </row>
   </sheetData>
-  <sortState ref="M31:M34">
-    <sortCondition ref="M31"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M30:M33">
+    <sortCondition ref="M30"/>
   </sortState>
-  <mergeCells count="19">
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:B12"/>
-    <mergeCell ref="B7:B8"/>
-    <mergeCell ref="A7:A8"/>
-    <mergeCell ref="A16:A18"/>
-    <mergeCell ref="B16:B18"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="B13:B14"/>
+  <mergeCells count="17">
+    <mergeCell ref="A5:A6"/>
+    <mergeCell ref="B5:B6"/>
     <mergeCell ref="B1:U1"/>
     <mergeCell ref="I2:U2"/>
     <mergeCell ref="C2:D2"/>
@@ -2282,8 +2287,12 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A15:A17"/>
+    <mergeCell ref="B15:B17"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -1,24 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
-  <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{258B5A5F-47CA-B94A-957B-C7226423D21D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="7" rupBuild="4506"/>
+  <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="495" windowWidth="20730" windowHeight="11760" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
     <sheet name="Threat Model" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
-  <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="125725"/>
+  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -37,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="137" uniqueCount="79">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
   <si>
     <t>Asset</t>
   </si>
@@ -300,9 +294,6 @@
     <t>Smart Contract Location</t>
   </si>
   <si>
-    <t>Smart Contract Method</t>
-  </si>
-  <si>
     <t>Deploy Transaction</t>
   </si>
   <si>
@@ -324,12 +315,6 @@
     <t>5.000-10.000</t>
   </si>
   <si>
-    <t>Sniffing (157)</t>
-  </si>
-  <si>
-    <t>Identity Spoofing (151)</t>
-  </si>
-  <si>
     <t>Use of known domain credentials (560)</t>
   </si>
   <si>
@@ -348,9 +333,6 @@
     <t>10.000-20.000</t>
   </si>
   <si>
-    <t>1.000-2.000</t>
-  </si>
-  <si>
     <t>20.000-40.000</t>
   </si>
   <si>
@@ -387,9 +369,6 @@
     <t>25.000-50.000</t>
   </si>
   <si>
-    <t>10.000-25.000</t>
-  </si>
-  <si>
     <t>1.800-3.600</t>
   </si>
   <si>
@@ -411,9 +390,6 @@
     <t>3.750-7.500</t>
   </si>
   <si>
-    <t>2.000-5.000</t>
-  </si>
-  <si>
     <t>10.500-21.000</t>
   </si>
   <si>
@@ -436,13 +412,47 @@
   </si>
   <si>
     <t>Digital signature</t>
+  </si>
+  <si>
+    <t>CAPEC Pattern</t>
+  </si>
+  <si>
+    <t>Wallet Key Theft</t>
+  </si>
+  <si>
+    <t>Limited number of possible try</t>
+  </si>
+  <si>
+    <t>User's Identity Violation</t>
+  </si>
+  <si>
+    <t>Brute Force (112) -&gt; Use of known domain credentials (560)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Brute Force (112)   -&gt; Use of known domain credentials (560)  -&gt; Identity Spoofing (151)
+</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Identity Spoofing (151) </t>
+  </si>
+  <si>
+    <t>Brute Force</t>
+  </si>
+  <si>
+    <t>Smart Contract Address</t>
+  </si>
+  <si>
+    <t>Code Modification</t>
+  </si>
+  <si>
+    <t>Register Modification</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <fonts count="5">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -612,7 +622,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="41">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -665,74 +675,86 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1045,108 +1067,108 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:U25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.875" style="3" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.625" style="3" customWidth="1"/>
     <col min="9" max="11" width="6.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="10.875" style="3"/>
     <col min="13" max="13" width="20" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="3"/>
+    <col min="18" max="18" width="10.875" style="3"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="3"/>
+    <col min="22" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-    </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="27"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+    </row>
+    <row r="2" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-    </row>
-    <row r="3" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="H2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
+      <c r="N2" s="27"/>
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+    </row>
+    <row r="3" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1159,290 +1181,281 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="5" spans="1:21" ht="22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="21">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="31" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="26" t="s">
+      <c r="D5" s="32"/>
+      <c r="E5" s="32"/>
+      <c r="F5" s="32"/>
+      <c r="G5" s="32"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="35" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="27"/>
-    </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+      <c r="J5" s="32"/>
+    </row>
+    <row r="6" spans="1:21">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="25"/>
+      <c r="C6" s="23"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
+      <c r="I6" s="34"/>
       <c r="J6" s="24"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
+      <c r="C7" s="23"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
+      <c r="I7" s="34"/>
       <c r="J7" s="24"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
+      <c r="C8" s="23"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
+      <c r="I8" s="34"/>
       <c r="J8" s="24"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="25"/>
+      <c r="C9" s="23"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
+      <c r="I9" s="34"/>
       <c r="J9" s="24"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="25"/>
+      <c r="C10" s="23"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
+      <c r="I10" s="34"/>
       <c r="J10" s="24"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="25"/>
+      <c r="C11" s="23"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
+      <c r="I11" s="34"/>
       <c r="J11" s="24"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="25"/>
+      <c r="C12" s="23"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
+      <c r="I12" s="34"/>
       <c r="J12" s="24"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
+      <c r="C13" s="23"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
+      <c r="I13" s="34"/>
       <c r="J13" s="24"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="25"/>
+      <c r="C14" s="23"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
+      <c r="I14" s="34"/>
       <c r="J14" s="24"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="25"/>
+      <c r="C15" s="23"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
+      <c r="I15" s="34"/>
       <c r="J15" s="24"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="25"/>
+      <c r="C16" s="23"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="23"/>
+      <c r="I16" s="34"/>
       <c r="J16" s="24"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="25"/>
+      <c r="C17" s="23"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
+      <c r="I17" s="34"/>
       <c r="J17" s="24"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="25"/>
+      <c r="C18" s="23"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
+      <c r="I18" s="34"/>
       <c r="J18" s="24"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="25"/>
+      <c r="C19" s="23"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
+      <c r="I19" s="34"/>
       <c r="J19" s="24"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="25"/>
+      <c r="C20" s="23"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
+      <c r="I20" s="34"/>
       <c r="J20" s="24"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="25"/>
+      <c r="C21" s="23"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
+      <c r="I21" s="34"/>
       <c r="J21" s="24"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="25"/>
+      <c r="C22" s="23"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
+      <c r="I22" s="34"/>
       <c r="J22" s="24"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="25"/>
+      <c r="C23" s="23"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
+      <c r="I23" s="34"/>
       <c r="J23" s="24"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="25"/>
+      <c r="C24" s="23"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="23"/>
+      <c r="I24" s="34"/>
       <c r="J24" s="24"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="25"/>
+      <c r="C25" s="23"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="23"/>
+      <c r="I25" s="34"/>
       <c r="J25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1459,121 +1472,134 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AL19"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <dimension ref="A1:AM33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="K5" sqref="K5"/>
+    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P16" sqref="P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="11" width="6.875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="33" style="3" customWidth="1"/>
-    <col min="14" max="15" width="10" style="3" customWidth="1"/>
-    <col min="16" max="16" width="20" style="3" customWidth="1"/>
-    <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="20" style="3" customWidth="1"/>
-    <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="22" width="68.33203125" style="3" customWidth="1"/>
-    <col min="23" max="16384" width="10.83203125" style="3"/>
+    <col min="14" max="14" width="33" style="20" customWidth="1"/>
+    <col min="15" max="16" width="10" style="3" customWidth="1"/>
+    <col min="17" max="17" width="20" style="3" customWidth="1"/>
+    <col min="18" max="18" width="10" style="3" customWidth="1"/>
+    <col min="19" max="19" width="20" style="3" customWidth="1"/>
+    <col min="20" max="22" width="10" style="3" customWidth="1"/>
+    <col min="23" max="23" width="29.25" style="3" customWidth="1"/>
+    <col min="24" max="24" width="76.625" style="3" customWidth="1"/>
+    <col min="25" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:38" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:39" s="10" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-    </row>
-    <row r="2" spans="1:38" s="10" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="25"/>
+      <c r="C1" s="25"/>
+      <c r="D1" s="25"/>
+      <c r="E1" s="25"/>
+      <c r="F1" s="25"/>
+      <c r="G1" s="26"/>
+      <c r="H1" s="26"/>
+      <c r="I1" s="26"/>
+      <c r="J1" s="26"/>
+      <c r="K1" s="26"/>
+      <c r="L1" s="26"/>
+      <c r="M1" s="26"/>
+      <c r="N1" s="26"/>
+      <c r="O1" s="27"/>
+      <c r="P1" s="27"/>
+      <c r="Q1" s="27"/>
+      <c r="R1" s="27"/>
+      <c r="S1" s="27"/>
+      <c r="T1" s="27"/>
+      <c r="U1" s="27"/>
+      <c r="V1" s="27"/>
+    </row>
+    <row r="2" spans="1:39" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>39</v>
-      </c>
-      <c r="C2" s="31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="28"/>
+      <c r="E2" s="25"/>
+      <c r="F2" s="25"/>
+      <c r="G2" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="25"/>
+      <c r="J2" s="30"/>
+      <c r="K2" s="30"/>
+      <c r="L2" s="30"/>
+      <c r="M2" s="30"/>
       <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-    </row>
-    <row r="3" spans="1:38" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="O2" s="27"/>
+      <c r="P2" s="27"/>
+      <c r="Q2" s="27"/>
+      <c r="R2" s="27"/>
+      <c r="S2" s="27"/>
+      <c r="T2" s="27"/>
+      <c r="U2" s="27"/>
+      <c r="V2" s="27"/>
+    </row>
+    <row r="3" spans="1:39" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="28"/>
+      <c r="E3" s="25"/>
+      <c r="F3" s="25"/>
+      <c r="G3" s="28" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="28"/>
+      <c r="I3" s="25"/>
+      <c r="J3" s="25"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1585,8 +1611,9 @@
       <c r="S3" s="12"/>
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
-    </row>
-    <row r="4" spans="1:38" ht="157" x14ac:dyDescent="0.2">
+      <c r="V3" s="12"/>
+    </row>
+    <row r="4" spans="1:39" ht="153.75">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1623,663 +1650,995 @@
       <c r="L4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="5" t="s">
+      <c r="M4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="7" t="s">
+      <c r="N4" s="6" t="s">
+        <v>73</v>
+      </c>
+      <c r="O4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="P4" s="5" t="s">
+      <c r="Q4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="S4" s="7" t="s">
+      <c r="T4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="5" spans="1:38" s="16" customFormat="1" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="X4" s="6" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="5" spans="1:39" s="16" customFormat="1" ht="60.95" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C5" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D5" s="15"/>
-      <c r="E5" s="15"/>
-      <c r="F5" s="15"/>
-      <c r="G5" s="15"/>
-      <c r="H5" s="15"/>
-      <c r="I5" s="15"/>
-      <c r="J5" s="15"/>
-      <c r="K5" s="15"/>
-      <c r="L5" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M5" s="20" t="s">
-        <v>42</v>
-      </c>
-      <c r="N5" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="O5" s="15" t="s">
-        <v>63</v>
+        <v>47</v>
+      </c>
+      <c r="C5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="39"/>
+      <c r="E5" s="39"/>
+      <c r="F5" s="21" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="39"/>
+      <c r="H5" s="39"/>
+      <c r="I5" s="39"/>
+      <c r="J5" s="39"/>
+      <c r="K5" s="39"/>
+      <c r="L5" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="M5" s="39" t="s">
+        <v>74</v>
+      </c>
+      <c r="N5" s="19" t="s">
+        <v>80</v>
+      </c>
+      <c r="O5" s="18">
+        <v>0.01</v>
       </c>
       <c r="P5" s="15" t="s">
-        <v>76</v>
-      </c>
-      <c r="Q5" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="Q5" s="15" t="s">
+        <v>75</v>
+      </c>
       <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
-      <c r="V5" s="39"/>
-      <c r="W5" s="39"/>
-      <c r="X5" s="39"/>
-      <c r="Y5" s="39"/>
-      <c r="Z5" s="39"/>
-      <c r="AA5" s="39"/>
-      <c r="AB5" s="39"/>
-      <c r="AC5" s="39"/>
-      <c r="AD5" s="39"/>
-      <c r="AE5" s="39"/>
-      <c r="AF5" s="39"/>
-      <c r="AG5" s="39"/>
-      <c r="AH5" s="39"/>
-      <c r="AI5" s="39"/>
-      <c r="AJ5" s="39"/>
-      <c r="AK5" s="39"/>
-      <c r="AL5" s="39"/>
-    </row>
-    <row r="6" spans="1:38" s="16" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="37"/>
-      <c r="B6" s="37"/>
-      <c r="C6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D6" s="15"/>
-      <c r="E6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="F6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G6" s="15"/>
-      <c r="H6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="I6" s="15"/>
-      <c r="J6" s="15"/>
-      <c r="K6" s="15"/>
-      <c r="L6" s="15" t="s">
-        <v>57</v>
-      </c>
-      <c r="M6" s="20" t="s">
-        <v>43</v>
-      </c>
-      <c r="N6" s="19">
-        <v>0.12</v>
-      </c>
-      <c r="O6" s="15" t="s">
-        <v>64</v>
+      <c r="V5" s="15"/>
+      <c r="W5" s="22"/>
+      <c r="X5" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="Y5" s="22"/>
+      <c r="Z5" s="22"/>
+      <c r="AA5" s="22"/>
+      <c r="AB5" s="22"/>
+      <c r="AC5" s="22"/>
+      <c r="AD5" s="22"/>
+      <c r="AE5" s="22"/>
+      <c r="AF5" s="22"/>
+      <c r="AG5" s="22"/>
+      <c r="AH5" s="22"/>
+      <c r="AI5" s="22"/>
+      <c r="AJ5" s="22"/>
+      <c r="AK5" s="22"/>
+      <c r="AL5" s="22"/>
+      <c r="AM5" s="22"/>
+    </row>
+    <row r="6" spans="1:39" s="16" customFormat="1" ht="60.95" customHeight="1">
+      <c r="A6" s="38"/>
+      <c r="B6" s="38"/>
+      <c r="C6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="38"/>
+      <c r="E6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="38"/>
+      <c r="H6" s="38" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="38"/>
+      <c r="J6" s="38"/>
+      <c r="K6" s="38"/>
+      <c r="L6" s="38" t="s">
+        <v>53</v>
+      </c>
+      <c r="M6" s="41" t="s">
+        <v>76</v>
+      </c>
+      <c r="N6" s="19" t="s">
+        <v>79</v>
+      </c>
+      <c r="O6" s="18">
+        <v>0.18</v>
       </c>
       <c r="P6" s="15" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q6" s="15"/>
+        <v>58</v>
+      </c>
+      <c r="Q6" s="15" t="s">
+        <v>70</v>
+      </c>
       <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
-      <c r="V6" s="39"/>
-      <c r="W6" s="39"/>
-      <c r="X6" s="39"/>
-      <c r="Y6" s="39"/>
-      <c r="Z6" s="39"/>
-      <c r="AA6" s="39"/>
-      <c r="AB6" s="39"/>
-      <c r="AC6" s="39"/>
-      <c r="AD6" s="39"/>
-      <c r="AE6" s="39"/>
-      <c r="AF6" s="39"/>
-      <c r="AG6" s="39"/>
-      <c r="AH6" s="39"/>
-      <c r="AI6" s="39"/>
-      <c r="AJ6" s="39"/>
-      <c r="AK6" s="39"/>
-      <c r="AL6" s="39"/>
-    </row>
-    <row r="7" spans="1:38" s="16" customFormat="1" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="21" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="22" t="s">
-        <v>52</v>
-      </c>
-      <c r="C7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D7" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E7" s="15"/>
-      <c r="F7" s="15"/>
-      <c r="G7" s="15"/>
-      <c r="H7" s="15"/>
-      <c r="I7" s="15"/>
-      <c r="J7" s="15"/>
-      <c r="K7" s="15"/>
-      <c r="L7" s="15" t="s">
+      <c r="V6" s="15"/>
+      <c r="W6" s="22"/>
+      <c r="X6" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="Y6" s="22"/>
+      <c r="Z6" s="22"/>
+      <c r="AA6" s="22"/>
+      <c r="AB6" s="22"/>
+      <c r="AC6" s="22"/>
+      <c r="AD6" s="22"/>
+      <c r="AE6" s="22"/>
+      <c r="AF6" s="22"/>
+      <c r="AG6" s="22"/>
+      <c r="AH6" s="22"/>
+      <c r="AI6" s="22"/>
+      <c r="AJ6" s="22"/>
+      <c r="AK6" s="22"/>
+      <c r="AL6" s="22"/>
+      <c r="AM6" s="22"/>
+    </row>
+    <row r="7" spans="1:39" s="16" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="37"/>
+      <c r="B7" s="37"/>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="37"/>
+      <c r="H7" s="37"/>
+      <c r="I7" s="37"/>
+      <c r="J7" s="37"/>
+      <c r="K7" s="37"/>
+      <c r="L7" s="37"/>
+      <c r="M7" s="40"/>
+      <c r="N7" s="19" t="s">
         <v>40</v>
       </c>
-      <c r="M7" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N7" s="19">
+      <c r="O7" s="18">
         <v>0.12</v>
       </c>
-      <c r="O7" s="15" t="s">
-        <v>65</v>
-      </c>
       <c r="P7" s="15" t="s">
-        <v>78</v>
-      </c>
-      <c r="Q7" s="15"/>
+        <v>59</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>71</v>
+      </c>
       <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
-      <c r="V7" s="39"/>
-      <c r="W7" s="39"/>
-      <c r="X7" s="39"/>
-      <c r="Y7" s="39"/>
-      <c r="Z7" s="39"/>
-      <c r="AA7" s="39"/>
-      <c r="AB7" s="39"/>
-      <c r="AC7" s="39"/>
-      <c r="AD7" s="39"/>
-      <c r="AE7" s="39"/>
-      <c r="AF7" s="39"/>
-      <c r="AG7" s="39"/>
-      <c r="AH7" s="39"/>
-      <c r="AI7" s="39"/>
-      <c r="AJ7" s="39"/>
-      <c r="AK7" s="39"/>
-      <c r="AL7" s="39"/>
-    </row>
-    <row r="8" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="17" t="s">
-        <v>30</v>
-      </c>
-      <c r="B8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="C8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D8" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="15"/>
-      <c r="J8" s="15"/>
-      <c r="K8" s="15"/>
-      <c r="L8" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M8" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N8" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="O8" s="15" t="s">
-        <v>66</v>
-      </c>
-      <c r="P8" s="15"/>
+      <c r="V7" s="15"/>
+      <c r="W7" s="22"/>
+      <c r="X7" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y7" s="22"/>
+      <c r="Z7" s="22"/>
+      <c r="AA7" s="22"/>
+      <c r="AB7" s="22"/>
+      <c r="AC7" s="22"/>
+      <c r="AD7" s="22"/>
+      <c r="AE7" s="22"/>
+      <c r="AF7" s="22"/>
+      <c r="AG7" s="22"/>
+      <c r="AH7" s="22"/>
+      <c r="AI7" s="22"/>
+      <c r="AJ7" s="22"/>
+      <c r="AK7" s="22"/>
+      <c r="AL7" s="22"/>
+      <c r="AM7" s="22"/>
+    </row>
+    <row r="8" spans="1:39" s="16" customFormat="1" ht="39" customHeight="1">
+      <c r="A8" s="36" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="43" t="s">
+        <v>48</v>
+      </c>
+      <c r="C8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="36"/>
+      <c r="F8" s="36"/>
+      <c r="G8" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="36"/>
+      <c r="I8" s="36"/>
+      <c r="J8" s="36"/>
+      <c r="K8" s="36"/>
+      <c r="L8" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="M8" s="36" t="s">
+        <v>82</v>
+      </c>
+      <c r="N8" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O8" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="P8" s="15" t="s">
+        <v>60</v>
+      </c>
       <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
-    </row>
-    <row r="9" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="15" t="s">
-        <v>31</v>
-      </c>
-      <c r="B9" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="C9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D9" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E9" s="15"/>
-      <c r="F9" s="15"/>
-      <c r="G9" s="15"/>
-      <c r="H9" s="15"/>
-      <c r="I9" s="15"/>
-      <c r="J9" s="15"/>
-      <c r="K9" s="15"/>
-      <c r="L9" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="M9" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N9" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="O9" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="P9" s="15"/>
-      <c r="Q9" s="15"/>
+      <c r="V8" s="15"/>
+      <c r="W8" s="22"/>
+      <c r="X8" s="19"/>
+      <c r="Y8" s="22"/>
+      <c r="Z8" s="22"/>
+      <c r="AA8" s="22"/>
+      <c r="AB8" s="22"/>
+      <c r="AC8" s="22"/>
+      <c r="AD8" s="22"/>
+      <c r="AE8" s="22"/>
+      <c r="AF8" s="22"/>
+      <c r="AG8" s="22"/>
+      <c r="AH8" s="22"/>
+      <c r="AI8" s="22"/>
+      <c r="AJ8" s="22"/>
+      <c r="AK8" s="22"/>
+      <c r="AL8" s="22"/>
+      <c r="AM8" s="22"/>
+    </row>
+    <row r="9" spans="1:39" s="16" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A9" s="37"/>
+      <c r="B9" s="44"/>
+      <c r="C9" s="37"/>
+      <c r="D9" s="37"/>
+      <c r="E9" s="37"/>
+      <c r="F9" s="37"/>
+      <c r="G9" s="37"/>
+      <c r="H9" s="37"/>
+      <c r="I9" s="37"/>
+      <c r="J9" s="37"/>
+      <c r="K9" s="37"/>
+      <c r="L9" s="37"/>
+      <c r="M9" s="37"/>
+      <c r="N9" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O9" s="18">
+        <v>0.12</v>
+      </c>
+      <c r="P9" s="15" t="s">
+        <v>60</v>
+      </c>
+      <c r="Q9" s="15" t="s">
+        <v>72</v>
+      </c>
       <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
-    </row>
-    <row r="10" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V9" s="15"/>
+      <c r="W9" s="22"/>
+      <c r="X9" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="Y9" s="22"/>
+      <c r="Z9" s="22"/>
+      <c r="AA9" s="22"/>
+      <c r="AB9" s="22"/>
+      <c r="AC9" s="22"/>
+      <c r="AD9" s="22"/>
+      <c r="AE9" s="22"/>
+      <c r="AF9" s="22"/>
+      <c r="AG9" s="22"/>
+      <c r="AH9" s="22"/>
+      <c r="AI9" s="22"/>
+      <c r="AJ9" s="22"/>
+      <c r="AK9" s="22"/>
+      <c r="AL9" s="22"/>
+      <c r="AM9" s="22"/>
+    </row>
+    <row r="10" spans="1:39" s="16" customFormat="1" ht="39.75" customHeight="1">
       <c r="A10" s="36" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B10" s="36" t="s">
-        <v>54</v>
-      </c>
-      <c r="C10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D10" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E10" s="15"/>
-      <c r="F10" s="15"/>
-      <c r="G10" s="15"/>
-      <c r="H10" s="15"/>
-      <c r="I10" s="15"/>
-      <c r="J10" s="15"/>
-      <c r="K10" s="15"/>
-      <c r="L10" s="15" t="s">
-        <v>48</v>
-      </c>
-      <c r="M10" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N10" s="19">
+        <v>49</v>
+      </c>
+      <c r="C10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="36"/>
+      <c r="F10" s="36"/>
+      <c r="G10" s="36"/>
+      <c r="H10" s="36"/>
+      <c r="I10" s="36"/>
+      <c r="J10" s="36"/>
+      <c r="K10" s="36"/>
+      <c r="L10" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="M10" s="36" t="s">
+        <v>83</v>
+      </c>
+      <c r="N10" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O10" s="18">
         <v>0.15</v>
       </c>
-      <c r="O10" s="15" t="s">
-        <v>68</v>
-      </c>
-      <c r="P10" s="15"/>
+      <c r="P10" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
-    </row>
-    <row r="11" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V10" s="15"/>
+      <c r="W10" s="22"/>
+      <c r="X10" s="19"/>
+      <c r="Y10" s="22"/>
+      <c r="Z10" s="22"/>
+      <c r="AA10" s="22"/>
+      <c r="AB10" s="22"/>
+      <c r="AC10" s="22"/>
+      <c r="AD10" s="22"/>
+      <c r="AE10" s="22"/>
+      <c r="AF10" s="22"/>
+      <c r="AG10" s="22"/>
+      <c r="AH10" s="22"/>
+      <c r="AI10" s="22"/>
+      <c r="AJ10" s="22"/>
+      <c r="AK10" s="22"/>
+      <c r="AL10" s="22"/>
+      <c r="AM10" s="22"/>
+    </row>
+    <row r="11" spans="1:39" ht="40.5" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
-      <c r="C11" s="15"/>
-      <c r="D11" s="15"/>
-      <c r="E11" s="15"/>
-      <c r="F11" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G11" s="15"/>
-      <c r="H11" s="15"/>
-      <c r="I11" s="15"/>
-      <c r="J11" s="15"/>
-      <c r="K11" s="15"/>
-      <c r="L11" s="15" t="s">
-        <v>40</v>
-      </c>
-      <c r="M11" s="40" t="s">
+      <c r="C11" s="37"/>
+      <c r="D11" s="37"/>
+      <c r="E11" s="37"/>
+      <c r="F11" s="37"/>
+      <c r="G11" s="37"/>
+      <c r="H11" s="37"/>
+      <c r="I11" s="37"/>
+      <c r="J11" s="37"/>
+      <c r="K11" s="37"/>
+      <c r="L11" s="37"/>
+      <c r="M11" s="37"/>
+      <c r="N11" s="19" t="s">
         <v>41</v>
       </c>
-      <c r="N11" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="O11" s="15" t="s">
-        <v>49</v>
-      </c>
-      <c r="P11" s="15"/>
+      <c r="O11" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="P11" s="15" t="s">
+        <v>61</v>
+      </c>
       <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
-    </row>
-    <row r="12" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>33</v>
-      </c>
-      <c r="B12" s="38" t="s">
+      <c r="V11" s="15"/>
+      <c r="X11" s="19" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="12" spans="1:39" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A12" s="36" t="s">
+        <v>31</v>
+      </c>
+      <c r="B12" s="36" t="s">
+        <v>39</v>
+      </c>
+      <c r="C12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="36"/>
+      <c r="F12" s="36"/>
+      <c r="G12" s="36"/>
+      <c r="H12" s="36"/>
+      <c r="I12" s="36"/>
+      <c r="J12" s="36"/>
+      <c r="K12" s="36"/>
+      <c r="L12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="C12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="D12" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E12" s="15"/>
-      <c r="F12" s="15"/>
-      <c r="G12" s="15"/>
-      <c r="H12" s="15"/>
-      <c r="I12" s="15"/>
-      <c r="J12" s="15"/>
-      <c r="K12" s="15"/>
-      <c r="L12" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="M12" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N12" s="19">
+      <c r="M12" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N12" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O12" s="18">
         <v>0.15</v>
       </c>
-      <c r="O12" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="P12" s="15"/>
+      <c r="P12" s="15" t="s">
+        <v>62</v>
+      </c>
       <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
-    </row>
-    <row r="13" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V12" s="15"/>
+      <c r="X12" s="19"/>
+    </row>
+    <row r="13" spans="1:39" ht="40.5" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
-      <c r="C13" s="15"/>
-      <c r="D13" s="15"/>
-      <c r="E13" s="15"/>
-      <c r="F13" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G13" s="15"/>
-      <c r="H13" s="15"/>
-      <c r="I13" s="15"/>
-      <c r="J13" s="15"/>
-      <c r="K13" s="15"/>
-      <c r="L13" s="15" t="s">
+      <c r="C13" s="37"/>
+      <c r="D13" s="37"/>
+      <c r="E13" s="37"/>
+      <c r="F13" s="37"/>
+      <c r="G13" s="37"/>
+      <c r="H13" s="37"/>
+      <c r="I13" s="37"/>
+      <c r="J13" s="37"/>
+      <c r="K13" s="37"/>
+      <c r="L13" s="37"/>
+      <c r="M13" s="37"/>
+      <c r="N13" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O13" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="P13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="M13" s="40" t="s">
-        <v>41</v>
-      </c>
-      <c r="N13" s="19">
-        <v>0.2</v>
-      </c>
-      <c r="O13" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="P13" s="15"/>
       <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
-    </row>
-    <row r="14" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="18" t="s">
-        <v>34</v>
-      </c>
-      <c r="B14" s="18" t="s">
-        <v>51</v>
-      </c>
-      <c r="C14" s="15"/>
-      <c r="D14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E14" s="15"/>
-      <c r="F14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G14" s="15"/>
-      <c r="H14" s="15"/>
-      <c r="I14" s="15"/>
-      <c r="J14" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K14" s="15"/>
-      <c r="L14" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M14" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N14" s="19">
-        <v>0.21</v>
-      </c>
-      <c r="O14" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P14" s="15"/>
+      <c r="V13" s="15"/>
+      <c r="X13" s="19" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:39" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A14" s="36" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="36"/>
+      <c r="F14" s="36"/>
+      <c r="G14" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="36"/>
+      <c r="I14" s="36"/>
+      <c r="J14" s="36"/>
+      <c r="K14" s="36"/>
+      <c r="L14" s="36" t="s">
+        <v>45</v>
+      </c>
+      <c r="M14" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N14" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O14" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="P14" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
-    </row>
-    <row r="15" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B15" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="E15" s="15"/>
-      <c r="F15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="G15" s="15"/>
-      <c r="H15" s="15"/>
-      <c r="I15" s="15"/>
-      <c r="J15" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="K15" s="15"/>
-      <c r="L15" s="15" t="s">
-        <v>54</v>
-      </c>
-      <c r="M15" s="20" t="s">
-        <v>46</v>
-      </c>
-      <c r="N15" s="19">
-        <v>0.21</v>
-      </c>
-      <c r="O15" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="P15" s="15"/>
+      <c r="V14" s="15"/>
+      <c r="X14" s="42"/>
+    </row>
+    <row r="15" spans="1:39" ht="40.5" customHeight="1">
+      <c r="A15" s="38"/>
+      <c r="B15" s="38"/>
+      <c r="C15" s="37"/>
+      <c r="D15" s="37"/>
+      <c r="E15" s="37"/>
+      <c r="F15" s="37"/>
+      <c r="G15" s="37"/>
+      <c r="H15" s="37"/>
+      <c r="I15" s="37"/>
+      <c r="J15" s="37"/>
+      <c r="K15" s="37"/>
+      <c r="L15" s="37"/>
+      <c r="M15" s="37"/>
+      <c r="N15" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O15" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="P15" s="15" t="s">
+        <v>63</v>
+      </c>
       <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
-    </row>
-    <row r="16" spans="1:38" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38"/>
-      <c r="B16" s="38"/>
-      <c r="C16" s="15"/>
-      <c r="D16" s="15"/>
-      <c r="E16" s="15"/>
-      <c r="F16" s="15"/>
-      <c r="G16" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H16" s="15"/>
-      <c r="I16" s="15"/>
-      <c r="J16" s="15"/>
-      <c r="K16" s="15"/>
-      <c r="L16" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M16" s="20" t="s">
-        <v>75</v>
-      </c>
-      <c r="N16" s="19">
-        <v>0.23</v>
-      </c>
-      <c r="O16" s="15" t="s">
-        <v>72</v>
-      </c>
-      <c r="P16" s="15"/>
+      <c r="V15" s="15"/>
+    </row>
+    <row r="16" spans="1:39" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A16" s="38" t="s">
+        <v>81</v>
+      </c>
+      <c r="B16" s="38" t="s">
+        <v>50</v>
+      </c>
+      <c r="C16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="36"/>
+      <c r="F16" s="36"/>
+      <c r="G16" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="36"/>
+      <c r="I16" s="36"/>
+      <c r="J16" s="36"/>
+      <c r="K16" s="36"/>
+      <c r="L16" s="36" t="s">
+        <v>57</v>
+      </c>
+      <c r="M16" s="36" t="s">
+        <v>41</v>
+      </c>
+      <c r="N16" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O16" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="P16" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
-    </row>
-    <row r="17" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="V16" s="15"/>
+    </row>
+    <row r="17" spans="1:22" ht="40.5" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
-      <c r="C17" s="15"/>
-      <c r="D17" s="15"/>
-      <c r="E17" s="15"/>
-      <c r="F17" s="15"/>
-      <c r="G17" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="H17" s="15"/>
-      <c r="I17" s="15"/>
-      <c r="J17" s="15"/>
-      <c r="K17" s="15"/>
-      <c r="L17" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="M17" s="20" t="s">
-        <v>47</v>
-      </c>
-      <c r="N17" s="19">
-        <v>0.18</v>
-      </c>
-      <c r="O17" s="15" t="s">
-        <v>73</v>
-      </c>
-      <c r="P17" s="15"/>
+      <c r="C17" s="37"/>
+      <c r="D17" s="37"/>
+      <c r="E17" s="37"/>
+      <c r="F17" s="37"/>
+      <c r="G17" s="37"/>
+      <c r="H17" s="37"/>
+      <c r="I17" s="37"/>
+      <c r="J17" s="37"/>
+      <c r="K17" s="37"/>
+      <c r="L17" s="37"/>
+      <c r="M17" s="37"/>
+      <c r="N17" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O17" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="P17" s="15" t="s">
+        <v>64</v>
+      </c>
       <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
-    </row>
-    <row r="18" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="B18" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C18" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="V17" s="15"/>
+    </row>
+    <row r="18" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A18" s="17" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="17" t="s">
+        <v>47</v>
+      </c>
+      <c r="C18" s="15"/>
       <c r="D18" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E18" s="15"/>
-      <c r="F18" s="15"/>
+      <c r="F18" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="G18" s="15"/>
       <c r="H18" s="15"/>
       <c r="I18" s="15"/>
-      <c r="J18" s="15"/>
+      <c r="J18" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="K18" s="15"/>
       <c r="L18" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M18" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N18" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="O18" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="P18" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="M18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O18" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="P18" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
-    </row>
-    <row r="19" spans="1:21" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="15" t="s">
-        <v>38</v>
-      </c>
-      <c r="B19" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="C19" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="V18" s="15"/>
+    </row>
+    <row r="19" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A19" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C19" s="15"/>
       <c r="D19" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="E19" s="15"/>
-      <c r="F19" s="15"/>
+      <c r="F19" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="G19" s="15"/>
       <c r="H19" s="15"/>
       <c r="I19" s="15"/>
-      <c r="J19" s="15"/>
+      <c r="J19" s="15" t="s">
+        <v>36</v>
+      </c>
       <c r="K19" s="15"/>
       <c r="L19" s="15" t="s">
-        <v>59</v>
-      </c>
-      <c r="M19" s="20" t="s">
-        <v>44</v>
-      </c>
-      <c r="N19" s="19">
-        <v>0.15</v>
-      </c>
-      <c r="O19" s="15" t="s">
-        <v>74</v>
-      </c>
-      <c r="P19" s="15"/>
+        <v>50</v>
+      </c>
+      <c r="M19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19" s="19" t="s">
+        <v>43</v>
+      </c>
+      <c r="O19" s="18">
+        <v>0.21</v>
+      </c>
+      <c r="P19" s="15" t="s">
+        <v>65</v>
+      </c>
       <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
+      <c r="V19" s="15"/>
+    </row>
+    <row r="20" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A20" s="38"/>
+      <c r="B20" s="38"/>
+      <c r="C20" s="15"/>
+      <c r="D20" s="15"/>
+      <c r="E20" s="15"/>
+      <c r="F20" s="15"/>
+      <c r="G20" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="15"/>
+      <c r="I20" s="15"/>
+      <c r="J20" s="15"/>
+      <c r="K20" s="15"/>
+      <c r="L20" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="N20" s="19" t="s">
+        <v>69</v>
+      </c>
+      <c r="O20" s="18">
+        <v>0.23</v>
+      </c>
+      <c r="P20" s="15" t="s">
+        <v>66</v>
+      </c>
+      <c r="Q20" s="15"/>
+      <c r="R20" s="15"/>
+      <c r="S20" s="15"/>
+      <c r="T20" s="15"/>
+      <c r="U20" s="15"/>
+      <c r="V20" s="15"/>
+    </row>
+    <row r="21" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A21" s="37"/>
+      <c r="B21" s="37"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="15"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="15"/>
+      <c r="G21" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="H21" s="15"/>
+      <c r="I21" s="15"/>
+      <c r="J21" s="15"/>
+      <c r="K21" s="15"/>
+      <c r="L21" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="M21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="N21" s="19" t="s">
+        <v>44</v>
+      </c>
+      <c r="O21" s="18">
+        <v>0.18</v>
+      </c>
+      <c r="P21" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="Q21" s="15"/>
+      <c r="R21" s="15"/>
+      <c r="S21" s="15"/>
+      <c r="T21" s="15"/>
+      <c r="U21" s="15"/>
+      <c r="V21" s="15"/>
+    </row>
+    <row r="22" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A22" s="15" t="s">
+        <v>35</v>
+      </c>
+      <c r="B22" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D22" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E22" s="15"/>
+      <c r="F22" s="15"/>
+      <c r="G22" s="15"/>
+      <c r="H22" s="15"/>
+      <c r="I22" s="15"/>
+      <c r="J22" s="15"/>
+      <c r="K22" s="15"/>
+      <c r="L22" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N22" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O22" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="P22" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q22" s="15"/>
+      <c r="R22" s="15"/>
+      <c r="S22" s="15"/>
+      <c r="T22" s="15"/>
+      <c r="U22" s="15"/>
+      <c r="V22" s="15"/>
+    </row>
+    <row r="23" spans="1:22" ht="40.5" customHeight="1">
+      <c r="A23" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="B23" s="15" t="s">
+        <v>52</v>
+      </c>
+      <c r="C23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D23" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="E23" s="15"/>
+      <c r="F23" s="15"/>
+      <c r="G23" s="15"/>
+      <c r="H23" s="15"/>
+      <c r="I23" s="15"/>
+      <c r="J23" s="15"/>
+      <c r="K23" s="15"/>
+      <c r="L23" s="15" t="s">
+        <v>55</v>
+      </c>
+      <c r="M23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N23" s="19" t="s">
+        <v>41</v>
+      </c>
+      <c r="O23" s="18">
+        <v>0.15</v>
+      </c>
+      <c r="P23" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q23" s="15"/>
+      <c r="R23" s="15"/>
+      <c r="S23" s="15"/>
+      <c r="T23" s="15"/>
+      <c r="U23" s="15"/>
+      <c r="V23" s="15"/>
+    </row>
+    <row r="26" spans="1:22" ht="65.25" customHeight="1"/>
+    <row r="27" spans="1:22" ht="65.25" customHeight="1"/>
+    <row r="28" spans="1:22" ht="65.25" customHeight="1"/>
+    <row r="29" spans="1:22" ht="65.25" customHeight="1">
+      <c r="L29" s="3"/>
+    </row>
+    <row r="30" spans="1:22" ht="65.25" customHeight="1">
+      <c r="L30" s="3"/>
+    </row>
+    <row r="31" spans="1:22" ht="65.25" customHeight="1">
+      <c r="L31" s="3"/>
+    </row>
+    <row r="32" spans="1:22" ht="65.25" customHeight="1">
+      <c r="L32" s="3"/>
+    </row>
+    <row r="33" spans="12:12">
+      <c r="L33" s="19"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="M30:M33">
-    <sortCondition ref="M30"/>
+  <sortState ref="Q5:Q6">
+    <sortCondition ref="Q5"/>
   </sortState>
-  <mergeCells count="17">
-    <mergeCell ref="A5:A6"/>
-    <mergeCell ref="B5:B6"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="I2:U2"/>
+  <mergeCells count="89">
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="L8:L9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="A19:A21"/>
+    <mergeCell ref="B19:B21"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="I2:V2"/>
     <mergeCell ref="C2:D2"/>
     <mergeCell ref="E2:F2"/>
     <mergeCell ref="C3:D3"/>
@@ -2287,12 +2646,6 @@
     <mergeCell ref="G3:H3"/>
     <mergeCell ref="I3:J3"/>
     <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A15:A17"/>
-    <mergeCell ref="B15:B17"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="B12:B13"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="84">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
   <si>
     <t>Asset</t>
   </si>
@@ -436,16 +436,43 @@
     <t xml:space="preserve">Identity Spoofing (151) </t>
   </si>
   <si>
-    <t>Brute Force</t>
-  </si>
-  <si>
     <t>Smart Contract Address</t>
   </si>
   <si>
-    <t>Code Modification</t>
-  </si>
-  <si>
-    <t>Register Modification</t>
+    <t>Shard's Address Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Shard's Mapping Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>DoS Aimed Requests</t>
+  </si>
+  <si>
+    <t>Update Shard's State Request Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Transaction Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Smart Contract Address Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Smart Contract Location Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Transaction Result Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Register Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Code Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>AiTM (94) -&gt; Content Spoofing(148)</t>
+  </si>
+  <si>
+    <t>Brute Force (112)</t>
   </si>
 </sst>
 </file>
@@ -487,7 +514,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -518,14 +545,8 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
   </fills>
-  <borders count="8">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -618,11 +639,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="47">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -669,92 +720,98 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1067,7 +1124,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1102,73 +1159,73 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="27"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="28" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="27"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
+      <c r="H2" s="32"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="30"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="28" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1188,274 +1245,283 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="31" t="s">
+      <c r="C5" s="34" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="32"/>
-      <c r="E5" s="32"/>
-      <c r="F5" s="32"/>
-      <c r="G5" s="32"/>
-      <c r="H5" s="33"/>
-      <c r="I5" s="35" t="s">
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="35"/>
+      <c r="I5" s="26" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="32"/>
+      <c r="J5" s="27"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="23"/>
+      <c r="C6" s="25"/>
       <c r="D6" s="24"/>
       <c r="E6" s="24"/>
       <c r="F6" s="24"/>
       <c r="G6" s="24"/>
       <c r="H6" s="24"/>
-      <c r="I6" s="34"/>
+      <c r="I6" s="23"/>
       <c r="J6" s="24"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="23"/>
+      <c r="C7" s="25"/>
       <c r="D7" s="24"/>
       <c r="E7" s="24"/>
       <c r="F7" s="24"/>
       <c r="G7" s="24"/>
       <c r="H7" s="24"/>
-      <c r="I7" s="34"/>
+      <c r="I7" s="23"/>
       <c r="J7" s="24"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="23"/>
+      <c r="C8" s="25"/>
       <c r="D8" s="24"/>
       <c r="E8" s="24"/>
       <c r="F8" s="24"/>
       <c r="G8" s="24"/>
       <c r="H8" s="24"/>
-      <c r="I8" s="34"/>
+      <c r="I8" s="23"/>
       <c r="J8" s="24"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="23"/>
+      <c r="C9" s="25"/>
       <c r="D9" s="24"/>
       <c r="E9" s="24"/>
       <c r="F9" s="24"/>
       <c r="G9" s="24"/>
       <c r="H9" s="24"/>
-      <c r="I9" s="34"/>
+      <c r="I9" s="23"/>
       <c r="J9" s="24"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="23"/>
+      <c r="C10" s="25"/>
       <c r="D10" s="24"/>
       <c r="E10" s="24"/>
       <c r="F10" s="24"/>
       <c r="G10" s="24"/>
       <c r="H10" s="24"/>
-      <c r="I10" s="34"/>
+      <c r="I10" s="23"/>
       <c r="J10" s="24"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="23"/>
+      <c r="C11" s="25"/>
       <c r="D11" s="24"/>
       <c r="E11" s="24"/>
       <c r="F11" s="24"/>
       <c r="G11" s="24"/>
       <c r="H11" s="24"/>
-      <c r="I11" s="34"/>
+      <c r="I11" s="23"/>
       <c r="J11" s="24"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="23"/>
+      <c r="C12" s="25"/>
       <c r="D12" s="24"/>
       <c r="E12" s="24"/>
       <c r="F12" s="24"/>
       <c r="G12" s="24"/>
       <c r="H12" s="24"/>
-      <c r="I12" s="34"/>
+      <c r="I12" s="23"/>
       <c r="J12" s="24"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="23"/>
+      <c r="C13" s="25"/>
       <c r="D13" s="24"/>
       <c r="E13" s="24"/>
       <c r="F13" s="24"/>
       <c r="G13" s="24"/>
       <c r="H13" s="24"/>
-      <c r="I13" s="34"/>
+      <c r="I13" s="23"/>
       <c r="J13" s="24"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="23"/>
+      <c r="C14" s="25"/>
       <c r="D14" s="24"/>
       <c r="E14" s="24"/>
       <c r="F14" s="24"/>
       <c r="G14" s="24"/>
       <c r="H14" s="24"/>
-      <c r="I14" s="34"/>
+      <c r="I14" s="23"/>
       <c r="J14" s="24"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="23"/>
+      <c r="C15" s="25"/>
       <c r="D15" s="24"/>
       <c r="E15" s="24"/>
       <c r="F15" s="24"/>
       <c r="G15" s="24"/>
       <c r="H15" s="24"/>
-      <c r="I15" s="34"/>
+      <c r="I15" s="23"/>
       <c r="J15" s="24"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="23"/>
+      <c r="C16" s="25"/>
       <c r="D16" s="24"/>
       <c r="E16" s="24"/>
       <c r="F16" s="24"/>
       <c r="G16" s="24"/>
       <c r="H16" s="24"/>
-      <c r="I16" s="34"/>
+      <c r="I16" s="23"/>
       <c r="J16" s="24"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="23"/>
+      <c r="C17" s="25"/>
       <c r="D17" s="24"/>
       <c r="E17" s="24"/>
       <c r="F17" s="24"/>
       <c r="G17" s="24"/>
       <c r="H17" s="24"/>
-      <c r="I17" s="34"/>
+      <c r="I17" s="23"/>
       <c r="J17" s="24"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="23"/>
+      <c r="C18" s="25"/>
       <c r="D18" s="24"/>
       <c r="E18" s="24"/>
       <c r="F18" s="24"/>
       <c r="G18" s="24"/>
       <c r="H18" s="24"/>
-      <c r="I18" s="34"/>
+      <c r="I18" s="23"/>
       <c r="J18" s="24"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="23"/>
+      <c r="C19" s="25"/>
       <c r="D19" s="24"/>
       <c r="E19" s="24"/>
       <c r="F19" s="24"/>
       <c r="G19" s="24"/>
       <c r="H19" s="24"/>
-      <c r="I19" s="34"/>
+      <c r="I19" s="23"/>
       <c r="J19" s="24"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="23"/>
+      <c r="C20" s="25"/>
       <c r="D20" s="24"/>
       <c r="E20" s="24"/>
       <c r="F20" s="24"/>
       <c r="G20" s="24"/>
       <c r="H20" s="24"/>
-      <c r="I20" s="34"/>
+      <c r="I20" s="23"/>
       <c r="J20" s="24"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="23"/>
+      <c r="C21" s="25"/>
       <c r="D21" s="24"/>
       <c r="E21" s="24"/>
       <c r="F21" s="24"/>
       <c r="G21" s="24"/>
       <c r="H21" s="24"/>
-      <c r="I21" s="34"/>
+      <c r="I21" s="23"/>
       <c r="J21" s="24"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="23"/>
+      <c r="C22" s="25"/>
       <c r="D22" s="24"/>
       <c r="E22" s="24"/>
       <c r="F22" s="24"/>
       <c r="G22" s="24"/>
       <c r="H22" s="24"/>
-      <c r="I22" s="34"/>
+      <c r="I22" s="23"/>
       <c r="J22" s="24"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="23"/>
+      <c r="C23" s="25"/>
       <c r="D23" s="24"/>
       <c r="E23" s="24"/>
       <c r="F23" s="24"/>
       <c r="G23" s="24"/>
       <c r="H23" s="24"/>
-      <c r="I23" s="34"/>
+      <c r="I23" s="23"/>
       <c r="J23" s="24"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="23"/>
+      <c r="C24" s="25"/>
       <c r="D24" s="24"/>
       <c r="E24" s="24"/>
       <c r="F24" s="24"/>
       <c r="G24" s="24"/>
       <c r="H24" s="24"/>
-      <c r="I24" s="34"/>
+      <c r="I24" s="23"/>
       <c r="J24" s="24"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="23"/>
+      <c r="C25" s="25"/>
       <c r="D25" s="24"/>
       <c r="E25" s="24"/>
       <c r="F25" s="24"/>
       <c r="G25" s="24"/>
       <c r="H25" s="24"/>
-      <c r="I25" s="34"/>
+      <c r="I25" s="23"/>
       <c r="J25" s="24"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1472,28 +1538,19 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1501,10 +1558,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:AM33"/>
+  <dimension ref="A1:X37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A8" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="P16" sqref="P16"/>
+    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W12" sqref="W12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1514,7 +1571,7 @@
     <col min="3" max="11" width="6.875" style="2" customWidth="1"/>
     <col min="12" max="12" width="13.875" style="2" customWidth="1"/>
     <col min="13" max="13" width="33" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33" style="20" customWidth="1"/>
+    <col min="14" max="14" width="33" style="18" customWidth="1"/>
     <col min="15" max="16" width="10" style="3" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
     <col min="18" max="18" width="10" style="3" customWidth="1"/>
@@ -1525,81 +1582,81 @@
     <col min="25" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:39" s="10" customFormat="1" ht="21">
+    <row r="1" spans="1:24" s="10" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="26"/>
-      <c r="H1" s="26"/>
-      <c r="I1" s="26"/>
-      <c r="J1" s="26"/>
-      <c r="K1" s="26"/>
-      <c r="L1" s="26"/>
-      <c r="M1" s="26"/>
-      <c r="N1" s="26"/>
-      <c r="O1" s="27"/>
-      <c r="P1" s="27"/>
-      <c r="Q1" s="27"/>
-      <c r="R1" s="27"/>
-      <c r="S1" s="27"/>
-      <c r="T1" s="27"/>
-      <c r="U1" s="27"/>
-      <c r="V1" s="27"/>
-    </row>
-    <row r="2" spans="1:39" s="10" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="29"/>
+      <c r="H1" s="29"/>
+      <c r="I1" s="29"/>
+      <c r="J1" s="29"/>
+      <c r="K1" s="29"/>
+      <c r="L1" s="29"/>
+      <c r="M1" s="29"/>
+      <c r="N1" s="29"/>
+      <c r="O1" s="30"/>
+      <c r="P1" s="30"/>
+      <c r="Q1" s="30"/>
+      <c r="R1" s="30"/>
+      <c r="S1" s="30"/>
+      <c r="T1" s="30"/>
+      <c r="U1" s="30"/>
+      <c r="V1" s="30"/>
+    </row>
+    <row r="2" spans="1:24" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="28" t="s">
+      <c r="C2" s="31" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="28"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="28" t="s">
+      <c r="D2" s="31"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="31" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="29"/>
-      <c r="I2" s="25"/>
-      <c r="J2" s="30"/>
-      <c r="K2" s="30"/>
-      <c r="L2" s="30"/>
-      <c r="M2" s="30"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="27"/>
-      <c r="P2" s="27"/>
-      <c r="Q2" s="27"/>
-      <c r="R2" s="27"/>
-      <c r="S2" s="27"/>
-      <c r="T2" s="27"/>
-      <c r="U2" s="27"/>
-      <c r="V2" s="27"/>
-    </row>
-    <row r="3" spans="1:39" s="10" customFormat="1" ht="21">
+      <c r="H2" s="32"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="33"/>
+      <c r="K2" s="33"/>
+      <c r="L2" s="33"/>
+      <c r="M2" s="33"/>
+      <c r="N2" s="33"/>
+      <c r="O2" s="30"/>
+      <c r="P2" s="30"/>
+      <c r="Q2" s="30"/>
+      <c r="R2" s="30"/>
+      <c r="S2" s="30"/>
+      <c r="T2" s="30"/>
+      <c r="U2" s="30"/>
+      <c r="V2" s="30"/>
+    </row>
+    <row r="3" spans="1:24" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="28" t="s">
+      <c r="C3" s="31" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="28"/>
-      <c r="E3" s="25"/>
-      <c r="F3" s="25"/>
-      <c r="G3" s="28" t="s">
+      <c r="D3" s="31"/>
+      <c r="E3" s="28"/>
+      <c r="F3" s="28"/>
+      <c r="G3" s="31" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="28"/>
-      <c r="I3" s="25"/>
-      <c r="J3" s="25"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="28"/>
+      <c r="J3" s="28"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1613,7 +1670,7 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
     </row>
-    <row r="4" spans="1:39" ht="153.75">
+    <row r="4" spans="1:24" ht="152.25">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1684,7 +1741,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:39" s="16" customFormat="1" ht="60.95" customHeight="1">
+    <row r="5" spans="1:24" s="19" customFormat="1" ht="60.95" customHeight="1">
       <c r="A5" s="36" t="s">
         <v>29</v>
       </c>
@@ -1694,26 +1751,26 @@
       <c r="C5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="39"/>
-      <c r="E5" s="39"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
       <c r="F5" s="21" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="39"/>
-      <c r="H5" s="39"/>
-      <c r="I5" s="39"/>
-      <c r="J5" s="39"/>
-      <c r="K5" s="39"/>
-      <c r="L5" s="39" t="s">
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
+      <c r="K5" s="22"/>
+      <c r="L5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="39" t="s">
+      <c r="M5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="19" t="s">
-        <v>80</v>
-      </c>
-      <c r="O5" s="18">
+      <c r="N5" s="17" t="s">
+        <v>92</v>
+      </c>
+      <c r="O5" s="16">
         <v>0.01</v>
       </c>
       <c r="P5" s="15" t="s">
@@ -1727,27 +1784,11 @@
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="W5" s="22"/>
-      <c r="X5" s="19" t="s">
+      <c r="X5" s="17" t="s">
         <v>78</v>
       </c>
-      <c r="Y5" s="22"/>
-      <c r="Z5" s="22"/>
-      <c r="AA5" s="22"/>
-      <c r="AB5" s="22"/>
-      <c r="AC5" s="22"/>
-      <c r="AD5" s="22"/>
-      <c r="AE5" s="22"/>
-      <c r="AF5" s="22"/>
-      <c r="AG5" s="22"/>
-      <c r="AH5" s="22"/>
-      <c r="AI5" s="22"/>
-      <c r="AJ5" s="22"/>
-      <c r="AK5" s="22"/>
-      <c r="AL5" s="22"/>
-      <c r="AM5" s="22"/>
-    </row>
-    <row r="6" spans="1:39" s="16" customFormat="1" ht="60.95" customHeight="1">
+    </row>
+    <row r="6" spans="1:24" s="19" customFormat="1" ht="60.95" customHeight="1">
       <c r="A6" s="38"/>
       <c r="B6" s="38"/>
       <c r="C6" s="38" t="s">
@@ -1767,16 +1808,16 @@
       <c r="I6" s="38"/>
       <c r="J6" s="38"/>
       <c r="K6" s="38"/>
-      <c r="L6" s="38" t="s">
+      <c r="L6" s="36" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="41" t="s">
+      <c r="M6" s="45" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="19" t="s">
+      <c r="N6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="18">
+      <c r="O6" s="16">
         <v>0.18</v>
       </c>
       <c r="P6" s="15" t="s">
@@ -1790,27 +1831,11 @@
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
-      <c r="W6" s="22"/>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="Y6" s="22"/>
-      <c r="Z6" s="22"/>
-      <c r="AA6" s="22"/>
-      <c r="AB6" s="22"/>
-      <c r="AC6" s="22"/>
-      <c r="AD6" s="22"/>
-      <c r="AE6" s="22"/>
-      <c r="AF6" s="22"/>
-      <c r="AG6" s="22"/>
-      <c r="AH6" s="22"/>
-      <c r="AI6" s="22"/>
-      <c r="AJ6" s="22"/>
-      <c r="AK6" s="22"/>
-      <c r="AL6" s="22"/>
-      <c r="AM6" s="22"/>
-    </row>
-    <row r="7" spans="1:39" s="16" customFormat="1" ht="60" customHeight="1">
+    </row>
+    <row r="7" spans="1:24" s="19" customFormat="1" ht="60" customHeight="1">
       <c r="A7" s="37"/>
       <c r="B7" s="37"/>
       <c r="C7" s="37"/>
@@ -1823,11 +1848,11 @@
       <c r="J7" s="37"/>
       <c r="K7" s="37"/>
       <c r="L7" s="37"/>
-      <c r="M7" s="40"/>
-      <c r="N7" s="19" t="s">
+      <c r="M7" s="46"/>
+      <c r="N7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="18">
+      <c r="O7" s="16">
         <v>0.12</v>
       </c>
       <c r="P7" s="15" t="s">
@@ -1841,31 +1866,15 @@
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="W7" s="22"/>
-      <c r="X7" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y7" s="22"/>
-      <c r="Z7" s="22"/>
-      <c r="AA7" s="22"/>
-      <c r="AB7" s="22"/>
-      <c r="AC7" s="22"/>
-      <c r="AD7" s="22"/>
-      <c r="AE7" s="22"/>
-      <c r="AF7" s="22"/>
-      <c r="AG7" s="22"/>
-      <c r="AH7" s="22"/>
-      <c r="AI7" s="22"/>
-      <c r="AJ7" s="22"/>
-      <c r="AK7" s="22"/>
-      <c r="AL7" s="22"/>
-      <c r="AM7" s="22"/>
-    </row>
-    <row r="8" spans="1:39" s="16" customFormat="1" ht="39" customHeight="1">
+      <c r="X7" s="17" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="8" spans="1:24" s="19" customFormat="1" ht="39" customHeight="1">
       <c r="A8" s="36" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="43" t="s">
+      <c r="B8" s="39" t="s">
         <v>48</v>
       </c>
       <c r="C8" s="36" t="s">
@@ -1886,13 +1895,13 @@
       <c r="L8" s="36" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="36" t="s">
-        <v>82</v>
-      </c>
-      <c r="N8" s="19" t="s">
+      <c r="M8" s="41" t="s">
+        <v>90</v>
+      </c>
+      <c r="N8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="18">
+      <c r="O8" s="16">
         <v>0.12</v>
       </c>
       <c r="P8" s="15" t="s">
@@ -1904,27 +1913,11 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="W8" s="22"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="22"/>
-      <c r="Z8" s="22"/>
-      <c r="AA8" s="22"/>
-      <c r="AB8" s="22"/>
-      <c r="AC8" s="22"/>
-      <c r="AD8" s="22"/>
-      <c r="AE8" s="22"/>
-      <c r="AF8" s="22"/>
-      <c r="AG8" s="22"/>
-      <c r="AH8" s="22"/>
-      <c r="AI8" s="22"/>
-      <c r="AJ8" s="22"/>
-      <c r="AK8" s="22"/>
-      <c r="AL8" s="22"/>
-      <c r="AM8" s="22"/>
-    </row>
-    <row r="9" spans="1:39" s="16" customFormat="1" ht="39.75" customHeight="1">
+      <c r="X8" s="44"/>
+    </row>
+    <row r="9" spans="1:24" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A9" s="37"/>
-      <c r="B9" s="44"/>
+      <c r="B9" s="40"/>
       <c r="C9" s="37"/>
       <c r="D9" s="37"/>
       <c r="E9" s="37"/>
@@ -1935,11 +1928,11 @@
       <c r="J9" s="37"/>
       <c r="K9" s="37"/>
       <c r="L9" s="37"/>
-      <c r="M9" s="37"/>
-      <c r="N9" s="19" t="s">
+      <c r="M9" s="42"/>
+      <c r="N9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="18">
+      <c r="O9" s="16">
         <v>0.12</v>
       </c>
       <c r="P9" s="15" t="s">
@@ -1953,27 +1946,8 @@
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
-      <c r="W9" s="22"/>
-      <c r="X9" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="Y9" s="22"/>
-      <c r="Z9" s="22"/>
-      <c r="AA9" s="22"/>
-      <c r="AB9" s="22"/>
-      <c r="AC9" s="22"/>
-      <c r="AD9" s="22"/>
-      <c r="AE9" s="22"/>
-      <c r="AF9" s="22"/>
-      <c r="AG9" s="22"/>
-      <c r="AH9" s="22"/>
-      <c r="AI9" s="22"/>
-      <c r="AJ9" s="22"/>
-      <c r="AK9" s="22"/>
-      <c r="AL9" s="22"/>
-      <c r="AM9" s="22"/>
-    </row>
-    <row r="10" spans="1:39" s="16" customFormat="1" ht="39.75" customHeight="1">
+    </row>
+    <row r="10" spans="1:24" s="19" customFormat="1" ht="39.75" customHeight="1">
       <c r="A10" s="36" t="s">
         <v>30</v>
       </c>
@@ -1996,13 +1970,13 @@
       <c r="L10" s="36" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="36" t="s">
-        <v>83</v>
-      </c>
-      <c r="N10" s="19" t="s">
+      <c r="M10" s="43" t="s">
+        <v>89</v>
+      </c>
+      <c r="N10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="18">
+      <c r="O10" s="16">
         <v>0.15</v>
       </c>
       <c r="P10" s="15" t="s">
@@ -2014,25 +1988,8 @@
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-      <c r="W10" s="22"/>
-      <c r="X10" s="19"/>
-      <c r="Y10" s="22"/>
-      <c r="Z10" s="22"/>
-      <c r="AA10" s="22"/>
-      <c r="AB10" s="22"/>
-      <c r="AC10" s="22"/>
-      <c r="AD10" s="22"/>
-      <c r="AE10" s="22"/>
-      <c r="AF10" s="22"/>
-      <c r="AG10" s="22"/>
-      <c r="AH10" s="22"/>
-      <c r="AI10" s="22"/>
-      <c r="AJ10" s="22"/>
-      <c r="AK10" s="22"/>
-      <c r="AL10" s="22"/>
-      <c r="AM10" s="22"/>
-    </row>
-    <row r="11" spans="1:39" ht="40.5" customHeight="1">
+    </row>
+    <row r="11" spans="1:24" ht="40.5" customHeight="1">
       <c r="A11" s="37"/>
       <c r="B11" s="37"/>
       <c r="C11" s="37"/>
@@ -2045,11 +2002,11 @@
       <c r="J11" s="37"/>
       <c r="K11" s="37"/>
       <c r="L11" s="37"/>
-      <c r="M11" s="37"/>
-      <c r="N11" s="19" t="s">
+      <c r="M11" s="42"/>
+      <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="18">
+      <c r="O11" s="16">
         <v>0.15</v>
       </c>
       <c r="P11" s="15" t="s">
@@ -2061,11 +2018,9 @@
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="X11" s="19" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="12" spans="1:39" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="X11" s="19"/>
+    </row>
+    <row r="12" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
       <c r="A12" s="36" t="s">
         <v>31</v>
       </c>
@@ -2088,13 +2043,13 @@
       <c r="L12" s="36" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N12" s="19" t="s">
+      <c r="M12" s="43" t="s">
+        <v>88</v>
+      </c>
+      <c r="N12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="18">
+      <c r="O12" s="16">
         <v>0.15</v>
       </c>
       <c r="P12" s="15" t="s">
@@ -2108,7 +2063,7 @@
       <c r="V12" s="15"/>
       <c r="X12" s="19"/>
     </row>
-    <row r="13" spans="1:39" ht="40.5" customHeight="1">
+    <row r="13" spans="1:24" ht="40.5" customHeight="1">
       <c r="A13" s="37"/>
       <c r="B13" s="37"/>
       <c r="C13" s="37"/>
@@ -2121,11 +2076,11 @@
       <c r="J13" s="37"/>
       <c r="K13" s="37"/>
       <c r="L13" s="37"/>
-      <c r="M13" s="37"/>
-      <c r="N13" s="19" t="s">
+      <c r="M13" s="42"/>
+      <c r="N13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="18">
+      <c r="O13" s="16">
         <v>0.15</v>
       </c>
       <c r="P13" s="15" t="s">
@@ -2137,11 +2092,9 @@
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="X13" s="19" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="14" spans="1:39" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="X13" s="19"/>
+    </row>
+    <row r="14" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
       <c r="A14" s="36" t="s">
         <v>32</v>
       </c>
@@ -2166,13 +2119,13 @@
       <c r="L14" s="36" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N14" s="19" t="s">
+      <c r="M14" s="43" t="s">
+        <v>87</v>
+      </c>
+      <c r="N14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="18">
+      <c r="O14" s="16">
         <v>0.15</v>
       </c>
       <c r="P14" s="15" t="s">
@@ -2184,9 +2137,9 @@
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
-      <c r="X14" s="42"/>
-    </row>
-    <row r="15" spans="1:39" ht="40.5" customHeight="1">
+      <c r="X14" s="3"/>
+    </row>
+    <row r="15" spans="1:24" ht="40.5" customHeight="1">
       <c r="A15" s="38"/>
       <c r="B15" s="38"/>
       <c r="C15" s="37"/>
@@ -2199,11 +2152,11 @@
       <c r="J15" s="37"/>
       <c r="K15" s="37"/>
       <c r="L15" s="37"/>
-      <c r="M15" s="37"/>
-      <c r="N15" s="19" t="s">
+      <c r="M15" s="42"/>
+      <c r="N15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="18">
+      <c r="O15" s="16">
         <v>0.15</v>
       </c>
       <c r="P15" s="15" t="s">
@@ -2215,12 +2168,13 @@
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
-    </row>
-    <row r="16" spans="1:39" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A16" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="B16" s="38" t="s">
+      <c r="X15" s="20"/>
+    </row>
+    <row r="16" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A16" s="36" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" s="36" t="s">
         <v>50</v>
       </c>
       <c r="C16" s="36" t="s">
@@ -2241,13 +2195,13 @@
       <c r="L16" s="36" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="36" t="s">
-        <v>41</v>
-      </c>
-      <c r="N16" s="19" t="s">
+      <c r="M16" s="43" t="s">
+        <v>86</v>
+      </c>
+      <c r="N16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="18">
+      <c r="O16" s="16">
         <v>0.15</v>
       </c>
       <c r="P16" s="15" t="s">
@@ -2259,8 +2213,9 @@
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
-    </row>
-    <row r="17" spans="1:22" ht="40.5" customHeight="1">
+      <c r="X16" s="3"/>
+    </row>
+    <row r="17" spans="1:24" ht="40.5" customHeight="1">
       <c r="A17" s="37"/>
       <c r="B17" s="37"/>
       <c r="C17" s="37"/>
@@ -2273,11 +2228,11 @@
       <c r="J17" s="37"/>
       <c r="K17" s="37"/>
       <c r="L17" s="37"/>
-      <c r="M17" s="37"/>
-      <c r="N17" s="19" t="s">
+      <c r="M17" s="42"/>
+      <c r="N17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="18">
+      <c r="O17" s="16">
         <v>0.15</v>
       </c>
       <c r="P17" s="15" t="s">
@@ -2290,38 +2245,40 @@
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
     </row>
-    <row r="18" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A18" s="17" t="s">
+    <row r="18" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A18" s="36" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="17" t="s">
+      <c r="B18" s="36" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="15"/>
-      <c r="D18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="15"/>
-      <c r="F18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="15"/>
-      <c r="H18" s="15"/>
-      <c r="I18" s="15"/>
-      <c r="J18" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="15"/>
-      <c r="L18" s="15" t="s">
+      <c r="C18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="36"/>
+      <c r="F18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="36"/>
+      <c r="H18" s="36"/>
+      <c r="I18" s="36"/>
+      <c r="J18" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="36"/>
+      <c r="L18" s="36" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="19" t="s">
+      <c r="M18" s="43" t="s">
+        <v>85</v>
+      </c>
+      <c r="N18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="N18" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O18" s="18">
+      <c r="O18" s="16">
         <v>0.21</v>
       </c>
       <c r="P18" s="15" t="s">
@@ -2333,39 +2290,26 @@
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
-    </row>
-    <row r="19" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A19" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B19" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C19" s="15"/>
-      <c r="D19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E19" s="15"/>
-      <c r="F19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="G19" s="15"/>
-      <c r="H19" s="15"/>
-      <c r="I19" s="15"/>
-      <c r="J19" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="K19" s="15"/>
-      <c r="L19" s="15" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="N19" s="19" t="s">
-        <v>43</v>
-      </c>
-      <c r="O19" s="18">
+      <c r="X18" s="20"/>
+    </row>
+    <row r="19" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A19" s="37"/>
+      <c r="B19" s="37"/>
+      <c r="C19" s="37"/>
+      <c r="D19" s="37"/>
+      <c r="E19" s="37"/>
+      <c r="F19" s="37"/>
+      <c r="G19" s="37"/>
+      <c r="H19" s="37"/>
+      <c r="I19" s="37"/>
+      <c r="J19" s="37"/>
+      <c r="K19" s="37"/>
+      <c r="L19" s="37"/>
+      <c r="M19" s="42"/>
+      <c r="N19" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O19" s="16">
         <v>0.21</v>
       </c>
       <c r="P19" s="15" t="s">
@@ -2377,35 +2321,46 @@
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
-    </row>
-    <row r="20" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A20" s="38"/>
-      <c r="B20" s="38"/>
-      <c r="C20" s="15"/>
-      <c r="D20" s="15"/>
-      <c r="E20" s="15"/>
-      <c r="F20" s="15"/>
-      <c r="G20" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="15"/>
-      <c r="I20" s="15"/>
-      <c r="J20" s="15"/>
-      <c r="K20" s="15"/>
-      <c r="L20" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="N20" s="19" t="s">
-        <v>69</v>
-      </c>
-      <c r="O20" s="18">
-        <v>0.23</v>
+      <c r="X19" s="3"/>
+    </row>
+    <row r="20" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A20" s="36" t="s">
+        <v>34</v>
+      </c>
+      <c r="B20" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E20" s="36"/>
+      <c r="F20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="G20" s="36"/>
+      <c r="H20" s="36"/>
+      <c r="I20" s="36"/>
+      <c r="J20" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="K20" s="36"/>
+      <c r="L20" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="M20" s="43" t="s">
+        <v>84</v>
+      </c>
+      <c r="N20" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O20" s="16">
+        <v>0.21</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
@@ -2413,35 +2368,30 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-    </row>
-    <row r="21" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A21" s="37"/>
-      <c r="B21" s="37"/>
-      <c r="C21" s="15"/>
-      <c r="D21" s="15"/>
-      <c r="E21" s="15"/>
-      <c r="F21" s="15"/>
-      <c r="G21" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="H21" s="15"/>
-      <c r="I21" s="15"/>
-      <c r="J21" s="15"/>
-      <c r="K21" s="15"/>
-      <c r="L21" s="15" t="s">
-        <v>56</v>
-      </c>
-      <c r="M21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="N21" s="19" t="s">
-        <v>44</v>
-      </c>
-      <c r="O21" s="18">
-        <v>0.18</v>
+      <c r="X20" s="20"/>
+    </row>
+    <row r="21" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A21" s="38"/>
+      <c r="B21" s="38"/>
+      <c r="C21" s="37"/>
+      <c r="D21" s="37"/>
+      <c r="E21" s="37"/>
+      <c r="F21" s="37"/>
+      <c r="G21" s="37"/>
+      <c r="H21" s="37"/>
+      <c r="I21" s="37"/>
+      <c r="J21" s="37"/>
+      <c r="K21" s="37"/>
+      <c r="L21" s="37"/>
+      <c r="M21" s="42"/>
+      <c r="N21" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O21" s="16">
+        <v>0.21</v>
       </c>
       <c r="P21" s="15" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
@@ -2449,41 +2399,36 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-    </row>
-    <row r="22" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A22" s="15" t="s">
-        <v>35</v>
-      </c>
-      <c r="B22" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D22" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E22" s="15"/>
-      <c r="F22" s="15"/>
-      <c r="G22" s="15"/>
-      <c r="H22" s="15"/>
-      <c r="I22" s="15"/>
-      <c r="J22" s="15"/>
-      <c r="K22" s="15"/>
-      <c r="L22" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N22" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="O22" s="18">
-        <v>0.15</v>
+      <c r="X21" s="3"/>
+    </row>
+    <row r="22" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A22" s="38"/>
+      <c r="B22" s="38"/>
+      <c r="C22" s="36"/>
+      <c r="D22" s="36"/>
+      <c r="E22" s="36"/>
+      <c r="F22" s="36"/>
+      <c r="G22" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H22" s="36"/>
+      <c r="I22" s="36"/>
+      <c r="J22" s="36"/>
+      <c r="K22" s="36"/>
+      <c r="L22" s="36" t="s">
+        <v>56</v>
+      </c>
+      <c r="M22" s="43" t="s">
+        <v>83</v>
+      </c>
+      <c r="N22" s="17" t="s">
+        <v>69</v>
+      </c>
+      <c r="O22" s="16">
+        <v>0.23</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
@@ -2492,40 +2437,28 @@
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
     </row>
-    <row r="23" spans="1:22" ht="40.5" customHeight="1">
-      <c r="A23" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="B23" s="15" t="s">
-        <v>52</v>
-      </c>
-      <c r="C23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="D23" s="15" t="s">
-        <v>36</v>
-      </c>
-      <c r="E23" s="15"/>
-      <c r="F23" s="15"/>
-      <c r="G23" s="15"/>
-      <c r="H23" s="15"/>
-      <c r="I23" s="15"/>
-      <c r="J23" s="15"/>
-      <c r="K23" s="15"/>
-      <c r="L23" s="15" t="s">
-        <v>55</v>
-      </c>
-      <c r="M23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="N23" s="19" t="s">
-        <v>41</v>
-      </c>
-      <c r="O23" s="18">
-        <v>0.15</v>
+    <row r="23" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A23" s="37"/>
+      <c r="B23" s="37"/>
+      <c r="C23" s="37"/>
+      <c r="D23" s="37"/>
+      <c r="E23" s="37"/>
+      <c r="F23" s="37"/>
+      <c r="G23" s="37"/>
+      <c r="H23" s="37"/>
+      <c r="I23" s="37"/>
+      <c r="J23" s="37"/>
+      <c r="K23" s="37"/>
+      <c r="L23" s="37"/>
+      <c r="M23" s="42"/>
+      <c r="N23" s="17" t="s">
+        <v>44</v>
+      </c>
+      <c r="O23" s="16">
+        <v>0.18</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
@@ -2534,76 +2467,266 @@
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
     </row>
-    <row r="26" spans="1:22" ht="65.25" customHeight="1"/>
-    <row r="27" spans="1:22" ht="65.25" customHeight="1"/>
-    <row r="28" spans="1:22" ht="65.25" customHeight="1"/>
-    <row r="29" spans="1:22" ht="65.25" customHeight="1">
-      <c r="L29" s="3"/>
-    </row>
-    <row r="30" spans="1:22" ht="65.25" customHeight="1">
-      <c r="L30" s="3"/>
-    </row>
-    <row r="31" spans="1:22" ht="65.25" customHeight="1">
-      <c r="L31" s="3"/>
-    </row>
-    <row r="32" spans="1:22" ht="65.25" customHeight="1">
-      <c r="L32" s="3"/>
-    </row>
-    <row r="33" spans="12:12">
-      <c r="L33" s="19"/>
+    <row r="24" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A24" s="36" t="s">
+        <v>35</v>
+      </c>
+      <c r="B24" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E24" s="36"/>
+      <c r="F24" s="36"/>
+      <c r="G24" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="36"/>
+      <c r="I24" s="36"/>
+      <c r="J24" s="36"/>
+      <c r="K24" s="36"/>
+      <c r="L24" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M24" s="43" t="s">
+        <v>82</v>
+      </c>
+      <c r="N24" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O24" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="P24" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q24" s="15"/>
+      <c r="R24" s="15"/>
+      <c r="S24" s="15"/>
+      <c r="T24" s="15"/>
+      <c r="U24" s="15"/>
+      <c r="V24" s="15"/>
+      <c r="X24" s="3"/>
+    </row>
+    <row r="25" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A25" s="37"/>
+      <c r="B25" s="37"/>
+      <c r="C25" s="37"/>
+      <c r="D25" s="37"/>
+      <c r="E25" s="37"/>
+      <c r="F25" s="37"/>
+      <c r="G25" s="37"/>
+      <c r="H25" s="37"/>
+      <c r="I25" s="37"/>
+      <c r="J25" s="37"/>
+      <c r="K25" s="37"/>
+      <c r="L25" s="37"/>
+      <c r="M25" s="42"/>
+      <c r="N25" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O25" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="P25" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q25" s="15"/>
+      <c r="R25" s="15"/>
+      <c r="S25" s="15"/>
+      <c r="T25" s="15"/>
+      <c r="U25" s="15"/>
+      <c r="V25" s="15"/>
+    </row>
+    <row r="26" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A26" s="36" t="s">
+        <v>37</v>
+      </c>
+      <c r="B26" s="36" t="s">
+        <v>52</v>
+      </c>
+      <c r="C26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="36"/>
+      <c r="F26" s="36"/>
+      <c r="G26" s="36" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="36"/>
+      <c r="I26" s="36"/>
+      <c r="J26" s="36"/>
+      <c r="K26" s="36"/>
+      <c r="L26" s="36" t="s">
+        <v>55</v>
+      </c>
+      <c r="M26" s="43" t="s">
+        <v>81</v>
+      </c>
+      <c r="N26" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O26" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="P26" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q26" s="15"/>
+      <c r="R26" s="15"/>
+      <c r="S26" s="15"/>
+      <c r="T26" s="15"/>
+      <c r="U26" s="15"/>
+      <c r="V26" s="15"/>
+      <c r="X26" s="3"/>
+    </row>
+    <row r="27" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A27" s="37"/>
+      <c r="B27" s="37"/>
+      <c r="C27" s="37"/>
+      <c r="D27" s="37"/>
+      <c r="E27" s="37"/>
+      <c r="F27" s="37"/>
+      <c r="G27" s="37"/>
+      <c r="H27" s="37"/>
+      <c r="I27" s="37"/>
+      <c r="J27" s="37"/>
+      <c r="K27" s="37"/>
+      <c r="L27" s="37"/>
+      <c r="M27" s="42"/>
+      <c r="N27" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O27" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="P27" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q27" s="15"/>
+      <c r="R27" s="15"/>
+      <c r="S27" s="15"/>
+      <c r="T27" s="15"/>
+      <c r="U27" s="15"/>
+      <c r="V27" s="15"/>
+    </row>
+    <row r="30" spans="1:24" ht="65.25" customHeight="1"/>
+    <row r="31" spans="1:24" ht="65.25" customHeight="1"/>
+    <row r="32" spans="1:24" ht="65.25" customHeight="1"/>
+    <row r="33" spans="12:12" ht="65.25" customHeight="1">
+      <c r="L33" s="3"/>
+    </row>
+    <row r="34" spans="12:12" ht="65.25" customHeight="1">
+      <c r="L34" s="3"/>
+    </row>
+    <row r="35" spans="12:12" ht="65.25" customHeight="1">
+      <c r="L35" s="3"/>
+    </row>
+    <row r="36" spans="12:12" ht="65.25" customHeight="1">
+      <c r="L36" s="3"/>
+    </row>
+    <row r="37" spans="12:12">
+      <c r="L37" s="17"/>
     </row>
   </sheetData>
   <sortState ref="Q5:Q6">
     <sortCondition ref="Q5"/>
   </sortState>
-  <mergeCells count="89">
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
+  <mergeCells count="150">
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="L20:L21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M24:M25"/>
+    <mergeCell ref="M22:M23"/>
+    <mergeCell ref="L22:L23"/>
+    <mergeCell ref="K22:K23"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="J22:J23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="L24:L25"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="C24:C25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="G24:G25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="J24:J25"/>
+    <mergeCell ref="K24:K25"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="A20:A23"/>
+    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="L6:L7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
     <mergeCell ref="A14:A15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="M8:M9"/>
@@ -2618,36 +2741,58 @@
     <mergeCell ref="G8:G9"/>
     <mergeCell ref="H8:H9"/>
     <mergeCell ref="I8:I9"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="B10:B11"/>
-    <mergeCell ref="A19:A21"/>
-    <mergeCell ref="B19:B21"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>
--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="93">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
   <si>
     <t>Asset</t>
   </si>
@@ -473,6 +473,24 @@
   </si>
   <si>
     <t>Brute Force (112)</t>
+  </si>
+  <si>
+    <t>/</t>
+  </si>
+  <si>
+    <t>Involontary Request Repetition</t>
+  </si>
+  <si>
+    <t>500-1.000</t>
+  </si>
+  <si>
+    <t>Unauthorized Communication with On-Chain Manager</t>
+  </si>
+  <si>
+    <t>187.500-375.000</t>
+  </si>
+  <si>
+    <t>Block</t>
   </si>
 </sst>
 </file>
@@ -673,7 +691,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="47">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -741,76 +759,91 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1124,7 +1157,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1159,73 +1192,73 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="31"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="30"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1245,283 +1278,274 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="34" t="s">
+      <c r="C5" s="35" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="26" t="s">
+      <c r="D5" s="36"/>
+      <c r="E5" s="36"/>
+      <c r="F5" s="36"/>
+      <c r="G5" s="36"/>
+      <c r="H5" s="37"/>
+      <c r="I5" s="39" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="27"/>
+      <c r="J5" s="36"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="24"/>
-      <c r="E6" s="24"/>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
-      <c r="H6" s="24"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="24"/>
+      <c r="C6" s="27"/>
+      <c r="D6" s="28"/>
+      <c r="E6" s="28"/>
+      <c r="F6" s="28"/>
+      <c r="G6" s="28"/>
+      <c r="H6" s="28"/>
+      <c r="I6" s="38"/>
+      <c r="J6" s="28"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="24"/>
-      <c r="E7" s="24"/>
-      <c r="F7" s="24"/>
-      <c r="G7" s="24"/>
-      <c r="H7" s="24"/>
-      <c r="I7" s="23"/>
-      <c r="J7" s="24"/>
+      <c r="C7" s="27"/>
+      <c r="D7" s="28"/>
+      <c r="E7" s="28"/>
+      <c r="F7" s="28"/>
+      <c r="G7" s="28"/>
+      <c r="H7" s="28"/>
+      <c r="I7" s="38"/>
+      <c r="J7" s="28"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="24"/>
-      <c r="H8" s="24"/>
-      <c r="I8" s="23"/>
-      <c r="J8" s="24"/>
+      <c r="C8" s="27"/>
+      <c r="D8" s="28"/>
+      <c r="E8" s="28"/>
+      <c r="F8" s="28"/>
+      <c r="G8" s="28"/>
+      <c r="H8" s="28"/>
+      <c r="I8" s="38"/>
+      <c r="J8" s="28"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="24"/>
-      <c r="E9" s="24"/>
-      <c r="F9" s="24"/>
-      <c r="G9" s="24"/>
-      <c r="H9" s="24"/>
-      <c r="I9" s="23"/>
-      <c r="J9" s="24"/>
+      <c r="C9" s="27"/>
+      <c r="D9" s="28"/>
+      <c r="E9" s="28"/>
+      <c r="F9" s="28"/>
+      <c r="G9" s="28"/>
+      <c r="H9" s="28"/>
+      <c r="I9" s="38"/>
+      <c r="J9" s="28"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="24"/>
-      <c r="E10" s="24"/>
-      <c r="F10" s="24"/>
-      <c r="G10" s="24"/>
-      <c r="H10" s="24"/>
-      <c r="I10" s="23"/>
-      <c r="J10" s="24"/>
+      <c r="C10" s="27"/>
+      <c r="D10" s="28"/>
+      <c r="E10" s="28"/>
+      <c r="F10" s="28"/>
+      <c r="G10" s="28"/>
+      <c r="H10" s="28"/>
+      <c r="I10" s="38"/>
+      <c r="J10" s="28"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="24"/>
-      <c r="E11" s="24"/>
-      <c r="F11" s="24"/>
-      <c r="G11" s="24"/>
-      <c r="H11" s="24"/>
-      <c r="I11" s="23"/>
-      <c r="J11" s="24"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="28"/>
+      <c r="E11" s="28"/>
+      <c r="F11" s="28"/>
+      <c r="G11" s="28"/>
+      <c r="H11" s="28"/>
+      <c r="I11" s="38"/>
+      <c r="J11" s="28"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="24"/>
-      <c r="E12" s="24"/>
-      <c r="F12" s="24"/>
-      <c r="G12" s="24"/>
-      <c r="H12" s="24"/>
-      <c r="I12" s="23"/>
-      <c r="J12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="28"/>
+      <c r="E12" s="28"/>
+      <c r="F12" s="28"/>
+      <c r="G12" s="28"/>
+      <c r="H12" s="28"/>
+      <c r="I12" s="38"/>
+      <c r="J12" s="28"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="24"/>
-      <c r="E13" s="24"/>
-      <c r="F13" s="24"/>
-      <c r="G13" s="24"/>
-      <c r="H13" s="24"/>
-      <c r="I13" s="23"/>
-      <c r="J13" s="24"/>
+      <c r="C13" s="27"/>
+      <c r="D13" s="28"/>
+      <c r="E13" s="28"/>
+      <c r="F13" s="28"/>
+      <c r="G13" s="28"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="38"/>
+      <c r="J13" s="28"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="24"/>
-      <c r="E14" s="24"/>
-      <c r="F14" s="24"/>
-      <c r="G14" s="24"/>
-      <c r="H14" s="24"/>
-      <c r="I14" s="23"/>
-      <c r="J14" s="24"/>
+      <c r="C14" s="27"/>
+      <c r="D14" s="28"/>
+      <c r="E14" s="28"/>
+      <c r="F14" s="28"/>
+      <c r="G14" s="28"/>
+      <c r="H14" s="28"/>
+      <c r="I14" s="38"/>
+      <c r="J14" s="28"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="24"/>
-      <c r="E15" s="24"/>
-      <c r="F15" s="24"/>
-      <c r="G15" s="24"/>
-      <c r="H15" s="24"/>
-      <c r="I15" s="23"/>
-      <c r="J15" s="24"/>
+      <c r="C15" s="27"/>
+      <c r="D15" s="28"/>
+      <c r="E15" s="28"/>
+      <c r="F15" s="28"/>
+      <c r="G15" s="28"/>
+      <c r="H15" s="28"/>
+      <c r="I15" s="38"/>
+      <c r="J15" s="28"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="24"/>
-      <c r="E16" s="24"/>
-      <c r="F16" s="24"/>
-      <c r="G16" s="24"/>
-      <c r="H16" s="24"/>
-      <c r="I16" s="23"/>
-      <c r="J16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="28"/>
+      <c r="E16" s="28"/>
+      <c r="F16" s="28"/>
+      <c r="G16" s="28"/>
+      <c r="H16" s="28"/>
+      <c r="I16" s="38"/>
+      <c r="J16" s="28"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="24"/>
-      <c r="E17" s="24"/>
-      <c r="F17" s="24"/>
-      <c r="G17" s="24"/>
-      <c r="H17" s="24"/>
-      <c r="I17" s="23"/>
-      <c r="J17" s="24"/>
+      <c r="C17" s="27"/>
+      <c r="D17" s="28"/>
+      <c r="E17" s="28"/>
+      <c r="F17" s="28"/>
+      <c r="G17" s="28"/>
+      <c r="H17" s="28"/>
+      <c r="I17" s="38"/>
+      <c r="J17" s="28"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="24"/>
-      <c r="E18" s="24"/>
-      <c r="F18" s="24"/>
-      <c r="G18" s="24"/>
-      <c r="H18" s="24"/>
-      <c r="I18" s="23"/>
-      <c r="J18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="28"/>
+      <c r="E18" s="28"/>
+      <c r="F18" s="28"/>
+      <c r="G18" s="28"/>
+      <c r="H18" s="28"/>
+      <c r="I18" s="38"/>
+      <c r="J18" s="28"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="24"/>
-      <c r="E19" s="24"/>
-      <c r="F19" s="24"/>
-      <c r="G19" s="24"/>
-      <c r="H19" s="24"/>
-      <c r="I19" s="23"/>
-      <c r="J19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="28"/>
+      <c r="E19" s="28"/>
+      <c r="F19" s="28"/>
+      <c r="G19" s="28"/>
+      <c r="H19" s="28"/>
+      <c r="I19" s="38"/>
+      <c r="J19" s="28"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24"/>
-      <c r="H20" s="24"/>
-      <c r="I20" s="23"/>
-      <c r="J20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="28"/>
+      <c r="E20" s="28"/>
+      <c r="F20" s="28"/>
+      <c r="G20" s="28"/>
+      <c r="H20" s="28"/>
+      <c r="I20" s="38"/>
+      <c r="J20" s="28"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="24"/>
-      <c r="E21" s="24"/>
-      <c r="F21" s="24"/>
-      <c r="G21" s="24"/>
-      <c r="H21" s="24"/>
-      <c r="I21" s="23"/>
-      <c r="J21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="28"/>
+      <c r="E21" s="28"/>
+      <c r="F21" s="28"/>
+      <c r="G21" s="28"/>
+      <c r="H21" s="28"/>
+      <c r="I21" s="38"/>
+      <c r="J21" s="28"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="24"/>
-      <c r="E22" s="24"/>
-      <c r="F22" s="24"/>
-      <c r="G22" s="24"/>
-      <c r="H22" s="24"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
+      <c r="C22" s="27"/>
+      <c r="D22" s="28"/>
+      <c r="E22" s="28"/>
+      <c r="F22" s="28"/>
+      <c r="G22" s="28"/>
+      <c r="H22" s="28"/>
+      <c r="I22" s="38"/>
+      <c r="J22" s="28"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="24"/>
-      <c r="E23" s="24"/>
-      <c r="F23" s="24"/>
-      <c r="G23" s="24"/>
-      <c r="H23" s="24"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="28"/>
+      <c r="E23" s="28"/>
+      <c r="F23" s="28"/>
+      <c r="G23" s="28"/>
+      <c r="H23" s="28"/>
+      <c r="I23" s="38"/>
+      <c r="J23" s="28"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="24"/>
-      <c r="E24" s="24"/>
-      <c r="F24" s="24"/>
-      <c r="G24" s="24"/>
-      <c r="H24" s="24"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="28"/>
+      <c r="E24" s="28"/>
+      <c r="F24" s="28"/>
+      <c r="G24" s="28"/>
+      <c r="H24" s="28"/>
+      <c r="I24" s="38"/>
+      <c r="J24" s="28"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="28"/>
+      <c r="E25" s="28"/>
+      <c r="F25" s="28"/>
+      <c r="G25" s="28"/>
+      <c r="H25" s="28"/>
+      <c r="I25" s="38"/>
+      <c r="J25" s="28"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1538,19 +1562,28 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1558,10 +1591,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X37"/>
+  <dimension ref="A1:X40"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A5" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="W12" sqref="W12"/>
+    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="M28" sqref="M28:M29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
@@ -1586,27 +1619,27 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="29"/>
-      <c r="H1" s="29"/>
-      <c r="I1" s="29"/>
-      <c r="J1" s="29"/>
-      <c r="K1" s="29"/>
-      <c r="L1" s="29"/>
-      <c r="M1" s="29"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="30"/>
-      <c r="P1" s="30"/>
-      <c r="Q1" s="30"/>
-      <c r="R1" s="30"/>
-      <c r="S1" s="30"/>
-      <c r="T1" s="30"/>
-      <c r="U1" s="30"/>
-      <c r="V1" s="30"/>
+      <c r="B1" s="29"/>
+      <c r="C1" s="29"/>
+      <c r="D1" s="29"/>
+      <c r="E1" s="29"/>
+      <c r="F1" s="29"/>
+      <c r="G1" s="30"/>
+      <c r="H1" s="30"/>
+      <c r="I1" s="30"/>
+      <c r="J1" s="30"/>
+      <c r="K1" s="30"/>
+      <c r="L1" s="30"/>
+      <c r="M1" s="30"/>
+      <c r="N1" s="30"/>
+      <c r="O1" s="31"/>
+      <c r="P1" s="31"/>
+      <c r="Q1" s="31"/>
+      <c r="R1" s="31"/>
+      <c r="S1" s="31"/>
+      <c r="T1" s="31"/>
+      <c r="U1" s="31"/>
+      <c r="V1" s="31"/>
     </row>
     <row r="2" spans="1:24" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
@@ -1615,48 +1648,48 @@
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="31" t="s">
+      <c r="C2" s="32" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="31"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="31" t="s">
+      <c r="D2" s="32"/>
+      <c r="E2" s="29"/>
+      <c r="F2" s="29"/>
+      <c r="G2" s="32" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="32"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="33"/>
-      <c r="K2" s="33"/>
-      <c r="L2" s="33"/>
-      <c r="M2" s="33"/>
-      <c r="N2" s="33"/>
-      <c r="O2" s="30"/>
-      <c r="P2" s="30"/>
-      <c r="Q2" s="30"/>
-      <c r="R2" s="30"/>
-      <c r="S2" s="30"/>
-      <c r="T2" s="30"/>
-      <c r="U2" s="30"/>
-      <c r="V2" s="30"/>
+      <c r="H2" s="33"/>
+      <c r="I2" s="29"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
     </row>
     <row r="3" spans="1:24" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="31" t="s">
+      <c r="C3" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="31"/>
-      <c r="E3" s="28"/>
-      <c r="F3" s="28"/>
-      <c r="G3" s="31" t="s">
+      <c r="D3" s="32"/>
+      <c r="E3" s="29"/>
+      <c r="F3" s="29"/>
+      <c r="G3" s="32" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="31"/>
-      <c r="I3" s="28"/>
-      <c r="J3" s="28"/>
+      <c r="H3" s="32"/>
+      <c r="I3" s="29"/>
+      <c r="J3" s="29"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1742,10 +1775,10 @@
       </c>
     </row>
     <row r="5" spans="1:24" s="19" customFormat="1" ht="60.95" customHeight="1">
-      <c r="A5" s="36" t="s">
+      <c r="A5" s="40" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="36" t="s">
+      <c r="B5" s="40" t="s">
         <v>47</v>
       </c>
       <c r="C5" s="21" t="s">
@@ -1789,26 +1822,26 @@
       </c>
     </row>
     <row r="6" spans="1:24" s="19" customFormat="1" ht="60.95" customHeight="1">
-      <c r="A6" s="38"/>
-      <c r="B6" s="38"/>
-      <c r="C6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="38"/>
-      <c r="E6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="38"/>
-      <c r="H6" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="I6" s="38"/>
-      <c r="J6" s="38"/>
-      <c r="K6" s="38"/>
-      <c r="L6" s="36" t="s">
+      <c r="A6" s="44"/>
+      <c r="B6" s="44"/>
+      <c r="C6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="44"/>
+      <c r="E6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="44"/>
+      <c r="H6" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="I6" s="44"/>
+      <c r="J6" s="44"/>
+      <c r="K6" s="44"/>
+      <c r="L6" s="40" t="s">
         <v>53</v>
       </c>
       <c r="M6" s="45" t="s">
@@ -1836,18 +1869,18 @@
       </c>
     </row>
     <row r="7" spans="1:24" s="19" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="37"/>
-      <c r="B7" s="37"/>
-      <c r="C7" s="37"/>
-      <c r="D7" s="37"/>
-      <c r="E7" s="37"/>
-      <c r="F7" s="37"/>
-      <c r="G7" s="37"/>
-      <c r="H7" s="37"/>
-      <c r="I7" s="37"/>
-      <c r="J7" s="37"/>
-      <c r="K7" s="37"/>
-      <c r="L7" s="37"/>
+      <c r="A7" s="41"/>
+      <c r="B7" s="41"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="41"/>
+      <c r="E7" s="41"/>
+      <c r="F7" s="41"/>
+      <c r="G7" s="41"/>
+      <c r="H7" s="41"/>
+      <c r="I7" s="41"/>
+      <c r="J7" s="41"/>
+      <c r="K7" s="41"/>
+      <c r="L7" s="41"/>
       <c r="M7" s="46"/>
       <c r="N7" s="17" t="s">
         <v>40</v>
@@ -1871,31 +1904,31 @@
       </c>
     </row>
     <row r="8" spans="1:24" s="19" customFormat="1" ht="39" customHeight="1">
-      <c r="A8" s="36" t="s">
+      <c r="A8" s="40" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="39" t="s">
+      <c r="B8" s="48" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="36"/>
-      <c r="F8" s="36"/>
-      <c r="G8" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="36"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="36"/>
-      <c r="K8" s="36"/>
-      <c r="L8" s="36" t="s">
+      <c r="C8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="40"/>
+      <c r="I8" s="40"/>
+      <c r="J8" s="40"/>
+      <c r="K8" s="40"/>
+      <c r="L8" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="41" t="s">
+      <c r="M8" s="47" t="s">
         <v>90</v>
       </c>
       <c r="N8" s="17" t="s">
@@ -1913,22 +1946,22 @@
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="X8" s="44"/>
+      <c r="X8" s="26"/>
     </row>
     <row r="9" spans="1:24" s="19" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A9" s="37"/>
-      <c r="B9" s="40"/>
-      <c r="C9" s="37"/>
-      <c r="D9" s="37"/>
-      <c r="E9" s="37"/>
-      <c r="F9" s="37"/>
-      <c r="G9" s="37"/>
-      <c r="H9" s="37"/>
-      <c r="I9" s="37"/>
-      <c r="J9" s="37"/>
-      <c r="K9" s="37"/>
-      <c r="L9" s="37"/>
-      <c r="M9" s="42"/>
+      <c r="A9" s="41"/>
+      <c r="B9" s="49"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="41"/>
+      <c r="E9" s="41"/>
+      <c r="F9" s="41"/>
+      <c r="G9" s="41"/>
+      <c r="H9" s="41"/>
+      <c r="I9" s="41"/>
+      <c r="J9" s="41"/>
+      <c r="K9" s="41"/>
+      <c r="L9" s="41"/>
+      <c r="M9" s="43"/>
       <c r="N9" s="17" t="s">
         <v>41</v>
       </c>
@@ -1948,29 +1981,29 @@
       <c r="V9" s="15"/>
     </row>
     <row r="10" spans="1:24" s="19" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A10" s="36" t="s">
+      <c r="A10" s="40" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="36" t="s">
+      <c r="B10" s="40" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="36"/>
-      <c r="F10" s="36"/>
-      <c r="G10" s="36"/>
-      <c r="H10" s="36"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="36"/>
-      <c r="K10" s="36"/>
-      <c r="L10" s="36" t="s">
+      <c r="C10" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="40"/>
+      <c r="J10" s="40"/>
+      <c r="K10" s="40"/>
+      <c r="L10" s="40" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="43" t="s">
+      <c r="M10" s="42" t="s">
         <v>89</v>
       </c>
       <c r="N10" s="17" t="s">
@@ -1990,19 +2023,19 @@
       <c r="V10" s="15"/>
     </row>
     <row r="11" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A11" s="37"/>
-      <c r="B11" s="37"/>
-      <c r="C11" s="37"/>
-      <c r="D11" s="37"/>
-      <c r="E11" s="37"/>
-      <c r="F11" s="37"/>
-      <c r="G11" s="37"/>
-      <c r="H11" s="37"/>
-      <c r="I11" s="37"/>
-      <c r="J11" s="37"/>
-      <c r="K11" s="37"/>
-      <c r="L11" s="37"/>
-      <c r="M11" s="42"/>
+      <c r="A11" s="41"/>
+      <c r="B11" s="41"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="41"/>
+      <c r="E11" s="41"/>
+      <c r="F11" s="41"/>
+      <c r="G11" s="41"/>
+      <c r="H11" s="41"/>
+      <c r="I11" s="41"/>
+      <c r="J11" s="41"/>
+      <c r="K11" s="41"/>
+      <c r="L11" s="41"/>
+      <c r="M11" s="43"/>
       <c r="N11" s="17" t="s">
         <v>41</v>
       </c>
@@ -2021,29 +2054,29 @@
       <c r="X11" s="19"/>
     </row>
     <row r="12" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A12" s="36" t="s">
+      <c r="A12" s="40" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="36" t="s">
+      <c r="B12" s="40" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="36"/>
-      <c r="F12" s="36"/>
-      <c r="G12" s="36"/>
-      <c r="H12" s="36"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="36"/>
-      <c r="K12" s="36"/>
-      <c r="L12" s="36" t="s">
+      <c r="C12" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="40"/>
+      <c r="J12" s="40"/>
+      <c r="K12" s="40"/>
+      <c r="L12" s="40" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="43" t="s">
+      <c r="M12" s="42" t="s">
         <v>88</v>
       </c>
       <c r="N12" s="17" t="s">
@@ -2064,19 +2097,19 @@
       <c r="X12" s="19"/>
     </row>
     <row r="13" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A13" s="37"/>
-      <c r="B13" s="37"/>
-      <c r="C13" s="37"/>
-      <c r="D13" s="37"/>
-      <c r="E13" s="37"/>
-      <c r="F13" s="37"/>
-      <c r="G13" s="37"/>
-      <c r="H13" s="37"/>
-      <c r="I13" s="37"/>
-      <c r="J13" s="37"/>
-      <c r="K13" s="37"/>
-      <c r="L13" s="37"/>
-      <c r="M13" s="42"/>
+      <c r="A13" s="41"/>
+      <c r="B13" s="41"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="41"/>
+      <c r="E13" s="41"/>
+      <c r="F13" s="41"/>
+      <c r="G13" s="41"/>
+      <c r="H13" s="41"/>
+      <c r="I13" s="41"/>
+      <c r="J13" s="41"/>
+      <c r="K13" s="41"/>
+      <c r="L13" s="41"/>
+      <c r="M13" s="43"/>
       <c r="N13" s="17" t="s">
         <v>41</v>
       </c>
@@ -2095,31 +2128,31 @@
       <c r="X13" s="19"/>
     </row>
     <row r="14" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="36" t="s">
+      <c r="A14" s="40" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="36" t="s">
+      <c r="B14" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="36"/>
-      <c r="F14" s="36"/>
-      <c r="G14" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="36"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="36"/>
-      <c r="K14" s="36"/>
-      <c r="L14" s="36" t="s">
+      <c r="C14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="40"/>
+      <c r="I14" s="40"/>
+      <c r="J14" s="40"/>
+      <c r="K14" s="40"/>
+      <c r="L14" s="40" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="43" t="s">
+      <c r="M14" s="42" t="s">
         <v>87</v>
       </c>
       <c r="N14" s="17" t="s">
@@ -2140,19 +2173,19 @@
       <c r="X14" s="3"/>
     </row>
     <row r="15" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A15" s="38"/>
-      <c r="B15" s="38"/>
-      <c r="C15" s="37"/>
-      <c r="D15" s="37"/>
-      <c r="E15" s="37"/>
-      <c r="F15" s="37"/>
-      <c r="G15" s="37"/>
-      <c r="H15" s="37"/>
-      <c r="I15" s="37"/>
-      <c r="J15" s="37"/>
-      <c r="K15" s="37"/>
-      <c r="L15" s="37"/>
-      <c r="M15" s="42"/>
+      <c r="A15" s="44"/>
+      <c r="B15" s="44"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="41"/>
+      <c r="E15" s="41"/>
+      <c r="F15" s="41"/>
+      <c r="G15" s="41"/>
+      <c r="H15" s="41"/>
+      <c r="I15" s="41"/>
+      <c r="J15" s="41"/>
+      <c r="K15" s="41"/>
+      <c r="L15" s="41"/>
+      <c r="M15" s="43"/>
       <c r="N15" s="17" t="s">
         <v>41</v>
       </c>
@@ -2171,31 +2204,31 @@
       <c r="X15" s="20"/>
     </row>
     <row r="16" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A16" s="36" t="s">
+      <c r="A16" s="40" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="36" t="s">
+      <c r="B16" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="36"/>
-      <c r="F16" s="36"/>
-      <c r="G16" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="36"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="36"/>
-      <c r="K16" s="36"/>
-      <c r="L16" s="36" t="s">
+      <c r="C16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="40"/>
+      <c r="I16" s="40"/>
+      <c r="J16" s="40"/>
+      <c r="K16" s="40"/>
+      <c r="L16" s="40" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="43" t="s">
+      <c r="M16" s="42" t="s">
         <v>86</v>
       </c>
       <c r="N16" s="17" t="s">
@@ -2216,19 +2249,19 @@
       <c r="X16" s="3"/>
     </row>
     <row r="17" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A17" s="37"/>
-      <c r="B17" s="37"/>
-      <c r="C17" s="37"/>
-      <c r="D17" s="37"/>
-      <c r="E17" s="37"/>
-      <c r="F17" s="37"/>
-      <c r="G17" s="37"/>
-      <c r="H17" s="37"/>
-      <c r="I17" s="37"/>
-      <c r="J17" s="37"/>
-      <c r="K17" s="37"/>
-      <c r="L17" s="37"/>
-      <c r="M17" s="42"/>
+      <c r="A17" s="41"/>
+      <c r="B17" s="41"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="41"/>
+      <c r="E17" s="41"/>
+      <c r="F17" s="41"/>
+      <c r="G17" s="41"/>
+      <c r="H17" s="41"/>
+      <c r="I17" s="41"/>
+      <c r="J17" s="41"/>
+      <c r="K17" s="41"/>
+      <c r="L17" s="41"/>
+      <c r="M17" s="43"/>
       <c r="N17" s="17" t="s">
         <v>41</v>
       </c>
@@ -2246,33 +2279,33 @@
       <c r="V17" s="15"/>
     </row>
     <row r="18" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A18" s="36" t="s">
+      <c r="A18" s="40" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="40" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="36"/>
-      <c r="F18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="36"/>
-      <c r="H18" s="36"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="36"/>
-      <c r="L18" s="36" t="s">
+      <c r="C18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="40"/>
+      <c r="J18" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="40"/>
+      <c r="L18" s="40" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="43" t="s">
+      <c r="M18" s="42" t="s">
         <v>85</v>
       </c>
       <c r="N18" s="17" t="s">
@@ -2293,19 +2326,19 @@
       <c r="X18" s="20"/>
     </row>
     <row r="19" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A19" s="37"/>
-      <c r="B19" s="37"/>
-      <c r="C19" s="37"/>
-      <c r="D19" s="37"/>
-      <c r="E19" s="37"/>
-      <c r="F19" s="37"/>
-      <c r="G19" s="37"/>
-      <c r="H19" s="37"/>
-      <c r="I19" s="37"/>
-      <c r="J19" s="37"/>
-      <c r="K19" s="37"/>
-      <c r="L19" s="37"/>
-      <c r="M19" s="42"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="44"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="41"/>
+      <c r="E19" s="41"/>
+      <c r="F19" s="41"/>
+      <c r="G19" s="41"/>
+      <c r="H19" s="41"/>
+      <c r="I19" s="41"/>
+      <c r="J19" s="41"/>
+      <c r="K19" s="41"/>
+      <c r="L19" s="41"/>
+      <c r="M19" s="43"/>
       <c r="N19" s="17" t="s">
         <v>41</v>
       </c>
@@ -2323,44 +2356,34 @@
       <c r="V19" s="15"/>
       <c r="X19" s="3"/>
     </row>
-    <row r="20" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A20" s="36" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="36" t="s">
-        <v>51</v>
-      </c>
-      <c r="C20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E20" s="36"/>
-      <c r="F20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="G20" s="36"/>
-      <c r="H20" s="36"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="K20" s="36"/>
-      <c r="L20" s="36" t="s">
-        <v>50</v>
-      </c>
-      <c r="M20" s="43" t="s">
-        <v>84</v>
+    <row r="20" spans="1:24" s="23" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A20" s="41"/>
+      <c r="B20" s="41"/>
+      <c r="C20" s="24"/>
+      <c r="D20" s="24"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24" t="s">
+        <v>45</v>
+      </c>
+      <c r="M20" s="25" t="s">
+        <v>94</v>
       </c>
       <c r="N20" s="17" t="s">
-        <v>43</v>
+        <v>93</v>
       </c>
       <c r="O20" s="16">
-        <v>0.21</v>
+        <v>0.05</v>
       </c>
       <c r="P20" s="15" t="s">
-        <v>65</v>
+        <v>95</v>
       </c>
       <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
@@ -2368,24 +2391,39 @@
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-      <c r="X20" s="20"/>
-    </row>
-    <row r="21" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A21" s="38"/>
-      <c r="B21" s="38"/>
-      <c r="C21" s="37"/>
-      <c r="D21" s="37"/>
-      <c r="E21" s="37"/>
-      <c r="F21" s="37"/>
-      <c r="G21" s="37"/>
-      <c r="H21" s="37"/>
-      <c r="I21" s="37"/>
-      <c r="J21" s="37"/>
-      <c r="K21" s="37"/>
-      <c r="L21" s="37"/>
-      <c r="M21" s="42"/>
+    </row>
+    <row r="21" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A21" s="40" t="s">
+        <v>34</v>
+      </c>
+      <c r="B21" s="40" t="s">
+        <v>51</v>
+      </c>
+      <c r="C21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="40"/>
+      <c r="J21" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="40"/>
+      <c r="L21" s="40" t="s">
+        <v>50</v>
+      </c>
+      <c r="M21" s="42" t="s">
+        <v>84</v>
+      </c>
       <c r="N21" s="17" t="s">
-        <v>41</v>
+        <v>43</v>
       </c>
       <c r="O21" s="16">
         <v>0.21</v>
@@ -2399,36 +2437,30 @@
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="X21" s="3"/>
-    </row>
-    <row r="22" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A22" s="38"/>
-      <c r="B22" s="38"/>
-      <c r="C22" s="36"/>
-      <c r="D22" s="36"/>
-      <c r="E22" s="36"/>
-      <c r="F22" s="36"/>
-      <c r="G22" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H22" s="36"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="36"/>
-      <c r="K22" s="36"/>
-      <c r="L22" s="36" t="s">
-        <v>56</v>
-      </c>
-      <c r="M22" s="43" t="s">
-        <v>83</v>
-      </c>
+      <c r="X21" s="20"/>
+    </row>
+    <row r="22" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A22" s="44"/>
+      <c r="B22" s="44"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="41"/>
+      <c r="E22" s="41"/>
+      <c r="F22" s="41"/>
+      <c r="G22" s="41"/>
+      <c r="H22" s="41"/>
+      <c r="I22" s="41"/>
+      <c r="J22" s="41"/>
+      <c r="K22" s="41"/>
+      <c r="L22" s="41"/>
+      <c r="M22" s="43"/>
       <c r="N22" s="17" t="s">
-        <v>69</v>
+        <v>41</v>
       </c>
       <c r="O22" s="16">
-        <v>0.23</v>
+        <v>0.21</v>
       </c>
       <c r="P22" s="15" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
@@ -2436,29 +2468,36 @@
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
+      <c r="X22" s="3"/>
     </row>
     <row r="23" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A23" s="37"/>
-      <c r="B23" s="37"/>
-      <c r="C23" s="37"/>
-      <c r="D23" s="37"/>
-      <c r="E23" s="37"/>
-      <c r="F23" s="37"/>
-      <c r="G23" s="37"/>
-      <c r="H23" s="37"/>
-      <c r="I23" s="37"/>
-      <c r="J23" s="37"/>
-      <c r="K23" s="37"/>
-      <c r="L23" s="37"/>
-      <c r="M23" s="42"/>
+      <c r="A23" s="44"/>
+      <c r="B23" s="44"/>
+      <c r="C23" s="40"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="40"/>
+      <c r="I23" s="40"/>
+      <c r="J23" s="40"/>
+      <c r="K23" s="40"/>
+      <c r="L23" s="40" t="s">
+        <v>56</v>
+      </c>
+      <c r="M23" s="42" t="s">
+        <v>83</v>
+      </c>
       <c r="N23" s="17" t="s">
-        <v>44</v>
+        <v>69</v>
       </c>
       <c r="O23" s="16">
-        <v>0.18</v>
+        <v>0.23</v>
       </c>
       <c r="P23" s="15" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
@@ -2467,42 +2506,28 @@
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
     </row>
-    <row r="24" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A24" s="36" t="s">
-        <v>35</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>52</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D24" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E24" s="36"/>
-      <c r="F24" s="36"/>
-      <c r="G24" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H24" s="36"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="36"/>
-      <c r="K24" s="36"/>
-      <c r="L24" s="36" t="s">
-        <v>55</v>
-      </c>
-      <c r="M24" s="43" t="s">
-        <v>82</v>
-      </c>
+    <row r="24" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A24" s="44"/>
+      <c r="B24" s="44"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="41"/>
+      <c r="E24" s="41"/>
+      <c r="F24" s="41"/>
+      <c r="G24" s="41"/>
+      <c r="H24" s="41"/>
+      <c r="I24" s="41"/>
+      <c r="J24" s="41"/>
+      <c r="K24" s="41"/>
+      <c r="L24" s="41"/>
+      <c r="M24" s="43"/>
       <c r="N24" s="17" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="O24" s="16">
-        <v>0.15</v>
+        <v>0.18</v>
       </c>
       <c r="P24" s="15" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
@@ -2510,30 +2535,39 @@
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-      <c r="X24" s="3"/>
-    </row>
-    <row r="25" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A25" s="37"/>
-      <c r="B25" s="37"/>
-      <c r="C25" s="37"/>
-      <c r="D25" s="37"/>
-      <c r="E25" s="37"/>
-      <c r="F25" s="37"/>
-      <c r="G25" s="37"/>
-      <c r="H25" s="37"/>
-      <c r="I25" s="37"/>
-      <c r="J25" s="37"/>
-      <c r="K25" s="37"/>
-      <c r="L25" s="37"/>
-      <c r="M25" s="42"/>
+    </row>
+    <row r="25" spans="1:24" s="23" customFormat="1" ht="45" customHeight="1">
+      <c r="A25" s="41"/>
+      <c r="B25" s="41"/>
+      <c r="C25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="24"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="24"/>
+      <c r="J25" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="24"/>
+      <c r="L25" s="24" t="s">
+        <v>51</v>
+      </c>
+      <c r="M25" s="25" t="s">
+        <v>96</v>
+      </c>
       <c r="N25" s="17" t="s">
-        <v>41</v>
+        <v>93</v>
       </c>
       <c r="O25" s="16">
-        <v>0.15</v>
+        <v>0.75</v>
       </c>
       <c r="P25" s="15" t="s">
-        <v>68</v>
+        <v>97</v>
       </c>
       <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
@@ -2543,32 +2577,32 @@
       <c r="V25" s="15"/>
     </row>
     <row r="26" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A26" s="36" t="s">
-        <v>37</v>
-      </c>
-      <c r="B26" s="36" t="s">
+      <c r="A26" s="40" t="s">
+        <v>35</v>
+      </c>
+      <c r="B26" s="40" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="36"/>
-      <c r="F26" s="36"/>
-      <c r="G26" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="36"/>
-      <c r="I26" s="36"/>
-      <c r="J26" s="36"/>
-      <c r="K26" s="36"/>
-      <c r="L26" s="36" t="s">
+      <c r="C26" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="40"/>
+      <c r="F26" s="40"/>
+      <c r="G26" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="40"/>
+      <c r="I26" s="40"/>
+      <c r="J26" s="40"/>
+      <c r="K26" s="40"/>
+      <c r="L26" s="40" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="43" t="s">
-        <v>81</v>
+      <c r="M26" s="42" t="s">
+        <v>82</v>
       </c>
       <c r="N26" s="17" t="s">
         <v>43</v>
@@ -2588,19 +2622,19 @@
       <c r="X26" s="3"/>
     </row>
     <row r="27" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A27" s="37"/>
-      <c r="B27" s="37"/>
-      <c r="C27" s="37"/>
-      <c r="D27" s="37"/>
-      <c r="E27" s="37"/>
-      <c r="F27" s="37"/>
-      <c r="G27" s="37"/>
-      <c r="H27" s="37"/>
-      <c r="I27" s="37"/>
-      <c r="J27" s="37"/>
-      <c r="K27" s="37"/>
-      <c r="L27" s="37"/>
-      <c r="M27" s="42"/>
+      <c r="A27" s="41"/>
+      <c r="B27" s="41"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="41"/>
+      <c r="E27" s="41"/>
+      <c r="F27" s="41"/>
+      <c r="G27" s="41"/>
+      <c r="H27" s="41"/>
+      <c r="I27" s="41"/>
+      <c r="J27" s="41"/>
+      <c r="K27" s="41"/>
+      <c r="L27" s="41"/>
+      <c r="M27" s="43"/>
       <c r="N27" s="17" t="s">
         <v>41</v>
       </c>
@@ -2617,101 +2651,189 @@
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
     </row>
-    <row r="30" spans="1:24" ht="65.25" customHeight="1"/>
-    <row r="31" spans="1:24" ht="65.25" customHeight="1"/>
-    <row r="32" spans="1:24" ht="65.25" customHeight="1"/>
-    <row r="33" spans="12:12" ht="65.25" customHeight="1">
-      <c r="L33" s="3"/>
-    </row>
-    <row r="34" spans="12:12" ht="65.25" customHeight="1">
-      <c r="L34" s="3"/>
-    </row>
-    <row r="35" spans="12:12" ht="65.25" customHeight="1">
-      <c r="L35" s="3"/>
-    </row>
+    <row r="28" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A28" s="40" t="s">
+        <v>37</v>
+      </c>
+      <c r="B28" s="40" t="s">
+        <v>52</v>
+      </c>
+      <c r="C28" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="40"/>
+      <c r="F28" s="40"/>
+      <c r="G28" s="40" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="40"/>
+      <c r="I28" s="40"/>
+      <c r="J28" s="40"/>
+      <c r="K28" s="40"/>
+      <c r="L28" s="40" t="s">
+        <v>55</v>
+      </c>
+      <c r="M28" s="42" t="s">
+        <v>81</v>
+      </c>
+      <c r="N28" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="O28" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="P28" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q28" s="15"/>
+      <c r="R28" s="15"/>
+      <c r="S28" s="15"/>
+      <c r="T28" s="15"/>
+      <c r="U28" s="15"/>
+      <c r="V28" s="15"/>
+      <c r="X28" s="3"/>
+    </row>
+    <row r="29" spans="1:24" ht="40.5" customHeight="1">
+      <c r="A29" s="41"/>
+      <c r="B29" s="41"/>
+      <c r="C29" s="41"/>
+      <c r="D29" s="41"/>
+      <c r="E29" s="41"/>
+      <c r="F29" s="41"/>
+      <c r="G29" s="41"/>
+      <c r="H29" s="41"/>
+      <c r="I29" s="41"/>
+      <c r="J29" s="41"/>
+      <c r="K29" s="41"/>
+      <c r="L29" s="41"/>
+      <c r="M29" s="43"/>
+      <c r="N29" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="O29" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="P29" s="15" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q29" s="15"/>
+      <c r="R29" s="15"/>
+      <c r="S29" s="15"/>
+      <c r="T29" s="15"/>
+      <c r="U29" s="15"/>
+      <c r="V29" s="15"/>
+    </row>
+    <row r="30" spans="1:24" s="23" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A30" s="50" t="s">
+        <v>98</v>
+      </c>
+      <c r="B30" s="50"/>
+      <c r="C30" s="50"/>
+      <c r="D30" s="50"/>
+      <c r="E30" s="50"/>
+      <c r="F30" s="50"/>
+      <c r="G30" s="50"/>
+      <c r="H30" s="50"/>
+      <c r="I30" s="50"/>
+      <c r="J30" s="50"/>
+      <c r="K30" s="50"/>
+      <c r="L30" s="50"/>
+      <c r="M30" s="51"/>
+      <c r="N30" s="17"/>
+      <c r="O30" s="16"/>
+      <c r="P30" s="15"/>
+      <c r="Q30" s="15"/>
+      <c r="R30" s="15"/>
+      <c r="S30" s="15"/>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15"/>
+      <c r="V30" s="15"/>
+    </row>
+    <row r="31" spans="1:24" ht="35.25" customHeight="1"/>
+    <row r="33" spans="12:12" ht="65.25" customHeight="1"/>
+    <row r="34" spans="12:12" ht="65.25" customHeight="1"/>
+    <row r="35" spans="12:12" ht="65.25" customHeight="1"/>
     <row r="36" spans="12:12" ht="65.25" customHeight="1">
       <c r="L36" s="3"/>
     </row>
-    <row r="37" spans="12:12">
-      <c r="L37" s="17"/>
+    <row r="37" spans="12:12" ht="65.25" customHeight="1">
+      <c r="L37" s="3"/>
+    </row>
+    <row r="38" spans="12:12" ht="65.25" customHeight="1">
+      <c r="L38" s="3"/>
+    </row>
+    <row r="39" spans="12:12" ht="65.25" customHeight="1">
+      <c r="L39" s="3"/>
+    </row>
+    <row r="40" spans="12:12">
+      <c r="L40" s="17"/>
     </row>
   </sheetData>
   <sortState ref="Q5:Q6">
     <sortCondition ref="Q5"/>
   </sortState>
   <mergeCells count="150">
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="L20:L21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M24:M25"/>
-    <mergeCell ref="M22:M23"/>
-    <mergeCell ref="L22:L23"/>
-    <mergeCell ref="K22:K23"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="J22:J23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="L24:L25"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="C24:C25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="G24:G25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="J24:J25"/>
-    <mergeCell ref="K24:K25"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="A20:A23"/>
-    <mergeCell ref="B20:B23"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="L16:L17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="L14:L15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="L12:L13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="G8:G9"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
     <mergeCell ref="B12:B13"/>
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="A5:A7"/>
@@ -2734,62 +2856,76 @@
     <mergeCell ref="B8:B9"/>
     <mergeCell ref="K8:K9"/>
     <mergeCell ref="J8:J9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="B1:V1"/>
+    <mergeCell ref="I2:V2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="L26:L27"/>
+    <mergeCell ref="L28:L29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="L18:L19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="L23:L24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="L21:L22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="186" uniqueCount="99">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="198" uniqueCount="104">
   <si>
     <t>Asset</t>
   </si>
@@ -492,12 +492,43 @@
   <si>
     <t>Block</t>
   </si>
+  <si>
+    <t>150.000-300.000</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="16"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>A</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="16"/>
+        <color theme="0"/>
+        <rFont val="Calibri (Corpo)"/>
+      </rPr>
+      <t>ssurance's Violation</t>
+    </r>
+  </si>
+  <si>
+    <t>Block Interception &amp; Modification</t>
+  </si>
+  <si>
+    <t>Block Unjustification</t>
+  </si>
+  <si>
+    <t>33% + 1 Attack</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -530,6 +561,11 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="0"/>
+      <name val="Calibri (Corpo)"/>
     </font>
   </fonts>
   <fills count="6">
@@ -564,7 +600,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="10">
+  <borders count="12">
     <border>
       <left/>
       <right/>
@@ -687,11 +723,33 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="52">
+  <cellXfs count="58">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -754,9 +812,6 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -771,10 +826,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -798,21 +877,15 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -822,9 +895,6 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
@@ -840,11 +910,17 @@
     <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1157,7 +1233,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1192,73 +1268,73 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="31"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="38"/>
+      <c r="O1" s="38"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
+      <c r="H2" s="40"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="38"/>
+      <c r="O2" s="38"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1278,274 +1354,283 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="35" t="s">
+      <c r="C5" s="42" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="36"/>
-      <c r="E5" s="36"/>
-      <c r="F5" s="36"/>
-      <c r="G5" s="36"/>
-      <c r="H5" s="37"/>
-      <c r="I5" s="39" t="s">
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
+      <c r="H5" s="43"/>
+      <c r="I5" s="34" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="36"/>
+      <c r="J5" s="35"/>
     </row>
     <row r="6" spans="1:21">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="27"/>
-      <c r="D6" s="28"/>
-      <c r="E6" s="28"/>
-      <c r="F6" s="28"/>
-      <c r="G6" s="28"/>
-      <c r="H6" s="28"/>
-      <c r="I6" s="38"/>
-      <c r="J6" s="28"/>
+      <c r="C6" s="33"/>
+      <c r="D6" s="32"/>
+      <c r="E6" s="32"/>
+      <c r="F6" s="32"/>
+      <c r="G6" s="32"/>
+      <c r="H6" s="32"/>
+      <c r="I6" s="31"/>
+      <c r="J6" s="32"/>
     </row>
     <row r="7" spans="1:21">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="27"/>
-      <c r="D7" s="28"/>
-      <c r="E7" s="28"/>
-      <c r="F7" s="28"/>
-      <c r="G7" s="28"/>
-      <c r="H7" s="28"/>
-      <c r="I7" s="38"/>
-      <c r="J7" s="28"/>
+      <c r="C7" s="33"/>
+      <c r="D7" s="32"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="32"/>
+      <c r="G7" s="32"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="31"/>
+      <c r="J7" s="32"/>
     </row>
     <row r="8" spans="1:21">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="27"/>
-      <c r="D8" s="28"/>
-      <c r="E8" s="28"/>
-      <c r="F8" s="28"/>
-      <c r="G8" s="28"/>
-      <c r="H8" s="28"/>
-      <c r="I8" s="38"/>
-      <c r="J8" s="28"/>
+      <c r="C8" s="33"/>
+      <c r="D8" s="32"/>
+      <c r="E8" s="32"/>
+      <c r="F8" s="32"/>
+      <c r="G8" s="32"/>
+      <c r="H8" s="32"/>
+      <c r="I8" s="31"/>
+      <c r="J8" s="32"/>
     </row>
     <row r="9" spans="1:21">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="27"/>
-      <c r="D9" s="28"/>
-      <c r="E9" s="28"/>
-      <c r="F9" s="28"/>
-      <c r="G9" s="28"/>
-      <c r="H9" s="28"/>
-      <c r="I9" s="38"/>
-      <c r="J9" s="28"/>
+      <c r="C9" s="33"/>
+      <c r="D9" s="32"/>
+      <c r="E9" s="32"/>
+      <c r="F9" s="32"/>
+      <c r="G9" s="32"/>
+      <c r="H9" s="32"/>
+      <c r="I9" s="31"/>
+      <c r="J9" s="32"/>
     </row>
     <row r="10" spans="1:21">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="27"/>
-      <c r="D10" s="28"/>
-      <c r="E10" s="28"/>
-      <c r="F10" s="28"/>
-      <c r="G10" s="28"/>
-      <c r="H10" s="28"/>
-      <c r="I10" s="38"/>
-      <c r="J10" s="28"/>
+      <c r="C10" s="33"/>
+      <c r="D10" s="32"/>
+      <c r="E10" s="32"/>
+      <c r="F10" s="32"/>
+      <c r="G10" s="32"/>
+      <c r="H10" s="32"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="32"/>
     </row>
     <row r="11" spans="1:21">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="27"/>
-      <c r="D11" s="28"/>
-      <c r="E11" s="28"/>
-      <c r="F11" s="28"/>
-      <c r="G11" s="28"/>
-      <c r="H11" s="28"/>
-      <c r="I11" s="38"/>
-      <c r="J11" s="28"/>
+      <c r="C11" s="33"/>
+      <c r="D11" s="32"/>
+      <c r="E11" s="32"/>
+      <c r="F11" s="32"/>
+      <c r="G11" s="32"/>
+      <c r="H11" s="32"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="32"/>
     </row>
     <row r="12" spans="1:21">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="27"/>
-      <c r="D12" s="28"/>
-      <c r="E12" s="28"/>
-      <c r="F12" s="28"/>
-      <c r="G12" s="28"/>
-      <c r="H12" s="28"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="28"/>
+      <c r="C12" s="33"/>
+      <c r="D12" s="32"/>
+      <c r="E12" s="32"/>
+      <c r="F12" s="32"/>
+      <c r="G12" s="32"/>
+      <c r="H12" s="32"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="32"/>
     </row>
     <row r="13" spans="1:21">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="27"/>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
-      <c r="F13" s="28"/>
-      <c r="G13" s="28"/>
-      <c r="H13" s="28"/>
-      <c r="I13" s="38"/>
-      <c r="J13" s="28"/>
+      <c r="C13" s="33"/>
+      <c r="D13" s="32"/>
+      <c r="E13" s="32"/>
+      <c r="F13" s="32"/>
+      <c r="G13" s="32"/>
+      <c r="H13" s="32"/>
+      <c r="I13" s="31"/>
+      <c r="J13" s="32"/>
     </row>
     <row r="14" spans="1:21">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="27"/>
-      <c r="D14" s="28"/>
-      <c r="E14" s="28"/>
-      <c r="F14" s="28"/>
-      <c r="G14" s="28"/>
-      <c r="H14" s="28"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="28"/>
+      <c r="C14" s="33"/>
+      <c r="D14" s="32"/>
+      <c r="E14" s="32"/>
+      <c r="F14" s="32"/>
+      <c r="G14" s="32"/>
+      <c r="H14" s="32"/>
+      <c r="I14" s="31"/>
+      <c r="J14" s="32"/>
     </row>
     <row r="15" spans="1:21">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="27"/>
-      <c r="D15" s="28"/>
-      <c r="E15" s="28"/>
-      <c r="F15" s="28"/>
-      <c r="G15" s="28"/>
-      <c r="H15" s="28"/>
-      <c r="I15" s="38"/>
-      <c r="J15" s="28"/>
+      <c r="C15" s="33"/>
+      <c r="D15" s="32"/>
+      <c r="E15" s="32"/>
+      <c r="F15" s="32"/>
+      <c r="G15" s="32"/>
+      <c r="H15" s="32"/>
+      <c r="I15" s="31"/>
+      <c r="J15" s="32"/>
     </row>
     <row r="16" spans="1:21">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="27"/>
-      <c r="D16" s="28"/>
-      <c r="E16" s="28"/>
-      <c r="F16" s="28"/>
-      <c r="G16" s="28"/>
-      <c r="H16" s="28"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="28"/>
+      <c r="C16" s="33"/>
+      <c r="D16" s="32"/>
+      <c r="E16" s="32"/>
+      <c r="F16" s="32"/>
+      <c r="G16" s="32"/>
+      <c r="H16" s="32"/>
+      <c r="I16" s="31"/>
+      <c r="J16" s="32"/>
     </row>
     <row r="17" spans="1:10">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="27"/>
-      <c r="D17" s="28"/>
-      <c r="E17" s="28"/>
-      <c r="F17" s="28"/>
-      <c r="G17" s="28"/>
-      <c r="H17" s="28"/>
-      <c r="I17" s="38"/>
-      <c r="J17" s="28"/>
+      <c r="C17" s="33"/>
+      <c r="D17" s="32"/>
+      <c r="E17" s="32"/>
+      <c r="F17" s="32"/>
+      <c r="G17" s="32"/>
+      <c r="H17" s="32"/>
+      <c r="I17" s="31"/>
+      <c r="J17" s="32"/>
     </row>
     <row r="18" spans="1:10">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="27"/>
-      <c r="D18" s="28"/>
-      <c r="E18" s="28"/>
-      <c r="F18" s="28"/>
-      <c r="G18" s="28"/>
-      <c r="H18" s="28"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="28"/>
+      <c r="C18" s="33"/>
+      <c r="D18" s="32"/>
+      <c r="E18" s="32"/>
+      <c r="F18" s="32"/>
+      <c r="G18" s="32"/>
+      <c r="H18" s="32"/>
+      <c r="I18" s="31"/>
+      <c r="J18" s="32"/>
     </row>
     <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="27"/>
-      <c r="D19" s="28"/>
-      <c r="E19" s="28"/>
-      <c r="F19" s="28"/>
-      <c r="G19" s="28"/>
-      <c r="H19" s="28"/>
-      <c r="I19" s="38"/>
-      <c r="J19" s="28"/>
+      <c r="C19" s="33"/>
+      <c r="D19" s="32"/>
+      <c r="E19" s="32"/>
+      <c r="F19" s="32"/>
+      <c r="G19" s="32"/>
+      <c r="H19" s="32"/>
+      <c r="I19" s="31"/>
+      <c r="J19" s="32"/>
     </row>
     <row r="20" spans="1:10">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="27"/>
-      <c r="D20" s="28"/>
-      <c r="E20" s="28"/>
-      <c r="F20" s="28"/>
-      <c r="G20" s="28"/>
-      <c r="H20" s="28"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="28"/>
+      <c r="C20" s="33"/>
+      <c r="D20" s="32"/>
+      <c r="E20" s="32"/>
+      <c r="F20" s="32"/>
+      <c r="G20" s="32"/>
+      <c r="H20" s="32"/>
+      <c r="I20" s="31"/>
+      <c r="J20" s="32"/>
     </row>
     <row r="21" spans="1:10">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="27"/>
-      <c r="D21" s="28"/>
-      <c r="E21" s="28"/>
-      <c r="F21" s="28"/>
-      <c r="G21" s="28"/>
-      <c r="H21" s="28"/>
-      <c r="I21" s="38"/>
-      <c r="J21" s="28"/>
+      <c r="C21" s="33"/>
+      <c r="D21" s="32"/>
+      <c r="E21" s="32"/>
+      <c r="F21" s="32"/>
+      <c r="G21" s="32"/>
+      <c r="H21" s="32"/>
+      <c r="I21" s="31"/>
+      <c r="J21" s="32"/>
     </row>
     <row r="22" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="27"/>
-      <c r="D22" s="28"/>
-      <c r="E22" s="28"/>
-      <c r="F22" s="28"/>
-      <c r="G22" s="28"/>
-      <c r="H22" s="28"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="28"/>
+      <c r="C22" s="33"/>
+      <c r="D22" s="32"/>
+      <c r="E22" s="32"/>
+      <c r="F22" s="32"/>
+      <c r="G22" s="32"/>
+      <c r="H22" s="32"/>
+      <c r="I22" s="31"/>
+      <c r="J22" s="32"/>
     </row>
     <row r="23" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="27"/>
-      <c r="D23" s="28"/>
-      <c r="E23" s="28"/>
-      <c r="F23" s="28"/>
-      <c r="G23" s="28"/>
-      <c r="H23" s="28"/>
-      <c r="I23" s="38"/>
-      <c r="J23" s="28"/>
+      <c r="C23" s="33"/>
+      <c r="D23" s="32"/>
+      <c r="E23" s="32"/>
+      <c r="F23" s="32"/>
+      <c r="G23" s="32"/>
+      <c r="H23" s="32"/>
+      <c r="I23" s="31"/>
+      <c r="J23" s="32"/>
     </row>
     <row r="24" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="27"/>
-      <c r="D24" s="28"/>
-      <c r="E24" s="28"/>
-      <c r="F24" s="28"/>
-      <c r="G24" s="28"/>
-      <c r="H24" s="28"/>
-      <c r="I24" s="38"/>
-      <c r="J24" s="28"/>
+      <c r="C24" s="33"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="32"/>
+      <c r="F24" s="32"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="32"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
     </row>
     <row r="25" spans="1:10">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="27"/>
-      <c r="D25" s="28"/>
-      <c r="E25" s="28"/>
-      <c r="F25" s="28"/>
-      <c r="G25" s="28"/>
-      <c r="H25" s="28"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="28"/>
+      <c r="C25" s="33"/>
+      <c r="D25" s="32"/>
+      <c r="E25" s="32"/>
+      <c r="F25" s="32"/>
+      <c r="G25" s="32"/>
+      <c r="H25" s="32"/>
+      <c r="I25" s="31"/>
+      <c r="J25" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1562,28 +1647,19 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1591,108 +1667,110 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:X40"/>
+  <dimension ref="A1:Y42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="M28" sqref="M28:M29"/>
+    <sheetView tabSelected="1" topLeftCell="D2" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="P6" sqref="P6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.875" defaultRowHeight="15.75"/>
   <cols>
     <col min="1" max="1" width="16.875" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.875" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.875" style="2" customWidth="1"/>
-    <col min="13" max="13" width="33" style="3" customWidth="1"/>
-    <col min="14" max="14" width="33" style="18" customWidth="1"/>
-    <col min="15" max="16" width="10" style="3" customWidth="1"/>
-    <col min="17" max="17" width="20" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10" style="3" customWidth="1"/>
-    <col min="19" max="19" width="20" style="3" customWidth="1"/>
-    <col min="20" max="22" width="10" style="3" customWidth="1"/>
-    <col min="23" max="23" width="29.25" style="3" customWidth="1"/>
-    <col min="24" max="24" width="76.625" style="3" customWidth="1"/>
-    <col min="25" max="16384" width="10.875" style="3"/>
+    <col min="3" max="12" width="6.875" style="2" customWidth="1"/>
+    <col min="13" max="13" width="13.875" style="2" customWidth="1"/>
+    <col min="14" max="14" width="33" style="3" customWidth="1"/>
+    <col min="15" max="15" width="33" style="18" customWidth="1"/>
+    <col min="16" max="17" width="10" style="3" customWidth="1"/>
+    <col min="18" max="18" width="20" style="3" customWidth="1"/>
+    <col min="19" max="19" width="10" style="3" customWidth="1"/>
+    <col min="20" max="20" width="20" style="3" customWidth="1"/>
+    <col min="21" max="23" width="10" style="3" customWidth="1"/>
+    <col min="24" max="24" width="29.25" style="3" customWidth="1"/>
+    <col min="25" max="25" width="76.625" style="3" customWidth="1"/>
+    <col min="26" max="16384" width="10.875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="10" customFormat="1" ht="21">
+    <row r="1" spans="1:25" s="10" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="29"/>
-      <c r="C1" s="29"/>
-      <c r="D1" s="29"/>
-      <c r="E1" s="29"/>
-      <c r="F1" s="29"/>
-      <c r="G1" s="30"/>
-      <c r="H1" s="30"/>
-      <c r="I1" s="30"/>
-      <c r="J1" s="30"/>
-      <c r="K1" s="30"/>
-      <c r="L1" s="30"/>
-      <c r="M1" s="30"/>
-      <c r="N1" s="30"/>
-      <c r="O1" s="31"/>
-      <c r="P1" s="31"/>
-      <c r="Q1" s="31"/>
-      <c r="R1" s="31"/>
-      <c r="S1" s="31"/>
-      <c r="T1" s="31"/>
-      <c r="U1" s="31"/>
-      <c r="V1" s="31"/>
-    </row>
-    <row r="2" spans="1:24" s="10" customFormat="1" ht="24.95" customHeight="1">
+      <c r="B1" s="36"/>
+      <c r="C1" s="36"/>
+      <c r="D1" s="36"/>
+      <c r="E1" s="36"/>
+      <c r="F1" s="36"/>
+      <c r="G1" s="37"/>
+      <c r="H1" s="37"/>
+      <c r="I1" s="37"/>
+      <c r="J1" s="37"/>
+      <c r="K1" s="37"/>
+      <c r="L1" s="37"/>
+      <c r="M1" s="37"/>
+      <c r="N1" s="37"/>
+      <c r="O1" s="37"/>
+      <c r="P1" s="38"/>
+      <c r="Q1" s="38"/>
+      <c r="R1" s="38"/>
+      <c r="S1" s="38"/>
+      <c r="T1" s="38"/>
+      <c r="U1" s="38"/>
+      <c r="V1" s="38"/>
+      <c r="W1" s="38"/>
+    </row>
+    <row r="2" spans="1:25" s="10" customFormat="1" ht="24.95" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="32" t="s">
+      <c r="C2" s="39" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="32"/>
-      <c r="E2" s="29"/>
-      <c r="F2" s="29"/>
-      <c r="G2" s="32" t="s">
+      <c r="D2" s="39"/>
+      <c r="E2" s="36"/>
+      <c r="F2" s="36"/>
+      <c r="G2" s="39" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="33"/>
-      <c r="I2" s="29"/>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34"/>
-      <c r="N2" s="34"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-    </row>
-    <row r="3" spans="1:24" s="10" customFormat="1" ht="21">
+      <c r="H2" s="40"/>
+      <c r="I2" s="36"/>
+      <c r="J2" s="41"/>
+      <c r="K2" s="41"/>
+      <c r="L2" s="41"/>
+      <c r="M2" s="41"/>
+      <c r="N2" s="41"/>
+      <c r="O2" s="41"/>
+      <c r="P2" s="38"/>
+      <c r="Q2" s="38"/>
+      <c r="R2" s="38"/>
+      <c r="S2" s="38"/>
+      <c r="T2" s="38"/>
+      <c r="U2" s="38"/>
+      <c r="V2" s="38"/>
+      <c r="W2" s="38"/>
+    </row>
+    <row r="3" spans="1:25" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="32" t="s">
+      <c r="C3" s="39" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="32"/>
-      <c r="E3" s="29"/>
-      <c r="F3" s="29"/>
-      <c r="G3" s="32" t="s">
+      <c r="D3" s="39"/>
+      <c r="E3" s="36"/>
+      <c r="F3" s="36"/>
+      <c r="G3" s="39" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="32"/>
-      <c r="I3" s="29"/>
-      <c r="J3" s="29"/>
+      <c r="H3" s="39"/>
+      <c r="I3" s="36"/>
+      <c r="J3" s="36"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
-      <c r="M3" s="12"/>
+      <c r="M3" s="11"/>
       <c r="N3" s="12"/>
       <c r="O3" s="12"/>
       <c r="P3" s="12"/>
@@ -1702,8 +1780,9 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
-    </row>
-    <row r="4" spans="1:24" ht="152.25">
+      <c r="W3" s="12"/>
+    </row>
+    <row r="4" spans="1:25" ht="162.75">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -1737,1084 +1816,1257 @@
       <c r="K4" s="7" t="s">
         <v>16</v>
       </c>
-      <c r="L4" s="6" t="s">
+      <c r="L4" s="55" t="s">
+        <v>100</v>
+      </c>
+      <c r="M4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="M4" s="6" t="s">
+      <c r="N4" s="6" t="s">
         <v>17</v>
       </c>
-      <c r="N4" s="6" t="s">
+      <c r="O4" s="6" t="s">
         <v>73</v>
       </c>
-      <c r="O4" s="7" t="s">
+      <c r="P4" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="P4" s="7" t="s">
+      <c r="Q4" s="7" t="s">
         <v>20</v>
       </c>
-      <c r="Q4" s="5" t="s">
+      <c r="R4" s="5" t="s">
         <v>18</v>
       </c>
-      <c r="R4" s="5" t="s">
+      <c r="S4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="S4" s="5" t="s">
+      <c r="T4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="T4" s="7" t="s">
+      <c r="U4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="X4" s="6" t="s">
+      <c r="Y4" s="6" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="5" spans="1:24" s="19" customFormat="1" ht="60.95" customHeight="1">
-      <c r="A5" s="40" t="s">
+    <row r="5" spans="1:25" s="19" customFormat="1" ht="60.95" customHeight="1">
+      <c r="A5" s="44" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="40" t="s">
+      <c r="B5" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="21" t="s">
-        <v>36</v>
-      </c>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
-      <c r="K5" s="22"/>
-      <c r="L5" s="17" t="s">
+      <c r="C5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="15" t="s">
+        <v>36</v>
+      </c>
+      <c r="G5" s="17"/>
+      <c r="H5" s="21"/>
+      <c r="I5" s="21"/>
+      <c r="J5" s="21"/>
+      <c r="K5" s="21"/>
+      <c r="L5" s="21"/>
+      <c r="M5" s="17" t="s">
         <v>45</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="N5" s="17" t="s">
         <v>74</v>
       </c>
-      <c r="N5" s="17" t="s">
+      <c r="O5" s="17" t="s">
         <v>92</v>
       </c>
-      <c r="O5" s="16">
-        <v>0.01</v>
-      </c>
-      <c r="P5" s="15" t="s">
-        <v>58</v>
+      <c r="P5" s="16">
+        <v>0.05</v>
       </c>
       <c r="Q5" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="R5" s="15" t="s">
         <v>75</v>
       </c>
-      <c r="R5" s="15"/>
       <c r="S5" s="15"/>
       <c r="T5" s="15"/>
       <c r="U5" s="15"/>
       <c r="V5" s="15"/>
-      <c r="X5" s="17" t="s">
+      <c r="W5" s="15"/>
+      <c r="Y5" s="17" t="s">
         <v>78</v>
       </c>
     </row>
-    <row r="6" spans="1:24" s="19" customFormat="1" ht="60.95" customHeight="1">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="D6" s="44"/>
-      <c r="E6" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="F6" s="44" t="s">
-        <v>36</v>
-      </c>
-      <c r="G6" s="44"/>
+    <row r="6" spans="1:25" s="19" customFormat="1" ht="60.95" customHeight="1">
+      <c r="A6" s="45"/>
+      <c r="B6" s="45"/>
+      <c r="C6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="D6" s="45"/>
+      <c r="E6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="F6" s="45" t="s">
+        <v>36</v>
+      </c>
+      <c r="G6" s="45"/>
       <c r="H6" s="44" t="s">
         <v>36</v>
       </c>
       <c r="I6" s="44"/>
       <c r="J6" s="44"/>
       <c r="K6" s="44"/>
-      <c r="L6" s="40" t="s">
+      <c r="L6" s="27"/>
+      <c r="M6" s="44" t="s">
         <v>53</v>
       </c>
-      <c r="M6" s="45" t="s">
+      <c r="N6" s="49" t="s">
         <v>76</v>
       </c>
-      <c r="N6" s="17" t="s">
+      <c r="O6" s="17" t="s">
         <v>79</v>
       </c>
-      <c r="O6" s="16">
+      <c r="P6" s="16">
         <v>0.18</v>
       </c>
-      <c r="P6" s="15" t="s">
+      <c r="Q6" s="15" t="s">
         <v>58</v>
       </c>
-      <c r="Q6" s="15" t="s">
+      <c r="R6" s="15" t="s">
         <v>70</v>
       </c>
-      <c r="R6" s="15"/>
       <c r="S6" s="15"/>
       <c r="T6" s="15"/>
       <c r="U6" s="15"/>
       <c r="V6" s="15"/>
-      <c r="X6" s="17" t="s">
+      <c r="W6" s="15"/>
+      <c r="Y6" s="17" t="s">
         <v>77</v>
       </c>
     </row>
-    <row r="7" spans="1:24" s="19" customFormat="1" ht="60" customHeight="1">
-      <c r="A7" s="41"/>
-      <c r="B7" s="41"/>
-      <c r="C7" s="41"/>
-      <c r="D7" s="41"/>
-      <c r="E7" s="41"/>
-      <c r="F7" s="41"/>
-      <c r="G7" s="41"/>
-      <c r="H7" s="41"/>
-      <c r="I7" s="41"/>
-      <c r="J7" s="41"/>
-      <c r="K7" s="41"/>
-      <c r="L7" s="41"/>
+    <row r="7" spans="1:25" s="19" customFormat="1" ht="60" customHeight="1">
+      <c r="A7" s="46"/>
+      <c r="B7" s="46"/>
+      <c r="C7" s="46"/>
+      <c r="D7" s="46"/>
+      <c r="E7" s="46"/>
+      <c r="F7" s="46"/>
+      <c r="G7" s="46"/>
+      <c r="H7" s="46"/>
+      <c r="I7" s="46"/>
+      <c r="J7" s="46"/>
+      <c r="K7" s="46"/>
+      <c r="L7" s="28"/>
       <c r="M7" s="46"/>
-      <c r="N7" s="17" t="s">
+      <c r="N7" s="50"/>
+      <c r="O7" s="17" t="s">
         <v>40</v>
       </c>
-      <c r="O7" s="16">
+      <c r="P7" s="16">
         <v>0.12</v>
       </c>
-      <c r="P7" s="15" t="s">
+      <c r="Q7" s="15" t="s">
         <v>59</v>
       </c>
-      <c r="Q7" s="15" t="s">
+      <c r="R7" s="15" t="s">
         <v>71</v>
       </c>
-      <c r="R7" s="15"/>
       <c r="S7" s="15"/>
       <c r="T7" s="15"/>
       <c r="U7" s="15"/>
       <c r="V7" s="15"/>
-      <c r="X7" s="17" t="s">
+      <c r="W7" s="15"/>
+      <c r="Y7" s="17" t="s">
         <v>91</v>
       </c>
     </row>
-    <row r="8" spans="1:24" s="19" customFormat="1" ht="39" customHeight="1">
-      <c r="A8" s="40" t="s">
+    <row r="8" spans="1:25" s="19" customFormat="1" ht="39" customHeight="1">
+      <c r="A8" s="44" t="s">
         <v>42</v>
       </c>
-      <c r="B8" s="48" t="s">
+      <c r="B8" s="52" t="s">
         <v>48</v>
       </c>
-      <c r="C8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="40"/>
-      <c r="F8" s="40"/>
-      <c r="G8" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="40"/>
-      <c r="I8" s="40"/>
-      <c r="J8" s="40"/>
-      <c r="K8" s="40"/>
-      <c r="L8" s="40" t="s">
+      <c r="C8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="44"/>
+      <c r="F8" s="44"/>
+      <c r="G8" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="44"/>
+      <c r="I8" s="44"/>
+      <c r="J8" s="44"/>
+      <c r="K8" s="44"/>
+      <c r="L8" s="27"/>
+      <c r="M8" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="M8" s="47" t="s">
+      <c r="N8" s="51" t="s">
         <v>90</v>
       </c>
-      <c r="N8" s="17" t="s">
+      <c r="O8" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O8" s="16">
+      <c r="P8" s="16">
         <v>0.12</v>
       </c>
-      <c r="P8" s="15" t="s">
+      <c r="Q8" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q8" s="15"/>
       <c r="R8" s="15"/>
       <c r="S8" s="15"/>
       <c r="T8" s="15"/>
       <c r="U8" s="15"/>
       <c r="V8" s="15"/>
-      <c r="X8" s="26"/>
-    </row>
-    <row r="9" spans="1:24" s="19" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A9" s="41"/>
-      <c r="B9" s="49"/>
-      <c r="C9" s="41"/>
-      <c r="D9" s="41"/>
-      <c r="E9" s="41"/>
-      <c r="F9" s="41"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
-      <c r="L9" s="41"/>
-      <c r="M9" s="43"/>
-      <c r="N9" s="17" t="s">
+      <c r="W8" s="15"/>
+      <c r="Y8" s="25"/>
+    </row>
+    <row r="9" spans="1:25" s="19" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A9" s="46"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="46"/>
+      <c r="D9" s="46"/>
+      <c r="E9" s="46"/>
+      <c r="F9" s="46"/>
+      <c r="G9" s="46"/>
+      <c r="H9" s="46"/>
+      <c r="I9" s="46"/>
+      <c r="J9" s="46"/>
+      <c r="K9" s="46"/>
+      <c r="L9" s="28"/>
+      <c r="M9" s="46"/>
+      <c r="N9" s="48"/>
+      <c r="O9" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O9" s="16">
+      <c r="P9" s="16">
         <v>0.12</v>
       </c>
-      <c r="P9" s="15" t="s">
+      <c r="Q9" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="Q9" s="15" t="s">
+      <c r="R9" s="15" t="s">
         <v>72</v>
       </c>
-      <c r="R9" s="15"/>
       <c r="S9" s="15"/>
       <c r="T9" s="15"/>
       <c r="U9" s="15"/>
       <c r="V9" s="15"/>
-    </row>
-    <row r="10" spans="1:24" s="19" customFormat="1" ht="39.75" customHeight="1">
-      <c r="A10" s="40" t="s">
+      <c r="W9" s="15"/>
+    </row>
+    <row r="10" spans="1:25" s="19" customFormat="1" ht="39.75" customHeight="1">
+      <c r="A10" s="44" t="s">
         <v>30</v>
       </c>
-      <c r="B10" s="40" t="s">
+      <c r="B10" s="44" t="s">
         <v>49</v>
       </c>
-      <c r="C10" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="40"/>
-      <c r="F10" s="40"/>
-      <c r="G10" s="40"/>
-      <c r="H10" s="40"/>
-      <c r="I10" s="40"/>
-      <c r="J10" s="40"/>
-      <c r="K10" s="40"/>
-      <c r="L10" s="40" t="s">
+      <c r="C10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="44"/>
+      <c r="F10" s="44"/>
+      <c r="G10" s="44"/>
+      <c r="H10" s="44"/>
+      <c r="I10" s="44"/>
+      <c r="J10" s="44"/>
+      <c r="K10" s="44"/>
+      <c r="L10" s="27"/>
+      <c r="M10" s="44" t="s">
         <v>46</v>
       </c>
-      <c r="M10" s="42" t="s">
+      <c r="N10" s="47" t="s">
         <v>89</v>
       </c>
-      <c r="N10" s="17" t="s">
+      <c r="O10" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O10" s="16">
+      <c r="P10" s="16">
         <v>0.15</v>
       </c>
-      <c r="P10" s="15" t="s">
+      <c r="Q10" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q10" s="15"/>
       <c r="R10" s="15"/>
       <c r="S10" s="15"/>
       <c r="T10" s="15"/>
       <c r="U10" s="15"/>
       <c r="V10" s="15"/>
-    </row>
-    <row r="11" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A11" s="41"/>
-      <c r="B11" s="41"/>
-      <c r="C11" s="41"/>
-      <c r="D11" s="41"/>
-      <c r="E11" s="41"/>
-      <c r="F11" s="41"/>
-      <c r="G11" s="41"/>
-      <c r="H11" s="41"/>
-      <c r="I11" s="41"/>
-      <c r="J11" s="41"/>
-      <c r="K11" s="41"/>
-      <c r="L11" s="41"/>
-      <c r="M11" s="43"/>
-      <c r="N11" s="17" t="s">
+      <c r="W10" s="15"/>
+    </row>
+    <row r="11" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A11" s="46"/>
+      <c r="B11" s="46"/>
+      <c r="C11" s="46"/>
+      <c r="D11" s="46"/>
+      <c r="E11" s="46"/>
+      <c r="F11" s="46"/>
+      <c r="G11" s="46"/>
+      <c r="H11" s="46"/>
+      <c r="I11" s="46"/>
+      <c r="J11" s="46"/>
+      <c r="K11" s="46"/>
+      <c r="L11" s="28"/>
+      <c r="M11" s="46"/>
+      <c r="N11" s="48"/>
+      <c r="O11" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O11" s="16">
+      <c r="P11" s="16">
         <v>0.15</v>
       </c>
-      <c r="P11" s="15" t="s">
+      <c r="Q11" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="Q11" s="15"/>
       <c r="R11" s="15"/>
       <c r="S11" s="15"/>
       <c r="T11" s="15"/>
       <c r="U11" s="15"/>
       <c r="V11" s="15"/>
-      <c r="X11" s="19"/>
-    </row>
-    <row r="12" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A12" s="40" t="s">
+      <c r="W11" s="15"/>
+      <c r="Y11" s="19"/>
+    </row>
+    <row r="12" spans="1:25" s="18" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A12" s="44" t="s">
         <v>31</v>
       </c>
-      <c r="B12" s="40" t="s">
+      <c r="B12" s="44" t="s">
         <v>39</v>
       </c>
-      <c r="C12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="40"/>
-      <c r="F12" s="40"/>
-      <c r="G12" s="40"/>
-      <c r="H12" s="40"/>
-      <c r="I12" s="40"/>
-      <c r="J12" s="40"/>
-      <c r="K12" s="40"/>
-      <c r="L12" s="40" t="s">
+      <c r="C12" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="44"/>
+      <c r="F12" s="44"/>
+      <c r="G12" s="44"/>
+      <c r="H12" s="44"/>
+      <c r="I12" s="44"/>
+      <c r="J12" s="44"/>
+      <c r="K12" s="44"/>
+      <c r="L12" s="27"/>
+      <c r="M12" s="44" t="s">
         <v>54</v>
       </c>
-      <c r="M12" s="42" t="s">
+      <c r="N12" s="47" t="s">
         <v>88</v>
       </c>
-      <c r="N12" s="17" t="s">
+      <c r="O12" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O12" s="16">
+      <c r="P12" s="16">
         <v>0.15</v>
       </c>
-      <c r="P12" s="15" t="s">
+      <c r="Q12" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q12" s="15"/>
       <c r="R12" s="15"/>
       <c r="S12" s="15"/>
       <c r="T12" s="15"/>
       <c r="U12" s="15"/>
       <c r="V12" s="15"/>
-      <c r="X12" s="19"/>
-    </row>
-    <row r="13" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A13" s="41"/>
-      <c r="B13" s="41"/>
-      <c r="C13" s="41"/>
-      <c r="D13" s="41"/>
-      <c r="E13" s="41"/>
-      <c r="F13" s="41"/>
-      <c r="G13" s="41"/>
-      <c r="H13" s="41"/>
-      <c r="I13" s="41"/>
-      <c r="J13" s="41"/>
-      <c r="K13" s="41"/>
-      <c r="L13" s="41"/>
-      <c r="M13" s="43"/>
-      <c r="N13" s="17" t="s">
+      <c r="W12" s="15"/>
+      <c r="Y12" s="19"/>
+    </row>
+    <row r="13" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A13" s="46"/>
+      <c r="B13" s="46"/>
+      <c r="C13" s="46"/>
+      <c r="D13" s="46"/>
+      <c r="E13" s="46"/>
+      <c r="F13" s="46"/>
+      <c r="G13" s="46"/>
+      <c r="H13" s="46"/>
+      <c r="I13" s="46"/>
+      <c r="J13" s="46"/>
+      <c r="K13" s="46"/>
+      <c r="L13" s="28"/>
+      <c r="M13" s="46"/>
+      <c r="N13" s="48"/>
+      <c r="O13" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O13" s="16">
+      <c r="P13" s="16">
         <v>0.15</v>
       </c>
-      <c r="P13" s="15" t="s">
+      <c r="Q13" s="15" t="s">
         <v>62</v>
       </c>
-      <c r="Q13" s="15"/>
       <c r="R13" s="15"/>
       <c r="S13" s="15"/>
       <c r="T13" s="15"/>
       <c r="U13" s="15"/>
       <c r="V13" s="15"/>
-      <c r="X13" s="19"/>
-    </row>
-    <row r="14" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A14" s="40" t="s">
+      <c r="W13" s="15"/>
+      <c r="Y13" s="19"/>
+    </row>
+    <row r="14" spans="1:25" s="18" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A14" s="44" t="s">
         <v>32</v>
       </c>
-      <c r="B14" s="40" t="s">
+      <c r="B14" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C14" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D14" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E14" s="40"/>
-      <c r="F14" s="40"/>
-      <c r="G14" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H14" s="40"/>
-      <c r="I14" s="40"/>
-      <c r="J14" s="40"/>
-      <c r="K14" s="40"/>
-      <c r="L14" s="40" t="s">
+      <c r="C14" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D14" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E14" s="44"/>
+      <c r="F14" s="44"/>
+      <c r="G14" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="44"/>
+      <c r="I14" s="44"/>
+      <c r="J14" s="44"/>
+      <c r="K14" s="44"/>
+      <c r="L14" s="27"/>
+      <c r="M14" s="44" t="s">
         <v>45</v>
       </c>
-      <c r="M14" s="42" t="s">
+      <c r="N14" s="47" t="s">
         <v>87</v>
       </c>
-      <c r="N14" s="17" t="s">
+      <c r="O14" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O14" s="16">
+      <c r="P14" s="16">
         <v>0.15</v>
       </c>
-      <c r="P14" s="15" t="s">
+      <c r="Q14" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q14" s="15"/>
       <c r="R14" s="15"/>
       <c r="S14" s="15"/>
       <c r="T14" s="15"/>
       <c r="U14" s="15"/>
       <c r="V14" s="15"/>
-      <c r="X14" s="3"/>
-    </row>
-    <row r="15" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A15" s="44"/>
-      <c r="B15" s="44"/>
-      <c r="C15" s="41"/>
-      <c r="D15" s="41"/>
-      <c r="E15" s="41"/>
-      <c r="F15" s="41"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
-      <c r="L15" s="41"/>
-      <c r="M15" s="43"/>
-      <c r="N15" s="17" t="s">
+      <c r="W14" s="15"/>
+      <c r="Y14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A15" s="45"/>
+      <c r="B15" s="45"/>
+      <c r="C15" s="46"/>
+      <c r="D15" s="46"/>
+      <c r="E15" s="46"/>
+      <c r="F15" s="46"/>
+      <c r="G15" s="46"/>
+      <c r="H15" s="46"/>
+      <c r="I15" s="46"/>
+      <c r="J15" s="46"/>
+      <c r="K15" s="46"/>
+      <c r="L15" s="28"/>
+      <c r="M15" s="46"/>
+      <c r="N15" s="48"/>
+      <c r="O15" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O15" s="16">
+      <c r="P15" s="16">
         <v>0.15</v>
       </c>
-      <c r="P15" s="15" t="s">
+      <c r="Q15" s="15" t="s">
         <v>63</v>
       </c>
-      <c r="Q15" s="15"/>
       <c r="R15" s="15"/>
       <c r="S15" s="15"/>
       <c r="T15" s="15"/>
       <c r="U15" s="15"/>
       <c r="V15" s="15"/>
-      <c r="X15" s="20"/>
-    </row>
-    <row r="16" spans="1:24" s="18" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A16" s="40" t="s">
+      <c r="W15" s="15"/>
+      <c r="Y15" s="20"/>
+    </row>
+    <row r="16" spans="1:25" s="18" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A16" s="44" t="s">
         <v>80</v>
       </c>
-      <c r="B16" s="40" t="s">
+      <c r="B16" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="C16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E16" s="40"/>
-      <c r="F16" s="40"/>
-      <c r="G16" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H16" s="40"/>
-      <c r="I16" s="40"/>
-      <c r="J16" s="40"/>
-      <c r="K16" s="40"/>
-      <c r="L16" s="40" t="s">
+      <c r="C16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E16" s="44"/>
+      <c r="F16" s="44"/>
+      <c r="G16" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H16" s="44"/>
+      <c r="I16" s="44"/>
+      <c r="J16" s="44"/>
+      <c r="K16" s="44"/>
+      <c r="L16" s="27"/>
+      <c r="M16" s="44" t="s">
         <v>57</v>
       </c>
-      <c r="M16" s="42" t="s">
+      <c r="N16" s="47" t="s">
         <v>86</v>
       </c>
-      <c r="N16" s="17" t="s">
+      <c r="O16" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O16" s="16">
+      <c r="P16" s="16">
         <v>0.15</v>
       </c>
-      <c r="P16" s="15" t="s">
+      <c r="Q16" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Q16" s="15"/>
       <c r="R16" s="15"/>
       <c r="S16" s="15"/>
       <c r="T16" s="15"/>
       <c r="U16" s="15"/>
       <c r="V16" s="15"/>
-      <c r="X16" s="3"/>
-    </row>
-    <row r="17" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A17" s="41"/>
-      <c r="B17" s="41"/>
-      <c r="C17" s="41"/>
-      <c r="D17" s="41"/>
-      <c r="E17" s="41"/>
-      <c r="F17" s="41"/>
-      <c r="G17" s="41"/>
-      <c r="H17" s="41"/>
-      <c r="I17" s="41"/>
-      <c r="J17" s="41"/>
-      <c r="K17" s="41"/>
-      <c r="L17" s="41"/>
-      <c r="M17" s="43"/>
-      <c r="N17" s="17" t="s">
+      <c r="W16" s="15"/>
+      <c r="Y16" s="3"/>
+    </row>
+    <row r="17" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A17" s="46"/>
+      <c r="B17" s="46"/>
+      <c r="C17" s="46"/>
+      <c r="D17" s="46"/>
+      <c r="E17" s="46"/>
+      <c r="F17" s="46"/>
+      <c r="G17" s="46"/>
+      <c r="H17" s="46"/>
+      <c r="I17" s="46"/>
+      <c r="J17" s="46"/>
+      <c r="K17" s="46"/>
+      <c r="L17" s="28"/>
+      <c r="M17" s="46"/>
+      <c r="N17" s="48"/>
+      <c r="O17" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O17" s="16">
+      <c r="P17" s="16">
         <v>0.15</v>
       </c>
-      <c r="P17" s="15" t="s">
+      <c r="Q17" s="15" t="s">
         <v>64</v>
       </c>
-      <c r="Q17" s="15"/>
       <c r="R17" s="15"/>
       <c r="S17" s="15"/>
       <c r="T17" s="15"/>
       <c r="U17" s="15"/>
       <c r="V17" s="15"/>
-    </row>
-    <row r="18" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A18" s="40" t="s">
+      <c r="W17" s="15"/>
+    </row>
+    <row r="18" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A18" s="44" t="s">
         <v>33</v>
       </c>
-      <c r="B18" s="40" t="s">
+      <c r="B18" s="44" t="s">
         <v>47</v>
       </c>
-      <c r="C18" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D18" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E18" s="40"/>
-      <c r="F18" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G18" s="40"/>
-      <c r="H18" s="40"/>
-      <c r="I18" s="40"/>
-      <c r="J18" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K18" s="40"/>
-      <c r="L18" s="40" t="s">
+      <c r="C18" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D18" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E18" s="44"/>
+      <c r="F18" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G18" s="44"/>
+      <c r="H18" s="44"/>
+      <c r="I18" s="44"/>
+      <c r="J18" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K18" s="44"/>
+      <c r="L18" s="27"/>
+      <c r="M18" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="M18" s="42" t="s">
+      <c r="N18" s="47" t="s">
         <v>85</v>
       </c>
-      <c r="N18" s="17" t="s">
+      <c r="O18" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O18" s="16">
+      <c r="P18" s="16">
         <v>0.21</v>
       </c>
-      <c r="P18" s="15" t="s">
+      <c r="Q18" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q18" s="15"/>
       <c r="R18" s="15"/>
       <c r="S18" s="15"/>
       <c r="T18" s="15"/>
       <c r="U18" s="15"/>
       <c r="V18" s="15"/>
-      <c r="X18" s="20"/>
-    </row>
-    <row r="19" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="41"/>
-      <c r="D19" s="41"/>
-      <c r="E19" s="41"/>
-      <c r="F19" s="41"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
-      <c r="L19" s="41"/>
-      <c r="M19" s="43"/>
-      <c r="N19" s="17" t="s">
+      <c r="W18" s="15"/>
+      <c r="Y18" s="20"/>
+    </row>
+    <row r="19" spans="1:25" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A19" s="45"/>
+      <c r="B19" s="45"/>
+      <c r="C19" s="46"/>
+      <c r="D19" s="46"/>
+      <c r="E19" s="46"/>
+      <c r="F19" s="46"/>
+      <c r="G19" s="46"/>
+      <c r="H19" s="46"/>
+      <c r="I19" s="46"/>
+      <c r="J19" s="46"/>
+      <c r="K19" s="46"/>
+      <c r="L19" s="28"/>
+      <c r="M19" s="46"/>
+      <c r="N19" s="48"/>
+      <c r="O19" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O19" s="16">
+      <c r="P19" s="16">
         <v>0.21</v>
       </c>
-      <c r="P19" s="15" t="s">
+      <c r="Q19" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q19" s="15"/>
       <c r="R19" s="15"/>
       <c r="S19" s="15"/>
       <c r="T19" s="15"/>
       <c r="U19" s="15"/>
       <c r="V19" s="15"/>
-      <c r="X19" s="3"/>
-    </row>
-    <row r="20" spans="1:24" s="23" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A20" s="41"/>
-      <c r="B20" s="41"/>
-      <c r="C20" s="24"/>
-      <c r="D20" s="24"/>
-      <c r="E20" s="24"/>
-      <c r="F20" s="24"/>
-      <c r="G20" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="H20" s="24"/>
-      <c r="I20" s="24"/>
-      <c r="J20" s="24"/>
-      <c r="K20" s="24"/>
-      <c r="L20" s="24" t="s">
+      <c r="W19" s="15"/>
+      <c r="Y19" s="3"/>
+    </row>
+    <row r="20" spans="1:25" s="22" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A20" s="46"/>
+      <c r="B20" s="46"/>
+      <c r="C20" s="23"/>
+      <c r="D20" s="23"/>
+      <c r="E20" s="23"/>
+      <c r="F20" s="23"/>
+      <c r="G20" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="H20" s="23"/>
+      <c r="I20" s="23"/>
+      <c r="J20" s="23"/>
+      <c r="K20" s="23"/>
+      <c r="L20" s="30"/>
+      <c r="M20" s="23" t="s">
         <v>45</v>
       </c>
-      <c r="M20" s="25" t="s">
+      <c r="N20" s="24" t="s">
         <v>94</v>
       </c>
-      <c r="N20" s="17" t="s">
+      <c r="O20" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="O20" s="16">
+      <c r="P20" s="16">
         <v>0.05</v>
       </c>
-      <c r="P20" s="15" t="s">
+      <c r="Q20" s="15" t="s">
         <v>95</v>
       </c>
-      <c r="Q20" s="15"/>
       <c r="R20" s="15"/>
       <c r="S20" s="15"/>
       <c r="T20" s="15"/>
       <c r="U20" s="15"/>
       <c r="V20" s="15"/>
-    </row>
-    <row r="21" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A21" s="40" t="s">
+      <c r="W20" s="15"/>
+    </row>
+    <row r="21" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A21" s="44" t="s">
         <v>34</v>
       </c>
-      <c r="B21" s="40" t="s">
+      <c r="B21" s="44" t="s">
         <v>51</v>
       </c>
-      <c r="C21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E21" s="40"/>
-      <c r="F21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="G21" s="40"/>
-      <c r="H21" s="40"/>
-      <c r="I21" s="40"/>
-      <c r="J21" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="K21" s="40"/>
-      <c r="L21" s="40" t="s">
+      <c r="C21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E21" s="44"/>
+      <c r="F21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="G21" s="44"/>
+      <c r="H21" s="44"/>
+      <c r="I21" s="44"/>
+      <c r="J21" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="K21" s="44"/>
+      <c r="L21" s="27"/>
+      <c r="M21" s="44" t="s">
         <v>50</v>
       </c>
-      <c r="M21" s="42" t="s">
+      <c r="N21" s="47" t="s">
         <v>84</v>
       </c>
-      <c r="N21" s="17" t="s">
+      <c r="O21" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O21" s="16">
+      <c r="P21" s="16">
         <v>0.21</v>
       </c>
-      <c r="P21" s="15" t="s">
+      <c r="Q21" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q21" s="15"/>
       <c r="R21" s="15"/>
       <c r="S21" s="15"/>
       <c r="T21" s="15"/>
       <c r="U21" s="15"/>
       <c r="V21" s="15"/>
-      <c r="X21" s="20"/>
-    </row>
-    <row r="22" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A22" s="44"/>
-      <c r="B22" s="44"/>
-      <c r="C22" s="41"/>
-      <c r="D22" s="41"/>
-      <c r="E22" s="41"/>
-      <c r="F22" s="41"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
-      <c r="L22" s="41"/>
-      <c r="M22" s="43"/>
-      <c r="N22" s="17" t="s">
+      <c r="W21" s="15"/>
+      <c r="Y21" s="20"/>
+    </row>
+    <row r="22" spans="1:25" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A22" s="45"/>
+      <c r="B22" s="45"/>
+      <c r="C22" s="46"/>
+      <c r="D22" s="46"/>
+      <c r="E22" s="46"/>
+      <c r="F22" s="46"/>
+      <c r="G22" s="46"/>
+      <c r="H22" s="46"/>
+      <c r="I22" s="46"/>
+      <c r="J22" s="46"/>
+      <c r="K22" s="46"/>
+      <c r="L22" s="28"/>
+      <c r="M22" s="46"/>
+      <c r="N22" s="48"/>
+      <c r="O22" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O22" s="16">
+      <c r="P22" s="16">
         <v>0.21</v>
       </c>
-      <c r="P22" s="15" t="s">
+      <c r="Q22" s="15" t="s">
         <v>65</v>
       </c>
-      <c r="Q22" s="15"/>
       <c r="R22" s="15"/>
       <c r="S22" s="15"/>
       <c r="T22" s="15"/>
       <c r="U22" s="15"/>
       <c r="V22" s="15"/>
-      <c r="X22" s="3"/>
-    </row>
-    <row r="23" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="40"/>
-      <c r="D23" s="40"/>
-      <c r="E23" s="40"/>
-      <c r="F23" s="40"/>
-      <c r="G23" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H23" s="40"/>
-      <c r="I23" s="40"/>
-      <c r="J23" s="40"/>
-      <c r="K23" s="40"/>
-      <c r="L23" s="40" t="s">
+      <c r="W22" s="15"/>
+      <c r="Y22" s="3"/>
+    </row>
+    <row r="23" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A23" s="45"/>
+      <c r="B23" s="45"/>
+      <c r="C23" s="44"/>
+      <c r="D23" s="44"/>
+      <c r="E23" s="44"/>
+      <c r="F23" s="44"/>
+      <c r="G23" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H23" s="44"/>
+      <c r="I23" s="44"/>
+      <c r="J23" s="44"/>
+      <c r="K23" s="44"/>
+      <c r="L23" s="27"/>
+      <c r="M23" s="44" t="s">
         <v>56</v>
       </c>
-      <c r="M23" s="42" t="s">
+      <c r="N23" s="47" t="s">
         <v>83</v>
       </c>
-      <c r="N23" s="17" t="s">
+      <c r="O23" s="17" t="s">
         <v>69</v>
       </c>
-      <c r="O23" s="16">
+      <c r="P23" s="16">
         <v>0.23</v>
       </c>
-      <c r="P23" s="15" t="s">
+      <c r="Q23" s="15" t="s">
         <v>66</v>
       </c>
-      <c r="Q23" s="15"/>
       <c r="R23" s="15"/>
       <c r="S23" s="15"/>
       <c r="T23" s="15"/>
       <c r="U23" s="15"/>
       <c r="V23" s="15"/>
-    </row>
-    <row r="24" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A24" s="44"/>
-      <c r="B24" s="44"/>
-      <c r="C24" s="41"/>
-      <c r="D24" s="41"/>
-      <c r="E24" s="41"/>
-      <c r="F24" s="41"/>
-      <c r="G24" s="41"/>
-      <c r="H24" s="41"/>
-      <c r="I24" s="41"/>
-      <c r="J24" s="41"/>
-      <c r="K24" s="41"/>
-      <c r="L24" s="41"/>
-      <c r="M24" s="43"/>
-      <c r="N24" s="17" t="s">
+      <c r="W23" s="15"/>
+    </row>
+    <row r="24" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A24" s="45"/>
+      <c r="B24" s="45"/>
+      <c r="C24" s="46"/>
+      <c r="D24" s="46"/>
+      <c r="E24" s="46"/>
+      <c r="F24" s="46"/>
+      <c r="G24" s="46"/>
+      <c r="H24" s="46"/>
+      <c r="I24" s="46"/>
+      <c r="J24" s="46"/>
+      <c r="K24" s="46"/>
+      <c r="L24" s="28"/>
+      <c r="M24" s="46"/>
+      <c r="N24" s="48"/>
+      <c r="O24" s="17" t="s">
         <v>44</v>
       </c>
-      <c r="O24" s="16">
+      <c r="P24" s="16">
         <v>0.18</v>
       </c>
-      <c r="P24" s="15" t="s">
+      <c r="Q24" s="15" t="s">
         <v>67</v>
       </c>
-      <c r="Q24" s="15"/>
       <c r="R24" s="15"/>
       <c r="S24" s="15"/>
       <c r="T24" s="15"/>
       <c r="U24" s="15"/>
       <c r="V24" s="15"/>
-    </row>
-    <row r="25" spans="1:24" s="23" customFormat="1" ht="45" customHeight="1">
-      <c r="A25" s="41"/>
-      <c r="B25" s="41"/>
-      <c r="C25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="D25" s="24"/>
-      <c r="E25" s="24"/>
-      <c r="F25" s="24"/>
-      <c r="G25" s="24"/>
-      <c r="H25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="I25" s="24"/>
-      <c r="J25" s="24" t="s">
-        <v>36</v>
-      </c>
-      <c r="K25" s="24"/>
-      <c r="L25" s="24" t="s">
+      <c r="W24" s="15"/>
+    </row>
+    <row r="25" spans="1:25" s="22" customFormat="1" ht="45" customHeight="1">
+      <c r="A25" s="46"/>
+      <c r="B25" s="46"/>
+      <c r="C25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="D25" s="23"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23" t="s">
+        <v>36</v>
+      </c>
+      <c r="K25" s="23"/>
+      <c r="L25" s="30"/>
+      <c r="M25" s="23" t="s">
         <v>51</v>
       </c>
-      <c r="M25" s="25" t="s">
+      <c r="N25" s="24" t="s">
         <v>96</v>
       </c>
-      <c r="N25" s="17" t="s">
+      <c r="O25" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="O25" s="16">
+      <c r="P25" s="16">
         <v>0.75</v>
       </c>
-      <c r="P25" s="15" t="s">
+      <c r="Q25" s="15" t="s">
         <v>97</v>
       </c>
-      <c r="Q25" s="15"/>
       <c r="R25" s="15"/>
       <c r="S25" s="15"/>
       <c r="T25" s="15"/>
       <c r="U25" s="15"/>
       <c r="V25" s="15"/>
-    </row>
-    <row r="26" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A26" s="40" t="s">
+      <c r="W25" s="15"/>
+    </row>
+    <row r="26" spans="1:25" s="20" customFormat="1" ht="40.5" customHeight="1">
+      <c r="A26" s="44" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="40" t="s">
+      <c r="B26" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C26" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D26" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E26" s="40"/>
-      <c r="F26" s="40"/>
-      <c r="G26" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H26" s="40"/>
-      <c r="I26" s="40"/>
-      <c r="J26" s="40"/>
-      <c r="K26" s="40"/>
-      <c r="L26" s="40" t="s">
+      <c r="C26" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D26" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E26" s="44"/>
+      <c r="F26" s="44"/>
+      <c r="G26" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H26" s="44"/>
+      <c r="I26" s="44"/>
+      <c r="J26" s="44"/>
+      <c r="K26" s="44"/>
+      <c r="L26" s="27"/>
+      <c r="M26" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="M26" s="42" t="s">
+      <c r="N26" s="47" t="s">
         <v>82</v>
       </c>
-      <c r="N26" s="17" t="s">
+      <c r="O26" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O26" s="16">
+      <c r="P26" s="16">
         <v>0.15</v>
       </c>
-      <c r="P26" s="15" t="s">
+      <c r="Q26" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q26" s="15"/>
       <c r="R26" s="15"/>
       <c r="S26" s="15"/>
       <c r="T26" s="15"/>
       <c r="U26" s="15"/>
       <c r="V26" s="15"/>
-      <c r="X26" s="3"/>
-    </row>
-    <row r="27" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A27" s="41"/>
-      <c r="B27" s="41"/>
-      <c r="C27" s="41"/>
-      <c r="D27" s="41"/>
-      <c r="E27" s="41"/>
-      <c r="F27" s="41"/>
-      <c r="G27" s="41"/>
-      <c r="H27" s="41"/>
-      <c r="I27" s="41"/>
-      <c r="J27" s="41"/>
-      <c r="K27" s="41"/>
-      <c r="L27" s="41"/>
-      <c r="M27" s="43"/>
-      <c r="N27" s="17" t="s">
+      <c r="W26" s="15"/>
+      <c r="Y26" s="3"/>
+    </row>
+    <row r="27" spans="1:25" ht="40.5" customHeight="1">
+      <c r="A27" s="46"/>
+      <c r="B27" s="46"/>
+      <c r="C27" s="46"/>
+      <c r="D27" s="46"/>
+      <c r="E27" s="46"/>
+      <c r="F27" s="46"/>
+      <c r="G27" s="46"/>
+      <c r="H27" s="46"/>
+      <c r="I27" s="46"/>
+      <c r="J27" s="46"/>
+      <c r="K27" s="46"/>
+      <c r="L27" s="28"/>
+      <c r="M27" s="46"/>
+      <c r="N27" s="48"/>
+      <c r="O27" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O27" s="16">
+      <c r="P27" s="16">
         <v>0.15</v>
       </c>
-      <c r="P27" s="15" t="s">
+      <c r="Q27" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q27" s="15"/>
       <c r="R27" s="15"/>
       <c r="S27" s="15"/>
       <c r="T27" s="15"/>
       <c r="U27" s="15"/>
       <c r="V27" s="15"/>
-    </row>
-    <row r="28" spans="1:24" s="20" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A28" s="40" t="s">
+      <c r="W27" s="15"/>
+    </row>
+    <row r="28" spans="1:25" s="20" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A28" s="44" t="s">
         <v>37</v>
       </c>
-      <c r="B28" s="40" t="s">
+      <c r="B28" s="44" t="s">
         <v>52</v>
       </c>
-      <c r="C28" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="D28" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="E28" s="40"/>
-      <c r="F28" s="40"/>
-      <c r="G28" s="40" t="s">
-        <v>36</v>
-      </c>
-      <c r="H28" s="40"/>
-      <c r="I28" s="40"/>
-      <c r="J28" s="40"/>
-      <c r="K28" s="40"/>
-      <c r="L28" s="40" t="s">
+      <c r="C28" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D28" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E28" s="44"/>
+      <c r="F28" s="44"/>
+      <c r="G28" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="H28" s="44"/>
+      <c r="I28" s="44"/>
+      <c r="J28" s="44"/>
+      <c r="K28" s="44"/>
+      <c r="L28" s="27"/>
+      <c r="M28" s="44" t="s">
         <v>55</v>
       </c>
-      <c r="M28" s="42" t="s">
+      <c r="N28" s="47" t="s">
         <v>81</v>
       </c>
-      <c r="N28" s="17" t="s">
+      <c r="O28" s="17" t="s">
         <v>43</v>
       </c>
-      <c r="O28" s="16">
+      <c r="P28" s="16">
         <v>0.15</v>
       </c>
-      <c r="P28" s="15" t="s">
+      <c r="Q28" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q28" s="15"/>
       <c r="R28" s="15"/>
       <c r="S28" s="15"/>
       <c r="T28" s="15"/>
       <c r="U28" s="15"/>
       <c r="V28" s="15"/>
-      <c r="X28" s="3"/>
-    </row>
-    <row r="29" spans="1:24" ht="40.5" customHeight="1">
-      <c r="A29" s="41"/>
-      <c r="B29" s="41"/>
-      <c r="C29" s="41"/>
-      <c r="D29" s="41"/>
-      <c r="E29" s="41"/>
-      <c r="F29" s="41"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
-      <c r="L29" s="41"/>
-      <c r="M29" s="43"/>
-      <c r="N29" s="17" t="s">
+      <c r="W28" s="15"/>
+      <c r="Y28" s="3"/>
+    </row>
+    <row r="29" spans="1:25" ht="41.25" customHeight="1">
+      <c r="A29" s="46"/>
+      <c r="B29" s="46"/>
+      <c r="C29" s="46"/>
+      <c r="D29" s="46"/>
+      <c r="E29" s="46"/>
+      <c r="F29" s="46"/>
+      <c r="G29" s="46"/>
+      <c r="H29" s="46"/>
+      <c r="I29" s="46"/>
+      <c r="J29" s="46"/>
+      <c r="K29" s="46"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="46"/>
+      <c r="N29" s="48"/>
+      <c r="O29" s="17" t="s">
         <v>41</v>
       </c>
-      <c r="O29" s="16">
+      <c r="P29" s="16">
         <v>0.15</v>
       </c>
-      <c r="P29" s="15" t="s">
+      <c r="Q29" s="15" t="s">
         <v>68</v>
       </c>
-      <c r="Q29" s="15"/>
       <c r="R29" s="15"/>
       <c r="S29" s="15"/>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
-    </row>
-    <row r="30" spans="1:24" s="23" customFormat="1" ht="40.5" customHeight="1">
-      <c r="A30" s="50" t="s">
+      <c r="W29" s="15"/>
+    </row>
+    <row r="30" spans="1:25" s="26" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A30" s="56" t="s">
         <v>98</v>
       </c>
-      <c r="B30" s="50"/>
-      <c r="C30" s="50"/>
-      <c r="D30" s="50"/>
-      <c r="E30" s="50"/>
-      <c r="F30" s="50"/>
-      <c r="G30" s="50"/>
-      <c r="H30" s="50"/>
-      <c r="I30" s="50"/>
-      <c r="J30" s="50"/>
-      <c r="K30" s="50"/>
-      <c r="L30" s="50"/>
-      <c r="M30" s="51"/>
-      <c r="N30" s="17"/>
-      <c r="O30" s="16"/>
-      <c r="P30" s="15"/>
+      <c r="B30" s="44" t="s">
+        <v>99</v>
+      </c>
+      <c r="C30" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="D30" s="44" t="s">
+        <v>36</v>
+      </c>
+      <c r="E30" s="44"/>
+      <c r="F30" s="44"/>
+      <c r="G30" s="44"/>
+      <c r="H30" s="44"/>
+      <c r="I30" s="44"/>
+      <c r="J30" s="44"/>
+      <c r="K30" s="44"/>
+      <c r="L30" s="44"/>
+      <c r="M30" s="44" t="s">
+        <v>55</v>
+      </c>
+      <c r="N30" s="47" t="s">
+        <v>101</v>
+      </c>
+      <c r="O30" s="17" t="s">
+        <v>43</v>
+      </c>
+      <c r="P30" s="16">
+        <v>0.1</v>
+      </c>
       <c r="Q30" s="15"/>
       <c r="R30" s="15"/>
       <c r="S30" s="15"/>
       <c r="T30" s="15"/>
       <c r="U30" s="15"/>
       <c r="V30" s="15"/>
-    </row>
-    <row r="31" spans="1:24" ht="35.25" customHeight="1"/>
-    <row r="33" spans="12:12" ht="65.25" customHeight="1"/>
-    <row r="34" spans="12:12" ht="65.25" customHeight="1"/>
-    <row r="35" spans="12:12" ht="65.25" customHeight="1"/>
-    <row r="36" spans="12:12" ht="65.25" customHeight="1">
-      <c r="L36" s="3"/>
-    </row>
-    <row r="37" spans="12:12" ht="65.25" customHeight="1">
-      <c r="L37" s="3"/>
-    </row>
-    <row r="38" spans="12:12" ht="65.25" customHeight="1">
-      <c r="L38" s="3"/>
-    </row>
-    <row r="39" spans="12:12" ht="65.25" customHeight="1">
-      <c r="L39" s="3"/>
-    </row>
-    <row r="40" spans="12:12">
-      <c r="L40" s="17"/>
+      <c r="W30" s="15"/>
+    </row>
+    <row r="31" spans="1:25" s="26" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A31" s="57"/>
+      <c r="B31" s="45"/>
+      <c r="C31" s="46"/>
+      <c r="D31" s="45"/>
+      <c r="E31" s="46"/>
+      <c r="F31" s="46"/>
+      <c r="G31" s="45"/>
+      <c r="H31" s="45"/>
+      <c r="I31" s="45"/>
+      <c r="J31" s="46"/>
+      <c r="K31" s="46"/>
+      <c r="L31" s="46"/>
+      <c r="M31" s="46"/>
+      <c r="N31" s="48"/>
+      <c r="O31" s="17" t="s">
+        <v>41</v>
+      </c>
+      <c r="P31" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="Q31" s="15"/>
+      <c r="R31" s="15"/>
+      <c r="S31" s="15"/>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15"/>
+      <c r="V31" s="15"/>
+      <c r="W31" s="15"/>
+    </row>
+    <row r="32" spans="1:25" s="22" customFormat="1" ht="41.25" customHeight="1">
+      <c r="A32" s="57"/>
+      <c r="B32" s="45"/>
+      <c r="C32" s="54"/>
+      <c r="D32" s="54"/>
+      <c r="E32" s="54"/>
+      <c r="F32" s="54"/>
+      <c r="G32" s="54"/>
+      <c r="H32" s="54"/>
+      <c r="I32" s="54"/>
+      <c r="J32" s="54"/>
+      <c r="K32" s="54"/>
+      <c r="L32" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="M32" s="54" t="s">
+        <v>50</v>
+      </c>
+      <c r="N32" s="29" t="s">
+        <v>102</v>
+      </c>
+      <c r="O32" s="17" t="s">
+        <v>103</v>
+      </c>
+      <c r="P32" s="16">
+        <v>0.21</v>
+      </c>
+      <c r="Q32" s="15"/>
+      <c r="R32" s="15"/>
+      <c r="S32" s="15"/>
+      <c r="T32" s="15"/>
+      <c r="U32" s="15"/>
+      <c r="V32" s="15"/>
+      <c r="W32" s="15"/>
+    </row>
+    <row r="33" spans="13:13" ht="35.25" customHeight="1"/>
+    <row r="35" spans="13:13" ht="65.25" customHeight="1"/>
+    <row r="36" spans="13:13" ht="65.25" customHeight="1"/>
+    <row r="37" spans="13:13" ht="65.25" customHeight="1"/>
+    <row r="38" spans="13:13" ht="65.25" customHeight="1">
+      <c r="M38" s="3"/>
+    </row>
+    <row r="39" spans="13:13" ht="65.25" customHeight="1">
+      <c r="M39" s="3"/>
+    </row>
+    <row r="40" spans="13:13" ht="65.25" customHeight="1">
+      <c r="M40" s="3"/>
+    </row>
+    <row r="41" spans="13:13" ht="65.25" customHeight="1">
+      <c r="M41" s="3"/>
+    </row>
+    <row r="42" spans="13:13">
+      <c r="M42" s="17"/>
     </row>
   </sheetData>
-  <sortState ref="Q5:Q6">
-    <sortCondition ref="Q5"/>
+  <sortState ref="R5:R6">
+    <sortCondition ref="R5"/>
   </sortState>
-  <mergeCells count="150">
-    <mergeCell ref="A21:A25"/>
-    <mergeCell ref="B21:B25"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="L16:L17"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="L14:L15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="L12:L13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="J10:J11"/>
+  <mergeCells count="164">
+    <mergeCell ref="J30:J31"/>
+    <mergeCell ref="K30:K31"/>
+    <mergeCell ref="L30:L31"/>
+    <mergeCell ref="M30:M31"/>
+    <mergeCell ref="N30:N31"/>
+    <mergeCell ref="A30:A32"/>
+    <mergeCell ref="B30:B32"/>
+    <mergeCell ref="C30:C31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="F30:F31"/>
+    <mergeCell ref="G30:G31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="H21:H22"/>
+    <mergeCell ref="I21:I22"/>
+    <mergeCell ref="J21:J22"/>
+    <mergeCell ref="K21:K22"/>
+    <mergeCell ref="M21:M22"/>
+    <mergeCell ref="C21:C22"/>
+    <mergeCell ref="D21:D22"/>
+    <mergeCell ref="E21:E22"/>
+    <mergeCell ref="F21:F22"/>
+    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="H23:H24"/>
+    <mergeCell ref="F23:F24"/>
+    <mergeCell ref="E23:E24"/>
+    <mergeCell ref="D23:D24"/>
+    <mergeCell ref="C23:C24"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="N28:N29"/>
+    <mergeCell ref="N26:N27"/>
+    <mergeCell ref="N23:N24"/>
+    <mergeCell ref="M23:M24"/>
+    <mergeCell ref="K23:K24"/>
+    <mergeCell ref="N21:N22"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="J28:J29"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="G23:G24"/>
+    <mergeCell ref="J23:J24"/>
+    <mergeCell ref="I23:I24"/>
+    <mergeCell ref="C28:C29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A18:A20"/>
+    <mergeCell ref="B18:B20"/>
+    <mergeCell ref="F28:F29"/>
+    <mergeCell ref="G28:G29"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="B28:B29"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="B26:B27"/>
+    <mergeCell ref="M26:M27"/>
+    <mergeCell ref="M28:M29"/>
+    <mergeCell ref="C26:C27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="F26:F27"/>
+    <mergeCell ref="G26:G27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="J26:J27"/>
+    <mergeCell ref="K26:K27"/>
+    <mergeCell ref="K28:K29"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="B1:W1"/>
+    <mergeCell ref="I2:W2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="N6:N7"/>
+    <mergeCell ref="M6:M7"/>
+    <mergeCell ref="C6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="G6:G7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="J6:J7"/>
+    <mergeCell ref="K6:K7"/>
+    <mergeCell ref="A14:A15"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A12:A13"/>
     <mergeCell ref="C10:C11"/>
@@ -2822,7 +3074,7 @@
     <mergeCell ref="E10:E11"/>
     <mergeCell ref="F10:F11"/>
     <mergeCell ref="G10:G11"/>
-    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
     <mergeCell ref="C8:C9"/>
     <mergeCell ref="D8:D9"/>
     <mergeCell ref="E8:E9"/>
@@ -2835,97 +3087,45 @@
     <mergeCell ref="H10:H11"/>
     <mergeCell ref="I10:I11"/>
     <mergeCell ref="B12:B13"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="M6:M7"/>
-    <mergeCell ref="L6:L7"/>
-    <mergeCell ref="C6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="G6:G7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="J6:J7"/>
-    <mergeCell ref="K6:K7"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="L8:L9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="B1:V1"/>
-    <mergeCell ref="I2:V2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="F28:F29"/>
-    <mergeCell ref="G28:G29"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="B28:B29"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="B26:B27"/>
-    <mergeCell ref="L26:L27"/>
-    <mergeCell ref="L28:L29"/>
-    <mergeCell ref="C26:C27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="F26:F27"/>
-    <mergeCell ref="G26:G27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="J26:J27"/>
-    <mergeCell ref="K26:K27"/>
-    <mergeCell ref="K28:K29"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A18:A20"/>
-    <mergeCell ref="B18:B20"/>
-    <mergeCell ref="H23:H24"/>
-    <mergeCell ref="F23:F24"/>
-    <mergeCell ref="E23:E24"/>
-    <mergeCell ref="D23:D24"/>
-    <mergeCell ref="C23:C24"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="L18:L19"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="M28:M29"/>
-    <mergeCell ref="M26:M27"/>
-    <mergeCell ref="M23:M24"/>
-    <mergeCell ref="L23:L24"/>
-    <mergeCell ref="K23:K24"/>
-    <mergeCell ref="M21:M22"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="J28:J29"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="G23:G24"/>
-    <mergeCell ref="J23:J24"/>
-    <mergeCell ref="I23:I24"/>
-    <mergeCell ref="C28:C29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H21:H22"/>
-    <mergeCell ref="I21:I22"/>
-    <mergeCell ref="J21:J22"/>
-    <mergeCell ref="K21:K22"/>
-    <mergeCell ref="L21:L22"/>
-    <mergeCell ref="C21:C22"/>
-    <mergeCell ref="D21:D22"/>
-    <mergeCell ref="E21:E22"/>
-    <mergeCell ref="F21:F22"/>
-    <mergeCell ref="G21:G22"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="A21:A25"/>
+    <mergeCell ref="B21:B25"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="F14:F15"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/Università/magistrale/primo anno/software security and block chain/progetto/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5A2BA178-7EE7-274B-AB06-90B918B4DC2F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{01C3D635-483F-9C4B-AB0B-60EBE3CBABF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="4300" yWindow="500" windowWidth="19440" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="18000" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="118">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="307" uniqueCount="157">
   <si>
     <t>Asset</t>
   </si>
@@ -375,39 +375,6 @@
     <t>25.000-50.000</t>
   </si>
   <si>
-    <t>1.800-3.600</t>
-  </si>
-  <si>
-    <t>1.600-7.200</t>
-  </si>
-  <si>
-    <t>600-1.200</t>
-  </si>
-  <si>
-    <t>3.000-6.0000</t>
-  </si>
-  <si>
-    <t>150-375</t>
-  </si>
-  <si>
-    <t>1.500-3.000</t>
-  </si>
-  <si>
-    <t>3.750-7.500</t>
-  </si>
-  <si>
-    <t>10.500-21.000</t>
-  </si>
-  <si>
-    <t>18.400-34.500</t>
-  </si>
-  <si>
-    <t>14.400-27.000</t>
-  </si>
-  <si>
-    <t>15.000-22.500</t>
-  </si>
-  <si>
     <t>Flooding (125)</t>
   </si>
   <si>
@@ -576,12 +543,162 @@
   <si>
     <t xml:space="preserve">After four epocs, if a block is still not justified, there is an authomatic control that check who voted against the justification and those validator nodes could partially lose their stake. This control mechanism does not affect the user experience. The implementation is not difficult because this control is already provided by Ethereum. </t>
   </si>
+  <si>
+    <t>Multiple Control Cost</t>
+  </si>
+  <si>
+    <t>Residual Multiple Control Probability</t>
+  </si>
+  <si>
+    <t>Residual Multiple Control Risk</t>
+  </si>
+  <si>
+    <t>300-600</t>
+  </si>
+  <si>
+    <t>800-1.600</t>
+  </si>
+  <si>
+    <t>900-1.800</t>
+  </si>
+  <si>
+    <t>RoC</t>
+  </si>
+  <si>
+    <t>1.400-2.800</t>
+  </si>
+  <si>
+    <t>4.600-13.800</t>
+  </si>
+  <si>
+    <t>19.000-28.500</t>
+  </si>
+  <si>
+    <t>16.000-24.000</t>
+  </si>
+  <si>
+    <t>950-1.900</t>
+  </si>
+  <si>
+    <t>3.200-6.400</t>
+  </si>
+  <si>
+    <t>3.800-7.600</t>
+  </si>
+  <si>
+    <t>190-475</t>
+  </si>
+  <si>
+    <t>160-400</t>
+  </si>
+  <si>
+    <t>1.900-3.800</t>
+  </si>
+  <si>
+    <t>1.600-3.200</t>
+  </si>
+  <si>
+    <t>4.750-9.500</t>
+  </si>
+  <si>
+    <t>4.000-8.000</t>
+  </si>
+  <si>
+    <t>9.500-19.000</t>
+  </si>
+  <si>
+    <t>8.000-16.000</t>
+  </si>
+  <si>
+    <t>1.200-2.400</t>
+  </si>
+  <si>
+    <t>20.800-39.000</t>
+  </si>
+  <si>
+    <t>17.600-33.000</t>
+  </si>
+  <si>
+    <t>16.500-33.000</t>
+  </si>
+  <si>
+    <t>1.000-2.000</t>
+  </si>
+  <si>
+    <t>3.000-9.000</t>
+  </si>
+  <si>
+    <t>550-1.100</t>
+  </si>
+  <si>
+    <t>450-900</t>
+  </si>
+  <si>
+    <t>1.100-1.650</t>
+  </si>
+  <si>
+    <t>900-1.350</t>
+  </si>
+  <si>
+    <t>2.000-4.000</t>
+  </si>
+  <si>
+    <t>220-440</t>
+  </si>
+  <si>
+    <t>180-360</t>
+  </si>
+  <si>
+    <t>EXPOSURE CAMBIA?</t>
+  </si>
+  <si>
+    <t>110-275</t>
+  </si>
+  <si>
+    <t>90-225</t>
+  </si>
+  <si>
+    <t>110-220</t>
+  </si>
+  <si>
+    <t>90-180</t>
+  </si>
+  <si>
+    <t>2.750-5.500</t>
+  </si>
+  <si>
+    <t>2.250-4.500</t>
+  </si>
+  <si>
+    <t>5.500-11.000</t>
+  </si>
+  <si>
+    <t>4.500-9.000</t>
+  </si>
+  <si>
+    <t>700-1.400</t>
+  </si>
+  <si>
+    <t>12.000-22.500</t>
+  </si>
+  <si>
+    <t>9.600-18.000</t>
+  </si>
+  <si>
+    <t>CI DOBBIAMO RAGIONARE</t>
+  </si>
+  <si>
+    <t>300-450</t>
+  </si>
+  <si>
+    <t>8.500-17.000</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -627,8 +744,15 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="16"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -665,8 +789,14 @@
         <bgColor rgb="FF000000"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF2F75B5"/>
+        <bgColor rgb="FF000000"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="21">
+  <borders count="35">
     <border>
       <left/>
       <right/>
@@ -893,8 +1023,36 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
       <top style="thin">
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
       </top>
       <bottom/>
       <diagonal/>
@@ -902,9 +1060,165 @@
     <border>
       <left/>
       <right/>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top/>
       <bottom style="thin">
-        <color theme="0"/>
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFFFFFFF"/>
+      </left>
+      <right style="thin">
+        <color theme="0"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color theme="0"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color theme="0"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="0"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFFFFFFF"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFFFFFFF"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFFFFFFF"/>
       </bottom>
       <diagonal/>
     </border>
@@ -912,7 +1226,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="76">
+  <cellXfs count="106">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -986,10 +1300,61 @@
     <xf numFmtId="0" fontId="5" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -1013,16 +1378,43 @@
     <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1030,6 +1422,24 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1037,71 +1447,11 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="5" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="3" fontId="0" fillId="4" borderId="7" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="2" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="2" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="15" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="6" fillId="6" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -1109,34 +1459,88 @@
     <xf numFmtId="0" fontId="6" fillId="6" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="4" borderId="21" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" textRotation="90" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="20" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="8" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="3" fontId="0" fillId="4" borderId="10" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="23" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="24" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="25" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="6" fillId="6" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="29" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="30" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="32" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="33" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="34" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1204,7 +1608,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1256,7 +1660,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1485,73 +1889,73 @@
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="29"/>
-      <c r="O1" s="29"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="46"/>
+      <c r="O1" s="46"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
     </row>
     <row r="2" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4"/>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
+      <c r="H2" s="48"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="46"/>
+      <c r="O2" s="46"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
     </row>
     <row r="3" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="30" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="12"/>
@@ -1571,274 +1975,283 @@
       <c r="B5" s="14" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="33" t="s">
+      <c r="C5" s="50" t="s">
         <v>3</v>
       </c>
-      <c r="D5" s="34"/>
-      <c r="E5" s="34"/>
-      <c r="F5" s="34"/>
-      <c r="G5" s="34"/>
-      <c r="H5" s="35"/>
-      <c r="I5" s="37" t="s">
+      <c r="D5" s="43"/>
+      <c r="E5" s="43"/>
+      <c r="F5" s="43"/>
+      <c r="G5" s="43"/>
+      <c r="H5" s="51"/>
+      <c r="I5" s="42" t="s">
         <v>2</v>
       </c>
-      <c r="J5" s="34"/>
+      <c r="J5" s="43"/>
     </row>
     <row r="6" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
-      <c r="C6" s="25"/>
-      <c r="D6" s="26"/>
-      <c r="E6" s="26"/>
-      <c r="F6" s="26"/>
-      <c r="G6" s="26"/>
-      <c r="H6" s="26"/>
-      <c r="I6" s="36"/>
-      <c r="J6" s="26"/>
+      <c r="C6" s="41"/>
+      <c r="D6" s="40"/>
+      <c r="E6" s="40"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
+      <c r="H6" s="40"/>
+      <c r="I6" s="39"/>
+      <c r="J6" s="40"/>
     </row>
     <row r="7" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
-      <c r="C7" s="25"/>
-      <c r="D7" s="26"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="26"/>
-      <c r="G7" s="26"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="36"/>
-      <c r="J7" s="26"/>
+      <c r="C7" s="41"/>
+      <c r="D7" s="40"/>
+      <c r="E7" s="40"/>
+      <c r="F7" s="40"/>
+      <c r="G7" s="40"/>
+      <c r="H7" s="40"/>
+      <c r="I7" s="39"/>
+      <c r="J7" s="40"/>
     </row>
     <row r="8" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
-      <c r="C8" s="25"/>
-      <c r="D8" s="26"/>
-      <c r="E8" s="26"/>
-      <c r="F8" s="26"/>
-      <c r="G8" s="26"/>
-      <c r="H8" s="26"/>
-      <c r="I8" s="36"/>
-      <c r="J8" s="26"/>
+      <c r="C8" s="41"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="40"/>
+      <c r="H8" s="40"/>
+      <c r="I8" s="39"/>
+      <c r="J8" s="40"/>
     </row>
     <row r="9" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
-      <c r="C9" s="25"/>
-      <c r="D9" s="26"/>
-      <c r="E9" s="26"/>
-      <c r="F9" s="26"/>
-      <c r="G9" s="26"/>
-      <c r="H9" s="26"/>
-      <c r="I9" s="36"/>
-      <c r="J9" s="26"/>
+      <c r="C9" s="41"/>
+      <c r="D9" s="40"/>
+      <c r="E9" s="40"/>
+      <c r="F9" s="40"/>
+      <c r="G9" s="40"/>
+      <c r="H9" s="40"/>
+      <c r="I9" s="39"/>
+      <c r="J9" s="40"/>
     </row>
     <row r="10" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
-      <c r="C10" s="25"/>
-      <c r="D10" s="26"/>
-      <c r="E10" s="26"/>
-      <c r="F10" s="26"/>
-      <c r="G10" s="26"/>
-      <c r="H10" s="26"/>
-      <c r="I10" s="36"/>
-      <c r="J10" s="26"/>
+      <c r="C10" s="41"/>
+      <c r="D10" s="40"/>
+      <c r="E10" s="40"/>
+      <c r="F10" s="40"/>
+      <c r="G10" s="40"/>
+      <c r="H10" s="40"/>
+      <c r="I10" s="39"/>
+      <c r="J10" s="40"/>
     </row>
     <row r="11" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
-      <c r="C11" s="25"/>
-      <c r="D11" s="26"/>
-      <c r="E11" s="26"/>
-      <c r="F11" s="26"/>
-      <c r="G11" s="26"/>
-      <c r="H11" s="26"/>
-      <c r="I11" s="36"/>
-      <c r="J11" s="26"/>
+      <c r="C11" s="41"/>
+      <c r="D11" s="40"/>
+      <c r="E11" s="40"/>
+      <c r="F11" s="40"/>
+      <c r="G11" s="40"/>
+      <c r="H11" s="40"/>
+      <c r="I11" s="39"/>
+      <c r="J11" s="40"/>
     </row>
     <row r="12" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
-      <c r="C12" s="25"/>
-      <c r="D12" s="26"/>
-      <c r="E12" s="26"/>
-      <c r="F12" s="26"/>
-      <c r="G12" s="26"/>
-      <c r="H12" s="26"/>
-      <c r="I12" s="36"/>
-      <c r="J12" s="26"/>
+      <c r="C12" s="41"/>
+      <c r="D12" s="40"/>
+      <c r="E12" s="40"/>
+      <c r="F12" s="40"/>
+      <c r="G12" s="40"/>
+      <c r="H12" s="40"/>
+      <c r="I12" s="39"/>
+      <c r="J12" s="40"/>
     </row>
     <row r="13" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
-      <c r="C13" s="25"/>
-      <c r="D13" s="26"/>
-      <c r="E13" s="26"/>
-      <c r="F13" s="26"/>
-      <c r="G13" s="26"/>
-      <c r="H13" s="26"/>
-      <c r="I13" s="36"/>
-      <c r="J13" s="26"/>
+      <c r="C13" s="41"/>
+      <c r="D13" s="40"/>
+      <c r="E13" s="40"/>
+      <c r="F13" s="40"/>
+      <c r="G13" s="40"/>
+      <c r="H13" s="40"/>
+      <c r="I13" s="39"/>
+      <c r="J13" s="40"/>
     </row>
     <row r="14" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
-      <c r="C14" s="25"/>
-      <c r="D14" s="26"/>
-      <c r="E14" s="26"/>
-      <c r="F14" s="26"/>
-      <c r="G14" s="26"/>
-      <c r="H14" s="26"/>
-      <c r="I14" s="36"/>
-      <c r="J14" s="26"/>
+      <c r="C14" s="41"/>
+      <c r="D14" s="40"/>
+      <c r="E14" s="40"/>
+      <c r="F14" s="40"/>
+      <c r="G14" s="40"/>
+      <c r="H14" s="40"/>
+      <c r="I14" s="39"/>
+      <c r="J14" s="40"/>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
-      <c r="C15" s="25"/>
-      <c r="D15" s="26"/>
-      <c r="E15" s="26"/>
-      <c r="F15" s="26"/>
-      <c r="G15" s="26"/>
-      <c r="H15" s="26"/>
-      <c r="I15" s="36"/>
-      <c r="J15" s="26"/>
+      <c r="C15" s="41"/>
+      <c r="D15" s="40"/>
+      <c r="E15" s="40"/>
+      <c r="F15" s="40"/>
+      <c r="G15" s="40"/>
+      <c r="H15" s="40"/>
+      <c r="I15" s="39"/>
+      <c r="J15" s="40"/>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.2">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
-      <c r="C16" s="25"/>
-      <c r="D16" s="26"/>
-      <c r="E16" s="26"/>
-      <c r="F16" s="26"/>
-      <c r="G16" s="26"/>
-      <c r="H16" s="26"/>
-      <c r="I16" s="36"/>
-      <c r="J16" s="26"/>
+      <c r="C16" s="41"/>
+      <c r="D16" s="40"/>
+      <c r="E16" s="40"/>
+      <c r="F16" s="40"/>
+      <c r="G16" s="40"/>
+      <c r="H16" s="40"/>
+      <c r="I16" s="39"/>
+      <c r="J16" s="40"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
-      <c r="C17" s="25"/>
-      <c r="D17" s="26"/>
-      <c r="E17" s="26"/>
-      <c r="F17" s="26"/>
-      <c r="G17" s="26"/>
-      <c r="H17" s="26"/>
-      <c r="I17" s="36"/>
-      <c r="J17" s="26"/>
+      <c r="C17" s="41"/>
+      <c r="D17" s="40"/>
+      <c r="E17" s="40"/>
+      <c r="F17" s="40"/>
+      <c r="G17" s="40"/>
+      <c r="H17" s="40"/>
+      <c r="I17" s="39"/>
+      <c r="J17" s="40"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
-      <c r="C18" s="25"/>
-      <c r="D18" s="26"/>
-      <c r="E18" s="26"/>
-      <c r="F18" s="26"/>
-      <c r="G18" s="26"/>
-      <c r="H18" s="26"/>
-      <c r="I18" s="36"/>
-      <c r="J18" s="26"/>
+      <c r="C18" s="41"/>
+      <c r="D18" s="40"/>
+      <c r="E18" s="40"/>
+      <c r="F18" s="40"/>
+      <c r="G18" s="40"/>
+      <c r="H18" s="40"/>
+      <c r="I18" s="39"/>
+      <c r="J18" s="40"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
-      <c r="C19" s="25"/>
-      <c r="D19" s="26"/>
-      <c r="E19" s="26"/>
-      <c r="F19" s="26"/>
-      <c r="G19" s="26"/>
-      <c r="H19" s="26"/>
-      <c r="I19" s="36"/>
-      <c r="J19" s="26"/>
+      <c r="C19" s="41"/>
+      <c r="D19" s="40"/>
+      <c r="E19" s="40"/>
+      <c r="F19" s="40"/>
+      <c r="G19" s="40"/>
+      <c r="H19" s="40"/>
+      <c r="I19" s="39"/>
+      <c r="J19" s="40"/>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
-      <c r="C20" s="25"/>
-      <c r="D20" s="26"/>
-      <c r="E20" s="26"/>
-      <c r="F20" s="26"/>
-      <c r="G20" s="26"/>
-      <c r="H20" s="26"/>
-      <c r="I20" s="36"/>
-      <c r="J20" s="26"/>
+      <c r="C20" s="41"/>
+      <c r="D20" s="40"/>
+      <c r="E20" s="40"/>
+      <c r="F20" s="40"/>
+      <c r="G20" s="40"/>
+      <c r="H20" s="40"/>
+      <c r="I20" s="39"/>
+      <c r="J20" s="40"/>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
-      <c r="C21" s="25"/>
-      <c r="D21" s="26"/>
-      <c r="E21" s="26"/>
-      <c r="F21" s="26"/>
-      <c r="G21" s="26"/>
-      <c r="H21" s="26"/>
-      <c r="I21" s="36"/>
-      <c r="J21" s="26"/>
+      <c r="C21" s="41"/>
+      <c r="D21" s="40"/>
+      <c r="E21" s="40"/>
+      <c r="F21" s="40"/>
+      <c r="G21" s="40"/>
+      <c r="H21" s="40"/>
+      <c r="I21" s="39"/>
+      <c r="J21" s="40"/>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
-      <c r="C22" s="25"/>
-      <c r="D22" s="26"/>
-      <c r="E22" s="26"/>
-      <c r="F22" s="26"/>
-      <c r="G22" s="26"/>
-      <c r="H22" s="26"/>
-      <c r="I22" s="36"/>
-      <c r="J22" s="26"/>
+      <c r="C22" s="41"/>
+      <c r="D22" s="40"/>
+      <c r="E22" s="40"/>
+      <c r="F22" s="40"/>
+      <c r="G22" s="40"/>
+      <c r="H22" s="40"/>
+      <c r="I22" s="39"/>
+      <c r="J22" s="40"/>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
-      <c r="C23" s="25"/>
-      <c r="D23" s="26"/>
-      <c r="E23" s="26"/>
-      <c r="F23" s="26"/>
-      <c r="G23" s="26"/>
-      <c r="H23" s="26"/>
-      <c r="I23" s="36"/>
-      <c r="J23" s="26"/>
+      <c r="C23" s="41"/>
+      <c r="D23" s="40"/>
+      <c r="E23" s="40"/>
+      <c r="F23" s="40"/>
+      <c r="G23" s="40"/>
+      <c r="H23" s="40"/>
+      <c r="I23" s="39"/>
+      <c r="J23" s="40"/>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="26"/>
-      <c r="F24" s="26"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="26"/>
-      <c r="I24" s="36"/>
-      <c r="J24" s="26"/>
+      <c r="C24" s="41"/>
+      <c r="D24" s="40"/>
+      <c r="E24" s="40"/>
+      <c r="F24" s="40"/>
+      <c r="G24" s="40"/>
+      <c r="H24" s="40"/>
+      <c r="I24" s="39"/>
+      <c r="J24" s="40"/>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.2">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="26"/>
-      <c r="E25" s="26"/>
-      <c r="F25" s="26"/>
-      <c r="G25" s="26"/>
-      <c r="H25" s="26"/>
-      <c r="I25" s="36"/>
-      <c r="J25" s="26"/>
+      <c r="C25" s="41"/>
+      <c r="D25" s="40"/>
+      <c r="E25" s="40"/>
+      <c r="F25" s="40"/>
+      <c r="G25" s="40"/>
+      <c r="H25" s="40"/>
+      <c r="I25" s="39"/>
+      <c r="J25" s="40"/>
     </row>
   </sheetData>
   <mergeCells count="51">
-    <mergeCell ref="I24:J24"/>
-    <mergeCell ref="I25:J25"/>
-    <mergeCell ref="I18:J18"/>
-    <mergeCell ref="I19:J19"/>
-    <mergeCell ref="I20:J20"/>
-    <mergeCell ref="I21:J21"/>
-    <mergeCell ref="I22:J22"/>
-    <mergeCell ref="I23:J23"/>
-    <mergeCell ref="I12:J12"/>
-    <mergeCell ref="I13:J13"/>
-    <mergeCell ref="I14:J14"/>
-    <mergeCell ref="I15:J15"/>
-    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="C10:H10"/>
+    <mergeCell ref="B1:U1"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="I2:U2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="C5:H5"/>
+    <mergeCell ref="C6:H6"/>
+    <mergeCell ref="C7:H7"/>
+    <mergeCell ref="C8:H8"/>
+    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="C22:H22"/>
+    <mergeCell ref="C11:H11"/>
+    <mergeCell ref="C12:H12"/>
+    <mergeCell ref="C13:H13"/>
+    <mergeCell ref="C14:H14"/>
+    <mergeCell ref="C15:H15"/>
+    <mergeCell ref="C16:H16"/>
     <mergeCell ref="I17:J17"/>
     <mergeCell ref="C23:H23"/>
     <mergeCell ref="C24:H24"/>
@@ -1855,28 +2268,19 @@
     <mergeCell ref="C19:H19"/>
     <mergeCell ref="C20:H20"/>
     <mergeCell ref="C21:H21"/>
-    <mergeCell ref="C22:H22"/>
-    <mergeCell ref="C11:H11"/>
-    <mergeCell ref="C12:H12"/>
-    <mergeCell ref="C13:H13"/>
-    <mergeCell ref="C14:H14"/>
-    <mergeCell ref="C15:H15"/>
-    <mergeCell ref="C16:H16"/>
-    <mergeCell ref="C10:H10"/>
-    <mergeCell ref="B1:U1"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="I2:U2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="C5:H5"/>
-    <mergeCell ref="C6:H6"/>
-    <mergeCell ref="C7:H7"/>
-    <mergeCell ref="C8:H8"/>
-    <mergeCell ref="C9:H9"/>
+    <mergeCell ref="I12:J12"/>
+    <mergeCell ref="I13:J13"/>
+    <mergeCell ref="I14:J14"/>
+    <mergeCell ref="I15:J15"/>
+    <mergeCell ref="I16:J16"/>
+    <mergeCell ref="I24:J24"/>
+    <mergeCell ref="I25:J25"/>
+    <mergeCell ref="I18:J18"/>
+    <mergeCell ref="I19:J19"/>
+    <mergeCell ref="I20:J20"/>
+    <mergeCell ref="I21:J21"/>
+    <mergeCell ref="I22:J22"/>
+    <mergeCell ref="I23:J23"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -1884,10 +2288,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:Y42"/>
+  <dimension ref="A1:AC42"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="Q1" zoomScale="87" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="U5" sqref="U5"/>
+    <sheetView tabSelected="1" topLeftCell="A2" zoomScale="45" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="AB31" sqref="AB31"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -1899,91 +2303,99 @@
     <col min="14" max="15" width="33" style="3" customWidth="1"/>
     <col min="16" max="17" width="10" style="3" customWidth="1"/>
     <col min="18" max="18" width="20" style="3" customWidth="1"/>
-    <col min="19" max="19" width="10" style="3" customWidth="1"/>
-    <col min="20" max="20" width="61.33203125" style="3" customWidth="1"/>
-    <col min="21" max="23" width="10" style="3" customWidth="1"/>
-    <col min="24" max="24" width="29.1640625" style="3" customWidth="1"/>
-    <col min="25" max="25" width="76.6640625" style="3" customWidth="1"/>
-    <col min="26" max="16384" width="10.83203125" style="3"/>
+    <col min="19" max="20" width="10" style="3" customWidth="1"/>
+    <col min="21" max="21" width="61.33203125" style="3" customWidth="1"/>
+    <col min="22" max="27" width="10" style="3" customWidth="1"/>
+    <col min="28" max="28" width="29.1640625" style="3" customWidth="1"/>
+    <col min="29" max="29" width="76.6640625" style="3" customWidth="1"/>
+    <col min="30" max="16384" width="10.83203125" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:29" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B1" s="27"/>
-      <c r="C1" s="27"/>
-      <c r="D1" s="27"/>
-      <c r="E1" s="27"/>
-      <c r="F1" s="27"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="29"/>
-      <c r="Q1" s="29"/>
-      <c r="R1" s="29"/>
-      <c r="S1" s="29"/>
-      <c r="T1" s="29"/>
-      <c r="U1" s="29"/>
-      <c r="V1" s="29"/>
-      <c r="W1" s="29"/>
-    </row>
-    <row r="2" spans="1:25" s="10" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="B1" s="44"/>
+      <c r="C1" s="44"/>
+      <c r="D1" s="44"/>
+      <c r="E1" s="44"/>
+      <c r="F1" s="44"/>
+      <c r="G1" s="45"/>
+      <c r="H1" s="45"/>
+      <c r="I1" s="45"/>
+      <c r="J1" s="45"/>
+      <c r="K1" s="45"/>
+      <c r="L1" s="45"/>
+      <c r="M1" s="45"/>
+      <c r="N1" s="45"/>
+      <c r="O1" s="45"/>
+      <c r="P1" s="46"/>
+      <c r="Q1" s="46"/>
+      <c r="R1" s="46"/>
+      <c r="S1" s="46"/>
+      <c r="T1" s="46"/>
+      <c r="U1" s="46"/>
+      <c r="V1" s="46"/>
+      <c r="W1" s="46"/>
+      <c r="X1" s="46"/>
+      <c r="Y1" s="46"/>
+      <c r="Z1" s="80"/>
+      <c r="AA1" s="80"/>
+    </row>
+    <row r="2" spans="1:29" s="10" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>38</v>
       </c>
-      <c r="C2" s="30" t="s">
+      <c r="C2" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="D2" s="30"/>
-      <c r="E2" s="27"/>
-      <c r="F2" s="27"/>
-      <c r="G2" s="30" t="s">
+      <c r="D2" s="47"/>
+      <c r="E2" s="44"/>
+      <c r="F2" s="44"/>
+      <c r="G2" s="47" t="s">
         <v>6</v>
       </c>
-      <c r="H2" s="31"/>
-      <c r="I2" s="27"/>
-      <c r="J2" s="32"/>
-      <c r="K2" s="32"/>
-      <c r="L2" s="32"/>
-      <c r="M2" s="32"/>
-      <c r="N2" s="32"/>
-      <c r="O2" s="32"/>
-      <c r="P2" s="29"/>
-      <c r="Q2" s="29"/>
-      <c r="R2" s="29"/>
-      <c r="S2" s="29"/>
-      <c r="T2" s="29"/>
-      <c r="U2" s="29"/>
-      <c r="V2" s="29"/>
-      <c r="W2" s="29"/>
-    </row>
-    <row r="3" spans="1:25" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+      <c r="H2" s="48"/>
+      <c r="I2" s="44"/>
+      <c r="J2" s="49"/>
+      <c r="K2" s="49"/>
+      <c r="L2" s="49"/>
+      <c r="M2" s="49"/>
+      <c r="N2" s="49"/>
+      <c r="O2" s="49"/>
+      <c r="P2" s="46"/>
+      <c r="Q2" s="46"/>
+      <c r="R2" s="46"/>
+      <c r="S2" s="46"/>
+      <c r="T2" s="46"/>
+      <c r="U2" s="46"/>
+      <c r="V2" s="46"/>
+      <c r="W2" s="46"/>
+      <c r="X2" s="46"/>
+      <c r="Y2" s="46"/>
+      <c r="Z2" s="80"/>
+      <c r="AA2" s="80"/>
+    </row>
+    <row r="3" spans="1:29" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B3" s="4"/>
-      <c r="C3" s="30" t="s">
+      <c r="C3" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="D3" s="30"/>
-      <c r="E3" s="27"/>
-      <c r="F3" s="27"/>
-      <c r="G3" s="30" t="s">
+      <c r="D3" s="47"/>
+      <c r="E3" s="44"/>
+      <c r="F3" s="44"/>
+      <c r="G3" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="H3" s="30"/>
-      <c r="I3" s="27"/>
-      <c r="J3" s="27"/>
+      <c r="H3" s="47"/>
+      <c r="I3" s="44"/>
+      <c r="J3" s="44"/>
       <c r="K3" s="11"/>
       <c r="L3" s="11"/>
       <c r="M3" s="11"/>
@@ -1997,8 +2409,12 @@
       <c r="U3" s="12"/>
       <c r="V3" s="12"/>
       <c r="W3" s="12"/>
-    </row>
-    <row r="4" spans="1:25" ht="159" x14ac:dyDescent="0.2">
+      <c r="X3" s="12"/>
+      <c r="Y3" s="12"/>
+      <c r="Z3" s="84"/>
+      <c r="AA3" s="12"/>
+    </row>
+    <row r="4" spans="1:29" ht="157" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2033,7 +2449,7 @@
         <v>16</v>
       </c>
       <c r="L4" s="24" t="s">
-        <v>98</v>
+        <v>87</v>
       </c>
       <c r="M4" s="6" t="s">
         <v>2</v>
@@ -2042,7 +2458,7 @@
         <v>17</v>
       </c>
       <c r="O4" s="6" t="s">
-        <v>72</v>
+        <v>61</v>
       </c>
       <c r="P4" s="7" t="s">
         <v>22</v>
@@ -2056,117 +2472,159 @@
       <c r="S4" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="T4" s="5" t="s">
+      <c r="T4" s="7" t="s">
+        <v>107</v>
+      </c>
+      <c r="U4" s="5" t="s">
         <v>24</v>
       </c>
-      <c r="U4" s="7" t="s">
+      <c r="V4" s="7" t="s">
         <v>23</v>
       </c>
-      <c r="V4" s="7" t="s">
+      <c r="W4" s="78" t="s">
+        <v>108</v>
+      </c>
+      <c r="X4" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="W4" s="7" t="s">
+      <c r="Y4" s="7" t="s">
         <v>21</v>
       </c>
-      <c r="Y4" s="6" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" ht="72" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A5" s="38" t="s">
+      <c r="Z4" s="81" t="s">
+        <v>109</v>
+      </c>
+      <c r="AA4" s="7" t="s">
+        <v>113</v>
+      </c>
+      <c r="AB4" s="85"/>
+      <c r="AC4" s="6" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="5" spans="1:29" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="64" t="s">
         <v>29</v>
       </c>
-      <c r="B5" s="38" t="s">
+      <c r="B5" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C5" s="38" t="s">
+      <c r="C5" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D5" s="48"/>
-      <c r="E5" s="48"/>
-      <c r="F5" s="38" t="s">
+      <c r="D5" s="69"/>
+      <c r="E5" s="69"/>
+      <c r="F5" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G5" s="48"/>
-      <c r="H5" s="48"/>
-      <c r="I5" s="48"/>
-      <c r="J5" s="48"/>
-      <c r="K5" s="48"/>
-      <c r="L5" s="48"/>
-      <c r="M5" s="38" t="s">
+      <c r="G5" s="69"/>
+      <c r="H5" s="69"/>
+      <c r="I5" s="69"/>
+      <c r="J5" s="69"/>
+      <c r="K5" s="69"/>
+      <c r="L5" s="69"/>
+      <c r="M5" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="N5" s="48" t="s">
-        <v>73</v>
+      <c r="N5" s="69" t="s">
+        <v>62</v>
       </c>
       <c r="O5" s="17" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="P5" s="16">
         <v>0.05</v>
       </c>
       <c r="Q5" s="15" t="s">
-        <v>93</v>
+        <v>82</v>
       </c>
       <c r="R5" s="15" t="s">
-        <v>99</v>
-      </c>
-      <c r="S5" s="47">
+        <v>88</v>
+      </c>
+      <c r="S5" s="27">
         <v>1000</v>
       </c>
-      <c r="T5" s="15" t="s">
-        <v>105</v>
-      </c>
-      <c r="U5" s="15"/>
-      <c r="V5" s="15"/>
-      <c r="W5" s="15"/>
-      <c r="Y5" s="17" t="s">
-        <v>76</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" ht="71" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A6" s="44"/>
-      <c r="B6" s="44"/>
-      <c r="C6" s="39"/>
-      <c r="D6" s="49"/>
-      <c r="E6" s="50"/>
-      <c r="F6" s="44"/>
-      <c r="G6" s="50"/>
-      <c r="H6" s="49"/>
-      <c r="I6" s="49"/>
-      <c r="J6" s="49"/>
-      <c r="K6" s="49"/>
-      <c r="L6" s="49"/>
-      <c r="M6" s="39"/>
-      <c r="N6" s="49"/>
+      <c r="T5" s="74">
+        <f>S5+S6</f>
+        <v>1500</v>
+      </c>
+      <c r="U5" s="15" t="s">
+        <v>94</v>
+      </c>
+      <c r="V5" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="W5" s="79">
+        <v>0.11</v>
+      </c>
+      <c r="X5" s="64" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y5" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="Z5" s="64" t="s">
+        <v>112</v>
+      </c>
+      <c r="AA5" s="88">
+        <v>-0.6</v>
+      </c>
+      <c r="AC5" s="17" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="6" spans="1:29" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="68"/>
+      <c r="B6" s="68"/>
+      <c r="C6" s="65"/>
+      <c r="D6" s="70"/>
+      <c r="E6" s="71"/>
+      <c r="F6" s="68"/>
+      <c r="G6" s="71"/>
+      <c r="H6" s="70"/>
+      <c r="I6" s="70"/>
+      <c r="J6" s="70"/>
+      <c r="K6" s="70"/>
+      <c r="L6" s="70"/>
+      <c r="M6" s="65"/>
+      <c r="N6" s="70"/>
       <c r="O6" s="17" t="s">
         <v>40</v>
       </c>
       <c r="P6" s="16">
-        <v>0.12</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="Q6" s="15" t="s">
-        <v>59</v>
+        <v>114</v>
       </c>
       <c r="R6" s="15" t="s">
-        <v>71</v>
-      </c>
-      <c r="S6" s="47">
+        <v>60</v>
+      </c>
+      <c r="S6" s="27">
         <v>500</v>
       </c>
-      <c r="T6" s="15" t="s">
-        <v>106</v>
-      </c>
-      <c r="U6" s="15"/>
-      <c r="V6" s="15"/>
-      <c r="W6" s="15"/>
-      <c r="Y6" s="17" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A7" s="39"/>
-      <c r="B7" s="39"/>
+      <c r="T6" s="75"/>
+      <c r="U6" s="15" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="16">
+        <v>0.1</v>
+      </c>
+      <c r="W6" s="65"/>
+      <c r="X6" s="65"/>
+      <c r="Y6" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Z6" s="65"/>
+      <c r="AA6" s="89">
+        <v>0.6</v>
+      </c>
+      <c r="AC6" s="17" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="7" spans="1:29" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="65"/>
+      <c r="B7" s="65"/>
       <c r="C7" s="18" t="s">
         <v>36</v>
       </c>
@@ -2188,649 +2646,893 @@
       <c r="M7" s="20" t="s">
         <v>53</v>
       </c>
-      <c r="N7" s="51" t="s">
-        <v>74</v>
+      <c r="N7" s="28" t="s">
+        <v>63</v>
       </c>
       <c r="O7" s="17" t="s">
+        <v>66</v>
+      </c>
+      <c r="P7" s="16">
+        <v>0.23</v>
+      </c>
+      <c r="Q7" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="R7" s="15" t="s">
+        <v>59</v>
+      </c>
+      <c r="S7" s="27">
+        <v>8000</v>
+      </c>
+      <c r="T7" s="27" t="s">
+        <v>80</v>
+      </c>
+      <c r="U7" s="15" t="s">
+        <v>96</v>
+      </c>
+      <c r="V7" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="W7" s="16" t="s">
+        <v>80</v>
+      </c>
+      <c r="X7" s="20" t="s">
+        <v>53</v>
+      </c>
+      <c r="Y7" s="15" t="s">
+        <v>134</v>
+      </c>
+      <c r="Z7" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA7" s="82">
+        <v>-0.4</v>
+      </c>
+      <c r="AC7" s="17" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="8" spans="1:29" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="B8" s="52" t="s">
+        <v>52</v>
+      </c>
+      <c r="C8" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D8" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E8" s="52"/>
+      <c r="F8" s="52"/>
+      <c r="G8" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H8" s="54"/>
+      <c r="I8" s="54"/>
+      <c r="J8" s="54"/>
+      <c r="K8" s="54"/>
+      <c r="L8" s="29"/>
+      <c r="M8" s="54" t="s">
+        <v>55</v>
+      </c>
+      <c r="N8" s="76" t="s">
+        <v>69</v>
+      </c>
+      <c r="O8" s="30" t="s">
+        <v>43</v>
+      </c>
+      <c r="P8" s="31">
+        <v>0.19</v>
+      </c>
+      <c r="Q8" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="R8" s="61" t="s">
+        <v>98</v>
+      </c>
+      <c r="S8" s="58">
+        <v>10000</v>
+      </c>
+      <c r="T8" s="36"/>
+      <c r="U8" s="90" t="s">
+        <v>99</v>
+      </c>
+      <c r="V8" s="93">
+        <v>0.11</v>
+      </c>
+      <c r="W8" s="95" t="s">
+        <v>80</v>
+      </c>
+      <c r="X8" s="86" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y8" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z8" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA8" s="101">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:29" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="53"/>
+      <c r="B9" s="53"/>
+      <c r="C9" s="53"/>
+      <c r="D9" s="53"/>
+      <c r="E9" s="55"/>
+      <c r="F9" s="55"/>
+      <c r="G9" s="55"/>
+      <c r="H9" s="55"/>
+      <c r="I9" s="55"/>
+      <c r="J9" s="55"/>
+      <c r="K9" s="55"/>
+      <c r="L9" s="33"/>
+      <c r="M9" s="55"/>
+      <c r="N9" s="77"/>
+      <c r="O9" s="34" t="s">
+        <v>41</v>
+      </c>
+      <c r="P9" s="35">
+        <v>0.16</v>
+      </c>
+      <c r="Q9" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="R9" s="62"/>
+      <c r="S9" s="59"/>
+      <c r="T9" s="37"/>
+      <c r="U9" s="91"/>
+      <c r="V9" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="W9" s="96"/>
+      <c r="X9" s="87" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y9" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z9" s="100"/>
+      <c r="AA9" s="83">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:29" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="54" t="s">
+        <v>37</v>
+      </c>
+      <c r="B10" s="54" t="s">
+        <v>52</v>
+      </c>
+      <c r="C10" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="D10" s="54" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="52"/>
+      <c r="F10" s="52"/>
+      <c r="G10" s="52" t="s">
+        <v>36</v>
+      </c>
+      <c r="H10" s="52"/>
+      <c r="I10" s="52"/>
+      <c r="J10" s="52"/>
+      <c r="K10" s="52"/>
+      <c r="L10" s="54"/>
+      <c r="M10" s="52" t="s">
+        <v>55</v>
+      </c>
+      <c r="N10" s="56" t="s">
+        <v>68</v>
+      </c>
+      <c r="O10" s="30" t="s">
+        <v>41</v>
+      </c>
+      <c r="P10" s="31">
+        <v>0.19</v>
+      </c>
+      <c r="Q10" s="86" t="s">
+        <v>116</v>
+      </c>
+      <c r="R10" s="62"/>
+      <c r="S10" s="59"/>
+      <c r="T10" s="37"/>
+      <c r="U10" s="91"/>
+      <c r="V10" s="93">
+        <v>0.11</v>
+      </c>
+      <c r="W10" s="97" t="s">
+        <v>80</v>
+      </c>
+      <c r="X10" s="32" t="s">
+        <v>91</v>
+      </c>
+      <c r="Y10" s="102" t="s">
+        <v>137</v>
+      </c>
+      <c r="Z10" s="99" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA10" s="101">
+        <v>1.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:29" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="55"/>
+      <c r="B11" s="55"/>
+      <c r="C11" s="55"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
+      <c r="F11" s="55"/>
+      <c r="G11" s="55"/>
+      <c r="H11" s="55"/>
+      <c r="I11" s="55"/>
+      <c r="J11" s="55"/>
+      <c r="K11" s="55"/>
+      <c r="L11" s="55"/>
+      <c r="M11" s="55"/>
+      <c r="N11" s="57"/>
+      <c r="O11" s="34" t="s">
+        <v>43</v>
+      </c>
+      <c r="P11" s="35">
+        <v>0.16</v>
+      </c>
+      <c r="Q11" s="87" t="s">
+        <v>117</v>
+      </c>
+      <c r="R11" s="62"/>
+      <c r="S11" s="59"/>
+      <c r="T11" s="37"/>
+      <c r="U11" s="91"/>
+      <c r="V11" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="W11" s="98"/>
+      <c r="X11" s="33" t="s">
+        <v>55</v>
+      </c>
+      <c r="Y11" s="103" t="s">
+        <v>138</v>
+      </c>
+      <c r="Z11" s="100"/>
+      <c r="AA11" s="83">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:29" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="64" t="s">
+        <v>42</v>
+      </c>
+      <c r="B12" s="74" t="s">
+        <v>48</v>
+      </c>
+      <c r="C12" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="D12" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="E12" s="64"/>
+      <c r="F12" s="64"/>
+      <c r="G12" s="64" t="s">
+        <v>36</v>
+      </c>
+      <c r="H12" s="64"/>
+      <c r="I12" s="64"/>
+      <c r="J12" s="64"/>
+      <c r="K12" s="64"/>
+      <c r="L12" s="20"/>
+      <c r="M12" s="64" t="s">
+        <v>39</v>
+      </c>
+      <c r="N12" s="72" t="s">
         <v>77</v>
-      </c>
-      <c r="P7" s="16">
-        <v>0.18</v>
-      </c>
-      <c r="Q7" s="15" t="s">
-        <v>58</v>
-      </c>
-      <c r="R7" s="15" t="s">
-        <v>70</v>
-      </c>
-      <c r="S7" s="47">
-        <v>8000</v>
-      </c>
-      <c r="T7" s="15" t="s">
-        <v>107</v>
-      </c>
-      <c r="U7" s="15"/>
-      <c r="V7" s="15"/>
-      <c r="W7" s="15"/>
-      <c r="Y7" s="17" t="s">
-        <v>89</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A8" s="60" t="s">
-        <v>35</v>
-      </c>
-      <c r="B8" s="60" t="s">
-        <v>52</v>
-      </c>
-      <c r="C8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D8" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E8" s="60"/>
-      <c r="F8" s="60"/>
-      <c r="G8" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H8" s="52"/>
-      <c r="I8" s="52"/>
-      <c r="J8" s="52"/>
-      <c r="K8" s="52"/>
-      <c r="L8" s="53"/>
-      <c r="M8" s="52" t="s">
-        <v>55</v>
-      </c>
-      <c r="N8" s="64" t="s">
-        <v>80</v>
-      </c>
-      <c r="O8" s="54" t="s">
-        <v>43</v>
-      </c>
-      <c r="P8" s="55">
-        <v>0.15</v>
-      </c>
-      <c r="Q8" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="R8" s="67" t="s">
-        <v>109</v>
-      </c>
-      <c r="S8" s="70">
-        <v>10000</v>
-      </c>
-      <c r="T8" s="73" t="s">
-        <v>110</v>
-      </c>
-      <c r="U8" s="56"/>
-      <c r="V8" s="56"/>
-      <c r="W8" s="56"/>
-    </row>
-    <row r="9" spans="1:25" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A9" s="61"/>
-      <c r="B9" s="61"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="61"/>
-      <c r="E9" s="62"/>
-      <c r="F9" s="62"/>
-      <c r="G9" s="62"/>
-      <c r="H9" s="62"/>
-      <c r="I9" s="62"/>
-      <c r="J9" s="62"/>
-      <c r="K9" s="62"/>
-      <c r="L9" s="57"/>
-      <c r="M9" s="62"/>
-      <c r="N9" s="65"/>
-      <c r="O9" s="58" t="s">
-        <v>41</v>
-      </c>
-      <c r="P9" s="59">
-        <v>0.15</v>
-      </c>
-      <c r="Q9" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="R9" s="68"/>
-      <c r="S9" s="71"/>
-      <c r="T9" s="74"/>
-      <c r="U9" s="57"/>
-      <c r="V9" s="57"/>
-      <c r="W9" s="57"/>
-    </row>
-    <row r="10" spans="1:25" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A10" s="52" t="s">
-        <v>37</v>
-      </c>
-      <c r="B10" s="52" t="s">
-        <v>52</v>
-      </c>
-      <c r="C10" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="D10" s="52" t="s">
-        <v>36</v>
-      </c>
-      <c r="E10" s="60"/>
-      <c r="F10" s="60"/>
-      <c r="G10" s="60" t="s">
-        <v>36</v>
-      </c>
-      <c r="H10" s="60"/>
-      <c r="I10" s="60"/>
-      <c r="J10" s="60"/>
-      <c r="K10" s="60"/>
-      <c r="L10" s="52"/>
-      <c r="M10" s="60" t="s">
-        <v>55</v>
-      </c>
-      <c r="N10" s="63" t="s">
-        <v>79</v>
-      </c>
-      <c r="O10" s="54" t="s">
-        <v>41</v>
-      </c>
-      <c r="P10" s="55">
-        <v>0.15</v>
-      </c>
-      <c r="Q10" s="56" t="s">
-        <v>68</v>
-      </c>
-      <c r="R10" s="68"/>
-      <c r="S10" s="71"/>
-      <c r="T10" s="74"/>
-      <c r="U10" s="56"/>
-      <c r="V10" s="56"/>
-      <c r="W10" s="56"/>
-    </row>
-    <row r="11" spans="1:25" ht="85" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A11" s="62"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="62"/>
-      <c r="D11" s="62"/>
-      <c r="E11" s="62"/>
-      <c r="F11" s="62"/>
-      <c r="G11" s="62"/>
-      <c r="H11" s="62"/>
-      <c r="I11" s="62"/>
-      <c r="J11" s="62"/>
-      <c r="K11" s="62"/>
-      <c r="L11" s="62"/>
-      <c r="M11" s="62"/>
-      <c r="N11" s="66"/>
-      <c r="O11" s="58" t="s">
-        <v>43</v>
-      </c>
-      <c r="P11" s="59">
-        <v>0.15</v>
-      </c>
-      <c r="Q11" s="57" t="s">
-        <v>68</v>
-      </c>
-      <c r="R11" s="68"/>
-      <c r="S11" s="71"/>
-      <c r="T11" s="74"/>
-      <c r="U11" s="57"/>
-      <c r="V11" s="57"/>
-      <c r="W11" s="57"/>
-    </row>
-    <row r="12" spans="1:25" ht="61" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A12" s="38" t="s">
-        <v>42</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>48</v>
-      </c>
-      <c r="C12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="D12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="E12" s="38"/>
-      <c r="F12" s="38"/>
-      <c r="G12" s="38" t="s">
-        <v>36</v>
-      </c>
-      <c r="H12" s="38"/>
-      <c r="I12" s="38"/>
-      <c r="J12" s="38"/>
-      <c r="K12" s="38"/>
-      <c r="L12" s="20"/>
-      <c r="M12" s="38" t="s">
-        <v>39</v>
-      </c>
-      <c r="N12" s="40" t="s">
-        <v>88</v>
       </c>
       <c r="O12" s="17" t="s">
         <v>43</v>
       </c>
       <c r="P12" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="Q12" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="R12" s="68"/>
-      <c r="S12" s="71"/>
-      <c r="T12" s="74"/>
-      <c r="U12" s="15"/>
-      <c r="V12" s="15"/>
-      <c r="W12" s="15"/>
-    </row>
-    <row r="13" spans="1:25" ht="60" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="39"/>
-      <c r="B13" s="46"/>
-      <c r="C13" s="39"/>
-      <c r="D13" s="39"/>
-      <c r="E13" s="39"/>
-      <c r="F13" s="39"/>
-      <c r="G13" s="39"/>
-      <c r="H13" s="39"/>
-      <c r="I13" s="39"/>
-      <c r="J13" s="39"/>
-      <c r="K13" s="39"/>
+        <v>0.19</v>
+      </c>
+      <c r="Q12" s="88" t="s">
+        <v>118</v>
+      </c>
+      <c r="R12" s="62"/>
+      <c r="S12" s="59"/>
+      <c r="T12" s="37"/>
+      <c r="U12" s="91"/>
+      <c r="V12" s="93">
+        <v>0.11</v>
+      </c>
+      <c r="W12" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="X12" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y12" s="88" t="s">
+        <v>135</v>
+      </c>
+      <c r="Z12" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA12" s="82">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:29" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="65"/>
+      <c r="B13" s="75"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="65"/>
+      <c r="E13" s="65"/>
+      <c r="F13" s="65"/>
+      <c r="G13" s="65"/>
+      <c r="H13" s="65"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
+      <c r="K13" s="65"/>
       <c r="L13" s="21"/>
-      <c r="M13" s="39"/>
-      <c r="N13" s="41"/>
+      <c r="M13" s="65"/>
+      <c r="N13" s="73"/>
       <c r="O13" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P13" s="16">
-        <v>0.12</v>
-      </c>
-      <c r="Q13" s="15" t="s">
-        <v>60</v>
-      </c>
-      <c r="R13" s="68"/>
-      <c r="S13" s="71"/>
-      <c r="T13" s="74"/>
-      <c r="U13" s="15"/>
-      <c r="V13" s="15"/>
-      <c r="W13" s="15"/>
-    </row>
-    <row r="14" spans="1:25" ht="39" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="38" t="s">
+        <v>0.16</v>
+      </c>
+      <c r="Q13" s="88" t="s">
+        <v>111</v>
+      </c>
+      <c r="R13" s="62"/>
+      <c r="S13" s="59"/>
+      <c r="T13" s="37"/>
+      <c r="U13" s="91"/>
+      <c r="V13" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="W13" s="65"/>
+      <c r="X13" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y13" s="88" t="s">
+        <v>136</v>
+      </c>
+      <c r="Z13" s="65"/>
+      <c r="AA13" s="23">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="14" spans="1:29" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="64" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="38" t="s">
+      <c r="B14" s="64" t="s">
         <v>49</v>
       </c>
-      <c r="C14" s="38" t="s">
+      <c r="C14" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D14" s="38" t="s">
+      <c r="D14" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E14" s="38"/>
-      <c r="F14" s="38"/>
-      <c r="G14" s="38"/>
-      <c r="H14" s="38"/>
-      <c r="I14" s="38"/>
-      <c r="J14" s="38"/>
-      <c r="K14" s="38"/>
+      <c r="E14" s="64"/>
+      <c r="F14" s="64"/>
+      <c r="G14" s="64"/>
+      <c r="H14" s="64"/>
+      <c r="I14" s="64"/>
+      <c r="J14" s="64"/>
+      <c r="K14" s="64"/>
       <c r="L14" s="20"/>
-      <c r="M14" s="38" t="s">
+      <c r="M14" s="64" t="s">
         <v>46</v>
       </c>
-      <c r="N14" s="40" t="s">
-        <v>87</v>
+      <c r="N14" s="72" t="s">
+        <v>76</v>
       </c>
       <c r="O14" s="17" t="s">
         <v>43</v>
       </c>
       <c r="P14" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="Q14" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="R14" s="68"/>
-      <c r="S14" s="71"/>
-      <c r="T14" s="74"/>
-      <c r="U14" s="15"/>
-      <c r="V14" s="15"/>
-      <c r="W14" s="15"/>
-    </row>
-    <row r="15" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A15" s="39"/>
-      <c r="B15" s="39"/>
-      <c r="C15" s="39"/>
-      <c r="D15" s="39"/>
-      <c r="E15" s="39"/>
-      <c r="F15" s="39"/>
-      <c r="G15" s="39"/>
-      <c r="H15" s="39"/>
-      <c r="I15" s="39"/>
-      <c r="J15" s="39"/>
-      <c r="K15" s="39"/>
+        <v>0.19</v>
+      </c>
+      <c r="Q14" s="88" t="s">
+        <v>120</v>
+      </c>
+      <c r="R14" s="62"/>
+      <c r="S14" s="59"/>
+      <c r="T14" s="37"/>
+      <c r="U14" s="91"/>
+      <c r="V14" s="93">
+        <v>0.11</v>
+      </c>
+      <c r="W14" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="X14" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y14" s="88" t="s">
+        <v>140</v>
+      </c>
+      <c r="Z14" s="20"/>
+      <c r="AA14" s="23">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="65"/>
+      <c r="B15" s="65"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="65"/>
+      <c r="E15" s="65"/>
+      <c r="F15" s="65"/>
+      <c r="G15" s="65"/>
+      <c r="H15" s="65"/>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
+      <c r="K15" s="65"/>
       <c r="L15" s="21"/>
-      <c r="M15" s="39"/>
-      <c r="N15" s="41"/>
+      <c r="M15" s="65"/>
+      <c r="N15" s="73"/>
       <c r="O15" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P15" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="Q15" s="15" t="s">
-        <v>61</v>
-      </c>
-      <c r="R15" s="68"/>
-      <c r="S15" s="71"/>
-      <c r="T15" s="74"/>
-      <c r="U15" s="15"/>
-      <c r="V15" s="15"/>
-      <c r="W15" s="15"/>
-    </row>
-    <row r="16" spans="1:25" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="38" t="s">
+        <v>0.16</v>
+      </c>
+      <c r="Q15" s="88" t="s">
+        <v>119</v>
+      </c>
+      <c r="R15" s="62"/>
+      <c r="S15" s="59"/>
+      <c r="T15" s="37"/>
+      <c r="U15" s="91"/>
+      <c r="V15" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="W15" s="65"/>
+      <c r="X15" s="15" t="s">
+        <v>139</v>
+      </c>
+      <c r="Y15" s="88" t="s">
+        <v>141</v>
+      </c>
+      <c r="Z15" s="21"/>
+      <c r="AA15" s="23">
+        <v>-0.4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:29" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="64" t="s">
         <v>31</v>
       </c>
-      <c r="B16" s="38" t="s">
+      <c r="B16" s="64" t="s">
         <v>39</v>
       </c>
-      <c r="C16" s="38" t="s">
+      <c r="C16" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D16" s="38" t="s">
+      <c r="D16" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E16" s="38"/>
-      <c r="F16" s="38"/>
-      <c r="G16" s="38"/>
-      <c r="H16" s="38"/>
-      <c r="I16" s="38"/>
-      <c r="J16" s="38"/>
-      <c r="K16" s="38"/>
+      <c r="E16" s="64"/>
+      <c r="F16" s="64"/>
+      <c r="G16" s="64"/>
+      <c r="H16" s="64"/>
+      <c r="I16" s="64"/>
+      <c r="J16" s="64"/>
+      <c r="K16" s="64"/>
       <c r="L16" s="20"/>
-      <c r="M16" s="38" t="s">
+      <c r="M16" s="64" t="s">
         <v>54</v>
       </c>
-      <c r="N16" s="40" t="s">
-        <v>86</v>
+      <c r="N16" s="72" t="s">
+        <v>75</v>
       </c>
       <c r="O16" s="17" t="s">
         <v>43</v>
       </c>
       <c r="P16" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="Q16" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R16" s="68"/>
-      <c r="S16" s="71"/>
-      <c r="T16" s="74"/>
-      <c r="U16" s="15"/>
-      <c r="V16" s="15"/>
-      <c r="W16" s="15"/>
-    </row>
-    <row r="17" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A17" s="39"/>
-      <c r="B17" s="39"/>
-      <c r="C17" s="39"/>
-      <c r="D17" s="39"/>
-      <c r="E17" s="39"/>
-      <c r="F17" s="39"/>
-      <c r="G17" s="39"/>
-      <c r="H17" s="39"/>
-      <c r="I17" s="39"/>
-      <c r="J17" s="39"/>
-      <c r="K17" s="39"/>
+        <v>0.19</v>
+      </c>
+      <c r="Q16" s="88" t="s">
+        <v>121</v>
+      </c>
+      <c r="R16" s="62"/>
+      <c r="S16" s="59"/>
+      <c r="T16" s="37"/>
+      <c r="U16" s="91"/>
+      <c r="V16" s="93">
+        <v>0.11</v>
+      </c>
+      <c r="W16" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="X16" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y16" s="88" t="s">
+        <v>143</v>
+      </c>
+      <c r="Z16" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA16" s="23">
+        <v>-1</v>
+      </c>
+      <c r="AB16" s="104" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="17" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="65"/>
+      <c r="B17" s="65"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="65"/>
+      <c r="E17" s="65"/>
+      <c r="F17" s="65"/>
+      <c r="G17" s="65"/>
+      <c r="H17" s="65"/>
+      <c r="I17" s="65"/>
+      <c r="J17" s="65"/>
+      <c r="K17" s="65"/>
       <c r="L17" s="21"/>
-      <c r="M17" s="39"/>
-      <c r="N17" s="41"/>
+      <c r="M17" s="65"/>
+      <c r="N17" s="73"/>
       <c r="O17" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P17" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="Q17" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="R17" s="68"/>
-      <c r="S17" s="71"/>
-      <c r="T17" s="74"/>
-      <c r="U17" s="15"/>
-      <c r="V17" s="15"/>
-      <c r="W17" s="15"/>
-    </row>
-    <row r="18" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A18" s="38" t="s">
+        <v>0.16</v>
+      </c>
+      <c r="Q17" s="88" t="s">
+        <v>122</v>
+      </c>
+      <c r="R17" s="62"/>
+      <c r="S17" s="59"/>
+      <c r="T17" s="37"/>
+      <c r="U17" s="91"/>
+      <c r="V17" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="W17" s="65"/>
+      <c r="X17" s="15" t="s">
+        <v>54</v>
+      </c>
+      <c r="Y17" s="88" t="s">
+        <v>144</v>
+      </c>
+      <c r="Z17" s="65"/>
+      <c r="AA17" s="88">
+        <v>-1</v>
+      </c>
+      <c r="AB17" s="104"/>
+    </row>
+    <row r="18" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="64" t="s">
         <v>32</v>
       </c>
-      <c r="B18" s="38" t="s">
+      <c r="B18" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C18" s="38" t="s">
+      <c r="C18" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D18" s="38" t="s">
+      <c r="D18" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="38"/>
-      <c r="F18" s="38"/>
-      <c r="G18" s="38" t="s">
+      <c r="E18" s="64"/>
+      <c r="F18" s="64"/>
+      <c r="G18" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H18" s="38"/>
-      <c r="I18" s="38"/>
-      <c r="J18" s="38"/>
-      <c r="K18" s="38"/>
+      <c r="H18" s="64"/>
+      <c r="I18" s="64"/>
+      <c r="J18" s="64"/>
+      <c r="K18" s="64"/>
       <c r="L18" s="20"/>
-      <c r="M18" s="38" t="s">
+      <c r="M18" s="64" t="s">
         <v>45</v>
       </c>
-      <c r="N18" s="40" t="s">
-        <v>85</v>
+      <c r="N18" s="72" t="s">
+        <v>74</v>
       </c>
       <c r="O18" s="17" t="s">
         <v>43</v>
       </c>
       <c r="P18" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="Q18" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="R18" s="68"/>
-      <c r="S18" s="71"/>
-      <c r="T18" s="74"/>
-      <c r="U18" s="15"/>
-      <c r="V18" s="15"/>
-      <c r="W18" s="15"/>
-    </row>
-    <row r="19" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A19" s="44"/>
-      <c r="B19" s="44"/>
-      <c r="C19" s="39"/>
-      <c r="D19" s="39"/>
-      <c r="E19" s="39"/>
-      <c r="F19" s="39"/>
-      <c r="G19" s="39"/>
-      <c r="H19" s="39"/>
-      <c r="I19" s="39"/>
-      <c r="J19" s="39"/>
-      <c r="K19" s="39"/>
+        <v>0.19</v>
+      </c>
+      <c r="Q18" s="88" t="s">
+        <v>123</v>
+      </c>
+      <c r="R18" s="62"/>
+      <c r="S18" s="59"/>
+      <c r="T18" s="37"/>
+      <c r="U18" s="91"/>
+      <c r="V18" s="93">
+        <v>0.11</v>
+      </c>
+      <c r="W18" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="X18" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y18" s="88" t="s">
+        <v>145</v>
+      </c>
+      <c r="Z18" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA18" s="88">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="19" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="68"/>
+      <c r="B19" s="68"/>
+      <c r="C19" s="65"/>
+      <c r="D19" s="65"/>
+      <c r="E19" s="65"/>
+      <c r="F19" s="65"/>
+      <c r="G19" s="65"/>
+      <c r="H19" s="65"/>
+      <c r="I19" s="65"/>
+      <c r="J19" s="65"/>
+      <c r="K19" s="65"/>
       <c r="L19" s="21"/>
-      <c r="M19" s="39"/>
-      <c r="N19" s="41"/>
+      <c r="M19" s="65"/>
+      <c r="N19" s="73"/>
       <c r="O19" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P19" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="Q19" s="15" t="s">
-        <v>63</v>
-      </c>
-      <c r="R19" s="68"/>
-      <c r="S19" s="71"/>
-      <c r="T19" s="74"/>
-      <c r="U19" s="15"/>
-      <c r="V19" s="15"/>
-      <c r="W19" s="15"/>
-    </row>
-    <row r="20" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A20" s="38" t="s">
-        <v>78</v>
-      </c>
-      <c r="B20" s="38" t="s">
+        <v>0.16</v>
+      </c>
+      <c r="Q19" s="88" t="s">
+        <v>124</v>
+      </c>
+      <c r="R19" s="62"/>
+      <c r="S19" s="59"/>
+      <c r="T19" s="37"/>
+      <c r="U19" s="91"/>
+      <c r="V19" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="W19" s="65"/>
+      <c r="X19" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="Y19" s="88" t="s">
+        <v>146</v>
+      </c>
+      <c r="Z19" s="65"/>
+      <c r="AA19" s="82">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="20" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="64" t="s">
+        <v>67</v>
+      </c>
+      <c r="B20" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="C20" s="38" t="s">
+      <c r="C20" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D20" s="38" t="s">
+      <c r="D20" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E20" s="38"/>
-      <c r="F20" s="38"/>
-      <c r="G20" s="38" t="s">
+      <c r="E20" s="64"/>
+      <c r="F20" s="64"/>
+      <c r="G20" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H20" s="38"/>
-      <c r="I20" s="38"/>
-      <c r="J20" s="38"/>
-      <c r="K20" s="38"/>
+      <c r="H20" s="64"/>
+      <c r="I20" s="64"/>
+      <c r="J20" s="64"/>
+      <c r="K20" s="64"/>
       <c r="L20" s="20"/>
-      <c r="M20" s="38" t="s">
+      <c r="M20" s="64" t="s">
         <v>57</v>
       </c>
-      <c r="N20" s="40" t="s">
-        <v>84</v>
+      <c r="N20" s="72" t="s">
+        <v>73</v>
       </c>
       <c r="O20" s="17" t="s">
         <v>43</v>
       </c>
       <c r="P20" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="Q20" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="R20" s="68"/>
-      <c r="S20" s="71"/>
-      <c r="T20" s="74"/>
-      <c r="U20" s="15"/>
-      <c r="V20" s="15"/>
-      <c r="W20" s="15"/>
-    </row>
-    <row r="21" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="39"/>
-      <c r="B21" s="39"/>
-      <c r="C21" s="39"/>
-      <c r="D21" s="39"/>
-      <c r="E21" s="39"/>
-      <c r="F21" s="39"/>
-      <c r="G21" s="39"/>
-      <c r="H21" s="39"/>
-      <c r="I21" s="39"/>
-      <c r="J21" s="39"/>
-      <c r="K21" s="39"/>
+        <v>0.19</v>
+      </c>
+      <c r="Q20" s="88" t="s">
+        <v>125</v>
+      </c>
+      <c r="R20" s="62"/>
+      <c r="S20" s="59"/>
+      <c r="T20" s="37"/>
+      <c r="U20" s="91"/>
+      <c r="V20" s="93">
+        <v>0.11</v>
+      </c>
+      <c r="W20" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="X20" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y20" s="88" t="s">
+        <v>147</v>
+      </c>
+      <c r="Z20" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA20" s="88">
+        <v>-0.6</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="65"/>
+      <c r="B21" s="65"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="65"/>
+      <c r="E21" s="65"/>
+      <c r="F21" s="65"/>
+      <c r="G21" s="65"/>
+      <c r="H21" s="65"/>
+      <c r="I21" s="65"/>
+      <c r="J21" s="65"/>
+      <c r="K21" s="65"/>
       <c r="L21" s="21"/>
-      <c r="M21" s="39"/>
-      <c r="N21" s="41"/>
+      <c r="M21" s="65"/>
+      <c r="N21" s="73"/>
       <c r="O21" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P21" s="16">
-        <v>0.15</v>
-      </c>
-      <c r="Q21" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="R21" s="68"/>
-      <c r="S21" s="71"/>
-      <c r="T21" s="74"/>
-      <c r="U21" s="15"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="15"/>
-    </row>
-    <row r="22" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="38" t="s">
+        <v>0.16</v>
+      </c>
+      <c r="Q21" s="88" t="s">
+        <v>126</v>
+      </c>
+      <c r="R21" s="62"/>
+      <c r="S21" s="59"/>
+      <c r="T21" s="37"/>
+      <c r="U21" s="91"/>
+      <c r="V21" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="W21" s="65"/>
+      <c r="X21" s="15" t="s">
+        <v>57</v>
+      </c>
+      <c r="Y21" s="15" t="s">
+        <v>148</v>
+      </c>
+      <c r="Z21" s="65"/>
+      <c r="AA21" s="89">
+        <v>-0.7</v>
+      </c>
+    </row>
+    <row r="22" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="64" t="s">
         <v>33</v>
       </c>
-      <c r="B22" s="38" t="s">
+      <c r="B22" s="64" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="38" t="s">
+      <c r="C22" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D22" s="38" t="s">
+      <c r="D22" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E22" s="38"/>
-      <c r="F22" s="38" t="s">
+      <c r="E22" s="64"/>
+      <c r="F22" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G22" s="38"/>
-      <c r="H22" s="38"/>
-      <c r="I22" s="38"/>
-      <c r="J22" s="38" t="s">
+      <c r="G22" s="64"/>
+      <c r="H22" s="64"/>
+      <c r="I22" s="64"/>
+      <c r="J22" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="K22" s="38"/>
+      <c r="K22" s="64"/>
       <c r="L22" s="20"/>
-      <c r="M22" s="38" t="s">
+      <c r="M22" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="N22" s="40" t="s">
-        <v>83</v>
+      <c r="N22" s="72" t="s">
+        <v>72</v>
       </c>
       <c r="O22" s="17" t="s">
         <v>43</v>
       </c>
       <c r="P22" s="16">
-        <v>0.21</v>
-      </c>
-      <c r="Q22" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R22" s="68"/>
-      <c r="S22" s="71"/>
-      <c r="T22" s="74"/>
-      <c r="U22" s="15"/>
-      <c r="V22" s="15"/>
-      <c r="W22" s="15"/>
-    </row>
-    <row r="23" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A23" s="44"/>
-      <c r="B23" s="44"/>
-      <c r="C23" s="39"/>
-      <c r="D23" s="39"/>
-      <c r="E23" s="39"/>
-      <c r="F23" s="39"/>
-      <c r="G23" s="39"/>
-      <c r="H23" s="39"/>
-      <c r="I23" s="39"/>
-      <c r="J23" s="39"/>
-      <c r="K23" s="39"/>
+        <v>0.19</v>
+      </c>
+      <c r="Q22" s="88" t="s">
+        <v>127</v>
+      </c>
+      <c r="R22" s="62"/>
+      <c r="S22" s="59"/>
+      <c r="T22" s="37"/>
+      <c r="U22" s="91"/>
+      <c r="V22" s="93">
+        <v>0.11</v>
+      </c>
+      <c r="W22" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="X22" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y22" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z22" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA22" s="15">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="68"/>
+      <c r="B23" s="68"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="65"/>
+      <c r="E23" s="65"/>
+      <c r="F23" s="65"/>
+      <c r="G23" s="65"/>
+      <c r="H23" s="65"/>
+      <c r="I23" s="65"/>
+      <c r="J23" s="65"/>
+      <c r="K23" s="65"/>
       <c r="L23" s="21"/>
-      <c r="M23" s="39"/>
-      <c r="N23" s="41"/>
+      <c r="M23" s="65"/>
+      <c r="N23" s="73"/>
       <c r="O23" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P23" s="16">
-        <v>0.21</v>
-      </c>
-      <c r="Q23" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R23" s="69"/>
-      <c r="S23" s="72"/>
-      <c r="T23" s="75"/>
-      <c r="U23" s="15"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="15"/>
-    </row>
-    <row r="24" spans="1:23" ht="83" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A24" s="39"/>
-      <c r="B24" s="39"/>
+        <v>0.16</v>
+      </c>
+      <c r="Q23" s="88" t="s">
+        <v>128</v>
+      </c>
+      <c r="R23" s="63"/>
+      <c r="S23" s="60"/>
+      <c r="T23" s="38"/>
+      <c r="U23" s="92"/>
+      <c r="V23" s="94">
+        <v>0.09</v>
+      </c>
+      <c r="W23" s="65"/>
+      <c r="X23" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y23" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z23" s="65"/>
+      <c r="AA23" s="21">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:28" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="65"/>
+      <c r="B24" s="65"/>
       <c r="C24" s="18"/>
       <c r="D24" s="18"/>
       <c r="E24" s="18"/>
@@ -2847,197 +3549,269 @@
         <v>45</v>
       </c>
       <c r="N24" s="19" t="s">
-        <v>92</v>
+        <v>81</v>
       </c>
       <c r="O24" s="17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="P24" s="16">
-        <v>0.05</v>
+        <v>0.12</v>
       </c>
       <c r="Q24" s="15" t="s">
-        <v>93</v>
+        <v>129</v>
       </c>
       <c r="R24" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="S24" s="27">
+        <v>8000</v>
+      </c>
+      <c r="T24" s="27"/>
+      <c r="U24" s="15" t="s">
         <v>100</v>
       </c>
-      <c r="S24" s="47">
-        <v>8000</v>
-      </c>
-      <c r="T24" s="15" t="s">
-        <v>111</v>
-      </c>
-      <c r="U24" s="15"/>
-      <c r="V24" s="15"/>
-      <c r="W24" s="15"/>
-    </row>
-    <row r="25" spans="1:23" ht="138" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A25" s="38" t="s">
+      <c r="V24" s="16">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="W24" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X24" s="18" t="s">
+        <v>45</v>
+      </c>
+      <c r="Y24" s="15" t="s">
+        <v>151</v>
+      </c>
+      <c r="Z24" s="82" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA24" s="18">
+        <v>-0.9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:28" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="64" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="38" t="s">
+      <c r="B25" s="64" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="C25" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="D25" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="E25" s="38"/>
-      <c r="F25" s="38" t="s">
+      <c r="E25" s="64"/>
+      <c r="F25" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="G25" s="38"/>
-      <c r="H25" s="38"/>
-      <c r="I25" s="38"/>
-      <c r="J25" s="38" t="s">
+      <c r="G25" s="64"/>
+      <c r="H25" s="64"/>
+      <c r="I25" s="64"/>
+      <c r="J25" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="K25" s="38"/>
+      <c r="K25" s="64"/>
       <c r="L25" s="20"/>
-      <c r="M25" s="38" t="s">
+      <c r="M25" s="64" t="s">
         <v>50</v>
       </c>
-      <c r="N25" s="40" t="s">
-        <v>82</v>
+      <c r="N25" s="72" t="s">
+        <v>71</v>
       </c>
       <c r="O25" s="17" t="s">
         <v>43</v>
       </c>
       <c r="P25" s="16">
-        <v>0.21</v>
+        <v>0.19</v>
       </c>
       <c r="Q25" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R25" s="38" t="s">
-        <v>109</v>
-      </c>
-      <c r="S25" s="38">
+        <v>127</v>
+      </c>
+      <c r="R25" s="64" t="s">
+        <v>98</v>
+      </c>
+      <c r="S25" s="74">
         <v>10000</v>
       </c>
-      <c r="T25" s="38" t="s">
-        <v>110</v>
-      </c>
-      <c r="U25" s="15"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-    </row>
-    <row r="26" spans="1:23" ht="106" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A26" s="44"/>
-      <c r="B26" s="44"/>
-      <c r="C26" s="39"/>
-      <c r="D26" s="39"/>
-      <c r="E26" s="39"/>
-      <c r="F26" s="39"/>
-      <c r="G26" s="39"/>
-      <c r="H26" s="39"/>
-      <c r="I26" s="39"/>
-      <c r="J26" s="39"/>
-      <c r="K26" s="39"/>
+      <c r="T25" s="20"/>
+      <c r="U25" s="64" t="s">
+        <v>99</v>
+      </c>
+      <c r="V25" s="16">
+        <v>0.11</v>
+      </c>
+      <c r="W25" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="X25" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y25" s="15" t="s">
+        <v>149</v>
+      </c>
+      <c r="Z25" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA25" s="15">
+        <v>-0.2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:28" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="68"/>
+      <c r="B26" s="68"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="65"/>
+      <c r="E26" s="65"/>
+      <c r="F26" s="65"/>
+      <c r="G26" s="65"/>
+      <c r="H26" s="65"/>
+      <c r="I26" s="65"/>
+      <c r="J26" s="65"/>
+      <c r="K26" s="65"/>
       <c r="L26" s="21"/>
-      <c r="M26" s="39"/>
-      <c r="N26" s="41"/>
+      <c r="M26" s="65"/>
+      <c r="N26" s="73"/>
       <c r="O26" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P26" s="16">
-        <v>0.21</v>
+        <v>0.16</v>
       </c>
       <c r="Q26" s="15" t="s">
-        <v>65</v>
-      </c>
-      <c r="R26" s="39"/>
-      <c r="S26" s="39"/>
-      <c r="T26" s="39"/>
-      <c r="U26" s="15"/>
-      <c r="V26" s="15"/>
-      <c r="W26" s="15"/>
-    </row>
-    <row r="27" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A27" s="44"/>
-      <c r="B27" s="44"/>
-      <c r="C27" s="38"/>
-      <c r="D27" s="38"/>
-      <c r="E27" s="38"/>
-      <c r="F27" s="38"/>
-      <c r="G27" s="38" t="s">
+        <v>128</v>
+      </c>
+      <c r="R26" s="65"/>
+      <c r="S26" s="65"/>
+      <c r="T26" s="21"/>
+      <c r="U26" s="65"/>
+      <c r="V26" s="16">
+        <v>0.09</v>
+      </c>
+      <c r="W26" s="65"/>
+      <c r="X26" s="15" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y26" s="15" t="s">
+        <v>150</v>
+      </c>
+      <c r="Z26" s="65"/>
+      <c r="AA26" s="21">
+        <v>-0.3</v>
+      </c>
+    </row>
+    <row r="27" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="68"/>
+      <c r="B27" s="68"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="64"/>
+      <c r="E27" s="64"/>
+      <c r="F27" s="64"/>
+      <c r="G27" s="64" t="s">
         <v>36</v>
       </c>
-      <c r="H27" s="38"/>
-      <c r="I27" s="38"/>
-      <c r="J27" s="38"/>
-      <c r="K27" s="38"/>
+      <c r="H27" s="64"/>
+      <c r="I27" s="64"/>
+      <c r="J27" s="64"/>
+      <c r="K27" s="64"/>
       <c r="L27" s="20"/>
-      <c r="M27" s="38" t="s">
+      <c r="M27" s="64" t="s">
         <v>56</v>
       </c>
-      <c r="N27" s="40" t="s">
-        <v>81</v>
+      <c r="N27" s="72" t="s">
+        <v>70</v>
       </c>
       <c r="O27" s="17" t="s">
-        <v>69</v>
+        <v>58</v>
       </c>
       <c r="P27" s="16">
-        <v>0.23</v>
+        <v>0.26</v>
       </c>
       <c r="Q27" s="15" t="s">
-        <v>66</v>
+        <v>130</v>
       </c>
       <c r="R27" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="S27" s="47">
+        <v>89</v>
+      </c>
+      <c r="S27" s="27">
         <v>8000</v>
       </c>
-      <c r="T27" s="15" t="s">
-        <v>112</v>
-      </c>
-      <c r="U27" s="15"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-    </row>
-    <row r="28" spans="1:23" ht="67" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A28" s="44"/>
-      <c r="B28" s="44"/>
-      <c r="C28" s="39"/>
-      <c r="D28" s="39"/>
-      <c r="E28" s="39"/>
-      <c r="F28" s="39"/>
-      <c r="G28" s="39"/>
-      <c r="H28" s="39"/>
-      <c r="I28" s="39"/>
-      <c r="J28" s="39"/>
-      <c r="K28" s="39"/>
+      <c r="T27" s="27"/>
+      <c r="U27" s="15" t="s">
+        <v>101</v>
+      </c>
+      <c r="V27" s="16">
+        <v>0.15</v>
+      </c>
+      <c r="W27" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="X27" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y27" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="Z27" s="64" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA27" s="18">
+        <v>1.1000000000000001</v>
+      </c>
+    </row>
+    <row r="28" spans="1:28" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="68"/>
+      <c r="B28" s="68"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="65"/>
+      <c r="E28" s="65"/>
+      <c r="F28" s="65"/>
+      <c r="G28" s="65"/>
+      <c r="H28" s="65"/>
+      <c r="I28" s="65"/>
+      <c r="J28" s="65"/>
+      <c r="K28" s="65"/>
       <c r="L28" s="21"/>
-      <c r="M28" s="39"/>
-      <c r="N28" s="41"/>
+      <c r="M28" s="65"/>
+      <c r="N28" s="73"/>
       <c r="O28" s="17" t="s">
         <v>44</v>
       </c>
       <c r="P28" s="16">
-        <v>0.18</v>
+        <v>0.22</v>
       </c>
       <c r="Q28" s="15" t="s">
-        <v>67</v>
+        <v>131</v>
       </c>
       <c r="R28" s="15" t="s">
-        <v>113</v>
-      </c>
-      <c r="S28" s="47">
+        <v>102</v>
+      </c>
+      <c r="S28" s="27">
         <v>10000</v>
       </c>
-      <c r="T28" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="U28" s="15"/>
-      <c r="V28" s="15"/>
-      <c r="W28" s="15"/>
-    </row>
-    <row r="29" spans="1:23" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A29" s="39"/>
-      <c r="B29" s="39"/>
+      <c r="T28" s="27"/>
+      <c r="U28" s="15" t="s">
+        <v>103</v>
+      </c>
+      <c r="V28" s="16">
+        <v>0.12</v>
+      </c>
+      <c r="W28" s="65"/>
+      <c r="X28" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="Y28" s="15" t="s">
+        <v>153</v>
+      </c>
+      <c r="Z28" s="65"/>
+      <c r="AA28" s="15">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="29" spans="1:28" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="65"/>
+      <c r="B29" s="65"/>
       <c r="C29" s="18" t="s">
         <v>36</v>
       </c>
@@ -3058,34 +3832,41 @@
         <v>51</v>
       </c>
       <c r="N29" s="19" t="s">
-        <v>94</v>
+        <v>83</v>
       </c>
       <c r="O29" s="17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="P29" s="16">
         <v>0.75</v>
       </c>
       <c r="Q29" s="15" t="s">
-        <v>95</v>
+        <v>84</v>
       </c>
       <c r="R29" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="S29" s="15" t="s">
-        <v>101</v>
+        <v>90</v>
       </c>
       <c r="T29" s="15"/>
       <c r="U29" s="15"/>
       <c r="V29" s="15"/>
       <c r="W29" s="15"/>
-    </row>
-    <row r="30" spans="1:23" ht="90" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A30" s="42" t="s">
-        <v>96</v>
-      </c>
-      <c r="B30" s="38" t="s">
-        <v>97</v>
+      <c r="X29" s="15"/>
+      <c r="Y29" s="15"/>
+      <c r="Z29" s="15"/>
+      <c r="AA29" s="82"/>
+      <c r="AB29" s="105" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="30" spans="1:28" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="66" t="s">
+        <v>85</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>86</v>
       </c>
       <c r="C30" s="20" t="s">
         <v>36</v>
@@ -3105,33 +3886,49 @@
         <v>55</v>
       </c>
       <c r="N30" s="22" t="s">
-        <v>103</v>
+        <v>92</v>
       </c>
       <c r="O30" s="17" t="s">
         <v>41</v>
       </c>
       <c r="P30" s="16">
-        <v>0.1</v>
+        <v>0.16</v>
       </c>
       <c r="Q30" s="15" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="R30" s="15" t="s">
+        <v>93</v>
+      </c>
+      <c r="S30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="T30" s="15"/>
+      <c r="U30" s="15" t="s">
         <v>104</v>
       </c>
-      <c r="S30" s="15" t="s">
+      <c r="V30" s="16">
+        <v>0.03</v>
+      </c>
+      <c r="W30" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X30" s="15" t="s">
         <v>91</v>
       </c>
-      <c r="T30" s="15" t="s">
-        <v>115</v>
-      </c>
-      <c r="U30" s="15"/>
-      <c r="V30" s="15"/>
-      <c r="W30" s="15"/>
-    </row>
-    <row r="31" spans="1:23" ht="50" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A31" s="43"/>
-      <c r="B31" s="44"/>
+      <c r="Y30" s="15" t="s">
+        <v>155</v>
+      </c>
+      <c r="Z30" s="21" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA30" s="88" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="31" spans="1:28" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="67"/>
+      <c r="B31" s="68"/>
       <c r="C31" s="23"/>
       <c r="D31" s="23"/>
       <c r="E31" s="23"/>
@@ -3148,31 +3945,49 @@
         <v>50</v>
       </c>
       <c r="N31" s="17" t="s">
-        <v>108</v>
+        <v>97</v>
       </c>
       <c r="O31" s="17" t="s">
-        <v>91</v>
+        <v>80</v>
       </c>
       <c r="P31" s="16">
-        <v>0.21</v>
+        <v>0.33</v>
       </c>
       <c r="Q31" s="15" t="s">
-        <v>65</v>
+        <v>132</v>
       </c>
       <c r="R31" s="15" t="s">
-        <v>116</v>
+        <v>105</v>
       </c>
       <c r="S31" s="15" t="s">
-        <v>91</v>
-      </c>
-      <c r="T31" s="15" t="s">
-        <v>117</v>
-      </c>
-      <c r="U31" s="15"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-    </row>
-    <row r="32" spans="1:23" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>80</v>
+      </c>
+      <c r="T31" s="15"/>
+      <c r="U31" s="15" t="s">
+        <v>106</v>
+      </c>
+      <c r="V31" s="16">
+        <v>0.17</v>
+      </c>
+      <c r="W31" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="X31" s="23" t="s">
+        <v>50</v>
+      </c>
+      <c r="Y31" s="15" t="s">
+        <v>156</v>
+      </c>
+      <c r="Z31" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="AA31" s="82" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="32" spans="1:28" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="Z32" s="25"/>
+    </row>
     <row r="33" spans="11:13" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="34" spans="11:13" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="36" spans="11:13" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -3204,141 +4019,33 @@
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="R5:R7">
     <sortCondition ref="R5"/>
   </sortState>
-  <mergeCells count="160">
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="B8:B9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="B10:B11"/>
-    <mergeCell ref="C10:C11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="F10:F11"/>
-    <mergeCell ref="G10:G11"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="J10:J11"/>
-    <mergeCell ref="K10:K11"/>
-    <mergeCell ref="L10:L11"/>
-    <mergeCell ref="M10:M11"/>
-    <mergeCell ref="N10:N11"/>
-    <mergeCell ref="R8:R23"/>
-    <mergeCell ref="S8:S23"/>
-    <mergeCell ref="T8:T23"/>
-    <mergeCell ref="T25:T26"/>
-    <mergeCell ref="R25:R26"/>
-    <mergeCell ref="S25:S26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="B30:B31"/>
-    <mergeCell ref="N5:N6"/>
-    <mergeCell ref="A5:A7"/>
-    <mergeCell ref="M5:M6"/>
-    <mergeCell ref="C5:C6"/>
-    <mergeCell ref="D5:D6"/>
-    <mergeCell ref="E5:E6"/>
-    <mergeCell ref="F5:F6"/>
-    <mergeCell ref="G5:G6"/>
-    <mergeCell ref="H5:H6"/>
-    <mergeCell ref="I5:I6"/>
-    <mergeCell ref="J5:J6"/>
-    <mergeCell ref="K5:K6"/>
-    <mergeCell ref="L5:L6"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="A25:A29"/>
-    <mergeCell ref="B25:B29"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="C18:C19"/>
-    <mergeCell ref="N20:N21"/>
-    <mergeCell ref="M20:M21"/>
-    <mergeCell ref="B20:B21"/>
-    <mergeCell ref="C20:C21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="G20:G21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K20:K21"/>
-    <mergeCell ref="M18:M19"/>
-    <mergeCell ref="N18:N19"/>
-    <mergeCell ref="K18:K19"/>
-    <mergeCell ref="J18:J19"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="G18:G19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="N14:N15"/>
-    <mergeCell ref="N16:N17"/>
-    <mergeCell ref="M16:M17"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
-    <mergeCell ref="M14:M15"/>
-    <mergeCell ref="C12:C13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="F12:F13"/>
-    <mergeCell ref="G12:G13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="B14:B15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="G8:G9"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="J8:J9"/>
-    <mergeCell ref="K8:K9"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="C14:C15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="F14:F15"/>
-    <mergeCell ref="G14:G15"/>
-    <mergeCell ref="B16:B17"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="N12:N13"/>
-    <mergeCell ref="M12:M13"/>
-    <mergeCell ref="B12:B13"/>
-    <mergeCell ref="K12:K13"/>
-    <mergeCell ref="J12:J13"/>
-    <mergeCell ref="B1:W1"/>
-    <mergeCell ref="I2:W2"/>
-    <mergeCell ref="C2:D2"/>
-    <mergeCell ref="E2:F2"/>
-    <mergeCell ref="C3:D3"/>
-    <mergeCell ref="E3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:J3"/>
-    <mergeCell ref="G2:H2"/>
-    <mergeCell ref="B18:B19"/>
-    <mergeCell ref="N8:N9"/>
-    <mergeCell ref="M8:M9"/>
-    <mergeCell ref="C8:C9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="F8:F9"/>
-    <mergeCell ref="C22:C23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="E22:E23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="G22:G23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A22:A24"/>
-    <mergeCell ref="B22:B24"/>
+  <mergeCells count="184">
+    <mergeCell ref="W27:W28"/>
+    <mergeCell ref="Z27:Z28"/>
+    <mergeCell ref="W25:W26"/>
+    <mergeCell ref="Z25:Z26"/>
+    <mergeCell ref="AB16:AB17"/>
+    <mergeCell ref="Z20:Z21"/>
+    <mergeCell ref="Z16:Z17"/>
+    <mergeCell ref="Z18:Z19"/>
+    <mergeCell ref="Z22:Z23"/>
+    <mergeCell ref="F25:F26"/>
+    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="X5:X6"/>
+    <mergeCell ref="T5:T6"/>
+    <mergeCell ref="W5:W6"/>
+    <mergeCell ref="Z5:Z6"/>
+    <mergeCell ref="W8:W9"/>
+    <mergeCell ref="W10:W11"/>
+    <mergeCell ref="W12:W13"/>
+    <mergeCell ref="W14:W15"/>
+    <mergeCell ref="W16:W17"/>
+    <mergeCell ref="W18:W19"/>
+    <mergeCell ref="W20:W21"/>
+    <mergeCell ref="W22:W23"/>
+    <mergeCell ref="Z8:Z9"/>
+    <mergeCell ref="Z10:Z11"/>
+    <mergeCell ref="Z12:Z13"/>
     <mergeCell ref="H27:H28"/>
     <mergeCell ref="F27:F28"/>
     <mergeCell ref="E27:E28"/>
@@ -3363,8 +4070,140 @@
     <mergeCell ref="C25:C26"/>
     <mergeCell ref="D25:D26"/>
     <mergeCell ref="E25:E26"/>
-    <mergeCell ref="F25:F26"/>
-    <mergeCell ref="G25:G26"/>
+    <mergeCell ref="C22:C23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="G22:G23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A22:A24"/>
+    <mergeCell ref="B22:B24"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="N12:N13"/>
+    <mergeCell ref="M12:M13"/>
+    <mergeCell ref="B12:B13"/>
+    <mergeCell ref="K12:K13"/>
+    <mergeCell ref="J12:J13"/>
+    <mergeCell ref="B1:Y1"/>
+    <mergeCell ref="I2:Y2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:F2"/>
+    <mergeCell ref="C3:D3"/>
+    <mergeCell ref="E3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:J3"/>
+    <mergeCell ref="G2:H2"/>
+    <mergeCell ref="B18:B19"/>
+    <mergeCell ref="N8:N9"/>
+    <mergeCell ref="M8:M9"/>
+    <mergeCell ref="C8:C9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="F8:F9"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="C14:C15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="F14:F15"/>
+    <mergeCell ref="G14:G15"/>
+    <mergeCell ref="B16:B17"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="C12:C13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="F12:F13"/>
+    <mergeCell ref="G12:G13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="B14:B15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="G18:G19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="N14:N15"/>
+    <mergeCell ref="N16:N17"/>
+    <mergeCell ref="M16:M17"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K14:K15"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
+    <mergeCell ref="M14:M15"/>
+    <mergeCell ref="B20:B21"/>
+    <mergeCell ref="C20:C21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="G20:G21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="J20:J21"/>
+    <mergeCell ref="U8:U23"/>
+    <mergeCell ref="U25:U26"/>
+    <mergeCell ref="R25:R26"/>
+    <mergeCell ref="S25:S26"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="B30:B31"/>
+    <mergeCell ref="N5:N6"/>
+    <mergeCell ref="A5:A7"/>
+    <mergeCell ref="M5:M6"/>
+    <mergeCell ref="C5:C6"/>
+    <mergeCell ref="D5:D6"/>
+    <mergeCell ref="E5:E6"/>
+    <mergeCell ref="F5:F6"/>
+    <mergeCell ref="G5:G6"/>
+    <mergeCell ref="H5:H6"/>
+    <mergeCell ref="I5:I6"/>
+    <mergeCell ref="J5:J6"/>
+    <mergeCell ref="K5:K6"/>
+    <mergeCell ref="L5:L6"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="A25:A29"/>
+    <mergeCell ref="B25:B29"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="C18:C19"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="J10:J11"/>
+    <mergeCell ref="K10:K11"/>
+    <mergeCell ref="L10:L11"/>
+    <mergeCell ref="M10:M11"/>
+    <mergeCell ref="N10:N11"/>
+    <mergeCell ref="R8:R23"/>
+    <mergeCell ref="S8:S23"/>
+    <mergeCell ref="N20:N21"/>
+    <mergeCell ref="M20:M21"/>
+    <mergeCell ref="K20:K21"/>
+    <mergeCell ref="M18:M19"/>
+    <mergeCell ref="N18:N19"/>
+    <mergeCell ref="K18:K19"/>
+    <mergeCell ref="J18:J19"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="J8:J9"/>
+    <mergeCell ref="K8:K9"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="B8:B9"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="B10:B11"/>
+    <mergeCell ref="C10:C11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="F10:F11"/>
+    <mergeCell ref="G10:G11"/>
+    <mergeCell ref="G8:G9"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/DUAl-STRIDE.xlsx
+++ b/DUAl-STRIDE.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11113"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26130"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/chiaragobbi/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://univpm-my.sharepoint.com/personal/s1109495_studenti_univpm_it/Documents/Primo Anno/Primo semestre/Software Security and Blockchain/swsb-project/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A6B3E1A8-3907-CF4F-B3F6-D673E0C5A57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="4" documentId="8_{A6B3E1A8-3907-CF4F-B3F6-D673E0C5A57E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{EAA28FAE-5DF5-4A66-9FB0-A4CB77695782}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="500" windowWidth="28800" windowHeight="17500" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13896" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Policy Objectives" sheetId="2" r:id="rId1"/>
@@ -37,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="304" uniqueCount="154">
   <si>
     <t>Asset</t>
   </si>
@@ -663,9 +663,6 @@
     <t>9.600-18.000</t>
   </si>
   <si>
-    <t>CI DOBBIAMO RAGIONARE</t>
-  </si>
-  <si>
     <t>300-450</t>
   </si>
   <si>
@@ -676,7 +673,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="7" x14ac:knownFonts="1">
+  <fonts count="7">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1516,6 +1513,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1821,24 +1822,24 @@
       <selection activeCell="C34" sqref="C34"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
     <col min="1" max="1" width="15" style="3" customWidth="1"/>
-    <col min="2" max="2" width="10.83203125" style="3" customWidth="1"/>
+    <col min="2" max="2" width="10.796875" style="3" customWidth="1"/>
     <col min="3" max="7" width="6.5" style="3" customWidth="1"/>
-    <col min="8" max="8" width="6.6640625" style="3" customWidth="1"/>
+    <col min="8" max="8" width="6.69921875" style="3" customWidth="1"/>
     <col min="9" max="11" width="6.5" style="3" customWidth="1"/>
-    <col min="12" max="12" width="10.83203125" style="3"/>
+    <col min="12" max="12" width="10.796875" style="3"/>
     <col min="13" max="13" width="20" style="3" customWidth="1"/>
     <col min="14" max="15" width="10" style="3" customWidth="1"/>
     <col min="16" max="16" width="20" style="3" customWidth="1"/>
     <col min="17" max="17" width="10" style="3" customWidth="1"/>
-    <col min="18" max="18" width="10.83203125" style="3"/>
+    <col min="18" max="18" width="10.796875" style="3"/>
     <col min="19" max="21" width="10" style="3" customWidth="1"/>
-    <col min="22" max="16384" width="10.83203125" style="3"/>
+    <col min="22" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -1863,7 +1864,7 @@
       <c r="T1" s="57"/>
       <c r="U1" s="57"/>
     </row>
-    <row r="2" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -1892,7 +1893,7 @@
       <c r="T2" s="57"/>
       <c r="U2" s="57"/>
     </row>
-    <row r="3" spans="1:21" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:21" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -1921,7 +1922,7 @@
       <c r="T3" s="12"/>
       <c r="U3" s="12"/>
     </row>
-    <row r="5" spans="1:21" ht="22" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:21" ht="21">
       <c r="A5" s="13" t="s">
         <v>0</v>
       </c>
@@ -1941,7 +1942,7 @@
       </c>
       <c r="J5" s="62"/>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:21">
       <c r="A6" s="8"/>
       <c r="B6" s="9"/>
       <c r="C6" s="53"/>
@@ -1953,7 +1954,7 @@
       <c r="I6" s="64"/>
       <c r="J6" s="54"/>
     </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:21">
       <c r="A7" s="8"/>
       <c r="B7" s="9"/>
       <c r="C7" s="53"/>
@@ -1965,7 +1966,7 @@
       <c r="I7" s="64"/>
       <c r="J7" s="54"/>
     </row>
-    <row r="8" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:21">
       <c r="A8" s="8"/>
       <c r="B8" s="9"/>
       <c r="C8" s="53"/>
@@ -1977,7 +1978,7 @@
       <c r="I8" s="64"/>
       <c r="J8" s="54"/>
     </row>
-    <row r="9" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:21">
       <c r="A9" s="8"/>
       <c r="B9" s="9"/>
       <c r="C9" s="53"/>
@@ -1989,7 +1990,7 @@
       <c r="I9" s="64"/>
       <c r="J9" s="54"/>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:21">
       <c r="A10" s="8"/>
       <c r="B10" s="9"/>
       <c r="C10" s="53"/>
@@ -2001,7 +2002,7 @@
       <c r="I10" s="64"/>
       <c r="J10" s="54"/>
     </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:21">
       <c r="A11" s="8"/>
       <c r="B11" s="9"/>
       <c r="C11" s="53"/>
@@ -2013,7 +2014,7 @@
       <c r="I11" s="64"/>
       <c r="J11" s="54"/>
     </row>
-    <row r="12" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:21">
       <c r="A12" s="8"/>
       <c r="B12" s="9"/>
       <c r="C12" s="53"/>
@@ -2025,7 +2026,7 @@
       <c r="I12" s="64"/>
       <c r="J12" s="54"/>
     </row>
-    <row r="13" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:21">
       <c r="A13" s="8"/>
       <c r="B13" s="9"/>
       <c r="C13" s="53"/>
@@ -2037,7 +2038,7 @@
       <c r="I13" s="64"/>
       <c r="J13" s="54"/>
     </row>
-    <row r="14" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:21">
       <c r="A14" s="8"/>
       <c r="B14" s="9"/>
       <c r="C14" s="53"/>
@@ -2049,7 +2050,7 @@
       <c r="I14" s="64"/>
       <c r="J14" s="54"/>
     </row>
-    <row r="15" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:21">
       <c r="A15" s="8"/>
       <c r="B15" s="9"/>
       <c r="C15" s="53"/>
@@ -2061,7 +2062,7 @@
       <c r="I15" s="64"/>
       <c r="J15" s="54"/>
     </row>
-    <row r="16" spans="1:21" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:21">
       <c r="A16" s="8"/>
       <c r="B16" s="9"/>
       <c r="C16" s="53"/>
@@ -2073,7 +2074,7 @@
       <c r="I16" s="64"/>
       <c r="J16" s="54"/>
     </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:10">
       <c r="A17" s="8"/>
       <c r="B17" s="9"/>
       <c r="C17" s="53"/>
@@ -2085,7 +2086,7 @@
       <c r="I17" s="64"/>
       <c r="J17" s="54"/>
     </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:10">
       <c r="A18" s="8"/>
       <c r="B18" s="9"/>
       <c r="C18" s="53"/>
@@ -2097,7 +2098,7 @@
       <c r="I18" s="64"/>
       <c r="J18" s="54"/>
     </row>
-    <row r="19" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:10">
       <c r="A19" s="8"/>
       <c r="B19" s="9"/>
       <c r="C19" s="53"/>
@@ -2109,7 +2110,7 @@
       <c r="I19" s="64"/>
       <c r="J19" s="54"/>
     </row>
-    <row r="20" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:10">
       <c r="A20" s="8"/>
       <c r="B20" s="9"/>
       <c r="C20" s="53"/>
@@ -2121,7 +2122,7 @@
       <c r="I20" s="64"/>
       <c r="J20" s="54"/>
     </row>
-    <row r="21" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:10">
       <c r="A21" s="8"/>
       <c r="B21" s="9"/>
       <c r="C21" s="53"/>
@@ -2133,7 +2134,7 @@
       <c r="I21" s="64"/>
       <c r="J21" s="54"/>
     </row>
-    <row r="22" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:10">
       <c r="A22" s="8"/>
       <c r="B22" s="9"/>
       <c r="C22" s="53"/>
@@ -2145,7 +2146,7 @@
       <c r="I22" s="64"/>
       <c r="J22" s="54"/>
     </row>
-    <row r="23" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:10">
       <c r="A23" s="8"/>
       <c r="B23" s="9"/>
       <c r="C23" s="53"/>
@@ -2157,7 +2158,7 @@
       <c r="I23" s="64"/>
       <c r="J23" s="54"/>
     </row>
-    <row r="24" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:10">
       <c r="A24" s="8"/>
       <c r="B24" s="9"/>
       <c r="C24" s="53"/>
@@ -2169,7 +2170,7 @@
       <c r="I24" s="64"/>
       <c r="J24" s="54"/>
     </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:10">
       <c r="A25" s="8"/>
       <c r="B25" s="9"/>
       <c r="C25" s="53"/>
@@ -2243,28 +2244,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:AB42"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="75" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="AB21" sqref="AB21"/>
+    <sheetView tabSelected="1" zoomScale="50" zoomScaleNormal="50" workbookViewId="0">
+      <selection activeCell="AA7" sqref="AA7"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="10.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="10.796875" defaultRowHeight="15.6"/>
   <cols>
-    <col min="1" max="1" width="16.83203125" style="3" customWidth="1"/>
+    <col min="1" max="1" width="16.796875" style="3" customWidth="1"/>
     <col min="2" max="2" width="12.5" style="2" customWidth="1"/>
-    <col min="3" max="11" width="6.83203125" style="2" customWidth="1"/>
-    <col min="12" max="12" width="13.83203125" style="2" customWidth="1"/>
+    <col min="3" max="11" width="6.796875" style="2" customWidth="1"/>
+    <col min="12" max="12" width="13.796875" style="2" customWidth="1"/>
     <col min="13" max="14" width="33" style="3" customWidth="1"/>
     <col min="15" max="16" width="10" style="3" customWidth="1"/>
     <col min="17" max="17" width="20" style="3" customWidth="1"/>
     <col min="18" max="19" width="10" style="3" customWidth="1"/>
-    <col min="20" max="20" width="61.33203125" style="3" customWidth="1"/>
+    <col min="20" max="20" width="61.296875" style="3" customWidth="1"/>
     <col min="21" max="26" width="10" style="3" customWidth="1"/>
-    <col min="27" max="27" width="29.1640625" style="3" customWidth="1"/>
-    <col min="28" max="28" width="76.6640625" style="3" customWidth="1"/>
-    <col min="29" max="16384" width="10.83203125" style="3"/>
+    <col min="27" max="27" width="29.19921875" style="3" customWidth="1"/>
+    <col min="28" max="28" width="76.69921875" style="3" customWidth="1"/>
+    <col min="29" max="16384" width="10.796875" style="3"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:28" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:28" s="10" customFormat="1" ht="21">
       <c r="A1" s="1" t="s">
         <v>4</v>
       </c>
@@ -2294,7 +2295,7 @@
       <c r="Y1" s="3"/>
       <c r="Z1" s="3"/>
     </row>
-    <row r="2" spans="1:28" s="10" customFormat="1" ht="25" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:28" s="10" customFormat="1" ht="25.05" customHeight="1">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -2330,7 +2331,7 @@
       <c r="Y2" s="3"/>
       <c r="Z2" s="3"/>
     </row>
-    <row r="3" spans="1:28" s="10" customFormat="1" ht="22" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:28" s="10" customFormat="1" ht="21">
       <c r="A3" s="1" t="s">
         <v>7</v>
       </c>
@@ -2364,7 +2365,7 @@
       <c r="Y3" s="41"/>
       <c r="Z3" s="12"/>
     </row>
-    <row r="4" spans="1:28" ht="157" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:28" ht="157.05000000000001" customHeight="1">
       <c r="A4" s="5" t="s">
         <v>0</v>
       </c>
@@ -2448,7 +2449,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="5" spans="1:28" ht="72" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:28" ht="72" customHeight="1">
       <c r="A5" s="66" t="s">
         <v>29</v>
       </c>
@@ -2518,7 +2519,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="6" spans="1:28" ht="71" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:28" ht="70.95" customHeight="1">
       <c r="A6" s="80"/>
       <c r="B6" s="80"/>
       <c r="C6" s="67"/>
@@ -2567,7 +2568,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="7" spans="1:28" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:28" ht="85.05" customHeight="1">
       <c r="A7" s="67"/>
       <c r="B7" s="67"/>
       <c r="C7" s="18" t="s">
@@ -2636,7 +2637,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="8" spans="1:28" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:28" ht="85.05" customHeight="1">
       <c r="A8" s="86" t="s">
         <v>35</v>
       </c>
@@ -2702,7 +2703,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="9" spans="1:28" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:28" ht="85.05" customHeight="1">
       <c r="A9" s="85"/>
       <c r="B9" s="85"/>
       <c r="C9" s="85"/>
@@ -2744,7 +2745,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="10" spans="1:28" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:28" ht="85.05" customHeight="1">
       <c r="A10" s="83" t="s">
         <v>37</v>
       </c>
@@ -2804,7 +2805,7 @@
         <v>1.7</v>
       </c>
     </row>
-    <row r="11" spans="1:28" ht="85" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:28" ht="85.05" customHeight="1">
       <c r="A11" s="84"/>
       <c r="B11" s="84"/>
       <c r="C11" s="84"/>
@@ -2846,7 +2847,7 @@
         <v>1.3</v>
       </c>
     </row>
-    <row r="12" spans="1:28" ht="61" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:28" ht="61.05" customHeight="1">
       <c r="A12" s="66" t="s">
         <v>42</v>
       </c>
@@ -2906,7 +2907,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="13" spans="1:28" ht="60" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:28" ht="60" customHeight="1">
       <c r="A13" s="67"/>
       <c r="B13" s="70"/>
       <c r="C13" s="67"/>
@@ -2948,7 +2949,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="14" spans="1:28" ht="39" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:28" ht="39" customHeight="1">
       <c r="A14" s="66" t="s">
         <v>30</v>
       </c>
@@ -3004,7 +3005,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:28" ht="39.75" customHeight="1">
       <c r="A15" s="67"/>
       <c r="B15" s="67"/>
       <c r="C15" s="67"/>
@@ -3046,7 +3047,7 @@
         <v>-0.4</v>
       </c>
     </row>
-    <row r="16" spans="1:28" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:28" ht="39.75" customHeight="1">
       <c r="A16" s="66" t="s">
         <v>31</v>
       </c>
@@ -3105,7 +3106,7 @@
       </c>
       <c r="AA16" s="68"/>
     </row>
-    <row r="17" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:27" ht="40.5" customHeight="1">
       <c r="A17" s="67"/>
       <c r="B17" s="67"/>
       <c r="C17" s="67"/>
@@ -3148,7 +3149,7 @@
       </c>
       <c r="AA17" s="68"/>
     </row>
-    <row r="18" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:27" ht="40.5" customHeight="1">
       <c r="A18" s="66" t="s">
         <v>32</v>
       </c>
@@ -3208,7 +3209,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="19" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:27" ht="40.5" customHeight="1">
       <c r="A19" s="80"/>
       <c r="B19" s="80"/>
       <c r="C19" s="67"/>
@@ -3250,7 +3251,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="20" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:27" ht="40.5" customHeight="1">
       <c r="A20" s="66" t="s">
         <v>67</v>
       </c>
@@ -3310,7 +3311,7 @@
         <v>-0.6</v>
       </c>
     </row>
-    <row r="21" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:27" ht="40.5" customHeight="1">
       <c r="A21" s="67"/>
       <c r="B21" s="67"/>
       <c r="C21" s="67"/>
@@ -3352,7 +3353,7 @@
         <v>-0.7</v>
       </c>
     </row>
-    <row r="22" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:27" ht="40.5" customHeight="1">
       <c r="A22" s="66" t="s">
         <v>33</v>
       </c>
@@ -3414,7 +3415,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="23" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:27" ht="40.5" customHeight="1">
       <c r="A23" s="80"/>
       <c r="B23" s="80"/>
       <c r="C23" s="67"/>
@@ -3456,7 +3457,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="24" spans="1:27" ht="83" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:27" ht="82.95" customHeight="1">
       <c r="A24" s="67"/>
       <c r="B24" s="67"/>
       <c r="C24" s="18"/>
@@ -3514,7 +3515,7 @@
         <v>-0.9</v>
       </c>
     </row>
-    <row r="25" spans="1:27" ht="138" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:27" ht="138" customHeight="1">
       <c r="A25" s="66" t="s">
         <v>34</v>
       </c>
@@ -3582,7 +3583,7 @@
         <v>-0.2</v>
       </c>
     </row>
-    <row r="26" spans="1:27" ht="106" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:27" ht="106.05" customHeight="1">
       <c r="A26" s="80"/>
       <c r="B26" s="80"/>
       <c r="C26" s="67"/>
@@ -3624,7 +3625,7 @@
         <v>-0.3</v>
       </c>
     </row>
-    <row r="27" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:27" ht="90" customHeight="1">
       <c r="A27" s="80"/>
       <c r="B27" s="80"/>
       <c r="C27" s="66"/>
@@ -3682,7 +3683,7 @@
         <v>1.1000000000000001</v>
       </c>
     </row>
-    <row r="28" spans="1:27" ht="67" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:27" ht="67.05" customHeight="1">
       <c r="A28" s="80"/>
       <c r="B28" s="80"/>
       <c r="C28" s="67"/>
@@ -3730,7 +3731,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="29" spans="1:27" ht="40.5" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:27" ht="40.5" customHeight="1">
       <c r="A29" s="67"/>
       <c r="B29" s="67"/>
       <c r="C29" s="18" t="s">
@@ -3777,11 +3778,9 @@
       <c r="X29" s="15"/>
       <c r="Y29" s="15"/>
       <c r="Z29" s="39"/>
-      <c r="AA29" s="52" t="s">
-        <v>152</v>
-      </c>
-    </row>
-    <row r="30" spans="1:27" ht="90" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="AA29" s="52"/>
+    </row>
+    <row r="30" spans="1:27" ht="90" customHeight="1">
       <c r="A30" s="90" t="s">
         <v>85</v>
       </c>
@@ -3836,7 +3835,7 @@
         <v>90</v>
       </c>
       <c r="X30" s="15" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="Y30" s="21" t="s">
         <v>80</v>
@@ -3845,7 +3844,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="31" spans="1:27" ht="84" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:27" ht="103.2" customHeight="1">
       <c r="A31" s="91"/>
       <c r="B31" s="80"/>
       <c r="C31" s="23"/>
@@ -3894,7 +3893,7 @@
         <v>50</v>
       </c>
       <c r="X31" s="15" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="Y31" s="25" t="s">
         <v>80</v>
@@ -3903,30 +3902,30 @@
         <v>80</v>
       </c>
     </row>
-    <row r="32" spans="1:27" ht="41.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:27" ht="41.25" customHeight="1">
       <c r="Y32" s="24"/>
     </row>
-    <row r="33" spans="11:12" ht="41.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="34" spans="11:12" ht="35.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="36" spans="11:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2"/>
-    <row r="37" spans="11:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="33" spans="11:12" ht="41.25" customHeight="1"/>
+    <row r="34" spans="11:12" ht="35.25" customHeight="1"/>
+    <row r="36" spans="11:12" ht="65.25" customHeight="1"/>
+    <row r="37" spans="11:12" ht="65.25" customHeight="1">
       <c r="L37" s="3"/>
     </row>
-    <row r="38" spans="11:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="38" spans="11:12" ht="65.25" customHeight="1">
       <c r="L38" s="3"/>
     </row>
-    <row r="39" spans="11:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="39" spans="11:12" ht="65.25" customHeight="1">
       <c r="L39" s="3"/>
     </row>
-    <row r="40" spans="11:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="40" spans="11:12" ht="65.25" customHeight="1">
       <c r="K40" s="3"/>
       <c r="L40" s="3"/>
     </row>
-    <row r="41" spans="11:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="41" spans="11:12" ht="65.25" customHeight="1">
       <c r="K41" s="3"/>
       <c r="L41" s="3"/>
     </row>
-    <row r="42" spans="11:12" ht="65.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="42" spans="11:12" ht="65.25" customHeight="1">
       <c r="K42" s="3"/>
       <c r="L42" s="3"/>
     </row>
@@ -3966,6 +3965,8 @@
     <mergeCell ref="I8:I9"/>
     <mergeCell ref="J8:J9"/>
     <mergeCell ref="K8:K9"/>
+    <mergeCell ref="K16:K17"/>
+    <mergeCell ref="K14:K15"/>
     <mergeCell ref="T8:T23"/>
     <mergeCell ref="T25:T26"/>
     <mergeCell ref="Q25:Q26"/>
@@ -3990,6 +3991,10 @@
     <mergeCell ref="D18:D19"/>
     <mergeCell ref="C18:C19"/>
     <mergeCell ref="L14:L15"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="J16:J17"/>
+    <mergeCell ref="J14:J15"/>
     <mergeCell ref="B20:B21"/>
     <mergeCell ref="C20:C21"/>
     <mergeCell ref="D20:D21"/>
@@ -3999,17 +4004,6 @@
     <mergeCell ref="H20:H21"/>
     <mergeCell ref="I20:I21"/>
     <mergeCell ref="J20:J21"/>
-    <mergeCell ref="K16:K17"/>
-    <mergeCell ref="K14:K15"/>
-    <mergeCell ref="C16:C17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="F16:F17"/>
-    <mergeCell ref="G16:G17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="J16:J17"/>
-    <mergeCell ref="J14:J15"/>
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="C14:C15"/>
     <mergeCell ref="D14:D15"/>
@@ -4027,6 +4021,11 @@
     <mergeCell ref="B14:B15"/>
     <mergeCell ref="G18:G19"/>
     <mergeCell ref="F18:F19"/>
+    <mergeCell ref="C16:C17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="F16:F17"/>
+    <mergeCell ref="G16:G17"/>
     <mergeCell ref="A20:A21"/>
     <mergeCell ref="M12:M13"/>
     <mergeCell ref="L12:L13"/>
@@ -4120,6 +4119,6 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
+  <pageSetup paperSize="8" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>
 </worksheet>
 </file>